--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5651602" uniqueCount="11912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5772633" uniqueCount="12077">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -40467,6 +40467,507 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId3799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMP. EVAPORADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEMPO DECORRIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verdana_20_itaic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verdanai.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalizado!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPERANDO...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEITAS R1-R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCDEFGHIJKLMN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEITAS R5-R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEITAS R9-R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edição de Receita 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABCDEFGHIIJKLMN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modo
+final.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receita:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modo:
+func.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conservar autom.
+após receita:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modo
+final.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modo:
+func.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conservar autom.
+após receita:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iniciar Receita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receita &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo de recita em ZERO!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alarme Externo!</t>
   </si>
 </sst>
 </file>
@@ -42369,6 +42870,35 @@
         <v>46</v>
       </c>
     </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>11926</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11927</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="0" objects="0" scenarios="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">
@@ -50124,13 +50654,13 @@
         <v>11458</v>
       </c>
       <c r="G299" t="s">
-        <v>47</v>
+        <v>11458</v>
       </c>
       <c r="H299" t="s">
-        <v>47</v>
+        <v>11458</v>
       </c>
       <c r="I299" t="s">
-        <v>47</v>
+        <v>11458</v>
       </c>
     </row>
     <row r="300">
@@ -50150,13 +50680,13 @@
         <v>1265</v>
       </c>
       <c r="G300" t="s">
-        <v>47</v>
+        <v>1265</v>
       </c>
       <c r="H300" t="s">
-        <v>47</v>
+        <v>1265</v>
       </c>
       <c r="I300" t="s">
-        <v>47</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="301">
@@ -50176,13 +50706,13 @@
         <v>284</v>
       </c>
       <c r="G301" t="s">
-        <v>47</v>
+        <v>284</v>
       </c>
       <c r="H301" t="s">
-        <v>47</v>
+        <v>284</v>
       </c>
       <c r="I301" t="s">
-        <v>47</v>
+        <v>284</v>
       </c>
     </row>
     <row r="302">
@@ -50213,10 +50743,10 @@
     </row>
     <row r="303">
       <c r="B303" t="s">
-        <v>11437</v>
+        <v>11439</v>
       </c>
       <c r="C303" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="D303" t="s">
         <v>44</v>
@@ -50225,21 +50755,21 @@
         <v>45</v>
       </c>
       <c r="F303" t="s">
-        <v>390</v>
+        <v>1574</v>
       </c>
       <c r="G303" t="s">
-        <v>390</v>
+        <v>1574</v>
       </c>
       <c r="H303" t="s">
-        <v>390</v>
+        <v>1574</v>
       </c>
       <c r="I303" t="s">
-        <v>390</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="304">
       <c r="B304" t="s">
-        <v>11439</v>
+        <v>11440</v>
       </c>
       <c r="C304" t="s">
         <v>77</v>
@@ -50251,24 +50781,24 @@
         <v>45</v>
       </c>
       <c r="F304" t="s">
-        <v>1574</v>
+        <v>11458</v>
       </c>
       <c r="G304" t="s">
-        <v>47</v>
+        <v>11458</v>
       </c>
       <c r="H304" t="s">
-        <v>47</v>
+        <v>11458</v>
       </c>
       <c r="I304" t="s">
-        <v>47</v>
+        <v>11458</v>
       </c>
     </row>
     <row r="305">
       <c r="B305" t="s">
-        <v>11440</v>
+        <v>11442</v>
       </c>
       <c r="C305" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D305" t="s">
         <v>44</v>
@@ -50277,21 +50807,21 @@
         <v>45</v>
       </c>
       <c r="F305" t="s">
-        <v>11458</v>
+        <v>11461</v>
       </c>
       <c r="G305" t="s">
-        <v>11458</v>
+        <v>11461</v>
       </c>
       <c r="H305" t="s">
-        <v>11458</v>
+        <v>11461</v>
       </c>
       <c r="I305" t="s">
-        <v>11458</v>
+        <v>11461</v>
       </c>
     </row>
     <row r="306">
       <c r="B306" t="s">
-        <v>11442</v>
+        <v>11443</v>
       </c>
       <c r="C306" t="s">
         <v>101</v>
@@ -50303,21 +50833,21 @@
         <v>45</v>
       </c>
       <c r="F306" t="s">
-        <v>11461</v>
+        <v>11462</v>
       </c>
       <c r="G306" t="s">
-        <v>11461</v>
+        <v>11462</v>
       </c>
       <c r="H306" t="s">
-        <v>11461</v>
+        <v>11462</v>
       </c>
       <c r="I306" t="s">
-        <v>11461</v>
+        <v>11462</v>
       </c>
     </row>
     <row r="307">
       <c r="B307" t="s">
-        <v>11443</v>
+        <v>11445</v>
       </c>
       <c r="C307" t="s">
         <v>101</v>
@@ -50329,99 +50859,99 @@
         <v>45</v>
       </c>
       <c r="F307" t="s">
-        <v>11462</v>
+        <v>11463</v>
       </c>
       <c r="G307" t="s">
-        <v>11462</v>
+        <v>11463</v>
       </c>
       <c r="H307" t="s">
-        <v>11462</v>
+        <v>11463</v>
       </c>
       <c r="I307" t="s">
-        <v>11462</v>
+        <v>11463</v>
       </c>
     </row>
     <row r="308">
       <c r="B308" t="s">
-        <v>11445</v>
+        <v>11446</v>
       </c>
       <c r="C308" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D308" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E308" t="s">
         <v>45</v>
       </c>
       <c r="F308" t="s">
-        <v>11463</v>
+        <v>50</v>
       </c>
       <c r="G308" t="s">
-        <v>11463</v>
+        <v>50</v>
       </c>
       <c r="H308" t="s">
-        <v>11463</v>
+        <v>50</v>
       </c>
       <c r="I308" t="s">
-        <v>11463</v>
+        <v>50</v>
       </c>
     </row>
     <row r="309">
       <c r="B309" t="s">
-        <v>11446</v>
+        <v>11448</v>
       </c>
       <c r="C309" t="s">
         <v>77</v>
       </c>
       <c r="D309" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E309" t="s">
         <v>45</v>
       </c>
       <c r="F309" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
       <c r="G309" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
       <c r="H309" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
       <c r="I309" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
     </row>
     <row r="310">
       <c r="B310" t="s">
-        <v>11448</v>
+        <v>11449</v>
       </c>
       <c r="C310" t="s">
         <v>77</v>
       </c>
       <c r="D310" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E310" t="s">
         <v>45</v>
       </c>
       <c r="F310" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
       <c r="G310" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
       <c r="H310" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
       <c r="I310" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
     </row>
     <row r="311">
       <c r="B311" t="s">
-        <v>11449</v>
+        <v>11452</v>
       </c>
       <c r="C311" t="s">
         <v>77</v>
@@ -50447,33 +50977,33 @@
     </row>
     <row r="312">
       <c r="B312" t="s">
-        <v>11452</v>
+        <v>11467</v>
       </c>
       <c r="C312" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D312" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E312" t="s">
         <v>45</v>
       </c>
       <c r="F312" t="s">
-        <v>50</v>
+        <v>1574</v>
       </c>
       <c r="G312" t="s">
-        <v>50</v>
+        <v>1574</v>
       </c>
       <c r="H312" t="s">
-        <v>50</v>
+        <v>1574</v>
       </c>
       <c r="I312" t="s">
-        <v>50</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="313">
       <c r="B313" t="s">
-        <v>11467</v>
+        <v>11468</v>
       </c>
       <c r="C313" t="s">
         <v>78</v>
@@ -50499,7 +51029,7 @@
     </row>
     <row r="314">
       <c r="B314" t="s">
-        <v>11468</v>
+        <v>11469</v>
       </c>
       <c r="C314" t="s">
         <v>78</v>
@@ -50511,128 +51041,128 @@
         <v>45</v>
       </c>
       <c r="F314" t="s">
-        <v>1574</v>
+        <v>1294</v>
       </c>
       <c r="G314" t="s">
-        <v>1574</v>
+        <v>1294</v>
       </c>
       <c r="H314" t="s">
-        <v>1574</v>
+        <v>1294</v>
       </c>
       <c r="I314" t="s">
-        <v>1574</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="315">
       <c r="B315" t="s">
-        <v>11469</v>
+        <v>11488</v>
       </c>
       <c r="C315" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D315" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E315" t="s">
         <v>45</v>
       </c>
       <c r="F315" t="s">
-        <v>1294</v>
+        <v>50</v>
       </c>
       <c r="G315" t="s">
-        <v>1294</v>
+        <v>50</v>
       </c>
       <c r="H315" t="s">
-        <v>1294</v>
+        <v>50</v>
       </c>
       <c r="I315" t="s">
-        <v>1294</v>
+        <v>50</v>
       </c>
     </row>
     <row r="316">
       <c r="B316" t="s">
-        <v>11488</v>
+        <v>11489</v>
       </c>
       <c r="C316" t="s">
         <v>101</v>
       </c>
       <c r="D316" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E316" t="s">
         <v>45</v>
       </c>
       <c r="F316" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="G316" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="H316" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="I316" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="317">
       <c r="B317" t="s">
-        <v>11489</v>
+        <v>11500</v>
       </c>
       <c r="C317" t="s">
         <v>101</v>
       </c>
       <c r="D317" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E317" t="s">
         <v>45</v>
       </c>
       <c r="F317" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="G317" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="H317" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="I317" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
     </row>
     <row r="318">
       <c r="B318" t="s">
-        <v>11500</v>
+        <v>11501</v>
       </c>
       <c r="C318" t="s">
         <v>101</v>
       </c>
       <c r="D318" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E318" t="s">
         <v>45</v>
       </c>
       <c r="F318" t="s">
-        <v>50</v>
+        <v>11510</v>
       </c>
       <c r="G318" t="s">
-        <v>50</v>
+        <v>11510</v>
       </c>
       <c r="H318" t="s">
-        <v>50</v>
+        <v>11510</v>
       </c>
       <c r="I318" t="s">
-        <v>50</v>
+        <v>11510</v>
       </c>
     </row>
     <row r="319">
       <c r="B319" t="s">
-        <v>11501</v>
+        <v>11511</v>
       </c>
       <c r="C319" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D319" t="s">
         <v>44</v>
@@ -50641,21 +51171,21 @@
         <v>45</v>
       </c>
       <c r="F319" t="s">
-        <v>11510</v>
+        <v>11512</v>
       </c>
       <c r="G319" t="s">
-        <v>11510</v>
+        <v>11512</v>
       </c>
       <c r="H319" t="s">
-        <v>11510</v>
+        <v>11512</v>
       </c>
       <c r="I319" t="s">
-        <v>11510</v>
+        <v>11512</v>
       </c>
     </row>
     <row r="320">
       <c r="B320" t="s">
-        <v>11511</v>
+        <v>11513</v>
       </c>
       <c r="C320" t="s">
         <v>77</v>
@@ -50681,10 +51211,10 @@
     </row>
     <row r="321">
       <c r="B321" t="s">
-        <v>11513</v>
+        <v>11529</v>
       </c>
       <c r="C321" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D321" t="s">
         <v>44</v>
@@ -50693,21 +51223,21 @@
         <v>45</v>
       </c>
       <c r="F321" t="s">
-        <v>11512</v>
+        <v>1574</v>
       </c>
       <c r="G321" t="s">
-        <v>11512</v>
+        <v>1574</v>
       </c>
       <c r="H321" t="s">
-        <v>11512</v>
+        <v>1574</v>
       </c>
       <c r="I321" t="s">
-        <v>11512</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="322">
       <c r="B322" t="s">
-        <v>11529</v>
+        <v>11530</v>
       </c>
       <c r="C322" t="s">
         <v>78</v>
@@ -50733,7 +51263,7 @@
     </row>
     <row r="323">
       <c r="B323" t="s">
-        <v>11530</v>
+        <v>11531</v>
       </c>
       <c r="C323" t="s">
         <v>78</v>
@@ -50745,24 +51275,24 @@
         <v>45</v>
       </c>
       <c r="F323" t="s">
-        <v>1574</v>
+        <v>1294</v>
       </c>
       <c r="G323" t="s">
-        <v>1574</v>
+        <v>1294</v>
       </c>
       <c r="H323" t="s">
-        <v>1574</v>
+        <v>1294</v>
       </c>
       <c r="I323" t="s">
-        <v>1574</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="324">
       <c r="B324" t="s">
-        <v>11531</v>
+        <v>11532</v>
       </c>
       <c r="C324" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D324" t="s">
         <v>44</v>
@@ -50771,24 +51301,24 @@
         <v>45</v>
       </c>
       <c r="F324" t="s">
-        <v>1294</v>
+        <v>11458</v>
       </c>
       <c r="G324" t="s">
-        <v>1294</v>
+        <v>11458</v>
       </c>
       <c r="H324" t="s">
-        <v>1294</v>
+        <v>11458</v>
       </c>
       <c r="I324" t="s">
-        <v>1294</v>
+        <v>11458</v>
       </c>
     </row>
     <row r="325">
       <c r="B325" t="s">
-        <v>11532</v>
+        <v>11533</v>
       </c>
       <c r="C325" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D325" t="s">
         <v>44</v>
@@ -50797,21 +51327,21 @@
         <v>45</v>
       </c>
       <c r="F325" t="s">
-        <v>11458</v>
+        <v>11534</v>
       </c>
       <c r="G325" t="s">
-        <v>11458</v>
+        <v>11534</v>
       </c>
       <c r="H325" t="s">
-        <v>11458</v>
+        <v>11534</v>
       </c>
       <c r="I325" t="s">
-        <v>11458</v>
+        <v>11534</v>
       </c>
     </row>
     <row r="326">
       <c r="B326" t="s">
-        <v>11533</v>
+        <v>11535</v>
       </c>
       <c r="C326" t="s">
         <v>101</v>
@@ -50823,21 +51353,21 @@
         <v>45</v>
       </c>
       <c r="F326" t="s">
-        <v>11534</v>
+        <v>11462</v>
       </c>
       <c r="G326" t="s">
-        <v>11534</v>
+        <v>11462</v>
       </c>
       <c r="H326" t="s">
-        <v>11534</v>
+        <v>11462</v>
       </c>
       <c r="I326" t="s">
-        <v>11534</v>
+        <v>11462</v>
       </c>
     </row>
     <row r="327">
       <c r="B327" t="s">
-        <v>11535</v>
+        <v>11536</v>
       </c>
       <c r="C327" t="s">
         <v>101</v>
@@ -50849,388 +51379,388 @@
         <v>45</v>
       </c>
       <c r="F327" t="s">
-        <v>11462</v>
+        <v>11537</v>
       </c>
       <c r="G327" t="s">
-        <v>11462</v>
+        <v>11537</v>
       </c>
       <c r="H327" t="s">
-        <v>11462</v>
+        <v>11537</v>
       </c>
       <c r="I327" t="s">
-        <v>11462</v>
+        <v>11537</v>
       </c>
     </row>
     <row r="328">
       <c r="B328" t="s">
-        <v>11536</v>
+        <v>11538</v>
       </c>
       <c r="C328" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D328" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E328" t="s">
         <v>45</v>
       </c>
       <c r="F328" t="s">
-        <v>11537</v>
+        <v>50</v>
       </c>
       <c r="G328" t="s">
-        <v>11537</v>
+        <v>50</v>
       </c>
       <c r="H328" t="s">
-        <v>11537</v>
+        <v>50</v>
       </c>
       <c r="I328" t="s">
-        <v>11537</v>
+        <v>50</v>
       </c>
     </row>
     <row r="329">
       <c r="B329" t="s">
-        <v>11538</v>
+        <v>11539</v>
       </c>
       <c r="C329" t="s">
         <v>77</v>
       </c>
       <c r="D329" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E329" t="s">
         <v>45</v>
       </c>
       <c r="F329" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
       <c r="G329" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
       <c r="H329" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
       <c r="I329" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
     </row>
     <row r="330">
       <c r="B330" t="s">
-        <v>11539</v>
+        <v>11540</v>
       </c>
       <c r="C330" t="s">
         <v>77</v>
       </c>
       <c r="D330" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E330" t="s">
         <v>45</v>
       </c>
       <c r="F330" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
       <c r="G330" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
       <c r="H330" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
       <c r="I330" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
     </row>
     <row r="331">
       <c r="B331" t="s">
-        <v>11540</v>
+        <v>11541</v>
       </c>
       <c r="C331" t="s">
         <v>77</v>
       </c>
       <c r="D331" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E331" t="s">
         <v>45</v>
       </c>
       <c r="F331" t="s">
-        <v>50</v>
+        <v>11512</v>
       </c>
       <c r="G331" t="s">
-        <v>50</v>
+        <v>11512</v>
       </c>
       <c r="H331" t="s">
-        <v>50</v>
+        <v>11512</v>
       </c>
       <c r="I331" t="s">
-        <v>50</v>
+        <v>11512</v>
       </c>
     </row>
     <row r="332">
       <c r="B332" t="s">
-        <v>11541</v>
+        <v>11542</v>
       </c>
       <c r="C332" t="s">
         <v>77</v>
       </c>
       <c r="D332" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E332" t="s">
         <v>45</v>
       </c>
       <c r="F332" t="s">
-        <v>11512</v>
+        <v>50</v>
       </c>
       <c r="G332" t="s">
-        <v>11512</v>
+        <v>50</v>
       </c>
       <c r="H332" t="s">
-        <v>11512</v>
+        <v>50</v>
       </c>
       <c r="I332" t="s">
-        <v>11512</v>
+        <v>50</v>
       </c>
     </row>
     <row r="333">
       <c r="B333" t="s">
-        <v>11542</v>
+        <v>11543</v>
       </c>
       <c r="C333" t="s">
         <v>77</v>
       </c>
       <c r="D333" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E333" t="s">
         <v>45</v>
       </c>
       <c r="F333" t="s">
-        <v>50</v>
+        <v>11512</v>
       </c>
       <c r="G333" t="s">
-        <v>50</v>
+        <v>11512</v>
       </c>
       <c r="H333" t="s">
-        <v>50</v>
+        <v>11512</v>
       </c>
       <c r="I333" t="s">
-        <v>50</v>
+        <v>11512</v>
       </c>
     </row>
     <row r="334">
       <c r="B334" t="s">
-        <v>11543</v>
+        <v>11544</v>
       </c>
       <c r="C334" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D334" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E334" t="s">
         <v>45</v>
       </c>
       <c r="F334" t="s">
-        <v>11512</v>
+        <v>50</v>
       </c>
       <c r="G334" t="s">
-        <v>11512</v>
+        <v>50</v>
       </c>
       <c r="H334" t="s">
-        <v>11512</v>
+        <v>50</v>
       </c>
       <c r="I334" t="s">
-        <v>11512</v>
+        <v>50</v>
       </c>
     </row>
     <row r="335">
       <c r="B335" t="s">
-        <v>11544</v>
+        <v>11545</v>
       </c>
       <c r="C335" t="s">
         <v>101</v>
       </c>
       <c r="D335" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E335" t="s">
         <v>45</v>
       </c>
       <c r="F335" t="s">
-        <v>50</v>
+        <v>11510</v>
       </c>
       <c r="G335" t="s">
-        <v>50</v>
+        <v>11510</v>
       </c>
       <c r="H335" t="s">
-        <v>50</v>
+        <v>11510</v>
       </c>
       <c r="I335" t="s">
-        <v>50</v>
+        <v>11510</v>
       </c>
     </row>
     <row r="336">
       <c r="B336" t="s">
-        <v>11545</v>
+        <v>11546</v>
       </c>
       <c r="C336" t="s">
         <v>101</v>
       </c>
       <c r="D336" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E336" t="s">
         <v>45</v>
       </c>
       <c r="F336" t="s">
-        <v>11510</v>
+        <v>50</v>
       </c>
       <c r="G336" t="s">
-        <v>11510</v>
+        <v>50</v>
       </c>
       <c r="H336" t="s">
-        <v>11510</v>
+        <v>50</v>
       </c>
       <c r="I336" t="s">
-        <v>11510</v>
+        <v>50</v>
       </c>
     </row>
     <row r="337">
       <c r="B337" t="s">
-        <v>11546</v>
+        <v>11547</v>
       </c>
       <c r="C337" t="s">
         <v>101</v>
       </c>
       <c r="D337" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E337" t="s">
         <v>45</v>
       </c>
       <c r="F337" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="G337" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="H337" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="I337" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="338">
       <c r="B338" t="s">
-        <v>11547</v>
+        <v>11548</v>
       </c>
       <c r="C338" t="s">
         <v>101</v>
       </c>
       <c r="D338" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E338" t="s">
         <v>45</v>
       </c>
       <c r="F338" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="G338" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="H338" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="I338" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
     </row>
     <row r="339">
       <c r="B339" t="s">
-        <v>11548</v>
+        <v>11549</v>
       </c>
       <c r="C339" t="s">
         <v>101</v>
       </c>
       <c r="D339" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E339" t="s">
         <v>45</v>
       </c>
       <c r="F339" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="G339" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="H339" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="I339" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="340">
       <c r="B340" t="s">
-        <v>11549</v>
+        <v>11551</v>
       </c>
       <c r="C340" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="D340" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E340" t="s">
         <v>45</v>
       </c>
       <c r="F340" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
       <c r="G340" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
       <c r="H340" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
       <c r="I340" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
     </row>
     <row r="341">
       <c r="B341" t="s">
-        <v>11551</v>
+        <v>11552</v>
       </c>
       <c r="C341" t="s">
         <v>38</v>
       </c>
       <c r="D341" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E341" t="s">
         <v>45</v>
       </c>
       <c r="F341" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="G341" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="H341" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="I341" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="342">
       <c r="B342" t="s">
-        <v>11552</v>
+        <v>11554</v>
       </c>
       <c r="C342" t="s">
-        <v>38</v>
+        <v>11553</v>
       </c>
       <c r="D342" t="s">
         <v>44</v>
@@ -51239,76 +51769,76 @@
         <v>45</v>
       </c>
       <c r="F342" t="s">
-        <v>11509</v>
+        <v>11555</v>
       </c>
       <c r="G342" t="s">
-        <v>11509</v>
+        <v>11555</v>
       </c>
       <c r="H342" t="s">
-        <v>11509</v>
+        <v>11555</v>
       </c>
       <c r="I342" t="s">
-        <v>11509</v>
+        <v>11555</v>
       </c>
     </row>
     <row r="343">
       <c r="B343" t="s">
-        <v>11554</v>
+        <v>11556</v>
       </c>
       <c r="C343" t="s">
-        <v>11553</v>
+        <v>38</v>
       </c>
       <c r="D343" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E343" t="s">
         <v>45</v>
       </c>
       <c r="F343" t="s">
-        <v>11555</v>
+        <v>50</v>
       </c>
       <c r="G343" t="s">
-        <v>11555</v>
+        <v>50</v>
       </c>
       <c r="H343" t="s">
-        <v>11555</v>
+        <v>50</v>
       </c>
       <c r="I343" t="s">
-        <v>11555</v>
+        <v>50</v>
       </c>
     </row>
     <row r="344">
       <c r="B344" t="s">
-        <v>11556</v>
+        <v>11557</v>
       </c>
       <c r="C344" t="s">
         <v>38</v>
       </c>
       <c r="D344" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E344" t="s">
         <v>45</v>
       </c>
       <c r="F344" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="G344" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="H344" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="I344" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="345">
       <c r="B345" t="s">
-        <v>11557</v>
+        <v>11558</v>
       </c>
       <c r="C345" t="s">
-        <v>38</v>
+        <v>11553</v>
       </c>
       <c r="D345" t="s">
         <v>44</v>
@@ -51317,76 +51847,76 @@
         <v>45</v>
       </c>
       <c r="F345" t="s">
-        <v>11550</v>
+        <v>11559</v>
       </c>
       <c r="G345" t="s">
-        <v>11550</v>
+        <v>11559</v>
       </c>
       <c r="H345" t="s">
-        <v>11550</v>
+        <v>11559</v>
       </c>
       <c r="I345" t="s">
-        <v>11550</v>
+        <v>11559</v>
       </c>
     </row>
     <row r="346">
       <c r="B346" t="s">
-        <v>11558</v>
+        <v>11560</v>
       </c>
       <c r="C346" t="s">
-        <v>11553</v>
+        <v>38</v>
       </c>
       <c r="D346" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E346" t="s">
         <v>45</v>
       </c>
       <c r="F346" t="s">
-        <v>11559</v>
+        <v>50</v>
       </c>
       <c r="G346" t="s">
-        <v>11559</v>
+        <v>50</v>
       </c>
       <c r="H346" t="s">
-        <v>11559</v>
+        <v>50</v>
       </c>
       <c r="I346" t="s">
-        <v>11559</v>
+        <v>50</v>
       </c>
     </row>
     <row r="347">
       <c r="B347" t="s">
-        <v>11560</v>
+        <v>11561</v>
       </c>
       <c r="C347" t="s">
         <v>38</v>
       </c>
       <c r="D347" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E347" t="s">
         <v>45</v>
       </c>
       <c r="F347" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="G347" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="H347" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="I347" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="348">
       <c r="B348" t="s">
-        <v>11561</v>
+        <v>11562</v>
       </c>
       <c r="C348" t="s">
-        <v>38</v>
+        <v>11553</v>
       </c>
       <c r="D348" t="s">
         <v>44</v>
@@ -51395,76 +51925,76 @@
         <v>45</v>
       </c>
       <c r="F348" t="s">
-        <v>11509</v>
+        <v>11563</v>
       </c>
       <c r="G348" t="s">
-        <v>11509</v>
+        <v>11563</v>
       </c>
       <c r="H348" t="s">
-        <v>11509</v>
+        <v>11563</v>
       </c>
       <c r="I348" t="s">
-        <v>11509</v>
+        <v>11563</v>
       </c>
     </row>
     <row r="349">
       <c r="B349" t="s">
-        <v>11562</v>
+        <v>11564</v>
       </c>
       <c r="C349" t="s">
-        <v>11553</v>
+        <v>38</v>
       </c>
       <c r="D349" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E349" t="s">
         <v>45</v>
       </c>
       <c r="F349" t="s">
-        <v>11563</v>
+        <v>50</v>
       </c>
       <c r="G349" t="s">
-        <v>11563</v>
+        <v>50</v>
       </c>
       <c r="H349" t="s">
-        <v>11563</v>
+        <v>50</v>
       </c>
       <c r="I349" t="s">
-        <v>11563</v>
+        <v>50</v>
       </c>
     </row>
     <row r="350">
       <c r="B350" t="s">
-        <v>11564</v>
+        <v>11565</v>
       </c>
       <c r="C350" t="s">
         <v>38</v>
       </c>
       <c r="D350" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E350" t="s">
         <v>45</v>
       </c>
       <c r="F350" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="G350" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="H350" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="I350" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="351">
       <c r="B351" t="s">
-        <v>11565</v>
+        <v>11566</v>
       </c>
       <c r="C351" t="s">
-        <v>38</v>
+        <v>11553</v>
       </c>
       <c r="D351" t="s">
         <v>44</v>
@@ -51473,24 +52003,24 @@
         <v>45</v>
       </c>
       <c r="F351" t="s">
-        <v>11509</v>
+        <v>11567</v>
       </c>
       <c r="G351" t="s">
-        <v>11509</v>
+        <v>11567</v>
       </c>
       <c r="H351" t="s">
-        <v>11509</v>
+        <v>11567</v>
       </c>
       <c r="I351" t="s">
-        <v>11509</v>
+        <v>11567</v>
       </c>
     </row>
     <row r="352">
       <c r="B352" t="s">
-        <v>11566</v>
+        <v>11568</v>
       </c>
       <c r="C352" t="s">
-        <v>11553</v>
+        <v>101</v>
       </c>
       <c r="D352" t="s">
         <v>44</v>
@@ -51499,24 +52029,24 @@
         <v>45</v>
       </c>
       <c r="F352" t="s">
-        <v>11567</v>
+        <v>11569</v>
       </c>
       <c r="G352" t="s">
-        <v>11567</v>
+        <v>11569</v>
       </c>
       <c r="H352" t="s">
-        <v>11567</v>
+        <v>11569</v>
       </c>
       <c r="I352" t="s">
-        <v>11567</v>
+        <v>11569</v>
       </c>
     </row>
     <row r="353">
       <c r="B353" t="s">
-        <v>11568</v>
+        <v>11579</v>
       </c>
       <c r="C353" t="s">
-        <v>101</v>
+        <v>11553</v>
       </c>
       <c r="D353" t="s">
         <v>44</v>
@@ -51525,21 +52055,21 @@
         <v>45</v>
       </c>
       <c r="F353" t="s">
-        <v>11569</v>
+        <v>11580</v>
       </c>
       <c r="G353" t="s">
-        <v>11569</v>
+        <v>11580</v>
       </c>
       <c r="H353" t="s">
-        <v>11569</v>
+        <v>11580</v>
       </c>
       <c r="I353" t="s">
-        <v>11569</v>
+        <v>11580</v>
       </c>
     </row>
     <row r="354">
       <c r="B354" t="s">
-        <v>11579</v>
+        <v>11581</v>
       </c>
       <c r="C354" t="s">
         <v>11553</v>
@@ -51551,21 +52081,21 @@
         <v>45</v>
       </c>
       <c r="F354" t="s">
-        <v>11580</v>
+        <v>11582</v>
       </c>
       <c r="G354" t="s">
-        <v>11580</v>
+        <v>11582</v>
       </c>
       <c r="H354" t="s">
-        <v>11580</v>
+        <v>11582</v>
       </c>
       <c r="I354" t="s">
-        <v>11580</v>
+        <v>11582</v>
       </c>
     </row>
     <row r="355">
       <c r="B355" t="s">
-        <v>11581</v>
+        <v>11583</v>
       </c>
       <c r="C355" t="s">
         <v>11553</v>
@@ -51577,21 +52107,21 @@
         <v>45</v>
       </c>
       <c r="F355" t="s">
-        <v>11582</v>
+        <v>11584</v>
       </c>
       <c r="G355" t="s">
-        <v>11582</v>
+        <v>11584</v>
       </c>
       <c r="H355" t="s">
-        <v>11582</v>
+        <v>11584</v>
       </c>
       <c r="I355" t="s">
-        <v>11582</v>
+        <v>11584</v>
       </c>
     </row>
     <row r="356">
       <c r="B356" t="s">
-        <v>11583</v>
+        <v>11585</v>
       </c>
       <c r="C356" t="s">
         <v>11553</v>
@@ -51603,232 +52133,232 @@
         <v>45</v>
       </c>
       <c r="F356" t="s">
-        <v>11584</v>
+        <v>11586</v>
       </c>
       <c r="G356" t="s">
-        <v>11584</v>
+        <v>11586</v>
       </c>
       <c r="H356" t="s">
-        <v>11584</v>
+        <v>11586</v>
       </c>
       <c r="I356" t="s">
-        <v>11584</v>
+        <v>11586</v>
       </c>
     </row>
     <row r="357">
       <c r="B357" t="s">
-        <v>11585</v>
+        <v>11587</v>
       </c>
       <c r="C357" t="s">
-        <v>11553</v>
+        <v>38</v>
       </c>
       <c r="D357" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E357" t="s">
         <v>45</v>
       </c>
       <c r="F357" t="s">
-        <v>11586</v>
+        <v>50</v>
       </c>
       <c r="G357" t="s">
-        <v>11586</v>
+        <v>50</v>
       </c>
       <c r="H357" t="s">
-        <v>11586</v>
+        <v>50</v>
       </c>
       <c r="I357" t="s">
-        <v>11586</v>
+        <v>50</v>
       </c>
     </row>
     <row r="358">
       <c r="B358" t="s">
-        <v>11587</v>
+        <v>11588</v>
       </c>
       <c r="C358" t="s">
         <v>38</v>
       </c>
       <c r="D358" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E358" t="s">
         <v>45</v>
       </c>
       <c r="F358" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="G358" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="H358" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="I358" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="359">
       <c r="B359" t="s">
-        <v>11588</v>
+        <v>11589</v>
       </c>
       <c r="C359" t="s">
         <v>38</v>
       </c>
       <c r="D359" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E359" t="s">
         <v>45</v>
       </c>
       <c r="F359" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="G359" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="H359" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="I359" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
     </row>
     <row r="360">
       <c r="B360" t="s">
-        <v>11589</v>
+        <v>11590</v>
       </c>
       <c r="C360" t="s">
         <v>38</v>
       </c>
       <c r="D360" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E360" t="s">
         <v>45</v>
       </c>
       <c r="F360" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="G360" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="H360" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="I360" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="361">
       <c r="B361" t="s">
-        <v>11590</v>
+        <v>11591</v>
       </c>
       <c r="C361" t="s">
         <v>38</v>
       </c>
       <c r="D361" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E361" t="s">
         <v>45</v>
       </c>
       <c r="F361" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="G361" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="H361" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="I361" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
     </row>
     <row r="362">
       <c r="B362" t="s">
-        <v>11591</v>
+        <v>11592</v>
       </c>
       <c r="C362" t="s">
         <v>38</v>
       </c>
       <c r="D362" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E362" t="s">
         <v>45</v>
       </c>
       <c r="F362" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="G362" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="H362" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="I362" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="363">
       <c r="B363" t="s">
-        <v>11592</v>
+        <v>11593</v>
       </c>
       <c r="C363" t="s">
         <v>38</v>
       </c>
       <c r="D363" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E363" t="s">
         <v>45</v>
       </c>
       <c r="F363" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="G363" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="H363" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="I363" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
     </row>
     <row r="364">
       <c r="B364" t="s">
-        <v>11593</v>
+        <v>11594</v>
       </c>
       <c r="C364" t="s">
         <v>38</v>
       </c>
       <c r="D364" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E364" t="s">
         <v>45</v>
       </c>
       <c r="F364" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="G364" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="H364" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="I364" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="365">
       <c r="B365" t="s">
-        <v>11594</v>
+        <v>11595</v>
       </c>
       <c r="C365" t="s">
-        <v>38</v>
+        <v>11553</v>
       </c>
       <c r="D365" t="s">
         <v>44</v>
@@ -51837,21 +52367,21 @@
         <v>45</v>
       </c>
       <c r="F365" t="s">
-        <v>11509</v>
+        <v>11596</v>
       </c>
       <c r="G365" t="s">
-        <v>11509</v>
+        <v>11596</v>
       </c>
       <c r="H365" t="s">
-        <v>11509</v>
+        <v>11596</v>
       </c>
       <c r="I365" t="s">
-        <v>11509</v>
+        <v>11596</v>
       </c>
     </row>
     <row r="366">
       <c r="B366" t="s">
-        <v>11595</v>
+        <v>11597</v>
       </c>
       <c r="C366" t="s">
         <v>11553</v>
@@ -51863,21 +52393,21 @@
         <v>45</v>
       </c>
       <c r="F366" t="s">
-        <v>11596</v>
+        <v>11598</v>
       </c>
       <c r="G366" t="s">
-        <v>11596</v>
+        <v>11598</v>
       </c>
       <c r="H366" t="s">
-        <v>11596</v>
+        <v>11598</v>
       </c>
       <c r="I366" t="s">
-        <v>11596</v>
+        <v>11598</v>
       </c>
     </row>
     <row r="367">
       <c r="B367" t="s">
-        <v>11597</v>
+        <v>11599</v>
       </c>
       <c r="C367" t="s">
         <v>11553</v>
@@ -51889,180 +52419,180 @@
         <v>45</v>
       </c>
       <c r="F367" t="s">
-        <v>11598</v>
+        <v>11600</v>
       </c>
       <c r="G367" t="s">
-        <v>11598</v>
+        <v>11600</v>
       </c>
       <c r="H367" t="s">
-        <v>11598</v>
+        <v>11600</v>
       </c>
       <c r="I367" t="s">
-        <v>11598</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="368">
       <c r="B368" t="s">
-        <v>11599</v>
+        <v>11601</v>
       </c>
       <c r="C368" t="s">
-        <v>11553</v>
+        <v>38</v>
       </c>
       <c r="D368" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E368" t="s">
         <v>45</v>
       </c>
       <c r="F368" t="s">
-        <v>11600</v>
+        <v>50</v>
       </c>
       <c r="G368" t="s">
-        <v>11600</v>
+        <v>50</v>
       </c>
       <c r="H368" t="s">
-        <v>11600</v>
+        <v>50</v>
       </c>
       <c r="I368" t="s">
-        <v>11600</v>
+        <v>50</v>
       </c>
     </row>
     <row r="369">
       <c r="B369" t="s">
-        <v>11601</v>
+        <v>11602</v>
       </c>
       <c r="C369" t="s">
         <v>38</v>
       </c>
       <c r="D369" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E369" t="s">
         <v>45</v>
       </c>
       <c r="F369" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
       <c r="G369" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
       <c r="H369" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
       <c r="I369" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
     </row>
     <row r="370">
       <c r="B370" t="s">
-        <v>11602</v>
+        <v>11603</v>
       </c>
       <c r="C370" t="s">
         <v>38</v>
       </c>
       <c r="D370" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E370" t="s">
         <v>45</v>
       </c>
       <c r="F370" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
       <c r="G370" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
       <c r="H370" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
       <c r="I370" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
     </row>
     <row r="371">
       <c r="B371" t="s">
-        <v>11603</v>
+        <v>11604</v>
       </c>
       <c r="C371" t="s">
         <v>38</v>
       </c>
       <c r="D371" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E371" t="s">
         <v>45</v>
       </c>
       <c r="F371" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="G371" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="H371" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="I371" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="372">
       <c r="B372" t="s">
-        <v>11604</v>
+        <v>11605</v>
       </c>
       <c r="C372" t="s">
         <v>38</v>
       </c>
       <c r="D372" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E372" t="s">
         <v>45</v>
       </c>
       <c r="F372" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="G372" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="H372" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="I372" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
     </row>
     <row r="373">
       <c r="B373" t="s">
-        <v>11605</v>
+        <v>11606</v>
       </c>
       <c r="C373" t="s">
         <v>38</v>
       </c>
       <c r="D373" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E373" t="s">
         <v>45</v>
       </c>
       <c r="F373" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="G373" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="H373" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="I373" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="374">
       <c r="B374" t="s">
-        <v>11606</v>
+        <v>11622</v>
       </c>
       <c r="C374" t="s">
-        <v>38</v>
+        <v>11553</v>
       </c>
       <c r="D374" t="s">
         <v>44</v>
@@ -52071,21 +52601,21 @@
         <v>45</v>
       </c>
       <c r="F374" t="s">
-        <v>11509</v>
+        <v>11642</v>
       </c>
       <c r="G374" t="s">
-        <v>11509</v>
+        <v>11642</v>
       </c>
       <c r="H374" t="s">
-        <v>11509</v>
+        <v>11642</v>
       </c>
       <c r="I374" t="s">
-        <v>11509</v>
+        <v>11642</v>
       </c>
     </row>
     <row r="375">
       <c r="B375" t="s">
-        <v>11622</v>
+        <v>11623</v>
       </c>
       <c r="C375" t="s">
         <v>11553</v>
@@ -52097,21 +52627,21 @@
         <v>45</v>
       </c>
       <c r="F375" t="s">
-        <v>11642</v>
+        <v>11643</v>
       </c>
       <c r="G375" t="s">
-        <v>11642</v>
+        <v>11643</v>
       </c>
       <c r="H375" t="s">
-        <v>11642</v>
+        <v>11643</v>
       </c>
       <c r="I375" t="s">
-        <v>11642</v>
+        <v>11643</v>
       </c>
     </row>
     <row r="376">
       <c r="B376" t="s">
-        <v>11623</v>
+        <v>11624</v>
       </c>
       <c r="C376" t="s">
         <v>11553</v>
@@ -52123,21 +52653,21 @@
         <v>45</v>
       </c>
       <c r="F376" t="s">
-        <v>11643</v>
+        <v>11644</v>
       </c>
       <c r="G376" t="s">
-        <v>11643</v>
+        <v>11644</v>
       </c>
       <c r="H376" t="s">
-        <v>11643</v>
+        <v>11644</v>
       </c>
       <c r="I376" t="s">
-        <v>11643</v>
+        <v>11644</v>
       </c>
     </row>
     <row r="377">
       <c r="B377" t="s">
-        <v>11624</v>
+        <v>11625</v>
       </c>
       <c r="C377" t="s">
         <v>11553</v>
@@ -52149,21 +52679,21 @@
         <v>45</v>
       </c>
       <c r="F377" t="s">
-        <v>11644</v>
+        <v>11645</v>
       </c>
       <c r="G377" t="s">
-        <v>11644</v>
+        <v>11645</v>
       </c>
       <c r="H377" t="s">
-        <v>11644</v>
+        <v>11645</v>
       </c>
       <c r="I377" t="s">
-        <v>11644</v>
+        <v>11645</v>
       </c>
     </row>
     <row r="378">
       <c r="B378" t="s">
-        <v>11625</v>
+        <v>11626</v>
       </c>
       <c r="C378" t="s">
         <v>11553</v>
@@ -52175,284 +52705,284 @@
         <v>45</v>
       </c>
       <c r="F378" t="s">
-        <v>11645</v>
+        <v>11646</v>
       </c>
       <c r="G378" t="s">
-        <v>11645</v>
+        <v>11646</v>
       </c>
       <c r="H378" t="s">
-        <v>11645</v>
+        <v>11646</v>
       </c>
       <c r="I378" t="s">
-        <v>11645</v>
+        <v>11646</v>
       </c>
     </row>
     <row r="379">
       <c r="B379" t="s">
-        <v>11626</v>
+        <v>11627</v>
       </c>
       <c r="C379" t="s">
-        <v>11553</v>
+        <v>38</v>
       </c>
       <c r="D379" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E379" t="s">
         <v>45</v>
       </c>
       <c r="F379" t="s">
-        <v>11646</v>
+        <v>50</v>
       </c>
       <c r="G379" t="s">
-        <v>11646</v>
+        <v>50</v>
       </c>
       <c r="H379" t="s">
-        <v>11646</v>
+        <v>50</v>
       </c>
       <c r="I379" t="s">
-        <v>11646</v>
+        <v>50</v>
       </c>
     </row>
     <row r="380">
       <c r="B380" t="s">
-        <v>11627</v>
+        <v>11628</v>
       </c>
       <c r="C380" t="s">
         <v>38</v>
       </c>
       <c r="D380" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E380" t="s">
         <v>45</v>
       </c>
       <c r="F380" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="G380" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="H380" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="I380" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="381">
       <c r="B381" t="s">
-        <v>11628</v>
+        <v>11629</v>
       </c>
       <c r="C381" t="s">
         <v>38</v>
       </c>
       <c r="D381" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E381" t="s">
         <v>45</v>
       </c>
       <c r="F381" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
       <c r="G381" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
       <c r="H381" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
       <c r="I381" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
     </row>
     <row r="382">
       <c r="B382" t="s">
-        <v>11629</v>
+        <v>11630</v>
       </c>
       <c r="C382" t="s">
         <v>38</v>
       </c>
       <c r="D382" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E382" t="s">
         <v>45</v>
       </c>
       <c r="F382" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="G382" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="H382" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="I382" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="383">
       <c r="B383" t="s">
-        <v>11630</v>
+        <v>11631</v>
       </c>
       <c r="C383" t="s">
         <v>38</v>
       </c>
       <c r="D383" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E383" t="s">
         <v>45</v>
       </c>
       <c r="F383" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
       <c r="G383" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
       <c r="H383" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
       <c r="I383" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
     </row>
     <row r="384">
       <c r="B384" t="s">
-        <v>11631</v>
+        <v>11632</v>
       </c>
       <c r="C384" t="s">
         <v>38</v>
       </c>
       <c r="D384" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E384" t="s">
         <v>45</v>
       </c>
       <c r="F384" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="G384" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="H384" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="I384" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="385">
       <c r="B385" t="s">
-        <v>11632</v>
+        <v>11633</v>
       </c>
       <c r="C385" t="s">
         <v>38</v>
       </c>
       <c r="D385" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E385" t="s">
         <v>45</v>
       </c>
       <c r="F385" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
       <c r="G385" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
       <c r="H385" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
       <c r="I385" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
     </row>
     <row r="386">
       <c r="B386" t="s">
-        <v>11633</v>
+        <v>11634</v>
       </c>
       <c r="C386" t="s">
         <v>38</v>
       </c>
       <c r="D386" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E386" t="s">
         <v>45</v>
       </c>
       <c r="F386" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="G386" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="H386" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="I386" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="387">
       <c r="B387" t="s">
-        <v>11634</v>
+        <v>11635</v>
       </c>
       <c r="C387" t="s">
         <v>38</v>
       </c>
       <c r="D387" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E387" t="s">
         <v>45</v>
       </c>
       <c r="F387" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="G387" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="H387" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="I387" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
     </row>
     <row r="388">
       <c r="B388" t="s">
-        <v>11635</v>
+        <v>11636</v>
       </c>
       <c r="C388" t="s">
         <v>38</v>
       </c>
       <c r="D388" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E388" t="s">
         <v>45</v>
       </c>
       <c r="F388" t="s">
-        <v>50</v>
+        <v>11510</v>
       </c>
       <c r="G388" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="H388" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="I388" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="389">
       <c r="B389" t="s">
-        <v>11636</v>
+        <v>11647</v>
       </c>
       <c r="C389" t="s">
-        <v>38</v>
+        <v>11553</v>
       </c>
       <c r="D389" t="s">
         <v>44</v>
@@ -52461,47 +52991,47 @@
         <v>45</v>
       </c>
       <c r="F389" t="s">
-        <v>11510</v>
+        <v>11648</v>
       </c>
       <c r="G389" t="s">
-        <v>11550</v>
+        <v>11648</v>
       </c>
       <c r="H389" t="s">
-        <v>11550</v>
+        <v>11648</v>
       </c>
       <c r="I389" t="s">
-        <v>11550</v>
+        <v>11648</v>
       </c>
     </row>
     <row r="390">
       <c r="B390" t="s">
-        <v>11647</v>
+        <v>11655</v>
       </c>
       <c r="C390" t="s">
-        <v>11553</v>
+        <v>101</v>
       </c>
       <c r="D390" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E390" t="s">
         <v>45</v>
       </c>
       <c r="F390" t="s">
-        <v>11648</v>
+        <v>11656</v>
       </c>
       <c r="G390" t="s">
-        <v>11648</v>
+        <v>11656</v>
       </c>
       <c r="H390" t="s">
-        <v>11648</v>
+        <v>11656</v>
       </c>
       <c r="I390" t="s">
-        <v>11648</v>
+        <v>11656</v>
       </c>
     </row>
     <row r="391">
       <c r="B391" t="s">
-        <v>11655</v>
+        <v>11657</v>
       </c>
       <c r="C391" t="s">
         <v>101</v>
@@ -52513,21 +53043,21 @@
         <v>45</v>
       </c>
       <c r="F391" t="s">
-        <v>11656</v>
+        <v>11658</v>
       </c>
       <c r="G391" t="s">
-        <v>11656</v>
+        <v>11658</v>
       </c>
       <c r="H391" t="s">
-        <v>11656</v>
+        <v>11658</v>
       </c>
       <c r="I391" t="s">
-        <v>11656</v>
+        <v>11658</v>
       </c>
     </row>
     <row r="392">
       <c r="B392" t="s">
-        <v>11657</v>
+        <v>11659</v>
       </c>
       <c r="C392" t="s">
         <v>101</v>
@@ -52539,21 +53069,21 @@
         <v>45</v>
       </c>
       <c r="F392" t="s">
-        <v>11658</v>
+        <v>11660</v>
       </c>
       <c r="G392" t="s">
-        <v>11658</v>
+        <v>11660</v>
       </c>
       <c r="H392" t="s">
-        <v>11658</v>
+        <v>11660</v>
       </c>
       <c r="I392" t="s">
-        <v>11658</v>
+        <v>11660</v>
       </c>
     </row>
     <row r="393">
       <c r="B393" t="s">
-        <v>11659</v>
+        <v>11661</v>
       </c>
       <c r="C393" t="s">
         <v>101</v>
@@ -52565,21 +53095,21 @@
         <v>45</v>
       </c>
       <c r="F393" t="s">
-        <v>11660</v>
+        <v>11656</v>
       </c>
       <c r="G393" t="s">
-        <v>11660</v>
+        <v>11656</v>
       </c>
       <c r="H393" t="s">
-        <v>11660</v>
+        <v>11656</v>
       </c>
       <c r="I393" t="s">
-        <v>11660</v>
+        <v>11656</v>
       </c>
     </row>
     <row r="394">
       <c r="B394" t="s">
-        <v>11661</v>
+        <v>11662</v>
       </c>
       <c r="C394" t="s">
         <v>101</v>
@@ -52591,47 +53121,47 @@
         <v>45</v>
       </c>
       <c r="F394" t="s">
-        <v>11656</v>
+        <v>11658</v>
       </c>
       <c r="G394" t="s">
-        <v>11656</v>
+        <v>11658</v>
       </c>
       <c r="H394" t="s">
-        <v>11656</v>
+        <v>11658</v>
       </c>
       <c r="I394" t="s">
-        <v>11656</v>
+        <v>11658</v>
       </c>
     </row>
     <row r="395">
       <c r="B395" t="s">
-        <v>11662</v>
+        <v>11663</v>
       </c>
       <c r="C395" t="s">
-        <v>101</v>
+        <v>11553</v>
       </c>
       <c r="D395" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E395" t="s">
         <v>45</v>
       </c>
       <c r="F395" t="s">
-        <v>11658</v>
+        <v>11664</v>
       </c>
       <c r="G395" t="s">
-        <v>11658</v>
+        <v>11672</v>
       </c>
       <c r="H395" t="s">
-        <v>11658</v>
+        <v>11672</v>
       </c>
       <c r="I395" t="s">
-        <v>11658</v>
+        <v>11672</v>
       </c>
     </row>
     <row r="396">
       <c r="B396" t="s">
-        <v>11663</v>
+        <v>11665</v>
       </c>
       <c r="C396" t="s">
         <v>11553</v>
@@ -52643,180 +53173,180 @@
         <v>45</v>
       </c>
       <c r="F396" t="s">
-        <v>11664</v>
+        <v>11673</v>
       </c>
       <c r="G396" t="s">
-        <v>11672</v>
+        <v>11673</v>
       </c>
       <c r="H396" t="s">
-        <v>11672</v>
+        <v>11673</v>
       </c>
       <c r="I396" t="s">
-        <v>11672</v>
+        <v>11673</v>
       </c>
     </row>
     <row r="397">
       <c r="B397" t="s">
-        <v>11665</v>
+        <v>11667</v>
       </c>
       <c r="C397" t="s">
-        <v>11553</v>
+        <v>38</v>
       </c>
       <c r="D397" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E397" t="s">
         <v>45</v>
       </c>
       <c r="F397" t="s">
-        <v>11673</v>
+        <v>50</v>
       </c>
       <c r="G397" t="s">
-        <v>11673</v>
+        <v>50</v>
       </c>
       <c r="H397" t="s">
-        <v>11673</v>
+        <v>50</v>
       </c>
       <c r="I397" t="s">
-        <v>11673</v>
+        <v>50</v>
       </c>
     </row>
     <row r="398">
       <c r="B398" t="s">
-        <v>11667</v>
+        <v>11668</v>
       </c>
       <c r="C398" t="s">
         <v>38</v>
       </c>
       <c r="D398" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E398" t="s">
         <v>45</v>
       </c>
       <c r="F398" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
       <c r="G398" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
       <c r="H398" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
       <c r="I398" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
     </row>
     <row r="399">
       <c r="B399" t="s">
-        <v>11668</v>
+        <v>11669</v>
       </c>
       <c r="C399" t="s">
         <v>38</v>
       </c>
       <c r="D399" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E399" t="s">
         <v>45</v>
       </c>
       <c r="F399" t="s">
-        <v>516</v>
+        <v>50</v>
       </c>
       <c r="G399" t="s">
-        <v>516</v>
+        <v>50</v>
       </c>
       <c r="H399" t="s">
-        <v>516</v>
+        <v>50</v>
       </c>
       <c r="I399" t="s">
-        <v>516</v>
+        <v>50</v>
       </c>
     </row>
     <row r="400">
       <c r="B400" t="s">
-        <v>11669</v>
+        <v>11670</v>
       </c>
       <c r="C400" t="s">
         <v>38</v>
       </c>
       <c r="D400" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E400" t="s">
         <v>45</v>
       </c>
       <c r="F400" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
       <c r="G400" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
       <c r="H400" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
       <c r="I400" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
     </row>
     <row r="401">
       <c r="B401" t="s">
-        <v>11670</v>
+        <v>11680</v>
       </c>
       <c r="C401" t="s">
         <v>38</v>
       </c>
       <c r="D401" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E401" t="s">
         <v>45</v>
       </c>
       <c r="F401" t="s">
-        <v>516</v>
+        <v>50</v>
       </c>
       <c r="G401" t="s">
-        <v>516</v>
+        <v>50</v>
       </c>
       <c r="H401" t="s">
-        <v>516</v>
+        <v>50</v>
       </c>
       <c r="I401" t="s">
-        <v>516</v>
+        <v>50</v>
       </c>
     </row>
     <row r="402">
       <c r="B402" t="s">
-        <v>11680</v>
+        <v>11681</v>
       </c>
       <c r="C402" t="s">
         <v>38</v>
       </c>
       <c r="D402" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E402" t="s">
         <v>45</v>
       </c>
       <c r="F402" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
       <c r="G402" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
       <c r="H402" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
       <c r="I402" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
     </row>
     <row r="403">
       <c r="B403" t="s">
-        <v>11681</v>
+        <v>11682</v>
       </c>
       <c r="C403" t="s">
-        <v>38</v>
+        <v>11553</v>
       </c>
       <c r="D403" t="s">
         <v>44</v>
@@ -52825,21 +53355,21 @@
         <v>45</v>
       </c>
       <c r="F403" t="s">
-        <v>516</v>
+        <v>11683</v>
       </c>
       <c r="G403" t="s">
-        <v>516</v>
+        <v>11683</v>
       </c>
       <c r="H403" t="s">
-        <v>516</v>
+        <v>11683</v>
       </c>
       <c r="I403" t="s">
-        <v>516</v>
+        <v>11683</v>
       </c>
     </row>
     <row r="404">
       <c r="B404" t="s">
-        <v>11682</v>
+        <v>11684</v>
       </c>
       <c r="C404" t="s">
         <v>11553</v>
@@ -52851,180 +53381,180 @@
         <v>45</v>
       </c>
       <c r="F404" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="G404" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="H404" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
       <c r="I404" t="s">
-        <v>11683</v>
+        <v>11685</v>
       </c>
     </row>
     <row r="405">
       <c r="B405" t="s">
-        <v>11684</v>
+        <v>11686</v>
       </c>
       <c r="C405" t="s">
-        <v>11553</v>
+        <v>101</v>
       </c>
       <c r="D405" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E405" t="s">
         <v>45</v>
       </c>
       <c r="F405" t="s">
-        <v>11685</v>
+        <v>50</v>
       </c>
       <c r="G405" t="s">
-        <v>11685</v>
+        <v>50</v>
       </c>
       <c r="H405" t="s">
-        <v>11685</v>
+        <v>50</v>
       </c>
       <c r="I405" t="s">
-        <v>11685</v>
+        <v>50</v>
       </c>
     </row>
     <row r="406">
       <c r="B406" t="s">
-        <v>11686</v>
+        <v>11687</v>
       </c>
       <c r="C406" t="s">
         <v>101</v>
       </c>
       <c r="D406" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E406" t="s">
         <v>45</v>
       </c>
       <c r="F406" t="s">
-        <v>50</v>
+        <v>11688</v>
       </c>
       <c r="G406" t="s">
-        <v>50</v>
+        <v>11688</v>
       </c>
       <c r="H406" t="s">
-        <v>50</v>
+        <v>11688</v>
       </c>
       <c r="I406" t="s">
-        <v>50</v>
+        <v>11688</v>
       </c>
     </row>
     <row r="407">
       <c r="B407" t="s">
-        <v>11687</v>
+        <v>11689</v>
       </c>
       <c r="C407" t="s">
         <v>101</v>
       </c>
       <c r="D407" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E407" t="s">
         <v>45</v>
       </c>
       <c r="F407" t="s">
-        <v>11688</v>
+        <v>50</v>
       </c>
       <c r="G407" t="s">
-        <v>11688</v>
+        <v>50</v>
       </c>
       <c r="H407" t="s">
-        <v>11688</v>
+        <v>50</v>
       </c>
       <c r="I407" t="s">
-        <v>11688</v>
+        <v>50</v>
       </c>
     </row>
     <row r="408">
       <c r="B408" t="s">
-        <v>11689</v>
+        <v>11690</v>
       </c>
       <c r="C408" t="s">
         <v>101</v>
       </c>
       <c r="D408" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E408" t="s">
         <v>45</v>
       </c>
       <c r="F408" t="s">
-        <v>50</v>
+        <v>11688</v>
       </c>
       <c r="G408" t="s">
-        <v>50</v>
+        <v>11688</v>
       </c>
       <c r="H408" t="s">
-        <v>50</v>
+        <v>11688</v>
       </c>
       <c r="I408" t="s">
-        <v>50</v>
+        <v>11688</v>
       </c>
     </row>
     <row r="409">
       <c r="B409" t="s">
-        <v>11690</v>
+        <v>11691</v>
       </c>
       <c r="C409" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="D409" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E409" t="s">
         <v>45</v>
       </c>
       <c r="F409" t="s">
-        <v>11688</v>
+        <v>50</v>
       </c>
       <c r="G409" t="s">
-        <v>11688</v>
+        <v>50</v>
       </c>
       <c r="H409" t="s">
-        <v>11688</v>
+        <v>50</v>
       </c>
       <c r="I409" t="s">
-        <v>11688</v>
+        <v>50</v>
       </c>
     </row>
     <row r="410">
       <c r="B410" t="s">
-        <v>11691</v>
+        <v>11692</v>
       </c>
       <c r="C410" t="s">
         <v>38</v>
       </c>
       <c r="D410" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E410" t="s">
         <v>45</v>
       </c>
       <c r="F410" t="s">
-        <v>50</v>
+        <v>11693</v>
       </c>
       <c r="G410" t="s">
-        <v>50</v>
+        <v>11693</v>
       </c>
       <c r="H410" t="s">
-        <v>50</v>
+        <v>11693</v>
       </c>
       <c r="I410" t="s">
-        <v>50</v>
+        <v>11693</v>
       </c>
     </row>
     <row r="411">
       <c r="B411" t="s">
-        <v>11692</v>
+        <v>11694</v>
       </c>
       <c r="C411" t="s">
-        <v>38</v>
+        <v>11553</v>
       </c>
       <c r="D411" t="s">
         <v>44</v>
@@ -53033,21 +53563,21 @@
         <v>45</v>
       </c>
       <c r="F411" t="s">
-        <v>11693</v>
+        <v>11695</v>
       </c>
       <c r="G411" t="s">
-        <v>11693</v>
+        <v>11695</v>
       </c>
       <c r="H411" t="s">
-        <v>11693</v>
+        <v>11695</v>
       </c>
       <c r="I411" t="s">
-        <v>11693</v>
+        <v>11695</v>
       </c>
     </row>
     <row r="412">
       <c r="B412" t="s">
-        <v>11694</v>
+        <v>11696</v>
       </c>
       <c r="C412" t="s">
         <v>11553</v>
@@ -53059,21 +53589,21 @@
         <v>45</v>
       </c>
       <c r="F412" t="s">
-        <v>11695</v>
+        <v>11697</v>
       </c>
       <c r="G412" t="s">
-        <v>11695</v>
+        <v>11697</v>
       </c>
       <c r="H412" t="s">
-        <v>11695</v>
+        <v>11697</v>
       </c>
       <c r="I412" t="s">
-        <v>11695</v>
+        <v>11697</v>
       </c>
     </row>
     <row r="413">
       <c r="B413" t="s">
-        <v>11696</v>
+        <v>11716</v>
       </c>
       <c r="C413" t="s">
         <v>11553</v>
@@ -53085,21 +53615,21 @@
         <v>45</v>
       </c>
       <c r="F413" t="s">
-        <v>11697</v>
+        <v>11717</v>
       </c>
       <c r="G413" t="s">
-        <v>11697</v>
+        <v>11717</v>
       </c>
       <c r="H413" t="s">
-        <v>11697</v>
+        <v>11717</v>
       </c>
       <c r="I413" t="s">
-        <v>11697</v>
+        <v>11741</v>
       </c>
     </row>
     <row r="414">
       <c r="B414" t="s">
-        <v>11716</v>
+        <v>11718</v>
       </c>
       <c r="C414" t="s">
         <v>11553</v>
@@ -53111,21 +53641,21 @@
         <v>45</v>
       </c>
       <c r="F414" t="s">
-        <v>11717</v>
+        <v>11719</v>
       </c>
       <c r="G414" t="s">
-        <v>11717</v>
+        <v>11719</v>
       </c>
       <c r="H414" t="s">
-        <v>11717</v>
+        <v>11719</v>
       </c>
       <c r="I414" t="s">
-        <v>11741</v>
+        <v>11719</v>
       </c>
     </row>
     <row r="415">
       <c r="B415" t="s">
-        <v>11718</v>
+        <v>11720</v>
       </c>
       <c r="C415" t="s">
         <v>11553</v>
@@ -53137,21 +53667,21 @@
         <v>45</v>
       </c>
       <c r="F415" t="s">
-        <v>11719</v>
+        <v>11721</v>
       </c>
       <c r="G415" t="s">
-        <v>11719</v>
+        <v>11721</v>
       </c>
       <c r="H415" t="s">
-        <v>11719</v>
+        <v>11721</v>
       </c>
       <c r="I415" t="s">
-        <v>11719</v>
+        <v>11721</v>
       </c>
     </row>
     <row r="416">
       <c r="B416" t="s">
-        <v>11720</v>
+        <v>11722</v>
       </c>
       <c r="C416" t="s">
         <v>11553</v>
@@ -53163,21 +53693,21 @@
         <v>45</v>
       </c>
       <c r="F416" t="s">
-        <v>11721</v>
+        <v>11723</v>
       </c>
       <c r="G416" t="s">
-        <v>11721</v>
+        <v>11723</v>
       </c>
       <c r="H416" t="s">
-        <v>11721</v>
+        <v>11723</v>
       </c>
       <c r="I416" t="s">
-        <v>11721</v>
+        <v>11723</v>
       </c>
     </row>
     <row r="417">
       <c r="B417" t="s">
-        <v>11722</v>
+        <v>11724</v>
       </c>
       <c r="C417" t="s">
         <v>11553</v>
@@ -53189,21 +53719,21 @@
         <v>45</v>
       </c>
       <c r="F417" t="s">
-        <v>11723</v>
+        <v>11725</v>
       </c>
       <c r="G417" t="s">
-        <v>11723</v>
+        <v>11725</v>
       </c>
       <c r="H417" t="s">
-        <v>11723</v>
+        <v>11725</v>
       </c>
       <c r="I417" t="s">
-        <v>11723</v>
+        <v>11725</v>
       </c>
     </row>
     <row r="418">
       <c r="B418" t="s">
-        <v>11724</v>
+        <v>11726</v>
       </c>
       <c r="C418" t="s">
         <v>11553</v>
@@ -53215,180 +53745,180 @@
         <v>45</v>
       </c>
       <c r="F418" t="s">
-        <v>11725</v>
+        <v>11727</v>
       </c>
       <c r="G418" t="s">
-        <v>11725</v>
+        <v>11727</v>
       </c>
       <c r="H418" t="s">
-        <v>11725</v>
+        <v>11727</v>
       </c>
       <c r="I418" t="s">
-        <v>11725</v>
+        <v>11727</v>
       </c>
     </row>
     <row r="419">
       <c r="B419" t="s">
-        <v>11726</v>
+        <v>11728</v>
       </c>
       <c r="C419" t="s">
-        <v>11553</v>
+        <v>38</v>
       </c>
       <c r="D419" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E419" t="s">
         <v>45</v>
       </c>
       <c r="F419" t="s">
-        <v>11727</v>
+        <v>50</v>
       </c>
       <c r="G419" t="s">
-        <v>11727</v>
+        <v>50</v>
       </c>
       <c r="H419" t="s">
-        <v>11727</v>
+        <v>50</v>
       </c>
       <c r="I419" t="s">
-        <v>11727</v>
+        <v>50</v>
       </c>
     </row>
     <row r="420">
       <c r="B420" t="s">
-        <v>11728</v>
+        <v>11729</v>
       </c>
       <c r="C420" t="s">
         <v>38</v>
       </c>
       <c r="D420" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E420" t="s">
         <v>45</v>
       </c>
       <c r="F420" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
       <c r="G420" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
       <c r="H420" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
       <c r="I420" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
     </row>
     <row r="421">
       <c r="B421" t="s">
-        <v>11729</v>
+        <v>11730</v>
       </c>
       <c r="C421" t="s">
         <v>38</v>
       </c>
       <c r="D421" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E421" t="s">
         <v>45</v>
       </c>
       <c r="F421" t="s">
-        <v>516</v>
+        <v>50</v>
       </c>
       <c r="G421" t="s">
-        <v>516</v>
+        <v>50</v>
       </c>
       <c r="H421" t="s">
-        <v>516</v>
+        <v>50</v>
       </c>
       <c r="I421" t="s">
-        <v>516</v>
+        <v>50</v>
       </c>
     </row>
     <row r="422">
       <c r="B422" t="s">
-        <v>11730</v>
+        <v>11731</v>
       </c>
       <c r="C422" t="s">
         <v>38</v>
       </c>
       <c r="D422" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E422" t="s">
         <v>45</v>
       </c>
       <c r="F422" t="s">
-        <v>50</v>
+        <v>11693</v>
       </c>
       <c r="G422" t="s">
-        <v>50</v>
+        <v>11693</v>
       </c>
       <c r="H422" t="s">
-        <v>50</v>
+        <v>11693</v>
       </c>
       <c r="I422" t="s">
-        <v>50</v>
+        <v>11693</v>
       </c>
     </row>
     <row r="423">
       <c r="B423" t="s">
-        <v>11731</v>
+        <v>11732</v>
       </c>
       <c r="C423" t="s">
         <v>38</v>
       </c>
       <c r="D423" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E423" t="s">
         <v>45</v>
       </c>
       <c r="F423" t="s">
-        <v>11693</v>
+        <v>50</v>
       </c>
       <c r="G423" t="s">
-        <v>11693</v>
+        <v>50</v>
       </c>
       <c r="H423" t="s">
-        <v>11693</v>
+        <v>50</v>
       </c>
       <c r="I423" t="s">
-        <v>11693</v>
+        <v>50</v>
       </c>
     </row>
     <row r="424">
       <c r="B424" t="s">
-        <v>11732</v>
+        <v>11733</v>
       </c>
       <c r="C424" t="s">
         <v>38</v>
       </c>
       <c r="D424" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E424" t="s">
         <v>45</v>
       </c>
       <c r="F424" t="s">
-        <v>50</v>
+        <v>11693</v>
       </c>
       <c r="G424" t="s">
-        <v>50</v>
+        <v>11693</v>
       </c>
       <c r="H424" t="s">
-        <v>50</v>
+        <v>11693</v>
       </c>
       <c r="I424" t="s">
-        <v>50</v>
+        <v>11693</v>
       </c>
     </row>
     <row r="425">
       <c r="B425" t="s">
-        <v>11733</v>
+        <v>11758</v>
       </c>
       <c r="C425" t="s">
-        <v>38</v>
+        <v>11553</v>
       </c>
       <c r="D425" t="s">
         <v>44</v>
@@ -53397,21 +53927,21 @@
         <v>45</v>
       </c>
       <c r="F425" t="s">
-        <v>11693</v>
+        <v>11759</v>
       </c>
       <c r="G425" t="s">
-        <v>11693</v>
+        <v>11759</v>
       </c>
       <c r="H425" t="s">
-        <v>11693</v>
+        <v>11759</v>
       </c>
       <c r="I425" t="s">
-        <v>11693</v>
+        <v>11759</v>
       </c>
     </row>
     <row r="426">
       <c r="B426" t="s">
-        <v>11758</v>
+        <v>11760</v>
       </c>
       <c r="C426" t="s">
         <v>11553</v>
@@ -53423,21 +53953,21 @@
         <v>45</v>
       </c>
       <c r="F426" t="s">
-        <v>11759</v>
+        <v>11761</v>
       </c>
       <c r="G426" t="s">
-        <v>11759</v>
+        <v>11761</v>
       </c>
       <c r="H426" t="s">
-        <v>11759</v>
+        <v>11761</v>
       </c>
       <c r="I426" t="s">
-        <v>11759</v>
+        <v>11761</v>
       </c>
     </row>
     <row r="427">
       <c r="B427" t="s">
-        <v>11760</v>
+        <v>11762</v>
       </c>
       <c r="C427" t="s">
         <v>11553</v>
@@ -53449,21 +53979,21 @@
         <v>45</v>
       </c>
       <c r="F427" t="s">
-        <v>11761</v>
+        <v>11763</v>
       </c>
       <c r="G427" t="s">
-        <v>11761</v>
+        <v>11763</v>
       </c>
       <c r="H427" t="s">
-        <v>11761</v>
+        <v>11763</v>
       </c>
       <c r="I427" t="s">
-        <v>11761</v>
+        <v>11763</v>
       </c>
     </row>
     <row r="428">
       <c r="B428" t="s">
-        <v>11762</v>
+        <v>11764</v>
       </c>
       <c r="C428" t="s">
         <v>11553</v>
@@ -53475,21 +54005,21 @@
         <v>45</v>
       </c>
       <c r="F428" t="s">
-        <v>11763</v>
+        <v>11765</v>
       </c>
       <c r="G428" t="s">
-        <v>11763</v>
+        <v>11765</v>
       </c>
       <c r="H428" t="s">
-        <v>11763</v>
+        <v>11765</v>
       </c>
       <c r="I428" t="s">
-        <v>11763</v>
+        <v>11765</v>
       </c>
     </row>
     <row r="429">
       <c r="B429" t="s">
-        <v>11764</v>
+        <v>11766</v>
       </c>
       <c r="C429" t="s">
         <v>11553</v>
@@ -53501,21 +54031,21 @@
         <v>45</v>
       </c>
       <c r="F429" t="s">
-        <v>11765</v>
+        <v>11767</v>
       </c>
       <c r="G429" t="s">
-        <v>11765</v>
+        <v>11767</v>
       </c>
       <c r="H429" t="s">
-        <v>11765</v>
+        <v>11767</v>
       </c>
       <c r="I429" t="s">
-        <v>11765</v>
+        <v>11767</v>
       </c>
     </row>
     <row r="430">
       <c r="B430" t="s">
-        <v>11766</v>
+        <v>11768</v>
       </c>
       <c r="C430" t="s">
         <v>11553</v>
@@ -53527,336 +54057,336 @@
         <v>45</v>
       </c>
       <c r="F430" t="s">
-        <v>11767</v>
+        <v>11769</v>
       </c>
       <c r="G430" t="s">
-        <v>11767</v>
+        <v>11800</v>
       </c>
       <c r="H430" t="s">
-        <v>11767</v>
+        <v>11800</v>
       </c>
       <c r="I430" t="s">
-        <v>11767</v>
+        <v>11800</v>
       </c>
     </row>
     <row r="431">
       <c r="B431" t="s">
-        <v>11768</v>
+        <v>11770</v>
       </c>
       <c r="C431" t="s">
-        <v>11553</v>
+        <v>38</v>
       </c>
       <c r="D431" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E431" t="s">
         <v>45</v>
       </c>
       <c r="F431" t="s">
-        <v>11769</v>
+        <v>50</v>
       </c>
       <c r="G431" t="s">
-        <v>11800</v>
+        <v>50</v>
       </c>
       <c r="H431" t="s">
-        <v>11800</v>
+        <v>50</v>
       </c>
       <c r="I431" t="s">
-        <v>11800</v>
+        <v>50</v>
       </c>
     </row>
     <row r="432">
       <c r="B432" t="s">
-        <v>11770</v>
+        <v>11771</v>
       </c>
       <c r="C432" t="s">
         <v>38</v>
       </c>
       <c r="D432" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E432" t="s">
         <v>45</v>
       </c>
       <c r="F432" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="G432" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="H432" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="I432" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="433">
       <c r="B433" t="s">
-        <v>11771</v>
+        <v>11772</v>
       </c>
       <c r="C433" t="s">
         <v>38</v>
       </c>
       <c r="D433" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E433" t="s">
         <v>45</v>
       </c>
       <c r="F433" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
       <c r="G433" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
       <c r="H433" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
       <c r="I433" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
     </row>
     <row r="434">
       <c r="B434" t="s">
-        <v>11772</v>
+        <v>11773</v>
       </c>
       <c r="C434" t="s">
         <v>38</v>
       </c>
       <c r="D434" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E434" t="s">
         <v>45</v>
       </c>
       <c r="F434" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="G434" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="H434" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="I434" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="435">
       <c r="B435" t="s">
-        <v>11773</v>
+        <v>11774</v>
       </c>
       <c r="C435" t="s">
         <v>38</v>
       </c>
       <c r="D435" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E435" t="s">
         <v>45</v>
       </c>
       <c r="F435" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="G435" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="H435" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="I435" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
     </row>
     <row r="436">
       <c r="B436" t="s">
-        <v>11774</v>
+        <v>11775</v>
       </c>
       <c r="C436" t="s">
         <v>38</v>
       </c>
       <c r="D436" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E436" t="s">
         <v>45</v>
       </c>
       <c r="F436" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="G436" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="H436" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="I436" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="437">
       <c r="B437" t="s">
-        <v>11775</v>
+        <v>11776</v>
       </c>
       <c r="C437" t="s">
         <v>38</v>
       </c>
       <c r="D437" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E437" t="s">
         <v>45</v>
       </c>
       <c r="F437" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
       <c r="G437" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
       <c r="H437" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
       <c r="I437" t="s">
-        <v>11550</v>
+        <v>50</v>
       </c>
     </row>
     <row r="438">
       <c r="B438" t="s">
-        <v>11776</v>
+        <v>11777</v>
       </c>
       <c r="C438" t="s">
         <v>38</v>
       </c>
       <c r="D438" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E438" t="s">
         <v>45</v>
       </c>
       <c r="F438" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="G438" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="H438" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="I438" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="439">
       <c r="B439" t="s">
-        <v>11777</v>
+        <v>11778</v>
       </c>
       <c r="C439" t="s">
         <v>38</v>
       </c>
       <c r="D439" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E439" t="s">
         <v>45</v>
       </c>
       <c r="F439" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="G439" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="H439" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
       <c r="I439" t="s">
-        <v>11509</v>
+        <v>50</v>
       </c>
     </row>
     <row r="440">
       <c r="B440" t="s">
-        <v>11778</v>
+        <v>11779</v>
       </c>
       <c r="C440" t="s">
         <v>38</v>
       </c>
       <c r="D440" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E440" t="s">
         <v>45</v>
       </c>
       <c r="F440" t="s">
-        <v>50</v>
+        <v>11780</v>
       </c>
       <c r="G440" t="s">
-        <v>50</v>
+        <v>11780</v>
       </c>
       <c r="H440" t="s">
-        <v>50</v>
+        <v>11780</v>
       </c>
       <c r="I440" t="s">
-        <v>50</v>
+        <v>11780</v>
       </c>
     </row>
     <row r="441">
       <c r="B441" t="s">
-        <v>11779</v>
+        <v>11781</v>
       </c>
       <c r="C441" t="s">
         <v>38</v>
       </c>
       <c r="D441" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E441" t="s">
         <v>45</v>
       </c>
       <c r="F441" t="s">
-        <v>11780</v>
+        <v>50</v>
       </c>
       <c r="G441" t="s">
-        <v>11780</v>
+        <v>50</v>
       </c>
       <c r="H441" t="s">
-        <v>11780</v>
+        <v>50</v>
       </c>
       <c r="I441" t="s">
-        <v>11780</v>
+        <v>50</v>
       </c>
     </row>
     <row r="442">
       <c r="B442" t="s">
-        <v>11781</v>
+        <v>11782</v>
       </c>
       <c r="C442" t="s">
         <v>38</v>
       </c>
       <c r="D442" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E442" t="s">
         <v>45</v>
       </c>
       <c r="F442" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="G442" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="H442" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="I442" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="443">
       <c r="B443" t="s">
-        <v>11782</v>
+        <v>11873</v>
       </c>
       <c r="C443" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D443" t="s">
         <v>44</v>
@@ -53865,21 +54395,21 @@
         <v>45</v>
       </c>
       <c r="F443" t="s">
-        <v>11509</v>
+        <v>11874</v>
       </c>
       <c r="G443" t="s">
-        <v>11509</v>
+        <v>11874</v>
       </c>
       <c r="H443" t="s">
-        <v>11509</v>
+        <v>11874</v>
       </c>
       <c r="I443" t="s">
-        <v>11509</v>
+        <v>11874</v>
       </c>
     </row>
     <row r="444">
       <c r="B444" t="s">
-        <v>11873</v>
+        <v>11893</v>
       </c>
       <c r="C444" t="s">
         <v>77</v>
@@ -53891,76 +54421,76 @@
         <v>45</v>
       </c>
       <c r="F444" t="s">
-        <v>11874</v>
+        <v>11894</v>
       </c>
       <c r="G444" t="s">
-        <v>11874</v>
+        <v>11894</v>
       </c>
       <c r="H444" t="s">
-        <v>11874</v>
+        <v>11894</v>
       </c>
       <c r="I444" t="s">
-        <v>11874</v>
+        <v>11894</v>
       </c>
     </row>
     <row r="445">
       <c r="B445" t="s">
-        <v>11893</v>
+        <v>11895</v>
       </c>
       <c r="C445" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D445" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E445" t="s">
         <v>45</v>
       </c>
       <c r="F445" t="s">
-        <v>11894</v>
+        <v>11896</v>
       </c>
       <c r="G445" t="s">
-        <v>11458</v>
+        <v>11896</v>
       </c>
       <c r="H445" t="s">
-        <v>11458</v>
+        <v>11896</v>
       </c>
       <c r="I445" t="s">
-        <v>11458</v>
+        <v>11896</v>
       </c>
     </row>
     <row r="446">
       <c r="B446" t="s">
-        <v>11895</v>
+        <v>11897</v>
       </c>
       <c r="C446" t="s">
         <v>101</v>
       </c>
       <c r="D446" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E446" t="s">
         <v>45</v>
       </c>
       <c r="F446" t="s">
-        <v>11896</v>
+        <v>11898</v>
       </c>
       <c r="G446" t="s">
-        <v>47</v>
+        <v>11898</v>
       </c>
       <c r="H446" t="s">
-        <v>47</v>
+        <v>11898</v>
       </c>
       <c r="I446" t="s">
-        <v>47</v>
+        <v>11898</v>
       </c>
     </row>
     <row r="447">
       <c r="B447" t="s">
-        <v>11897</v>
+        <v>11901</v>
       </c>
       <c r="C447" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D447" t="s">
         <v>44</v>
@@ -53969,24 +54499,24 @@
         <v>45</v>
       </c>
       <c r="F447" t="s">
-        <v>11910</v>
+        <v>11902</v>
       </c>
       <c r="G447" t="s">
-        <v>47</v>
+        <v>11902</v>
       </c>
       <c r="H447" t="s">
-        <v>47</v>
+        <v>11902</v>
       </c>
       <c r="I447" t="s">
-        <v>47</v>
+        <v>11902</v>
       </c>
     </row>
     <row r="448">
       <c r="B448" t="s">
-        <v>11901</v>
+        <v>11903</v>
       </c>
       <c r="C448" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="D448" t="s">
         <v>44</v>
@@ -53995,47 +54525,47 @@
         <v>45</v>
       </c>
       <c r="F448" t="s">
-        <v>11902</v>
+        <v>11904</v>
       </c>
       <c r="G448" t="s">
-        <v>11458</v>
+        <v>11904</v>
       </c>
       <c r="H448" t="s">
-        <v>11458</v>
+        <v>11904</v>
       </c>
       <c r="I448" t="s">
-        <v>11458</v>
+        <v>11904</v>
       </c>
     </row>
     <row r="449">
       <c r="B449" t="s">
-        <v>11903</v>
+        <v>11905</v>
       </c>
       <c r="C449" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D449" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E449" t="s">
         <v>45</v>
       </c>
       <c r="F449" t="s">
-        <v>11904</v>
+        <v>2704</v>
       </c>
       <c r="G449" t="s">
-        <v>47</v>
+        <v>2704</v>
       </c>
       <c r="H449" t="s">
-        <v>47</v>
+        <v>2704</v>
       </c>
       <c r="I449" t="s">
-        <v>47</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="450">
       <c r="B450" t="s">
-        <v>11905</v>
+        <v>11906</v>
       </c>
       <c r="C450" t="s">
         <v>38</v>
@@ -54047,27 +54577,27 @@
         <v>45</v>
       </c>
       <c r="F450" t="s">
-        <v>2704</v>
+        <v>11902</v>
       </c>
       <c r="G450" t="s">
-        <v>47</v>
+        <v>11902</v>
       </c>
       <c r="H450" t="s">
-        <v>47</v>
+        <v>11902</v>
       </c>
       <c r="I450" t="s">
-        <v>47</v>
+        <v>11902</v>
       </c>
     </row>
     <row r="451">
       <c r="B451" t="s">
-        <v>11906</v>
+        <v>11911</v>
       </c>
       <c r="C451" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D451" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E451" t="s">
         <v>45</v>
@@ -54076,180 +54606,3655 @@
         <v>11902</v>
       </c>
       <c r="G451" t="s">
-        <v>47</v>
+        <v>11902</v>
       </c>
       <c r="H451" t="s">
-        <v>47</v>
+        <v>11902</v>
       </c>
       <c r="I451" t="s">
-        <v>47</v>
+        <v>11902</v>
       </c>
     </row>
     <row r="452">
       <c r="B452" t="s">
-        <v>11911</v>
+        <v>11912</v>
       </c>
       <c r="C452" t="s">
         <v>77</v>
       </c>
       <c r="D452" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E452" t="s">
         <v>45</v>
       </c>
       <c r="F452" t="s">
-        <v>11902</v>
+        <v>50</v>
       </c>
       <c r="G452" t="s">
+        <v>50</v>
+      </c>
+      <c r="H452" t="s">
+        <v>50</v>
+      </c>
+      <c r="I452" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="B453" t="s">
+        <v>11913</v>
+      </c>
+      <c r="C453" t="s">
+        <v>77</v>
+      </c>
+      <c r="D453" t="s">
+        <v>44</v>
+      </c>
+      <c r="E453" t="s">
+        <v>45</v>
+      </c>
+      <c r="F453" t="s">
+        <v>11508</v>
+      </c>
+      <c r="G453" t="s">
+        <v>11508</v>
+      </c>
+      <c r="H453" t="s">
+        <v>11508</v>
+      </c>
+      <c r="I453" t="s">
+        <v>11508</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="B454" t="s">
+        <v>11914</v>
+      </c>
+      <c r="C454" t="s">
+        <v>101</v>
+      </c>
+      <c r="D454" t="s">
+        <v>49</v>
+      </c>
+      <c r="E454" t="s">
+        <v>45</v>
+      </c>
+      <c r="F454" t="s">
+        <v>50</v>
+      </c>
+      <c r="G454" t="s">
+        <v>50</v>
+      </c>
+      <c r="H454" t="s">
+        <v>50</v>
+      </c>
+      <c r="I454" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="B455" t="s">
+        <v>11915</v>
+      </c>
+      <c r="C455" t="s">
+        <v>101</v>
+      </c>
+      <c r="D455" t="s">
+        <v>44</v>
+      </c>
+      <c r="E455" t="s">
+        <v>45</v>
+      </c>
+      <c r="F455" t="s">
+        <v>11509</v>
+      </c>
+      <c r="G455" t="s">
+        <v>11509</v>
+      </c>
+      <c r="H455" t="s">
+        <v>11509</v>
+      </c>
+      <c r="I455" t="s">
+        <v>11509</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="B456" t="s">
+        <v>11916</v>
+      </c>
+      <c r="C456" t="s">
+        <v>77</v>
+      </c>
+      <c r="D456" t="s">
+        <v>49</v>
+      </c>
+      <c r="E456" t="s">
+        <v>45</v>
+      </c>
+      <c r="F456" t="s">
+        <v>50</v>
+      </c>
+      <c r="G456" t="s">
+        <v>50</v>
+      </c>
+      <c r="H456" t="s">
+        <v>50</v>
+      </c>
+      <c r="I456" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="B457" t="s">
+        <v>11917</v>
+      </c>
+      <c r="C457" t="s">
+        <v>77</v>
+      </c>
+      <c r="D457" t="s">
+        <v>44</v>
+      </c>
+      <c r="E457" t="s">
+        <v>45</v>
+      </c>
+      <c r="F457" t="s">
+        <v>11512</v>
+      </c>
+      <c r="G457" t="s">
+        <v>11512</v>
+      </c>
+      <c r="H457" t="s">
+        <v>11512</v>
+      </c>
+      <c r="I457" t="s">
+        <v>11512</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="B458" t="s">
+        <v>11918</v>
+      </c>
+      <c r="C458" t="s">
+        <v>101</v>
+      </c>
+      <c r="D458" t="s">
+        <v>49</v>
+      </c>
+      <c r="E458" t="s">
+        <v>45</v>
+      </c>
+      <c r="F458" t="s">
+        <v>50</v>
+      </c>
+      <c r="G458" t="s">
+        <v>50</v>
+      </c>
+      <c r="H458" t="s">
+        <v>50</v>
+      </c>
+      <c r="I458" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="B459" t="s">
+        <v>11919</v>
+      </c>
+      <c r="C459" t="s">
+        <v>101</v>
+      </c>
+      <c r="D459" t="s">
+        <v>44</v>
+      </c>
+      <c r="E459" t="s">
+        <v>45</v>
+      </c>
+      <c r="F459" t="s">
+        <v>11508</v>
+      </c>
+      <c r="G459" t="s">
+        <v>11508</v>
+      </c>
+      <c r="H459" t="s">
+        <v>11508</v>
+      </c>
+      <c r="I459" t="s">
+        <v>11508</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="B460" t="s">
+        <v>11920</v>
+      </c>
+      <c r="C460" t="s">
+        <v>78</v>
+      </c>
+      <c r="D460" t="s">
+        <v>44</v>
+      </c>
+      <c r="E460" t="s">
+        <v>45</v>
+      </c>
+      <c r="F460" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G460" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H460" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I460" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="B461" t="s">
+        <v>11921</v>
+      </c>
+      <c r="C461" t="s">
+        <v>78</v>
+      </c>
+      <c r="D461" t="s">
+        <v>44</v>
+      </c>
+      <c r="E461" t="s">
+        <v>45</v>
+      </c>
+      <c r="F461" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G461" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H461" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I461" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="B462" t="s">
+        <v>11922</v>
+      </c>
+      <c r="C462" t="s">
+        <v>101</v>
+      </c>
+      <c r="D462" t="s">
+        <v>44</v>
+      </c>
+      <c r="E462" t="s">
+        <v>45</v>
+      </c>
+      <c r="F462" t="s">
+        <v>11923</v>
+      </c>
+      <c r="G462" t="s">
+        <v>11923</v>
+      </c>
+      <c r="H462" t="s">
+        <v>11923</v>
+      </c>
+      <c r="I462" t="s">
+        <v>11923</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="B463" t="s">
+        <v>11924</v>
+      </c>
+      <c r="C463" t="s">
+        <v>101</v>
+      </c>
+      <c r="D463" t="s">
+        <v>44</v>
+      </c>
+      <c r="E463" t="s">
+        <v>45</v>
+      </c>
+      <c r="F463" t="s">
+        <v>11925</v>
+      </c>
+      <c r="G463" t="s">
+        <v>11925</v>
+      </c>
+      <c r="H463" t="s">
+        <v>11925</v>
+      </c>
+      <c r="I463" t="s">
+        <v>11925</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="B464" t="s">
+        <v>11928</v>
+      </c>
+      <c r="C464" t="s">
+        <v>77</v>
+      </c>
+      <c r="D464" t="s">
+        <v>44</v>
+      </c>
+      <c r="E464" t="s">
+        <v>45</v>
+      </c>
+      <c r="F464" t="s">
+        <v>11874</v>
+      </c>
+      <c r="G464" t="s">
+        <v>11874</v>
+      </c>
+      <c r="H464" t="s">
+        <v>11874</v>
+      </c>
+      <c r="I464" t="s">
+        <v>11874</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="B465" t="s">
+        <v>11929</v>
+      </c>
+      <c r="C465" t="s">
+        <v>11926</v>
+      </c>
+      <c r="D465" t="s">
+        <v>44</v>
+      </c>
+      <c r="E465" t="s">
+        <v>45</v>
+      </c>
+      <c r="F465" t="s">
+        <v>11930</v>
+      </c>
+      <c r="G465" t="s">
+        <v>47</v>
+      </c>
+      <c r="H465" t="s">
+        <v>47</v>
+      </c>
+      <c r="I465" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="B466" t="s">
+        <v>11931</v>
+      </c>
+      <c r="C466" t="s">
+        <v>11926</v>
+      </c>
+      <c r="D466" t="s">
+        <v>44</v>
+      </c>
+      <c r="E466" t="s">
+        <v>45</v>
+      </c>
+      <c r="F466" t="s">
+        <v>11930</v>
+      </c>
+      <c r="G466" t="s">
+        <v>47</v>
+      </c>
+      <c r="H466" t="s">
+        <v>47</v>
+      </c>
+      <c r="I466" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="B467" t="s">
+        <v>11932</v>
+      </c>
+      <c r="C467" t="s">
+        <v>78</v>
+      </c>
+      <c r="D467" t="s">
+        <v>44</v>
+      </c>
+      <c r="E467" t="s">
+        <v>45</v>
+      </c>
+      <c r="F467" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G467" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H467" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I467" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="B468" t="s">
+        <v>11933</v>
+      </c>
+      <c r="C468" t="s">
+        <v>101</v>
+      </c>
+      <c r="D468" t="s">
+        <v>44</v>
+      </c>
+      <c r="E468" t="s">
+        <v>45</v>
+      </c>
+      <c r="F468" t="s">
+        <v>11534</v>
+      </c>
+      <c r="G468" t="s">
+        <v>11534</v>
+      </c>
+      <c r="H468" t="s">
+        <v>11534</v>
+      </c>
+      <c r="I468" t="s">
+        <v>11534</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="B469" t="s">
+        <v>11934</v>
+      </c>
+      <c r="C469" t="s">
+        <v>77</v>
+      </c>
+      <c r="D469" t="s">
+        <v>49</v>
+      </c>
+      <c r="E469" t="s">
+        <v>45</v>
+      </c>
+      <c r="F469" t="s">
+        <v>50</v>
+      </c>
+      <c r="G469" t="s">
+        <v>50</v>
+      </c>
+      <c r="H469" t="s">
+        <v>50</v>
+      </c>
+      <c r="I469" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="B470" t="s">
+        <v>11935</v>
+      </c>
+      <c r="C470" t="s">
+        <v>77</v>
+      </c>
+      <c r="D470" t="s">
+        <v>44</v>
+      </c>
+      <c r="E470" t="s">
+        <v>45</v>
+      </c>
+      <c r="F470" t="s">
+        <v>11508</v>
+      </c>
+      <c r="G470" t="s">
+        <v>11508</v>
+      </c>
+      <c r="H470" t="s">
+        <v>11508</v>
+      </c>
+      <c r="I470" t="s">
+        <v>11508</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="B471" t="s">
+        <v>11936</v>
+      </c>
+      <c r="C471" t="s">
+        <v>78</v>
+      </c>
+      <c r="D471" t="s">
+        <v>44</v>
+      </c>
+      <c r="E471" t="s">
+        <v>45</v>
+      </c>
+      <c r="F471" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G471" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H471" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I471" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="B472" t="s">
+        <v>11937</v>
+      </c>
+      <c r="C472" t="s">
+        <v>101</v>
+      </c>
+      <c r="D472" t="s">
+        <v>44</v>
+      </c>
+      <c r="E472" t="s">
+        <v>45</v>
+      </c>
+      <c r="F472" t="s">
+        <v>11461</v>
+      </c>
+      <c r="G472" t="s">
+        <v>11461</v>
+      </c>
+      <c r="H472" t="s">
+        <v>11461</v>
+      </c>
+      <c r="I472" t="s">
+        <v>11461</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="B473" t="s">
+        <v>11938</v>
+      </c>
+      <c r="C473" t="s">
+        <v>77</v>
+      </c>
+      <c r="D473" t="s">
+        <v>49</v>
+      </c>
+      <c r="E473" t="s">
+        <v>45</v>
+      </c>
+      <c r="F473" t="s">
+        <v>50</v>
+      </c>
+      <c r="G473" t="s">
+        <v>50</v>
+      </c>
+      <c r="H473" t="s">
+        <v>50</v>
+      </c>
+      <c r="I473" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="B474" t="s">
+        <v>11939</v>
+      </c>
+      <c r="C474" t="s">
+        <v>77</v>
+      </c>
+      <c r="D474" t="s">
+        <v>44</v>
+      </c>
+      <c r="E474" t="s">
+        <v>45</v>
+      </c>
+      <c r="F474" t="s">
+        <v>11508</v>
+      </c>
+      <c r="G474" t="s">
+        <v>11508</v>
+      </c>
+      <c r="H474" t="s">
+        <v>11508</v>
+      </c>
+      <c r="I474" t="s">
+        <v>11508</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="B475" t="s">
+        <v>11940</v>
+      </c>
+      <c r="C475" t="s">
+        <v>101</v>
+      </c>
+      <c r="D475" t="s">
+        <v>49</v>
+      </c>
+      <c r="E475" t="s">
+        <v>45</v>
+      </c>
+      <c r="F475" t="s">
+        <v>50</v>
+      </c>
+      <c r="G475" t="s">
+        <v>50</v>
+      </c>
+      <c r="H475" t="s">
+        <v>50</v>
+      </c>
+      <c r="I475" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="B476" t="s">
+        <v>11941</v>
+      </c>
+      <c r="C476" t="s">
+        <v>101</v>
+      </c>
+      <c r="D476" t="s">
+        <v>44</v>
+      </c>
+      <c r="E476" t="s">
+        <v>45</v>
+      </c>
+      <c r="F476" t="s">
+        <v>11509</v>
+      </c>
+      <c r="G476" t="s">
+        <v>11509</v>
+      </c>
+      <c r="H476" t="s">
+        <v>11509</v>
+      </c>
+      <c r="I476" t="s">
+        <v>11509</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="B477" t="s">
+        <v>11942</v>
+      </c>
+      <c r="C477" t="s">
+        <v>11926</v>
+      </c>
+      <c r="D477" t="s">
+        <v>44</v>
+      </c>
+      <c r="E477" t="s">
+        <v>45</v>
+      </c>
+      <c r="F477" t="s">
+        <v>11943</v>
+      </c>
+      <c r="G477" t="s">
+        <v>11943</v>
+      </c>
+      <c r="H477" t="s">
+        <v>11943</v>
+      </c>
+      <c r="I477" t="s">
+        <v>11943</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="B478" t="s">
+        <v>11944</v>
+      </c>
+      <c r="C478" t="s">
+        <v>77</v>
+      </c>
+      <c r="D478" t="s">
+        <v>44</v>
+      </c>
+      <c r="E478" t="s">
+        <v>45</v>
+      </c>
+      <c r="F478" t="s">
+        <v>11874</v>
+      </c>
+      <c r="G478" t="s">
+        <v>11874</v>
+      </c>
+      <c r="H478" t="s">
+        <v>11874</v>
+      </c>
+      <c r="I478" t="s">
+        <v>11874</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="B479" t="s">
+        <v>11945</v>
+      </c>
+      <c r="C479" t="s">
+        <v>78</v>
+      </c>
+      <c r="D479" t="s">
+        <v>44</v>
+      </c>
+      <c r="E479" t="s">
+        <v>45</v>
+      </c>
+      <c r="F479" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G479" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H479" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I479" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="B480" t="s">
+        <v>11946</v>
+      </c>
+      <c r="C480" t="s">
+        <v>78</v>
+      </c>
+      <c r="D480" t="s">
+        <v>44</v>
+      </c>
+      <c r="E480" t="s">
+        <v>45</v>
+      </c>
+      <c r="F480" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G480" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H480" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I480" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="B481" t="s">
+        <v>11947</v>
+      </c>
+      <c r="C481" t="s">
+        <v>101</v>
+      </c>
+      <c r="D481" t="s">
+        <v>44</v>
+      </c>
+      <c r="E481" t="s">
+        <v>45</v>
+      </c>
+      <c r="F481" t="s">
+        <v>11534</v>
+      </c>
+      <c r="G481" t="s">
+        <v>11534</v>
+      </c>
+      <c r="H481" t="s">
+        <v>11534</v>
+      </c>
+      <c r="I481" t="s">
+        <v>11534</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="B482" t="s">
+        <v>11948</v>
+      </c>
+      <c r="C482" t="s">
+        <v>101</v>
+      </c>
+      <c r="D482" t="s">
+        <v>44</v>
+      </c>
+      <c r="E482" t="s">
+        <v>45</v>
+      </c>
+      <c r="F482" t="s">
+        <v>11461</v>
+      </c>
+      <c r="G482" t="s">
+        <v>11461</v>
+      </c>
+      <c r="H482" t="s">
+        <v>11461</v>
+      </c>
+      <c r="I482" t="s">
+        <v>11461</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="B483" t="s">
+        <v>11949</v>
+      </c>
+      <c r="C483" t="s">
+        <v>11926</v>
+      </c>
+      <c r="D483" t="s">
+        <v>44</v>
+      </c>
+      <c r="E483" t="s">
+        <v>45</v>
+      </c>
+      <c r="F483" t="s">
+        <v>11943</v>
+      </c>
+      <c r="G483" t="s">
+        <v>11943</v>
+      </c>
+      <c r="H483" t="s">
+        <v>11943</v>
+      </c>
+      <c r="I483" t="s">
+        <v>11943</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="B484" t="s">
+        <v>11950</v>
+      </c>
+      <c r="C484" t="s">
+        <v>77</v>
+      </c>
+      <c r="D484" t="s">
+        <v>49</v>
+      </c>
+      <c r="E484" t="s">
+        <v>45</v>
+      </c>
+      <c r="F484" t="s">
+        <v>50</v>
+      </c>
+      <c r="G484" t="s">
+        <v>50</v>
+      </c>
+      <c r="H484" t="s">
+        <v>50</v>
+      </c>
+      <c r="I484" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="B485" t="s">
+        <v>11951</v>
+      </c>
+      <c r="C485" t="s">
+        <v>77</v>
+      </c>
+      <c r="D485" t="s">
+        <v>44</v>
+      </c>
+      <c r="E485" t="s">
+        <v>45</v>
+      </c>
+      <c r="F485" t="s">
+        <v>11508</v>
+      </c>
+      <c r="G485" t="s">
+        <v>11508</v>
+      </c>
+      <c r="H485" t="s">
+        <v>11508</v>
+      </c>
+      <c r="I485" t="s">
+        <v>11508</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="B486" t="s">
+        <v>11952</v>
+      </c>
+      <c r="C486" t="s">
+        <v>77</v>
+      </c>
+      <c r="D486" t="s">
+        <v>49</v>
+      </c>
+      <c r="E486" t="s">
+        <v>45</v>
+      </c>
+      <c r="F486" t="s">
+        <v>50</v>
+      </c>
+      <c r="G486" t="s">
+        <v>50</v>
+      </c>
+      <c r="H486" t="s">
+        <v>50</v>
+      </c>
+      <c r="I486" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="B487" t="s">
+        <v>11953</v>
+      </c>
+      <c r="C487" t="s">
+        <v>77</v>
+      </c>
+      <c r="D487" t="s">
+        <v>44</v>
+      </c>
+      <c r="E487" t="s">
+        <v>45</v>
+      </c>
+      <c r="F487" t="s">
+        <v>11508</v>
+      </c>
+      <c r="G487" t="s">
+        <v>11508</v>
+      </c>
+      <c r="H487" t="s">
+        <v>11508</v>
+      </c>
+      <c r="I487" t="s">
+        <v>11508</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="B488" t="s">
+        <v>11954</v>
+      </c>
+      <c r="C488" t="s">
+        <v>101</v>
+      </c>
+      <c r="D488" t="s">
+        <v>49</v>
+      </c>
+      <c r="E488" t="s">
+        <v>45</v>
+      </c>
+      <c r="F488" t="s">
+        <v>50</v>
+      </c>
+      <c r="G488" t="s">
+        <v>50</v>
+      </c>
+      <c r="H488" t="s">
+        <v>50</v>
+      </c>
+      <c r="I488" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="B489" t="s">
+        <v>11955</v>
+      </c>
+      <c r="C489" t="s">
+        <v>101</v>
+      </c>
+      <c r="D489" t="s">
+        <v>44</v>
+      </c>
+      <c r="E489" t="s">
+        <v>45</v>
+      </c>
+      <c r="F489" t="s">
+        <v>11509</v>
+      </c>
+      <c r="G489" t="s">
+        <v>11509</v>
+      </c>
+      <c r="H489" t="s">
+        <v>11509</v>
+      </c>
+      <c r="I489" t="s">
+        <v>11509</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="B490" t="s">
+        <v>11956</v>
+      </c>
+      <c r="C490" t="s">
+        <v>78</v>
+      </c>
+      <c r="D490" t="s">
+        <v>44</v>
+      </c>
+      <c r="E490" t="s">
+        <v>45</v>
+      </c>
+      <c r="F490" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G490" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H490" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I490" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="B491" t="s">
+        <v>11957</v>
+      </c>
+      <c r="C491" t="s">
+        <v>78</v>
+      </c>
+      <c r="D491" t="s">
+        <v>44</v>
+      </c>
+      <c r="E491" t="s">
+        <v>45</v>
+      </c>
+      <c r="F491" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G491" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H491" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I491" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="B492" t="s">
+        <v>11958</v>
+      </c>
+      <c r="C492" t="s">
+        <v>78</v>
+      </c>
+      <c r="D492" t="s">
+        <v>44</v>
+      </c>
+      <c r="E492" t="s">
+        <v>45</v>
+      </c>
+      <c r="F492" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G492" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H492" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I492" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="B493" t="s">
+        <v>11959</v>
+      </c>
+      <c r="C493" t="s">
+        <v>77</v>
+      </c>
+      <c r="D493" t="s">
+        <v>44</v>
+      </c>
+      <c r="E493" t="s">
+        <v>45</v>
+      </c>
+      <c r="F493" t="s">
+        <v>11894</v>
+      </c>
+      <c r="G493" t="s">
+        <v>11894</v>
+      </c>
+      <c r="H493" t="s">
+        <v>11894</v>
+      </c>
+      <c r="I493" t="s">
+        <v>11894</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="B494" t="s">
+        <v>11960</v>
+      </c>
+      <c r="C494" t="s">
+        <v>101</v>
+      </c>
+      <c r="D494" t="s">
+        <v>44</v>
+      </c>
+      <c r="E494" t="s">
+        <v>45</v>
+      </c>
+      <c r="F494" t="s">
+        <v>11534</v>
+      </c>
+      <c r="G494" t="s">
+        <v>11534</v>
+      </c>
+      <c r="H494" t="s">
+        <v>11534</v>
+      </c>
+      <c r="I494" t="s">
+        <v>11534</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="B495" t="s">
+        <v>11961</v>
+      </c>
+      <c r="C495" t="s">
+        <v>101</v>
+      </c>
+      <c r="D495" t="s">
+        <v>44</v>
+      </c>
+      <c r="E495" t="s">
+        <v>45</v>
+      </c>
+      <c r="F495" t="s">
+        <v>11462</v>
+      </c>
+      <c r="G495" t="s">
+        <v>11462</v>
+      </c>
+      <c r="H495" t="s">
+        <v>11462</v>
+      </c>
+      <c r="I495" t="s">
+        <v>11462</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="B496" t="s">
+        <v>11962</v>
+      </c>
+      <c r="C496" t="s">
+        <v>101</v>
+      </c>
+      <c r="D496" t="s">
+        <v>44</v>
+      </c>
+      <c r="E496" t="s">
+        <v>45</v>
+      </c>
+      <c r="F496" t="s">
+        <v>11537</v>
+      </c>
+      <c r="G496" t="s">
+        <v>11537</v>
+      </c>
+      <c r="H496" t="s">
+        <v>11537</v>
+      </c>
+      <c r="I496" t="s">
+        <v>11537</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="B497" t="s">
+        <v>11963</v>
+      </c>
+      <c r="C497" t="s">
+        <v>77</v>
+      </c>
+      <c r="D497" t="s">
+        <v>49</v>
+      </c>
+      <c r="E497" t="s">
+        <v>45</v>
+      </c>
+      <c r="F497" t="s">
+        <v>50</v>
+      </c>
+      <c r="G497" t="s">
+        <v>50</v>
+      </c>
+      <c r="H497" t="s">
+        <v>50</v>
+      </c>
+      <c r="I497" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="B498" t="s">
+        <v>11964</v>
+      </c>
+      <c r="C498" t="s">
+        <v>77</v>
+      </c>
+      <c r="D498" t="s">
+        <v>44</v>
+      </c>
+      <c r="E498" t="s">
+        <v>45</v>
+      </c>
+      <c r="F498" t="s">
+        <v>11508</v>
+      </c>
+      <c r="G498" t="s">
+        <v>11508</v>
+      </c>
+      <c r="H498" t="s">
+        <v>11508</v>
+      </c>
+      <c r="I498" t="s">
+        <v>11508</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="B499" t="s">
+        <v>11965</v>
+      </c>
+      <c r="C499" t="s">
+        <v>77</v>
+      </c>
+      <c r="D499" t="s">
+        <v>49</v>
+      </c>
+      <c r="E499" t="s">
+        <v>45</v>
+      </c>
+      <c r="F499" t="s">
+        <v>50</v>
+      </c>
+      <c r="G499" t="s">
+        <v>50</v>
+      </c>
+      <c r="H499" t="s">
+        <v>50</v>
+      </c>
+      <c r="I499" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="B500" t="s">
+        <v>11966</v>
+      </c>
+      <c r="C500" t="s">
+        <v>77</v>
+      </c>
+      <c r="D500" t="s">
+        <v>44</v>
+      </c>
+      <c r="E500" t="s">
+        <v>45</v>
+      </c>
+      <c r="F500" t="s">
+        <v>11512</v>
+      </c>
+      <c r="G500" t="s">
+        <v>11512</v>
+      </c>
+      <c r="H500" t="s">
+        <v>11512</v>
+      </c>
+      <c r="I500" t="s">
+        <v>11512</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="B501" t="s">
+        <v>11967</v>
+      </c>
+      <c r="C501" t="s">
+        <v>11926</v>
+      </c>
+      <c r="D501" t="s">
+        <v>44</v>
+      </c>
+      <c r="E501" t="s">
+        <v>45</v>
+      </c>
+      <c r="F501" t="s">
+        <v>11930</v>
+      </c>
+      <c r="G501" t="s">
+        <v>47</v>
+      </c>
+      <c r="H501" t="s">
+        <v>47</v>
+      </c>
+      <c r="I501" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="B502" t="s">
+        <v>11968</v>
+      </c>
+      <c r="C502" t="s">
+        <v>77</v>
+      </c>
+      <c r="D502" t="s">
+        <v>49</v>
+      </c>
+      <c r="E502" t="s">
+        <v>45</v>
+      </c>
+      <c r="F502" t="s">
+        <v>50</v>
+      </c>
+      <c r="G502" t="s">
+        <v>50</v>
+      </c>
+      <c r="H502" t="s">
+        <v>50</v>
+      </c>
+      <c r="I502" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="B503" t="s">
+        <v>11969</v>
+      </c>
+      <c r="C503" t="s">
+        <v>77</v>
+      </c>
+      <c r="D503" t="s">
+        <v>44</v>
+      </c>
+      <c r="E503" t="s">
+        <v>45</v>
+      </c>
+      <c r="F503" t="s">
+        <v>11512</v>
+      </c>
+      <c r="G503" t="s">
+        <v>11512</v>
+      </c>
+      <c r="H503" t="s">
+        <v>11512</v>
+      </c>
+      <c r="I503" t="s">
+        <v>11512</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="B504" t="s">
+        <v>11970</v>
+      </c>
+      <c r="C504" t="s">
+        <v>101</v>
+      </c>
+      <c r="D504" t="s">
+        <v>49</v>
+      </c>
+      <c r="E504" t="s">
+        <v>45</v>
+      </c>
+      <c r="F504" t="s">
+        <v>50</v>
+      </c>
+      <c r="G504" t="s">
+        <v>50</v>
+      </c>
+      <c r="H504" t="s">
+        <v>50</v>
+      </c>
+      <c r="I504" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="B505" t="s">
+        <v>11971</v>
+      </c>
+      <c r="C505" t="s">
+        <v>101</v>
+      </c>
+      <c r="D505" t="s">
+        <v>44</v>
+      </c>
+      <c r="E505" t="s">
+        <v>45</v>
+      </c>
+      <c r="F505" t="s">
+        <v>11550</v>
+      </c>
+      <c r="G505" t="s">
+        <v>11550</v>
+      </c>
+      <c r="H505" t="s">
+        <v>11550</v>
+      </c>
+      <c r="I505" t="s">
+        <v>11550</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="B506" t="s">
+        <v>11972</v>
+      </c>
+      <c r="C506" t="s">
+        <v>101</v>
+      </c>
+      <c r="D506" t="s">
+        <v>49</v>
+      </c>
+      <c r="E506" t="s">
+        <v>45</v>
+      </c>
+      <c r="F506" t="s">
+        <v>50</v>
+      </c>
+      <c r="G506" t="s">
+        <v>50</v>
+      </c>
+      <c r="H506" t="s">
+        <v>50</v>
+      </c>
+      <c r="I506" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="B507" t="s">
+        <v>11973</v>
+      </c>
+      <c r="C507" t="s">
+        <v>101</v>
+      </c>
+      <c r="D507" t="s">
+        <v>44</v>
+      </c>
+      <c r="E507" t="s">
+        <v>45</v>
+      </c>
+      <c r="F507" t="s">
+        <v>11510</v>
+      </c>
+      <c r="G507" t="s">
+        <v>11510</v>
+      </c>
+      <c r="H507" t="s">
+        <v>11510</v>
+      </c>
+      <c r="I507" t="s">
+        <v>11510</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="B508" t="s">
+        <v>11974</v>
+      </c>
+      <c r="C508" t="s">
+        <v>101</v>
+      </c>
+      <c r="D508" t="s">
+        <v>49</v>
+      </c>
+      <c r="E508" t="s">
+        <v>45</v>
+      </c>
+      <c r="F508" t="s">
+        <v>50</v>
+      </c>
+      <c r="G508" t="s">
+        <v>50</v>
+      </c>
+      <c r="H508" t="s">
+        <v>50</v>
+      </c>
+      <c r="I508" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="B509" t="s">
+        <v>11975</v>
+      </c>
+      <c r="C509" t="s">
+        <v>101</v>
+      </c>
+      <c r="D509" t="s">
+        <v>44</v>
+      </c>
+      <c r="E509" t="s">
+        <v>45</v>
+      </c>
+      <c r="F509" t="s">
+        <v>11509</v>
+      </c>
+      <c r="G509" t="s">
+        <v>11509</v>
+      </c>
+      <c r="H509" t="s">
+        <v>11509</v>
+      </c>
+      <c r="I509" t="s">
+        <v>11509</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="B510" t="s">
+        <v>11976</v>
+      </c>
+      <c r="C510" t="s">
+        <v>77</v>
+      </c>
+      <c r="D510" t="s">
+        <v>44</v>
+      </c>
+      <c r="E510" t="s">
+        <v>45</v>
+      </c>
+      <c r="F510" t="s">
+        <v>11894</v>
+      </c>
+      <c r="G510" t="s">
+        <v>47</v>
+      </c>
+      <c r="H510" t="s">
+        <v>47</v>
+      </c>
+      <c r="I510" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="B511" t="s">
+        <v>11977</v>
+      </c>
+      <c r="C511" t="s">
+        <v>77</v>
+      </c>
+      <c r="D511" t="s">
+        <v>44</v>
+      </c>
+      <c r="E511" t="s">
+        <v>45</v>
+      </c>
+      <c r="F511" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G511" t="s">
+        <v>47</v>
+      </c>
+      <c r="H511" t="s">
+        <v>47</v>
+      </c>
+      <c r="I511" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="B512" t="s">
+        <v>11978</v>
+      </c>
+      <c r="C512" t="s">
+        <v>40</v>
+      </c>
+      <c r="D512" t="s">
+        <v>49</v>
+      </c>
+      <c r="E512" t="s">
+        <v>45</v>
+      </c>
+      <c r="F512" t="s">
+        <v>50</v>
+      </c>
+      <c r="G512" t="s">
+        <v>50</v>
+      </c>
+      <c r="H512" t="s">
+        <v>50</v>
+      </c>
+      <c r="I512" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="B513" t="s">
+        <v>11979</v>
+      </c>
+      <c r="C513" t="s">
+        <v>40</v>
+      </c>
+      <c r="D513" t="s">
+        <v>44</v>
+      </c>
+      <c r="E513" t="s">
+        <v>45</v>
+      </c>
+      <c r="F513" t="s">
+        <v>390</v>
+      </c>
+      <c r="G513" t="s">
+        <v>390</v>
+      </c>
+      <c r="H513" t="s">
+        <v>390</v>
+      </c>
+      <c r="I513" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="B514" t="s">
+        <v>11980</v>
+      </c>
+      <c r="C514" t="s">
+        <v>40</v>
+      </c>
+      <c r="D514" t="s">
+        <v>49</v>
+      </c>
+      <c r="E514" t="s">
+        <v>45</v>
+      </c>
+      <c r="F514" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G514" t="s">
+        <v>47</v>
+      </c>
+      <c r="H514" t="s">
+        <v>47</v>
+      </c>
+      <c r="I514" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="B515" t="s">
+        <v>11981</v>
+      </c>
+      <c r="C515" t="s">
+        <v>40</v>
+      </c>
+      <c r="D515" t="s">
+        <v>49</v>
+      </c>
+      <c r="E515" t="s">
+        <v>45</v>
+      </c>
+      <c r="F515" t="s">
+        <v>284</v>
+      </c>
+      <c r="G515" t="s">
+        <v>47</v>
+      </c>
+      <c r="H515" t="s">
+        <v>47</v>
+      </c>
+      <c r="I515" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="B516" t="s">
+        <v>11982</v>
+      </c>
+      <c r="C516" t="s">
+        <v>40</v>
+      </c>
+      <c r="D516" t="s">
+        <v>44</v>
+      </c>
+      <c r="E516" t="s">
+        <v>45</v>
+      </c>
+      <c r="F516" t="s">
+        <v>11510</v>
+      </c>
+      <c r="G516" t="s">
+        <v>11510</v>
+      </c>
+      <c r="H516" t="s">
+        <v>11510</v>
+      </c>
+      <c r="I516" t="s">
+        <v>11510</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="B517" t="s">
+        <v>11983</v>
+      </c>
+      <c r="C517" t="s">
+        <v>78</v>
+      </c>
+      <c r="D517" t="s">
+        <v>44</v>
+      </c>
+      <c r="E517" t="s">
+        <v>45</v>
+      </c>
+      <c r="F517" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G517" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H517" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I517" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="B518" t="s">
+        <v>11984</v>
+      </c>
+      <c r="C518" t="s">
+        <v>78</v>
+      </c>
+      <c r="D518" t="s">
+        <v>44</v>
+      </c>
+      <c r="E518" t="s">
+        <v>45</v>
+      </c>
+      <c r="F518" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G518" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H518" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I518" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="B519" t="s">
+        <v>11985</v>
+      </c>
+      <c r="C519" t="s">
+        <v>78</v>
+      </c>
+      <c r="D519" t="s">
+        <v>44</v>
+      </c>
+      <c r="E519" t="s">
+        <v>45</v>
+      </c>
+      <c r="F519" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G519" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H519" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I519" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="B520" t="s">
+        <v>11986</v>
+      </c>
+      <c r="C520" t="s">
+        <v>77</v>
+      </c>
+      <c r="D520" t="s">
+        <v>44</v>
+      </c>
+      <c r="E520" t="s">
+        <v>45</v>
+      </c>
+      <c r="F520" t="s">
+        <v>11894</v>
+      </c>
+      <c r="G520" t="s">
         <v>11458</v>
       </c>
-      <c r="H452" t="s">
+      <c r="H520" t="s">
         <v>11458</v>
       </c>
-      <c r="I452" t="s">
+      <c r="I520" t="s">
         <v>11458</v>
       </c>
     </row>
-    <row r="453"/>
-    <row r="454"/>
-    <row r="455"/>
-    <row r="456"/>
-    <row r="457"/>
-    <row r="458"/>
-    <row r="459"/>
-    <row r="460"/>
-    <row r="461"/>
-    <row r="462"/>
-    <row r="463"/>
-    <row r="464"/>
-    <row r="465"/>
-    <row r="466"/>
-    <row r="467"/>
-    <row r="468"/>
-    <row r="469"/>
-    <row r="470"/>
-    <row r="471"/>
-    <row r="472"/>
-    <row r="473"/>
-    <row r="474"/>
-    <row r="475"/>
-    <row r="476"/>
-    <row r="477"/>
-    <row r="478"/>
-    <row r="479"/>
-    <row r="480"/>
-    <row r="481"/>
-    <row r="482"/>
-    <row r="483"/>
-    <row r="484"/>
-    <row r="485"/>
-    <row r="486"/>
-    <row r="487"/>
-    <row r="488"/>
-    <row r="489"/>
-    <row r="490"/>
-    <row r="491"/>
-    <row r="492"/>
-    <row r="493"/>
-    <row r="494"/>
-    <row r="495"/>
-    <row r="496"/>
-    <row r="497"/>
-    <row r="498"/>
-    <row r="499"/>
-    <row r="500"/>
-    <row r="501"/>
-    <row r="502"/>
-    <row r="503"/>
-    <row r="504"/>
-    <row r="505"/>
-    <row r="506"/>
-    <row r="507"/>
-    <row r="508"/>
-    <row r="509"/>
-    <row r="510"/>
-    <row r="511"/>
-    <row r="512"/>
-    <row r="513"/>
-    <row r="514"/>
-    <row r="515"/>
-    <row r="516"/>
-    <row r="517"/>
-    <row r="518"/>
-    <row r="519"/>
-    <row r="520"/>
-    <row r="521"/>
-    <row r="522"/>
-    <row r="523"/>
-    <row r="524"/>
-    <row r="525"/>
-    <row r="526"/>
-    <row r="527"/>
-    <row r="528"/>
-    <row r="529"/>
-    <row r="530"/>
-    <row r="531"/>
-    <row r="532"/>
-    <row r="533"/>
-    <row r="534"/>
-    <row r="535"/>
-    <row r="536"/>
-    <row r="537"/>
-    <row r="538"/>
-    <row r="539"/>
-    <row r="540"/>
-    <row r="541"/>
-    <row r="542"/>
-    <row r="543"/>
-    <row r="544"/>
-    <row r="545"/>
-    <row r="546"/>
-    <row r="547"/>
-    <row r="548"/>
-    <row r="549"/>
-    <row r="550"/>
-    <row r="551"/>
-    <row r="552"/>
-    <row r="553"/>
-    <row r="554"/>
-    <row r="555"/>
-    <row r="556"/>
-    <row r="557"/>
-    <row r="558"/>
-    <row r="559"/>
-    <row r="560"/>
-    <row r="561"/>
-    <row r="562"/>
-    <row r="563"/>
-    <row r="564"/>
-    <row r="565"/>
-    <row r="566"/>
-    <row r="567"/>
-    <row r="568"/>
-    <row r="569"/>
-    <row r="570"/>
-    <row r="571"/>
-    <row r="572"/>
-    <row r="573"/>
-    <row r="574"/>
-    <row r="575"/>
-    <row r="576"/>
-    <row r="577"/>
-    <row r="578"/>
-    <row r="579"/>
-    <row r="580"/>
-    <row r="581"/>
-    <row r="582"/>
-    <row r="583"/>
-    <row r="584"/>
-    <row r="585"/>
-    <row r="586"/>
-    <row r="587"/>
-    <row r="588"/>
-    <row r="589"/>
-    <row r="590"/>
-    <row r="591"/>
+    <row r="521">
+      <c r="B521" t="s">
+        <v>11987</v>
+      </c>
+      <c r="C521" t="s">
+        <v>101</v>
+      </c>
+      <c r="D521" t="s">
+        <v>44</v>
+      </c>
+      <c r="E521" t="s">
+        <v>45</v>
+      </c>
+      <c r="F521" t="s">
+        <v>11461</v>
+      </c>
+      <c r="G521" t="s">
+        <v>11461</v>
+      </c>
+      <c r="H521" t="s">
+        <v>11461</v>
+      </c>
+      <c r="I521" t="s">
+        <v>11461</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="B522" t="s">
+        <v>11988</v>
+      </c>
+      <c r="C522" t="s">
+        <v>101</v>
+      </c>
+      <c r="D522" t="s">
+        <v>44</v>
+      </c>
+      <c r="E522" t="s">
+        <v>45</v>
+      </c>
+      <c r="F522" t="s">
+        <v>11462</v>
+      </c>
+      <c r="G522" t="s">
+        <v>11462</v>
+      </c>
+      <c r="H522" t="s">
+        <v>11462</v>
+      </c>
+      <c r="I522" t="s">
+        <v>11462</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="B523" t="s">
+        <v>11989</v>
+      </c>
+      <c r="C523" t="s">
+        <v>101</v>
+      </c>
+      <c r="D523" t="s">
+        <v>44</v>
+      </c>
+      <c r="E523" t="s">
+        <v>45</v>
+      </c>
+      <c r="F523" t="s">
+        <v>11463</v>
+      </c>
+      <c r="G523" t="s">
+        <v>11463</v>
+      </c>
+      <c r="H523" t="s">
+        <v>11463</v>
+      </c>
+      <c r="I523" t="s">
+        <v>11463</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="B524" t="s">
+        <v>11990</v>
+      </c>
+      <c r="C524" t="s">
+        <v>77</v>
+      </c>
+      <c r="D524" t="s">
+        <v>49</v>
+      </c>
+      <c r="E524" t="s">
+        <v>45</v>
+      </c>
+      <c r="F524" t="s">
+        <v>50</v>
+      </c>
+      <c r="G524" t="s">
+        <v>50</v>
+      </c>
+      <c r="H524" t="s">
+        <v>50</v>
+      </c>
+      <c r="I524" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="B525" t="s">
+        <v>11991</v>
+      </c>
+      <c r="C525" t="s">
+        <v>77</v>
+      </c>
+      <c r="D525" t="s">
+        <v>44</v>
+      </c>
+      <c r="E525" t="s">
+        <v>45</v>
+      </c>
+      <c r="F525" t="s">
+        <v>11512</v>
+      </c>
+      <c r="G525" t="s">
+        <v>11512</v>
+      </c>
+      <c r="H525" t="s">
+        <v>11512</v>
+      </c>
+      <c r="I525" t="s">
+        <v>11512</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="B526" t="s">
+        <v>11992</v>
+      </c>
+      <c r="C526" t="s">
+        <v>77</v>
+      </c>
+      <c r="D526" t="s">
+        <v>49</v>
+      </c>
+      <c r="E526" t="s">
+        <v>45</v>
+      </c>
+      <c r="F526" t="s">
+        <v>50</v>
+      </c>
+      <c r="G526" t="s">
+        <v>50</v>
+      </c>
+      <c r="H526" t="s">
+        <v>50</v>
+      </c>
+      <c r="I526" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="B527" t="s">
+        <v>11993</v>
+      </c>
+      <c r="C527" t="s">
+        <v>77</v>
+      </c>
+      <c r="D527" t="s">
+        <v>44</v>
+      </c>
+      <c r="E527" t="s">
+        <v>45</v>
+      </c>
+      <c r="F527" t="s">
+        <v>11512</v>
+      </c>
+      <c r="G527" t="s">
+        <v>11512</v>
+      </c>
+      <c r="H527" t="s">
+        <v>11512</v>
+      </c>
+      <c r="I527" t="s">
+        <v>11512</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="B528" t="s">
+        <v>11994</v>
+      </c>
+      <c r="C528" t="s">
+        <v>11926</v>
+      </c>
+      <c r="D528" t="s">
+        <v>44</v>
+      </c>
+      <c r="E528" t="s">
+        <v>45</v>
+      </c>
+      <c r="F528" t="s">
+        <v>11930</v>
+      </c>
+      <c r="G528" t="s">
+        <v>47</v>
+      </c>
+      <c r="H528" t="s">
+        <v>47</v>
+      </c>
+      <c r="I528" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="B529" t="s">
+        <v>11995</v>
+      </c>
+      <c r="C529" t="s">
+        <v>101</v>
+      </c>
+      <c r="D529" t="s">
+        <v>49</v>
+      </c>
+      <c r="E529" t="s">
+        <v>45</v>
+      </c>
+      <c r="F529" t="s">
+        <v>50</v>
+      </c>
+      <c r="G529" t="s">
+        <v>50</v>
+      </c>
+      <c r="H529" t="s">
+        <v>50</v>
+      </c>
+      <c r="I529" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="B530" t="s">
+        <v>11996</v>
+      </c>
+      <c r="C530" t="s">
+        <v>101</v>
+      </c>
+      <c r="D530" t="s">
+        <v>44</v>
+      </c>
+      <c r="E530" t="s">
+        <v>45</v>
+      </c>
+      <c r="F530" t="s">
+        <v>11510</v>
+      </c>
+      <c r="G530" t="s">
+        <v>11510</v>
+      </c>
+      <c r="H530" t="s">
+        <v>11510</v>
+      </c>
+      <c r="I530" t="s">
+        <v>11510</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="B531" t="s">
+        <v>11997</v>
+      </c>
+      <c r="C531" t="s">
+        <v>77</v>
+      </c>
+      <c r="D531" t="s">
+        <v>49</v>
+      </c>
+      <c r="E531" t="s">
+        <v>45</v>
+      </c>
+      <c r="F531" t="s">
+        <v>50</v>
+      </c>
+      <c r="G531" t="s">
+        <v>50</v>
+      </c>
+      <c r="H531" t="s">
+        <v>50</v>
+      </c>
+      <c r="I531" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="B532" t="s">
+        <v>11998</v>
+      </c>
+      <c r="C532" t="s">
+        <v>77</v>
+      </c>
+      <c r="D532" t="s">
+        <v>44</v>
+      </c>
+      <c r="E532" t="s">
+        <v>45</v>
+      </c>
+      <c r="F532" t="s">
+        <v>11508</v>
+      </c>
+      <c r="G532" t="s">
+        <v>11508</v>
+      </c>
+      <c r="H532" t="s">
+        <v>11508</v>
+      </c>
+      <c r="I532" t="s">
+        <v>11508</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="B533" t="s">
+        <v>11999</v>
+      </c>
+      <c r="C533" t="s">
+        <v>101</v>
+      </c>
+      <c r="D533" t="s">
+        <v>49</v>
+      </c>
+      <c r="E533" t="s">
+        <v>45</v>
+      </c>
+      <c r="F533" t="s">
+        <v>50</v>
+      </c>
+      <c r="G533" t="s">
+        <v>50</v>
+      </c>
+      <c r="H533" t="s">
+        <v>50</v>
+      </c>
+      <c r="I533" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="B534" t="s">
+        <v>12000</v>
+      </c>
+      <c r="C534" t="s">
+        <v>101</v>
+      </c>
+      <c r="D534" t="s">
+        <v>44</v>
+      </c>
+      <c r="E534" t="s">
+        <v>45</v>
+      </c>
+      <c r="F534" t="s">
+        <v>11509</v>
+      </c>
+      <c r="G534" t="s">
+        <v>11509</v>
+      </c>
+      <c r="H534" t="s">
+        <v>11509</v>
+      </c>
+      <c r="I534" t="s">
+        <v>11509</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="B535" t="s">
+        <v>12001</v>
+      </c>
+      <c r="C535" t="s">
+        <v>38</v>
+      </c>
+      <c r="D535" t="s">
+        <v>44</v>
+      </c>
+      <c r="E535" t="s">
+        <v>45</v>
+      </c>
+      <c r="F535" t="s">
+        <v>12002</v>
+      </c>
+      <c r="G535" t="s">
+        <v>12002</v>
+      </c>
+      <c r="H535" t="s">
+        <v>12002</v>
+      </c>
+      <c r="I535" t="s">
+        <v>12002</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="B536" t="s">
+        <v>12003</v>
+      </c>
+      <c r="C536" t="s">
+        <v>251</v>
+      </c>
+      <c r="D536" t="s">
+        <v>49</v>
+      </c>
+      <c r="E536" t="s">
+        <v>45</v>
+      </c>
+      <c r="F536" t="s">
+        <v>50</v>
+      </c>
+      <c r="G536" t="s">
+        <v>50</v>
+      </c>
+      <c r="H536" t="s">
+        <v>50</v>
+      </c>
+      <c r="I536" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="B537" t="s">
+        <v>12004</v>
+      </c>
+      <c r="C537" t="s">
+        <v>251</v>
+      </c>
+      <c r="D537" t="s">
+        <v>44</v>
+      </c>
+      <c r="E537" t="s">
+        <v>45</v>
+      </c>
+      <c r="F537" t="s">
+        <v>12005</v>
+      </c>
+      <c r="G537" t="s">
+        <v>12005</v>
+      </c>
+      <c r="H537" t="s">
+        <v>12005</v>
+      </c>
+      <c r="I537" t="s">
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="B538" t="s">
+        <v>12006</v>
+      </c>
+      <c r="C538" t="s">
+        <v>251</v>
+      </c>
+      <c r="D538" t="s">
+        <v>49</v>
+      </c>
+      <c r="E538" t="s">
+        <v>45</v>
+      </c>
+      <c r="F538" t="s">
+        <v>50</v>
+      </c>
+      <c r="G538" t="s">
+        <v>50</v>
+      </c>
+      <c r="H538" t="s">
+        <v>50</v>
+      </c>
+      <c r="I538" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="B539" t="s">
+        <v>12007</v>
+      </c>
+      <c r="C539" t="s">
+        <v>251</v>
+      </c>
+      <c r="D539" t="s">
+        <v>44</v>
+      </c>
+      <c r="E539" t="s">
+        <v>45</v>
+      </c>
+      <c r="F539" t="s">
+        <v>12005</v>
+      </c>
+      <c r="G539" t="s">
+        <v>12005</v>
+      </c>
+      <c r="H539" t="s">
+        <v>12005</v>
+      </c>
+      <c r="I539" t="s">
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="B540" t="s">
+        <v>12008</v>
+      </c>
+      <c r="C540" t="s">
+        <v>251</v>
+      </c>
+      <c r="D540" t="s">
+        <v>49</v>
+      </c>
+      <c r="E540" t="s">
+        <v>45</v>
+      </c>
+      <c r="F540" t="s">
+        <v>50</v>
+      </c>
+      <c r="G540" t="s">
+        <v>50</v>
+      </c>
+      <c r="H540" t="s">
+        <v>50</v>
+      </c>
+      <c r="I540" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="B541" t="s">
+        <v>12009</v>
+      </c>
+      <c r="C541" t="s">
+        <v>251</v>
+      </c>
+      <c r="D541" t="s">
+        <v>44</v>
+      </c>
+      <c r="E541" t="s">
+        <v>45</v>
+      </c>
+      <c r="F541" t="s">
+        <v>12005</v>
+      </c>
+      <c r="G541" t="s">
+        <v>12005</v>
+      </c>
+      <c r="H541" t="s">
+        <v>12005</v>
+      </c>
+      <c r="I541" t="s">
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="B542" t="s">
+        <v>12010</v>
+      </c>
+      <c r="C542" t="s">
+        <v>251</v>
+      </c>
+      <c r="D542" t="s">
+        <v>49</v>
+      </c>
+      <c r="E542" t="s">
+        <v>45</v>
+      </c>
+      <c r="F542" t="s">
+        <v>50</v>
+      </c>
+      <c r="G542" t="s">
+        <v>50</v>
+      </c>
+      <c r="H542" t="s">
+        <v>50</v>
+      </c>
+      <c r="I542" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="B543" t="s">
+        <v>12011</v>
+      </c>
+      <c r="C543" t="s">
+        <v>251</v>
+      </c>
+      <c r="D543" t="s">
+        <v>44</v>
+      </c>
+      <c r="E543" t="s">
+        <v>45</v>
+      </c>
+      <c r="F543" t="s">
+        <v>12005</v>
+      </c>
+      <c r="G543" t="s">
+        <v>12005</v>
+      </c>
+      <c r="H543" t="s">
+        <v>12005</v>
+      </c>
+      <c r="I543" t="s">
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="B544" t="s">
+        <v>12012</v>
+      </c>
+      <c r="C544" t="s">
+        <v>38</v>
+      </c>
+      <c r="D544" t="s">
+        <v>44</v>
+      </c>
+      <c r="E544" t="s">
+        <v>45</v>
+      </c>
+      <c r="F544" t="s">
+        <v>12021</v>
+      </c>
+      <c r="G544" t="s">
+        <v>12021</v>
+      </c>
+      <c r="H544" t="s">
+        <v>12021</v>
+      </c>
+      <c r="I544" t="s">
+        <v>12021</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="B545" t="s">
+        <v>12013</v>
+      </c>
+      <c r="C545" t="s">
+        <v>251</v>
+      </c>
+      <c r="D545" t="s">
+        <v>49</v>
+      </c>
+      <c r="E545" t="s">
+        <v>45</v>
+      </c>
+      <c r="F545" t="s">
+        <v>50</v>
+      </c>
+      <c r="G545" t="s">
+        <v>50</v>
+      </c>
+      <c r="H545" t="s">
+        <v>50</v>
+      </c>
+      <c r="I545" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="B546" t="s">
+        <v>12014</v>
+      </c>
+      <c r="C546" t="s">
+        <v>251</v>
+      </c>
+      <c r="D546" t="s">
+        <v>44</v>
+      </c>
+      <c r="E546" t="s">
+        <v>45</v>
+      </c>
+      <c r="F546" t="s">
+        <v>12005</v>
+      </c>
+      <c r="G546" t="s">
+        <v>12005</v>
+      </c>
+      <c r="H546" t="s">
+        <v>12005</v>
+      </c>
+      <c r="I546" t="s">
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="B547" t="s">
+        <v>12015</v>
+      </c>
+      <c r="C547" t="s">
+        <v>251</v>
+      </c>
+      <c r="D547" t="s">
+        <v>49</v>
+      </c>
+      <c r="E547" t="s">
+        <v>45</v>
+      </c>
+      <c r="F547" t="s">
+        <v>50</v>
+      </c>
+      <c r="G547" t="s">
+        <v>50</v>
+      </c>
+      <c r="H547" t="s">
+        <v>50</v>
+      </c>
+      <c r="I547" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="B548" t="s">
+        <v>12016</v>
+      </c>
+      <c r="C548" t="s">
+        <v>251</v>
+      </c>
+      <c r="D548" t="s">
+        <v>44</v>
+      </c>
+      <c r="E548" t="s">
+        <v>45</v>
+      </c>
+      <c r="F548" t="s">
+        <v>12005</v>
+      </c>
+      <c r="G548" t="s">
+        <v>12005</v>
+      </c>
+      <c r="H548" t="s">
+        <v>12005</v>
+      </c>
+      <c r="I548" t="s">
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="B549" t="s">
+        <v>12017</v>
+      </c>
+      <c r="C549" t="s">
+        <v>251</v>
+      </c>
+      <c r="D549" t="s">
+        <v>49</v>
+      </c>
+      <c r="E549" t="s">
+        <v>45</v>
+      </c>
+      <c r="F549" t="s">
+        <v>50</v>
+      </c>
+      <c r="G549" t="s">
+        <v>50</v>
+      </c>
+      <c r="H549" t="s">
+        <v>50</v>
+      </c>
+      <c r="I549" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="B550" t="s">
+        <v>12018</v>
+      </c>
+      <c r="C550" t="s">
+        <v>251</v>
+      </c>
+      <c r="D550" t="s">
+        <v>44</v>
+      </c>
+      <c r="E550" t="s">
+        <v>45</v>
+      </c>
+      <c r="F550" t="s">
+        <v>12005</v>
+      </c>
+      <c r="G550" t="s">
+        <v>12005</v>
+      </c>
+      <c r="H550" t="s">
+        <v>12005</v>
+      </c>
+      <c r="I550" t="s">
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="B551" t="s">
+        <v>12019</v>
+      </c>
+      <c r="C551" t="s">
+        <v>251</v>
+      </c>
+      <c r="D551" t="s">
+        <v>49</v>
+      </c>
+      <c r="E551" t="s">
+        <v>45</v>
+      </c>
+      <c r="F551" t="s">
+        <v>50</v>
+      </c>
+      <c r="G551" t="s">
+        <v>50</v>
+      </c>
+      <c r="H551" t="s">
+        <v>50</v>
+      </c>
+      <c r="I551" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="B552" t="s">
+        <v>12020</v>
+      </c>
+      <c r="C552" t="s">
+        <v>251</v>
+      </c>
+      <c r="D552" t="s">
+        <v>44</v>
+      </c>
+      <c r="E552" t="s">
+        <v>45</v>
+      </c>
+      <c r="F552" t="s">
+        <v>12005</v>
+      </c>
+      <c r="G552" t="s">
+        <v>12005</v>
+      </c>
+      <c r="H552" t="s">
+        <v>12005</v>
+      </c>
+      <c r="I552" t="s">
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="B553" t="s">
+        <v>12022</v>
+      </c>
+      <c r="C553" t="s">
+        <v>38</v>
+      </c>
+      <c r="D553" t="s">
+        <v>44</v>
+      </c>
+      <c r="E553" t="s">
+        <v>45</v>
+      </c>
+      <c r="F553" t="s">
+        <v>12023</v>
+      </c>
+      <c r="G553" t="s">
+        <v>12023</v>
+      </c>
+      <c r="H553" t="s">
+        <v>12023</v>
+      </c>
+      <c r="I553" t="s">
+        <v>12023</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="B554" t="s">
+        <v>12024</v>
+      </c>
+      <c r="C554" t="s">
+        <v>251</v>
+      </c>
+      <c r="D554" t="s">
+        <v>49</v>
+      </c>
+      <c r="E554" t="s">
+        <v>45</v>
+      </c>
+      <c r="F554" t="s">
+        <v>50</v>
+      </c>
+      <c r="G554" t="s">
+        <v>50</v>
+      </c>
+      <c r="H554" t="s">
+        <v>50</v>
+      </c>
+      <c r="I554" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="B555" t="s">
+        <v>12025</v>
+      </c>
+      <c r="C555" t="s">
+        <v>251</v>
+      </c>
+      <c r="D555" t="s">
+        <v>44</v>
+      </c>
+      <c r="E555" t="s">
+        <v>45</v>
+      </c>
+      <c r="F555" t="s">
+        <v>12005</v>
+      </c>
+      <c r="G555" t="s">
+        <v>12005</v>
+      </c>
+      <c r="H555" t="s">
+        <v>12005</v>
+      </c>
+      <c r="I555" t="s">
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="B556" t="s">
+        <v>12026</v>
+      </c>
+      <c r="C556" t="s">
+        <v>251</v>
+      </c>
+      <c r="D556" t="s">
+        <v>49</v>
+      </c>
+      <c r="E556" t="s">
+        <v>45</v>
+      </c>
+      <c r="F556" t="s">
+        <v>50</v>
+      </c>
+      <c r="G556" t="s">
+        <v>50</v>
+      </c>
+      <c r="H556" t="s">
+        <v>50</v>
+      </c>
+      <c r="I556" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="B557" t="s">
+        <v>12027</v>
+      </c>
+      <c r="C557" t="s">
+        <v>251</v>
+      </c>
+      <c r="D557" t="s">
+        <v>44</v>
+      </c>
+      <c r="E557" t="s">
+        <v>45</v>
+      </c>
+      <c r="F557" t="s">
+        <v>12005</v>
+      </c>
+      <c r="G557" t="s">
+        <v>12005</v>
+      </c>
+      <c r="H557" t="s">
+        <v>12005</v>
+      </c>
+      <c r="I557" t="s">
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="B558" t="s">
+        <v>12028</v>
+      </c>
+      <c r="C558" t="s">
+        <v>251</v>
+      </c>
+      <c r="D558" t="s">
+        <v>49</v>
+      </c>
+      <c r="E558" t="s">
+        <v>45</v>
+      </c>
+      <c r="F558" t="s">
+        <v>50</v>
+      </c>
+      <c r="G558" t="s">
+        <v>50</v>
+      </c>
+      <c r="H558" t="s">
+        <v>50</v>
+      </c>
+      <c r="I558" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="B559" t="s">
+        <v>12029</v>
+      </c>
+      <c r="C559" t="s">
+        <v>251</v>
+      </c>
+      <c r="D559" t="s">
+        <v>44</v>
+      </c>
+      <c r="E559" t="s">
+        <v>45</v>
+      </c>
+      <c r="F559" t="s">
+        <v>12005</v>
+      </c>
+      <c r="G559" t="s">
+        <v>12005</v>
+      </c>
+      <c r="H559" t="s">
+        <v>12005</v>
+      </c>
+      <c r="I559" t="s">
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="B560" t="s">
+        <v>12030</v>
+      </c>
+      <c r="C560" t="s">
+        <v>251</v>
+      </c>
+      <c r="D560" t="s">
+        <v>49</v>
+      </c>
+      <c r="E560" t="s">
+        <v>45</v>
+      </c>
+      <c r="F560" t="s">
+        <v>50</v>
+      </c>
+      <c r="G560" t="s">
+        <v>50</v>
+      </c>
+      <c r="H560" t="s">
+        <v>50</v>
+      </c>
+      <c r="I560" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="B561" t="s">
+        <v>12031</v>
+      </c>
+      <c r="C561" t="s">
+        <v>251</v>
+      </c>
+      <c r="D561" t="s">
+        <v>44</v>
+      </c>
+      <c r="E561" t="s">
+        <v>45</v>
+      </c>
+      <c r="F561" t="s">
+        <v>12005</v>
+      </c>
+      <c r="G561" t="s">
+        <v>12005</v>
+      </c>
+      <c r="H561" t="s">
+        <v>12005</v>
+      </c>
+      <c r="I561" t="s">
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="B562" t="s">
+        <v>12032</v>
+      </c>
+      <c r="C562" t="s">
+        <v>38</v>
+      </c>
+      <c r="D562" t="s">
+        <v>44</v>
+      </c>
+      <c r="E562" t="s">
+        <v>45</v>
+      </c>
+      <c r="F562" t="s">
+        <v>12033</v>
+      </c>
+      <c r="G562" t="s">
+        <v>12033</v>
+      </c>
+      <c r="H562" t="s">
+        <v>12033</v>
+      </c>
+      <c r="I562" t="s">
+        <v>12033</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="B563" t="s">
+        <v>12034</v>
+      </c>
+      <c r="C563" t="s">
+        <v>101</v>
+      </c>
+      <c r="D563" t="s">
+        <v>44</v>
+      </c>
+      <c r="E563" t="s">
+        <v>45</v>
+      </c>
+      <c r="F563" t="s">
+        <v>12035</v>
+      </c>
+      <c r="G563" t="s">
+        <v>12035</v>
+      </c>
+      <c r="H563" t="s">
+        <v>12035</v>
+      </c>
+      <c r="I563" t="s">
+        <v>12035</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="B564" t="s">
+        <v>12036</v>
+      </c>
+      <c r="C564" t="s">
+        <v>38</v>
+      </c>
+      <c r="D564" t="s">
+        <v>49</v>
+      </c>
+      <c r="E564" t="s">
+        <v>45</v>
+      </c>
+      <c r="F564" t="s">
+        <v>50</v>
+      </c>
+      <c r="G564" t="s">
+        <v>50</v>
+      </c>
+      <c r="H564" t="s">
+        <v>50</v>
+      </c>
+      <c r="I564" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="B565" t="s">
+        <v>12037</v>
+      </c>
+      <c r="C565" t="s">
+        <v>38</v>
+      </c>
+      <c r="D565" t="s">
+        <v>44</v>
+      </c>
+      <c r="E565" t="s">
+        <v>45</v>
+      </c>
+      <c r="F565" t="s">
+        <v>12038</v>
+      </c>
+      <c r="G565" t="s">
+        <v>12038</v>
+      </c>
+      <c r="H565" t="s">
+        <v>12038</v>
+      </c>
+      <c r="I565" t="s">
+        <v>12038</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="B566" t="s">
+        <v>12039</v>
+      </c>
+      <c r="C566" t="s">
+        <v>101</v>
+      </c>
+      <c r="D566" t="s">
+        <v>44</v>
+      </c>
+      <c r="E566" t="s">
+        <v>45</v>
+      </c>
+      <c r="F566" t="s">
+        <v>12040</v>
+      </c>
+      <c r="G566" t="s">
+        <v>12040</v>
+      </c>
+      <c r="H566" t="s">
+        <v>12040</v>
+      </c>
+      <c r="I566" t="s">
+        <v>12040</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="B567" t="s">
+        <v>12041</v>
+      </c>
+      <c r="C567" t="s">
+        <v>101</v>
+      </c>
+      <c r="D567" t="s">
+        <v>44</v>
+      </c>
+      <c r="E567" t="s">
+        <v>45</v>
+      </c>
+      <c r="F567" t="s">
+        <v>12042</v>
+      </c>
+      <c r="G567" t="s">
+        <v>12042</v>
+      </c>
+      <c r="H567" t="s">
+        <v>12042</v>
+      </c>
+      <c r="I567" t="s">
+        <v>12042</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="B568" t="s">
+        <v>12043</v>
+      </c>
+      <c r="C568" t="s">
+        <v>101</v>
+      </c>
+      <c r="D568" t="s">
+        <v>44</v>
+      </c>
+      <c r="E568" t="s">
+        <v>45</v>
+      </c>
+      <c r="F568" t="s">
+        <v>12044</v>
+      </c>
+      <c r="G568" t="s">
+        <v>12044</v>
+      </c>
+      <c r="H568" t="s">
+        <v>12044</v>
+      </c>
+      <c r="I568" t="s">
+        <v>12044</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="B569" t="s">
+        <v>12045</v>
+      </c>
+      <c r="C569" t="s">
+        <v>101</v>
+      </c>
+      <c r="D569" t="s">
+        <v>44</v>
+      </c>
+      <c r="E569" t="s">
+        <v>45</v>
+      </c>
+      <c r="F569" t="s">
+        <v>12046</v>
+      </c>
+      <c r="G569" t="s">
+        <v>12046</v>
+      </c>
+      <c r="H569" t="s">
+        <v>12046</v>
+      </c>
+      <c r="I569" t="s">
+        <v>12046</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="B570" t="s">
+        <v>12047</v>
+      </c>
+      <c r="C570" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D570" t="s">
+        <v>44</v>
+      </c>
+      <c r="E570" t="s">
+        <v>45</v>
+      </c>
+      <c r="F570" t="s">
+        <v>12048</v>
+      </c>
+      <c r="G570" t="s">
+        <v>12048</v>
+      </c>
+      <c r="H570" t="s">
+        <v>12048</v>
+      </c>
+      <c r="I570" t="s">
+        <v>12048</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="B571" t="s">
+        <v>12049</v>
+      </c>
+      <c r="C571" t="s">
+        <v>41</v>
+      </c>
+      <c r="D571" t="s">
+        <v>44</v>
+      </c>
+      <c r="E571" t="s">
+        <v>45</v>
+      </c>
+      <c r="F571" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G571" t="s">
+        <v>2700</v>
+      </c>
+      <c r="H571" t="s">
+        <v>2700</v>
+      </c>
+      <c r="I571" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="B572" t="s">
+        <v>12050</v>
+      </c>
+      <c r="C572" t="s">
+        <v>78</v>
+      </c>
+      <c r="D572" t="s">
+        <v>49</v>
+      </c>
+      <c r="E572" t="s">
+        <v>45</v>
+      </c>
+      <c r="F572" t="s">
+        <v>50</v>
+      </c>
+      <c r="G572" t="s">
+        <v>50</v>
+      </c>
+      <c r="H572" t="s">
+        <v>50</v>
+      </c>
+      <c r="I572" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="B573" t="s">
+        <v>12051</v>
+      </c>
+      <c r="C573" t="s">
+        <v>78</v>
+      </c>
+      <c r="D573" t="s">
+        <v>44</v>
+      </c>
+      <c r="E573" t="s">
+        <v>45</v>
+      </c>
+      <c r="F573" t="s">
+        <v>11512</v>
+      </c>
+      <c r="G573" t="s">
+        <v>11512</v>
+      </c>
+      <c r="H573" t="s">
+        <v>11512</v>
+      </c>
+      <c r="I573" t="s">
+        <v>11512</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="B574" t="s">
+        <v>12052</v>
+      </c>
+      <c r="C574" t="s">
+        <v>78</v>
+      </c>
+      <c r="D574" t="s">
+        <v>49</v>
+      </c>
+      <c r="E574" t="s">
+        <v>45</v>
+      </c>
+      <c r="F574" t="s">
+        <v>50</v>
+      </c>
+      <c r="G574" t="s">
+        <v>50</v>
+      </c>
+      <c r="H574" t="s">
+        <v>50</v>
+      </c>
+      <c r="I574" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="B575" t="s">
+        <v>12053</v>
+      </c>
+      <c r="C575" t="s">
+        <v>78</v>
+      </c>
+      <c r="D575" t="s">
+        <v>44</v>
+      </c>
+      <c r="E575" t="s">
+        <v>45</v>
+      </c>
+      <c r="F575" t="s">
+        <v>11550</v>
+      </c>
+      <c r="G575" t="s">
+        <v>11550</v>
+      </c>
+      <c r="H575" t="s">
+        <v>11550</v>
+      </c>
+      <c r="I575" t="s">
+        <v>11550</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="B576" t="s">
+        <v>12057</v>
+      </c>
+      <c r="C576" t="s">
+        <v>77</v>
+      </c>
+      <c r="D576" t="s">
+        <v>44</v>
+      </c>
+      <c r="E576" t="s">
+        <v>45</v>
+      </c>
+      <c r="F576" t="s">
+        <v>12058</v>
+      </c>
+      <c r="G576" t="s">
+        <v>12058</v>
+      </c>
+      <c r="H576" t="s">
+        <v>12058</v>
+      </c>
+      <c r="I576" t="s">
+        <v>12058</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="B577" t="s">
+        <v>12059</v>
+      </c>
+      <c r="C577" t="s">
+        <v>77</v>
+      </c>
+      <c r="D577" t="s">
+        <v>49</v>
+      </c>
+      <c r="E577" t="s">
+        <v>45</v>
+      </c>
+      <c r="F577" t="s">
+        <v>12060</v>
+      </c>
+      <c r="G577" t="s">
+        <v>12060</v>
+      </c>
+      <c r="H577" t="s">
+        <v>12060</v>
+      </c>
+      <c r="I577" t="s">
+        <v>12060</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="B578" t="s">
+        <v>12061</v>
+      </c>
+      <c r="C578" t="s">
+        <v>77</v>
+      </c>
+      <c r="D578" t="s">
+        <v>44</v>
+      </c>
+      <c r="E578" t="s">
+        <v>45</v>
+      </c>
+      <c r="F578" t="s">
+        <v>11780</v>
+      </c>
+      <c r="G578" t="s">
+        <v>11780</v>
+      </c>
+      <c r="H578" t="s">
+        <v>11780</v>
+      </c>
+      <c r="I578" t="s">
+        <v>11780</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="B579" t="s">
+        <v>12062</v>
+      </c>
+      <c r="C579" t="s">
+        <v>77</v>
+      </c>
+      <c r="D579" t="s">
+        <v>49</v>
+      </c>
+      <c r="E579" t="s">
+        <v>45</v>
+      </c>
+      <c r="F579" t="s">
+        <v>2570</v>
+      </c>
+      <c r="G579" t="s">
+        <v>2570</v>
+      </c>
+      <c r="H579" t="s">
+        <v>2570</v>
+      </c>
+      <c r="I579" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="B580" t="s">
+        <v>12063</v>
+      </c>
+      <c r="C580" t="s">
+        <v>77</v>
+      </c>
+      <c r="D580" t="s">
+        <v>49</v>
+      </c>
+      <c r="E580" t="s">
+        <v>45</v>
+      </c>
+      <c r="F580" t="s">
+        <v>2574</v>
+      </c>
+      <c r="G580" t="s">
+        <v>2574</v>
+      </c>
+      <c r="H580" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I580" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="B581" t="s">
+        <v>12064</v>
+      </c>
+      <c r="C581" t="s">
+        <v>77</v>
+      </c>
+      <c r="D581" t="s">
+        <v>49</v>
+      </c>
+      <c r="E581" t="s">
+        <v>45</v>
+      </c>
+      <c r="F581" t="s">
+        <v>12065</v>
+      </c>
+      <c r="G581" t="s">
+        <v>12065</v>
+      </c>
+      <c r="H581" t="s">
+        <v>12065</v>
+      </c>
+      <c r="I581" t="s">
+        <v>12065</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="B582" t="s">
+        <v>12066</v>
+      </c>
+      <c r="C582" t="s">
+        <v>78</v>
+      </c>
+      <c r="D582" t="s">
+        <v>49</v>
+      </c>
+      <c r="E582" t="s">
+        <v>45</v>
+      </c>
+      <c r="F582" t="s">
+        <v>11646</v>
+      </c>
+      <c r="G582" t="s">
+        <v>11646</v>
+      </c>
+      <c r="H582" t="s">
+        <v>11646</v>
+      </c>
+      <c r="I582" t="s">
+        <v>11646</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="B583" t="s">
+        <v>12067</v>
+      </c>
+      <c r="C583" t="s">
+        <v>77</v>
+      </c>
+      <c r="D583" t="s">
+        <v>49</v>
+      </c>
+      <c r="E583" t="s">
+        <v>45</v>
+      </c>
+      <c r="F583" t="s">
+        <v>50</v>
+      </c>
+      <c r="G583" t="s">
+        <v>50</v>
+      </c>
+      <c r="H583" t="s">
+        <v>50</v>
+      </c>
+      <c r="I583" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="B584" t="s">
+        <v>12068</v>
+      </c>
+      <c r="C584" t="s">
+        <v>77</v>
+      </c>
+      <c r="D584" t="s">
+        <v>44</v>
+      </c>
+      <c r="E584" t="s">
+        <v>45</v>
+      </c>
+      <c r="F584" t="s">
+        <v>11510</v>
+      </c>
+      <c r="G584" t="s">
+        <v>11510</v>
+      </c>
+      <c r="H584" t="s">
+        <v>11510</v>
+      </c>
+      <c r="I584" t="s">
+        <v>11510</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="B585" t="s">
+        <v>12069</v>
+      </c>
+      <c r="C585" t="s">
+        <v>78</v>
+      </c>
+      <c r="D585" t="s">
+        <v>49</v>
+      </c>
+      <c r="E585" t="s">
+        <v>45</v>
+      </c>
+      <c r="F585" t="s">
+        <v>50</v>
+      </c>
+      <c r="G585" t="s">
+        <v>50</v>
+      </c>
+      <c r="H585" t="s">
+        <v>50</v>
+      </c>
+      <c r="I585" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="B586" t="s">
+        <v>12070</v>
+      </c>
+      <c r="C586" t="s">
+        <v>78</v>
+      </c>
+      <c r="D586" t="s">
+        <v>44</v>
+      </c>
+      <c r="E586" t="s">
+        <v>45</v>
+      </c>
+      <c r="F586" t="s">
+        <v>11688</v>
+      </c>
+      <c r="G586" t="s">
+        <v>11688</v>
+      </c>
+      <c r="H586" t="s">
+        <v>11688</v>
+      </c>
+      <c r="I586" t="s">
+        <v>11688</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="B587" t="s">
+        <v>12071</v>
+      </c>
+      <c r="C587" t="s">
+        <v>78</v>
+      </c>
+      <c r="D587" t="s">
+        <v>49</v>
+      </c>
+      <c r="E587" t="s">
+        <v>45</v>
+      </c>
+      <c r="F587" t="s">
+        <v>50</v>
+      </c>
+      <c r="G587" t="s">
+        <v>50</v>
+      </c>
+      <c r="H587" t="s">
+        <v>50</v>
+      </c>
+      <c r="I587" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="B588" t="s">
+        <v>12072</v>
+      </c>
+      <c r="C588" t="s">
+        <v>78</v>
+      </c>
+      <c r="D588" t="s">
+        <v>44</v>
+      </c>
+      <c r="E588" t="s">
+        <v>45</v>
+      </c>
+      <c r="F588" t="s">
+        <v>11688</v>
+      </c>
+      <c r="G588" t="s">
+        <v>11688</v>
+      </c>
+      <c r="H588" t="s">
+        <v>11688</v>
+      </c>
+      <c r="I588" t="s">
+        <v>11688</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="B589" t="s">
+        <v>12073</v>
+      </c>
+      <c r="C589" t="s">
+        <v>78</v>
+      </c>
+      <c r="D589" t="s">
+        <v>44</v>
+      </c>
+      <c r="E589" t="s">
+        <v>45</v>
+      </c>
+      <c r="F589" t="s">
+        <v>50</v>
+      </c>
+      <c r="G589" t="s">
+        <v>50</v>
+      </c>
+      <c r="H589" t="s">
+        <v>50</v>
+      </c>
+      <c r="I589" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="B590" t="s">
+        <v>12074</v>
+      </c>
+      <c r="C590" t="s">
+        <v>78</v>
+      </c>
+      <c r="D590" t="s">
+        <v>44</v>
+      </c>
+      <c r="E590" t="s">
+        <v>45</v>
+      </c>
+      <c r="F590" t="s">
+        <v>11510</v>
+      </c>
+      <c r="G590" t="s">
+        <v>11510</v>
+      </c>
+      <c r="H590" t="s">
+        <v>11510</v>
+      </c>
+      <c r="I590" t="s">
+        <v>11510</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="B591" t="s">
+        <v>12075</v>
+      </c>
+      <c r="C591" t="s">
+        <v>40</v>
+      </c>
+      <c r="D591" t="s">
+        <v>49</v>
+      </c>
+      <c r="E591" t="s">
+        <v>45</v>
+      </c>
+      <c r="F591" t="s">
+        <v>12076</v>
+      </c>
+      <c r="G591" t="s">
+        <v>12076</v>
+      </c>
+      <c r="H591" t="s">
+        <v>12076</v>
+      </c>
+      <c r="I591" t="s">
+        <v>12076</v>
+      </c>
+    </row>
     <row r="592"/>
     <row r="593"/>
     <row r="594"/>

--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5772633" uniqueCount="12077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5787539" uniqueCount="12098">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -40968,6 +40968,69 @@
   </si>
   <si>
     <t xml:space="preserve">Alarme Externo!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teperatura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3959</t>
   </si>
 </sst>
 </file>
@@ -58255,26 +58318,526 @@
         <v>12076</v>
       </c>
     </row>
-    <row r="592"/>
-    <row r="593"/>
-    <row r="594"/>
-    <row r="595"/>
-    <row r="596"/>
-    <row r="597"/>
-    <row r="598"/>
-    <row r="599"/>
-    <row r="600"/>
-    <row r="601"/>
-    <row r="602"/>
-    <row r="603"/>
-    <row r="604"/>
-    <row r="605"/>
-    <row r="606"/>
-    <row r="607"/>
-    <row r="608"/>
-    <row r="609"/>
-    <row r="610"/>
-    <row r="611"/>
+    <row r="592">
+      <c r="B592" t="s">
+        <v>12077</v>
+      </c>
+      <c r="C592" t="s">
+        <v>78</v>
+      </c>
+      <c r="D592" t="s">
+        <v>44</v>
+      </c>
+      <c r="E592" t="s">
+        <v>45</v>
+      </c>
+      <c r="F592" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G592" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H592" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I592" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="B593" t="s">
+        <v>12078</v>
+      </c>
+      <c r="C593" t="s">
+        <v>78</v>
+      </c>
+      <c r="D593" t="s">
+        <v>44</v>
+      </c>
+      <c r="E593" t="s">
+        <v>45</v>
+      </c>
+      <c r="F593" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G593" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H593" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I593" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="B594" t="s">
+        <v>12079</v>
+      </c>
+      <c r="C594" t="s">
+        <v>78</v>
+      </c>
+      <c r="D594" t="s">
+        <v>44</v>
+      </c>
+      <c r="E594" t="s">
+        <v>45</v>
+      </c>
+      <c r="F594" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G594" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H594" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I594" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="B595" t="s">
+        <v>12080</v>
+      </c>
+      <c r="C595" t="s">
+        <v>77</v>
+      </c>
+      <c r="D595" t="s">
+        <v>44</v>
+      </c>
+      <c r="E595" t="s">
+        <v>45</v>
+      </c>
+      <c r="F595" t="s">
+        <v>12095</v>
+      </c>
+      <c r="G595" t="s">
+        <v>11458</v>
+      </c>
+      <c r="H595" t="s">
+        <v>11458</v>
+      </c>
+      <c r="I595" t="s">
+        <v>11458</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="B596" t="s">
+        <v>12081</v>
+      </c>
+      <c r="C596" t="s">
+        <v>101</v>
+      </c>
+      <c r="D596" t="s">
+        <v>44</v>
+      </c>
+      <c r="E596" t="s">
+        <v>45</v>
+      </c>
+      <c r="F596" t="s">
+        <v>11534</v>
+      </c>
+      <c r="G596" t="s">
+        <v>11461</v>
+      </c>
+      <c r="H596" t="s">
+        <v>11461</v>
+      </c>
+      <c r="I596" t="s">
+        <v>11461</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="B597" t="s">
+        <v>12082</v>
+      </c>
+      <c r="C597" t="s">
+        <v>101</v>
+      </c>
+      <c r="D597" t="s">
+        <v>44</v>
+      </c>
+      <c r="E597" t="s">
+        <v>45</v>
+      </c>
+      <c r="F597" t="s">
+        <v>11462</v>
+      </c>
+      <c r="G597" t="s">
+        <v>11462</v>
+      </c>
+      <c r="H597" t="s">
+        <v>11462</v>
+      </c>
+      <c r="I597" t="s">
+        <v>11462</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="B598" t="s">
+        <v>12083</v>
+      </c>
+      <c r="C598" t="s">
+        <v>101</v>
+      </c>
+      <c r="D598" t="s">
+        <v>44</v>
+      </c>
+      <c r="E598" t="s">
+        <v>45</v>
+      </c>
+      <c r="F598" t="s">
+        <v>11537</v>
+      </c>
+      <c r="G598" t="s">
+        <v>11463</v>
+      </c>
+      <c r="H598" t="s">
+        <v>11463</v>
+      </c>
+      <c r="I598" t="s">
+        <v>11463</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="B599" t="s">
+        <v>12084</v>
+      </c>
+      <c r="C599" t="s">
+        <v>77</v>
+      </c>
+      <c r="D599" t="s">
+        <v>49</v>
+      </c>
+      <c r="E599" t="s">
+        <v>45</v>
+      </c>
+      <c r="F599" t="s">
+        <v>50</v>
+      </c>
+      <c r="G599" t="s">
+        <v>50</v>
+      </c>
+      <c r="H599" t="s">
+        <v>50</v>
+      </c>
+      <c r="I599" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="B600" t="s">
+        <v>12085</v>
+      </c>
+      <c r="C600" t="s">
+        <v>77</v>
+      </c>
+      <c r="D600" t="s">
+        <v>44</v>
+      </c>
+      <c r="E600" t="s">
+        <v>45</v>
+      </c>
+      <c r="F600" t="s">
+        <v>11512</v>
+      </c>
+      <c r="G600" t="s">
+        <v>11512</v>
+      </c>
+      <c r="H600" t="s">
+        <v>11512</v>
+      </c>
+      <c r="I600" t="s">
+        <v>11512</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="B601" t="s">
+        <v>12086</v>
+      </c>
+      <c r="C601" t="s">
+        <v>77</v>
+      </c>
+      <c r="D601" t="s">
+        <v>49</v>
+      </c>
+      <c r="E601" t="s">
+        <v>45</v>
+      </c>
+      <c r="F601" t="s">
+        <v>50</v>
+      </c>
+      <c r="G601" t="s">
+        <v>50</v>
+      </c>
+      <c r="H601" t="s">
+        <v>50</v>
+      </c>
+      <c r="I601" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="B602" t="s">
+        <v>12087</v>
+      </c>
+      <c r="C602" t="s">
+        <v>77</v>
+      </c>
+      <c r="D602" t="s">
+        <v>44</v>
+      </c>
+      <c r="E602" t="s">
+        <v>45</v>
+      </c>
+      <c r="F602" t="s">
+        <v>11512</v>
+      </c>
+      <c r="G602" t="s">
+        <v>11512</v>
+      </c>
+      <c r="H602" t="s">
+        <v>11512</v>
+      </c>
+      <c r="I602" t="s">
+        <v>11512</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="B603" t="s">
+        <v>12088</v>
+      </c>
+      <c r="C603" t="s">
+        <v>11926</v>
+      </c>
+      <c r="D603" t="s">
+        <v>44</v>
+      </c>
+      <c r="E603" t="s">
+        <v>45</v>
+      </c>
+      <c r="F603" t="s">
+        <v>11930</v>
+      </c>
+      <c r="G603" t="s">
+        <v>47</v>
+      </c>
+      <c r="H603" t="s">
+        <v>47</v>
+      </c>
+      <c r="I603" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="B604" t="s">
+        <v>12089</v>
+      </c>
+      <c r="C604" t="s">
+        <v>101</v>
+      </c>
+      <c r="D604" t="s">
+        <v>49</v>
+      </c>
+      <c r="E604" t="s">
+        <v>45</v>
+      </c>
+      <c r="F604" t="s">
+        <v>50</v>
+      </c>
+      <c r="G604" t="s">
+        <v>50</v>
+      </c>
+      <c r="H604" t="s">
+        <v>50</v>
+      </c>
+      <c r="I604" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="B605" t="s">
+        <v>12090</v>
+      </c>
+      <c r="C605" t="s">
+        <v>101</v>
+      </c>
+      <c r="D605" t="s">
+        <v>44</v>
+      </c>
+      <c r="E605" t="s">
+        <v>45</v>
+      </c>
+      <c r="F605" t="s">
+        <v>11510</v>
+      </c>
+      <c r="G605" t="s">
+        <v>11510</v>
+      </c>
+      <c r="H605" t="s">
+        <v>11510</v>
+      </c>
+      <c r="I605" t="s">
+        <v>11510</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="B606" t="s">
+        <v>12091</v>
+      </c>
+      <c r="C606" t="s">
+        <v>77</v>
+      </c>
+      <c r="D606" t="s">
+        <v>49</v>
+      </c>
+      <c r="E606" t="s">
+        <v>45</v>
+      </c>
+      <c r="F606" t="s">
+        <v>50</v>
+      </c>
+      <c r="G606" t="s">
+        <v>50</v>
+      </c>
+      <c r="H606" t="s">
+        <v>50</v>
+      </c>
+      <c r="I606" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="B607" t="s">
+        <v>12092</v>
+      </c>
+      <c r="C607" t="s">
+        <v>77</v>
+      </c>
+      <c r="D607" t="s">
+        <v>44</v>
+      </c>
+      <c r="E607" t="s">
+        <v>45</v>
+      </c>
+      <c r="F607" t="s">
+        <v>11508</v>
+      </c>
+      <c r="G607" t="s">
+        <v>11508</v>
+      </c>
+      <c r="H607" t="s">
+        <v>11508</v>
+      </c>
+      <c r="I607" t="s">
+        <v>11508</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="B608" t="s">
+        <v>12093</v>
+      </c>
+      <c r="C608" t="s">
+        <v>101</v>
+      </c>
+      <c r="D608" t="s">
+        <v>49</v>
+      </c>
+      <c r="E608" t="s">
+        <v>45</v>
+      </c>
+      <c r="F608" t="s">
+        <v>50</v>
+      </c>
+      <c r="G608" t="s">
+        <v>50</v>
+      </c>
+      <c r="H608" t="s">
+        <v>50</v>
+      </c>
+      <c r="I608" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="B609" t="s">
+        <v>12094</v>
+      </c>
+      <c r="C609" t="s">
+        <v>101</v>
+      </c>
+      <c r="D609" t="s">
+        <v>44</v>
+      </c>
+      <c r="E609" t="s">
+        <v>45</v>
+      </c>
+      <c r="F609" t="s">
+        <v>11509</v>
+      </c>
+      <c r="G609" t="s">
+        <v>11509</v>
+      </c>
+      <c r="H609" t="s">
+        <v>11509</v>
+      </c>
+      <c r="I609" t="s">
+        <v>11509</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="B610" t="s">
+        <v>12096</v>
+      </c>
+      <c r="C610" t="s">
+        <v>101</v>
+      </c>
+      <c r="D610" t="s">
+        <v>49</v>
+      </c>
+      <c r="E610" t="s">
+        <v>45</v>
+      </c>
+      <c r="F610" t="s">
+        <v>50</v>
+      </c>
+      <c r="G610" t="s">
+        <v>50</v>
+      </c>
+      <c r="H610" t="s">
+        <v>50</v>
+      </c>
+      <c r="I610" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="B611" t="s">
+        <v>12097</v>
+      </c>
+      <c r="C611" t="s">
+        <v>101</v>
+      </c>
+      <c r="D611" t="s">
+        <v>44</v>
+      </c>
+      <c r="E611" t="s">
+        <v>45</v>
+      </c>
+      <c r="F611" t="s">
+        <v>11550</v>
+      </c>
+      <c r="G611" t="s">
+        <v>11550</v>
+      </c>
+      <c r="H611" t="s">
+        <v>11550</v>
+      </c>
+      <c r="I611" t="s">
+        <v>11550</v>
+      </c>
+    </row>
     <row r="612"/>
     <row r="613"/>
     <row r="614"/>

--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5787539" uniqueCount="12098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5795004" uniqueCount="12099">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -41031,6 +41031,9 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId3959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperatura</t>
   </si>
 </sst>
 </file>
@@ -58410,16 +58413,16 @@
         <v>45</v>
       </c>
       <c r="F595" t="s">
-        <v>12095</v>
+        <v>12098</v>
       </c>
       <c r="G595" t="s">
-        <v>11458</v>
+        <v>12098</v>
       </c>
       <c r="H595" t="s">
-        <v>11458</v>
+        <v>12098</v>
       </c>
       <c r="I595" t="s">
-        <v>11458</v>
+        <v>12098</v>
       </c>
     </row>
     <row r="596">
@@ -58439,13 +58442,13 @@
         <v>11534</v>
       </c>
       <c r="G596" t="s">
-        <v>11461</v>
+        <v>11534</v>
       </c>
       <c r="H596" t="s">
-        <v>11461</v>
+        <v>11534</v>
       </c>
       <c r="I596" t="s">
-        <v>11461</v>
+        <v>11534</v>
       </c>
     </row>
     <row r="597">
@@ -58491,13 +58494,13 @@
         <v>11537</v>
       </c>
       <c r="G598" t="s">
-        <v>11463</v>
+        <v>11537</v>
       </c>
       <c r="H598" t="s">
-        <v>11463</v>
+        <v>11537</v>
       </c>
       <c r="I598" t="s">
-        <v>11463</v>
+        <v>11537</v>
       </c>
     </row>
     <row r="599">
@@ -58621,13 +58624,13 @@
         <v>11930</v>
       </c>
       <c r="G603" t="s">
-        <v>47</v>
+        <v>11930</v>
       </c>
       <c r="H603" t="s">
-        <v>47</v>
+        <v>11930</v>
       </c>
       <c r="I603" t="s">
-        <v>47</v>
+        <v>11930</v>
       </c>
     </row>
     <row r="604">

--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5795004" uniqueCount="12099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5935062" uniqueCount="12205">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -41034,6 +41034,369 @@
   </si>
   <si>
     <t xml:space="preserve">Temperatura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIGIENIZAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRIR PORTA
+PARA COMEÇAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRIR PORTA
+PARA COMEÇAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRIR PORTA
+PARA COMEÇAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRIR PORTA
+PARA COMEÇAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA SAIR
+DO PROCESSO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRIR PORTA
+PARA COMEÇAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA SAIR
+DO PROCESSO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA SAIR
+DO DEGELO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserir Senha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*****</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA CANCELAR
+A HIGIENIZAÇÃO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRIR PORTA
+PARA COMEÇAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA SAIR
+DO PROCESSO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA SAIR
+DO DEGELO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA CANCELAR
+A HIGIENIZAÇÃO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRIR PORTA
+PARA COMEÇAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA SAIR
+DO PROCESSO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA SAIR
+DO DEGELO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA CANCELAR
+A HIGIENIZAÇÃO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRIR PORTA
+PARA COMEÇAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA SAIR
+DO PROCESSO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA SAIR
+DO DEGELO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA CANCELAR
+A HIGIENIZAÇÃO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRIR PORTA
+PARA COMEÇAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA SAIR
+DO PROCESSO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA SAIR
+DO DEGELO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA CANCELAR
+A HIGIENIZAÇÃO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRIR PORTA
+PARA COMEÇAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA SAIR
+DO PROCESSO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA SAIR
+DO DEGELO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA CANCELAR
+A HIGIENIZAÇÃO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRIR PORTA
+PARA COMEÇAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA SAIR
+DO PROCESSO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA SAIR
+DO DEGELO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA CANCELAR
+A HIGIENIZAÇÃO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRIR PORTA
+PARA COMEÇAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA SAIR
+DO PROCESSO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA SAIR
+DO DEGELO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA CANCELAR
+A HIGIENIZAÇÃO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRIR PORTA
+PARA COMEÇAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA SAIR
+DO PROCESSO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA SAIR
+DO DEGELO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA CANCELAR
+A HIGIENIZAÇÃO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRIR PORTA
+PARA COMEÇAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA SAIR
+DO PROCESSO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA SAIR
+DO DEGELO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESEJA CANCELAR
+A HIGIENIZAÇÃO?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9999.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9999.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-999.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">999.9</t>
   </si>
 </sst>
 </file>
@@ -58841,58 +59204,1358 @@
         <v>11550</v>
       </c>
     </row>
-    <row r="612"/>
-    <row r="613"/>
-    <row r="614"/>
-    <row r="615"/>
-    <row r="616"/>
-    <row r="617"/>
-    <row r="618"/>
-    <row r="619"/>
-    <row r="620"/>
-    <row r="621"/>
-    <row r="622"/>
-    <row r="623"/>
-    <row r="624"/>
-    <row r="625"/>
-    <row r="626"/>
-    <row r="627"/>
-    <row r="628"/>
-    <row r="629"/>
-    <row r="630"/>
-    <row r="631"/>
-    <row r="632"/>
-    <row r="633"/>
-    <row r="634"/>
-    <row r="635"/>
-    <row r="636"/>
-    <row r="637"/>
-    <row r="638"/>
-    <row r="639"/>
-    <row r="640"/>
-    <row r="641"/>
-    <row r="642"/>
-    <row r="643"/>
-    <row r="644"/>
-    <row r="645"/>
-    <row r="646"/>
-    <row r="647"/>
-    <row r="648"/>
-    <row r="649"/>
-    <row r="650"/>
-    <row r="651"/>
-    <row r="652"/>
-    <row r="653"/>
-    <row r="654"/>
-    <row r="655"/>
-    <row r="656"/>
-    <row r="657"/>
-    <row r="658"/>
-    <row r="659"/>
-    <row r="660"/>
-    <row r="661"/>
-    <row r="662"/>
-    <row r="663"/>
+    <row r="612">
+      <c r="B612" t="s">
+        <v>12099</v>
+      </c>
+      <c r="C612" t="s">
+        <v>77</v>
+      </c>
+      <c r="D612" t="s">
+        <v>44</v>
+      </c>
+      <c r="E612" t="s">
+        <v>45</v>
+      </c>
+      <c r="F612" t="s">
+        <v>12100</v>
+      </c>
+      <c r="G612" t="s">
+        <v>12100</v>
+      </c>
+      <c r="H612" t="s">
+        <v>12100</v>
+      </c>
+      <c r="I612" t="s">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="B613" t="s">
+        <v>12101</v>
+      </c>
+      <c r="C613" t="s">
+        <v>40</v>
+      </c>
+      <c r="D613" t="s">
+        <v>49</v>
+      </c>
+      <c r="E613" t="s">
+        <v>45</v>
+      </c>
+      <c r="F613" t="s">
+        <v>12102</v>
+      </c>
+      <c r="G613" t="s">
+        <v>12102</v>
+      </c>
+      <c r="H613" t="s">
+        <v>12102</v>
+      </c>
+      <c r="I613" t="s">
+        <v>12102</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="B614" t="s">
+        <v>12104</v>
+      </c>
+      <c r="C614" t="s">
+        <v>78</v>
+      </c>
+      <c r="D614" t="s">
+        <v>44</v>
+      </c>
+      <c r="E614" t="s">
+        <v>45</v>
+      </c>
+      <c r="F614" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G614" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H614" t="s">
+        <v>1574</v>
+      </c>
+      <c r="I614" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="B615" t="s">
+        <v>12105</v>
+      </c>
+      <c r="C615" t="s">
+        <v>77</v>
+      </c>
+      <c r="D615" t="s">
+        <v>44</v>
+      </c>
+      <c r="E615" t="s">
+        <v>45</v>
+      </c>
+      <c r="F615" t="s">
+        <v>11458</v>
+      </c>
+      <c r="G615" t="s">
+        <v>11458</v>
+      </c>
+      <c r="H615" t="s">
+        <v>11458</v>
+      </c>
+      <c r="I615" t="s">
+        <v>11458</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="B616" t="s">
+        <v>12106</v>
+      </c>
+      <c r="C616" t="s">
+        <v>101</v>
+      </c>
+      <c r="D616" t="s">
+        <v>44</v>
+      </c>
+      <c r="E616" t="s">
+        <v>45</v>
+      </c>
+      <c r="F616" t="s">
+        <v>11462</v>
+      </c>
+      <c r="G616" t="s">
+        <v>11462</v>
+      </c>
+      <c r="H616" t="s">
+        <v>11462</v>
+      </c>
+      <c r="I616" t="s">
+        <v>11462</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="B617" t="s">
+        <v>12107</v>
+      </c>
+      <c r="C617" t="s">
+        <v>77</v>
+      </c>
+      <c r="D617" t="s">
+        <v>49</v>
+      </c>
+      <c r="E617" t="s">
+        <v>45</v>
+      </c>
+      <c r="F617" t="s">
+        <v>50</v>
+      </c>
+      <c r="G617" t="s">
+        <v>50</v>
+      </c>
+      <c r="H617" t="s">
+        <v>50</v>
+      </c>
+      <c r="I617" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="B618" t="s">
+        <v>12108</v>
+      </c>
+      <c r="C618" t="s">
+        <v>77</v>
+      </c>
+      <c r="D618" t="s">
+        <v>44</v>
+      </c>
+      <c r="E618" t="s">
+        <v>45</v>
+      </c>
+      <c r="F618" t="s">
+        <v>11512</v>
+      </c>
+      <c r="G618" t="s">
+        <v>11512</v>
+      </c>
+      <c r="H618" t="s">
+        <v>11512</v>
+      </c>
+      <c r="I618" t="s">
+        <v>11512</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="B619" t="s">
+        <v>12109</v>
+      </c>
+      <c r="C619" t="s">
+        <v>11926</v>
+      </c>
+      <c r="D619" t="s">
+        <v>44</v>
+      </c>
+      <c r="E619" t="s">
+        <v>45</v>
+      </c>
+      <c r="F619" t="s">
+        <v>11930</v>
+      </c>
+      <c r="G619" t="s">
+        <v>47</v>
+      </c>
+      <c r="H619" t="s">
+        <v>47</v>
+      </c>
+      <c r="I619" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="B620" t="s">
+        <v>12110</v>
+      </c>
+      <c r="C620" t="s">
+        <v>101</v>
+      </c>
+      <c r="D620" t="s">
+        <v>49</v>
+      </c>
+      <c r="E620" t="s">
+        <v>45</v>
+      </c>
+      <c r="F620" t="s">
+        <v>50</v>
+      </c>
+      <c r="G620" t="s">
+        <v>50</v>
+      </c>
+      <c r="H620" t="s">
+        <v>50</v>
+      </c>
+      <c r="I620" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="B621" t="s">
+        <v>12111</v>
+      </c>
+      <c r="C621" t="s">
+        <v>101</v>
+      </c>
+      <c r="D621" t="s">
+        <v>44</v>
+      </c>
+      <c r="E621" t="s">
+        <v>45</v>
+      </c>
+      <c r="F621" t="s">
+        <v>11510</v>
+      </c>
+      <c r="G621" t="s">
+        <v>11510</v>
+      </c>
+      <c r="H621" t="s">
+        <v>11510</v>
+      </c>
+      <c r="I621" t="s">
+        <v>11510</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="B622" t="s">
+        <v>12114</v>
+      </c>
+      <c r="C622" t="s">
+        <v>77</v>
+      </c>
+      <c r="D622" t="s">
+        <v>49</v>
+      </c>
+      <c r="E622" t="s">
+        <v>45</v>
+      </c>
+      <c r="F622" t="s">
+        <v>2570</v>
+      </c>
+      <c r="G622" t="s">
+        <v>2570</v>
+      </c>
+      <c r="H622" t="s">
+        <v>2570</v>
+      </c>
+      <c r="I622" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="B623" t="s">
+        <v>12115</v>
+      </c>
+      <c r="C623" t="s">
+        <v>77</v>
+      </c>
+      <c r="D623" t="s">
+        <v>49</v>
+      </c>
+      <c r="E623" t="s">
+        <v>45</v>
+      </c>
+      <c r="F623" t="s">
+        <v>2574</v>
+      </c>
+      <c r="G623" t="s">
+        <v>2574</v>
+      </c>
+      <c r="H623" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I623" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="B624" t="s">
+        <v>12116</v>
+      </c>
+      <c r="C624" t="s">
+        <v>77</v>
+      </c>
+      <c r="D624" t="s">
+        <v>49</v>
+      </c>
+      <c r="E624" t="s">
+        <v>45</v>
+      </c>
+      <c r="F624" t="s">
+        <v>12117</v>
+      </c>
+      <c r="G624" t="s">
+        <v>12117</v>
+      </c>
+      <c r="H624" t="s">
+        <v>12117</v>
+      </c>
+      <c r="I624" t="s">
+        <v>12117</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="B625" t="s">
+        <v>12120</v>
+      </c>
+      <c r="C625" t="s">
+        <v>77</v>
+      </c>
+      <c r="D625" t="s">
+        <v>49</v>
+      </c>
+      <c r="E625" t="s">
+        <v>45</v>
+      </c>
+      <c r="F625" t="s">
+        <v>2574</v>
+      </c>
+      <c r="G625" t="s">
+        <v>2574</v>
+      </c>
+      <c r="H625" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I625" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="B626" t="s">
+        <v>12121</v>
+      </c>
+      <c r="C626" t="s">
+        <v>77</v>
+      </c>
+      <c r="D626" t="s">
+        <v>49</v>
+      </c>
+      <c r="E626" t="s">
+        <v>45</v>
+      </c>
+      <c r="F626" t="s">
+        <v>2570</v>
+      </c>
+      <c r="G626" t="s">
+        <v>2570</v>
+      </c>
+      <c r="H626" t="s">
+        <v>2570</v>
+      </c>
+      <c r="I626" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="B627" t="s">
+        <v>12122</v>
+      </c>
+      <c r="C627" t="s">
+        <v>77</v>
+      </c>
+      <c r="D627" t="s">
+        <v>49</v>
+      </c>
+      <c r="E627" t="s">
+        <v>45</v>
+      </c>
+      <c r="F627" t="s">
+        <v>12123</v>
+      </c>
+      <c r="G627" t="s">
+        <v>12123</v>
+      </c>
+      <c r="H627" t="s">
+        <v>12123</v>
+      </c>
+      <c r="I627" t="s">
+        <v>12123</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="B628" t="s">
+        <v>12124</v>
+      </c>
+      <c r="C628" t="s">
+        <v>78</v>
+      </c>
+      <c r="D628" t="s">
+        <v>49</v>
+      </c>
+      <c r="E628" t="s">
+        <v>45</v>
+      </c>
+      <c r="F628" t="s">
+        <v>2450</v>
+      </c>
+      <c r="G628" t="s">
+        <v>2450</v>
+      </c>
+      <c r="H628" t="s">
+        <v>2450</v>
+      </c>
+      <c r="I628" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="B629" t="s">
+        <v>12125</v>
+      </c>
+      <c r="C629" t="s">
+        <v>78</v>
+      </c>
+      <c r="D629" t="s">
+        <v>49</v>
+      </c>
+      <c r="E629" t="s">
+        <v>45</v>
+      </c>
+      <c r="F629" t="s">
+        <v>12126</v>
+      </c>
+      <c r="G629" t="s">
+        <v>12126</v>
+      </c>
+      <c r="H629" t="s">
+        <v>12126</v>
+      </c>
+      <c r="I629" t="s">
+        <v>12126</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="B630" t="s">
+        <v>12127</v>
+      </c>
+      <c r="C630" t="s">
+        <v>77</v>
+      </c>
+      <c r="D630" t="s">
+        <v>49</v>
+      </c>
+      <c r="E630" t="s">
+        <v>45</v>
+      </c>
+      <c r="F630" t="s">
+        <v>12128</v>
+      </c>
+      <c r="G630" t="s">
+        <v>12128</v>
+      </c>
+      <c r="H630" t="s">
+        <v>12128</v>
+      </c>
+      <c r="I630" t="s">
+        <v>12128</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="B631" t="s">
+        <v>12129</v>
+      </c>
+      <c r="C631" t="s">
+        <v>78</v>
+      </c>
+      <c r="D631" t="s">
+        <v>49</v>
+      </c>
+      <c r="E631" t="s">
+        <v>45</v>
+      </c>
+      <c r="F631" t="s">
+        <v>50</v>
+      </c>
+      <c r="G631" t="s">
+        <v>50</v>
+      </c>
+      <c r="H631" t="s">
+        <v>50</v>
+      </c>
+      <c r="I631" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="B632" t="s">
+        <v>12130</v>
+      </c>
+      <c r="C632" t="s">
+        <v>78</v>
+      </c>
+      <c r="D632" t="s">
+        <v>44</v>
+      </c>
+      <c r="E632" t="s">
+        <v>45</v>
+      </c>
+      <c r="F632" t="s">
+        <v>12131</v>
+      </c>
+      <c r="G632" t="s">
+        <v>12131</v>
+      </c>
+      <c r="H632" t="s">
+        <v>12131</v>
+      </c>
+      <c r="I632" t="s">
+        <v>12131</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="B633" t="s">
+        <v>12132</v>
+      </c>
+      <c r="C633" t="s">
+        <v>77</v>
+      </c>
+      <c r="D633" t="s">
+        <v>49</v>
+      </c>
+      <c r="E633" t="s">
+        <v>45</v>
+      </c>
+      <c r="F633" t="s">
+        <v>2574</v>
+      </c>
+      <c r="G633" t="s">
+        <v>2574</v>
+      </c>
+      <c r="H633" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I633" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="B634" t="s">
+        <v>12133</v>
+      </c>
+      <c r="C634" t="s">
+        <v>77</v>
+      </c>
+      <c r="D634" t="s">
+        <v>49</v>
+      </c>
+      <c r="E634" t="s">
+        <v>45</v>
+      </c>
+      <c r="F634" t="s">
+        <v>2570</v>
+      </c>
+      <c r="G634" t="s">
+        <v>2570</v>
+      </c>
+      <c r="H634" t="s">
+        <v>2570</v>
+      </c>
+      <c r="I634" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="B635" t="s">
+        <v>12134</v>
+      </c>
+      <c r="C635" t="s">
+        <v>77</v>
+      </c>
+      <c r="D635" t="s">
+        <v>49</v>
+      </c>
+      <c r="E635" t="s">
+        <v>45</v>
+      </c>
+      <c r="F635" t="s">
+        <v>12135</v>
+      </c>
+      <c r="G635" t="s">
+        <v>12135</v>
+      </c>
+      <c r="H635" t="s">
+        <v>12135</v>
+      </c>
+      <c r="I635" t="s">
+        <v>12135</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="B636" t="s">
+        <v>12148</v>
+      </c>
+      <c r="C636" t="s">
+        <v>77</v>
+      </c>
+      <c r="D636" t="s">
+        <v>49</v>
+      </c>
+      <c r="E636" t="s">
+        <v>45</v>
+      </c>
+      <c r="F636" t="s">
+        <v>50</v>
+      </c>
+      <c r="G636" t="s">
+        <v>50</v>
+      </c>
+      <c r="H636" t="s">
+        <v>50</v>
+      </c>
+      <c r="I636" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="B637" t="s">
+        <v>12149</v>
+      </c>
+      <c r="C637" t="s">
+        <v>77</v>
+      </c>
+      <c r="D637" t="s">
+        <v>44</v>
+      </c>
+      <c r="E637" t="s">
+        <v>45</v>
+      </c>
+      <c r="F637" t="s">
+        <v>11550</v>
+      </c>
+      <c r="G637" t="s">
+        <v>11550</v>
+      </c>
+      <c r="H637" t="s">
+        <v>11550</v>
+      </c>
+      <c r="I637" t="s">
+        <v>11550</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="B638" t="s">
+        <v>12150</v>
+      </c>
+      <c r="C638" t="s">
+        <v>78</v>
+      </c>
+      <c r="D638" t="s">
+        <v>44</v>
+      </c>
+      <c r="E638" t="s">
+        <v>45</v>
+      </c>
+      <c r="F638" t="s">
+        <v>12048</v>
+      </c>
+      <c r="G638" t="s">
+        <v>12048</v>
+      </c>
+      <c r="H638" t="s">
+        <v>12048</v>
+      </c>
+      <c r="I638" t="s">
+        <v>12048</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="B639" t="s">
+        <v>12151</v>
+      </c>
+      <c r="C639" t="s">
+        <v>78</v>
+      </c>
+      <c r="D639" t="s">
+        <v>44</v>
+      </c>
+      <c r="E639" t="s">
+        <v>45</v>
+      </c>
+      <c r="F639" t="s">
+        <v>12152</v>
+      </c>
+      <c r="G639" t="s">
+        <v>12152</v>
+      </c>
+      <c r="H639" t="s">
+        <v>12152</v>
+      </c>
+      <c r="I639" t="s">
+        <v>12152</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="B640" t="s">
+        <v>12153</v>
+      </c>
+      <c r="C640" t="s">
+        <v>78</v>
+      </c>
+      <c r="D640" t="s">
+        <v>49</v>
+      </c>
+      <c r="E640" t="s">
+        <v>45</v>
+      </c>
+      <c r="F640" t="s">
+        <v>50</v>
+      </c>
+      <c r="G640" t="s">
+        <v>50</v>
+      </c>
+      <c r="H640" t="s">
+        <v>50</v>
+      </c>
+      <c r="I640" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="B641" t="s">
+        <v>12154</v>
+      </c>
+      <c r="C641" t="s">
+        <v>78</v>
+      </c>
+      <c r="D641" t="s">
+        <v>44</v>
+      </c>
+      <c r="E641" t="s">
+        <v>45</v>
+      </c>
+      <c r="F641" t="s">
+        <v>11780</v>
+      </c>
+      <c r="G641" t="s">
+        <v>11780</v>
+      </c>
+      <c r="H641" t="s">
+        <v>11780</v>
+      </c>
+      <c r="I641" t="s">
+        <v>11780</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="B642" t="s">
+        <v>12179</v>
+      </c>
+      <c r="C642" t="s">
+        <v>77</v>
+      </c>
+      <c r="D642" t="s">
+        <v>49</v>
+      </c>
+      <c r="E642" t="s">
+        <v>45</v>
+      </c>
+      <c r="F642" t="s">
+        <v>50</v>
+      </c>
+      <c r="G642" t="s">
+        <v>50</v>
+      </c>
+      <c r="H642" t="s">
+        <v>50</v>
+      </c>
+      <c r="I642" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="B643" t="s">
+        <v>12180</v>
+      </c>
+      <c r="C643" t="s">
+        <v>77</v>
+      </c>
+      <c r="D643" t="s">
+        <v>44</v>
+      </c>
+      <c r="E643" t="s">
+        <v>45</v>
+      </c>
+      <c r="F643" t="s">
+        <v>52</v>
+      </c>
+      <c r="G643" t="s">
+        <v>284</v>
+      </c>
+      <c r="H643" t="s">
+        <v>284</v>
+      </c>
+      <c r="I643" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="B644" t="s">
+        <v>12181</v>
+      </c>
+      <c r="C644" t="s">
+        <v>38</v>
+      </c>
+      <c r="D644" t="s">
+        <v>49</v>
+      </c>
+      <c r="E644" t="s">
+        <v>45</v>
+      </c>
+      <c r="F644" t="s">
+        <v>390</v>
+      </c>
+      <c r="G644" t="s">
+        <v>390</v>
+      </c>
+      <c r="H644" t="s">
+        <v>390</v>
+      </c>
+      <c r="I644" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="B645" t="s">
+        <v>12182</v>
+      </c>
+      <c r="C645" t="s">
+        <v>38</v>
+      </c>
+      <c r="D645" t="s">
+        <v>49</v>
+      </c>
+      <c r="E645" t="s">
+        <v>45</v>
+      </c>
+      <c r="F645" t="s">
+        <v>319</v>
+      </c>
+      <c r="G645" t="s">
+        <v>319</v>
+      </c>
+      <c r="H645" t="s">
+        <v>319</v>
+      </c>
+      <c r="I645" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="B646" t="s">
+        <v>12183</v>
+      </c>
+      <c r="C646" t="s">
+        <v>38</v>
+      </c>
+      <c r="D646" t="s">
+        <v>49</v>
+      </c>
+      <c r="E646" t="s">
+        <v>45</v>
+      </c>
+      <c r="F646" t="s">
+        <v>504</v>
+      </c>
+      <c r="G646" t="s">
+        <v>504</v>
+      </c>
+      <c r="H646" t="s">
+        <v>504</v>
+      </c>
+      <c r="I646" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="B647" t="s">
+        <v>12184</v>
+      </c>
+      <c r="C647" t="s">
+        <v>38</v>
+      </c>
+      <c r="D647" t="s">
+        <v>49</v>
+      </c>
+      <c r="E647" t="s">
+        <v>45</v>
+      </c>
+      <c r="F647" t="s">
+        <v>506</v>
+      </c>
+      <c r="G647" t="s">
+        <v>506</v>
+      </c>
+      <c r="H647" t="s">
+        <v>506</v>
+      </c>
+      <c r="I647" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="B648" t="s">
+        <v>12185</v>
+      </c>
+      <c r="C648" t="s">
+        <v>38</v>
+      </c>
+      <c r="D648" t="s">
+        <v>49</v>
+      </c>
+      <c r="E648" t="s">
+        <v>45</v>
+      </c>
+      <c r="F648" t="s">
+        <v>508</v>
+      </c>
+      <c r="G648" t="s">
+        <v>508</v>
+      </c>
+      <c r="H648" t="s">
+        <v>508</v>
+      </c>
+      <c r="I648" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="B649" t="s">
+        <v>12186</v>
+      </c>
+      <c r="C649" t="s">
+        <v>38</v>
+      </c>
+      <c r="D649" t="s">
+        <v>49</v>
+      </c>
+      <c r="E649" t="s">
+        <v>45</v>
+      </c>
+      <c r="F649" t="s">
+        <v>510</v>
+      </c>
+      <c r="G649" t="s">
+        <v>510</v>
+      </c>
+      <c r="H649" t="s">
+        <v>510</v>
+      </c>
+      <c r="I649" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="B650" t="s">
+        <v>12187</v>
+      </c>
+      <c r="C650" t="s">
+        <v>38</v>
+      </c>
+      <c r="D650" t="s">
+        <v>49</v>
+      </c>
+      <c r="E650" t="s">
+        <v>45</v>
+      </c>
+      <c r="F650" t="s">
+        <v>512</v>
+      </c>
+      <c r="G650" t="s">
+        <v>512</v>
+      </c>
+      <c r="H650" t="s">
+        <v>512</v>
+      </c>
+      <c r="I650" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="B651" t="s">
+        <v>12188</v>
+      </c>
+      <c r="C651" t="s">
+        <v>38</v>
+      </c>
+      <c r="D651" t="s">
+        <v>49</v>
+      </c>
+      <c r="E651" t="s">
+        <v>45</v>
+      </c>
+      <c r="F651" t="s">
+        <v>514</v>
+      </c>
+      <c r="G651" t="s">
+        <v>514</v>
+      </c>
+      <c r="H651" t="s">
+        <v>514</v>
+      </c>
+      <c r="I651" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="B652" t="s">
+        <v>12189</v>
+      </c>
+      <c r="C652" t="s">
+        <v>38</v>
+      </c>
+      <c r="D652" t="s">
+        <v>49</v>
+      </c>
+      <c r="E652" t="s">
+        <v>45</v>
+      </c>
+      <c r="F652" t="s">
+        <v>516</v>
+      </c>
+      <c r="G652" t="s">
+        <v>516</v>
+      </c>
+      <c r="H652" t="s">
+        <v>516</v>
+      </c>
+      <c r="I652" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="B653" t="s">
+        <v>12190</v>
+      </c>
+      <c r="C653" t="s">
+        <v>38</v>
+      </c>
+      <c r="D653" t="s">
+        <v>49</v>
+      </c>
+      <c r="E653" t="s">
+        <v>45</v>
+      </c>
+      <c r="F653" t="s">
+        <v>522</v>
+      </c>
+      <c r="G653" t="s">
+        <v>522</v>
+      </c>
+      <c r="H653" t="s">
+        <v>522</v>
+      </c>
+      <c r="I653" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="B654" t="s">
+        <v>12191</v>
+      </c>
+      <c r="C654" t="s">
+        <v>38</v>
+      </c>
+      <c r="D654" t="s">
+        <v>49</v>
+      </c>
+      <c r="E654" t="s">
+        <v>45</v>
+      </c>
+      <c r="F654" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G654" t="s">
+        <v>1278</v>
+      </c>
+      <c r="H654" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I654" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="B655" t="s">
+        <v>12192</v>
+      </c>
+      <c r="C655" t="s">
+        <v>38</v>
+      </c>
+      <c r="D655" t="s">
+        <v>49</v>
+      </c>
+      <c r="E655" t="s">
+        <v>45</v>
+      </c>
+      <c r="F655" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G655" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H655" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I655" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="B656" t="s">
+        <v>12193</v>
+      </c>
+      <c r="C656" t="s">
+        <v>38</v>
+      </c>
+      <c r="D656" t="s">
+        <v>49</v>
+      </c>
+      <c r="E656" t="s">
+        <v>45</v>
+      </c>
+      <c r="F656" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G656" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H656" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I656" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="B657" t="s">
+        <v>12194</v>
+      </c>
+      <c r="C657" t="s">
+        <v>38</v>
+      </c>
+      <c r="D657" t="s">
+        <v>49</v>
+      </c>
+      <c r="E657" t="s">
+        <v>45</v>
+      </c>
+      <c r="F657" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G657" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H657" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I657" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="B658" t="s">
+        <v>12195</v>
+      </c>
+      <c r="C658" t="s">
+        <v>101</v>
+      </c>
+      <c r="D658" t="s">
+        <v>49</v>
+      </c>
+      <c r="E658" t="s">
+        <v>45</v>
+      </c>
+      <c r="F658" t="s">
+        <v>313</v>
+      </c>
+      <c r="G658" t="s">
+        <v>313</v>
+      </c>
+      <c r="H658" t="s">
+        <v>313</v>
+      </c>
+      <c r="I658" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="B659" t="s">
+        <v>12196</v>
+      </c>
+      <c r="C659" t="s">
+        <v>101</v>
+      </c>
+      <c r="D659" t="s">
+        <v>49</v>
+      </c>
+      <c r="E659" t="s">
+        <v>45</v>
+      </c>
+      <c r="F659" t="s">
+        <v>1631</v>
+      </c>
+      <c r="G659" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H659" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I659" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="B660" t="s">
+        <v>12197</v>
+      </c>
+      <c r="C660" t="s">
+        <v>38</v>
+      </c>
+      <c r="D660" t="s">
+        <v>49</v>
+      </c>
+      <c r="E660" t="s">
+        <v>45</v>
+      </c>
+      <c r="F660" t="s">
+        <v>50</v>
+      </c>
+      <c r="G660" t="s">
+        <v>50</v>
+      </c>
+      <c r="H660" t="s">
+        <v>50</v>
+      </c>
+      <c r="I660" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="B661" t="s">
+        <v>12198</v>
+      </c>
+      <c r="C661" t="s">
+        <v>38</v>
+      </c>
+      <c r="D661" t="s">
+        <v>44</v>
+      </c>
+      <c r="E661" t="s">
+        <v>45</v>
+      </c>
+      <c r="F661" t="s">
+        <v>12203</v>
+      </c>
+      <c r="G661" t="s">
+        <v>52</v>
+      </c>
+      <c r="H661" t="s">
+        <v>52</v>
+      </c>
+      <c r="I661" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="B662" t="s">
+        <v>12199</v>
+      </c>
+      <c r="C662" t="s">
+        <v>38</v>
+      </c>
+      <c r="D662" t="s">
+        <v>49</v>
+      </c>
+      <c r="E662" t="s">
+        <v>45</v>
+      </c>
+      <c r="F662" t="s">
+        <v>50</v>
+      </c>
+      <c r="G662" t="s">
+        <v>50</v>
+      </c>
+      <c r="H662" t="s">
+        <v>50</v>
+      </c>
+      <c r="I662" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="B663" t="s">
+        <v>12200</v>
+      </c>
+      <c r="C663" t="s">
+        <v>38</v>
+      </c>
+      <c r="D663" t="s">
+        <v>44</v>
+      </c>
+      <c r="E663" t="s">
+        <v>45</v>
+      </c>
+      <c r="F663" t="s">
+        <v>12204</v>
+      </c>
+      <c r="G663" t="s">
+        <v>52</v>
+      </c>
+      <c r="H663" t="s">
+        <v>52</v>
+      </c>
+      <c r="I663" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="664"/>
     <row r="665"/>
     <row r="666"/>

--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5935062" uniqueCount="12205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5951240" uniqueCount="12207">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -41397,6 +41397,12 @@
   </si>
   <si>
     <t xml:space="preserve">999.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desabilitar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">888.88</t>
   </si>
 </sst>
 </file>
@@ -52900,7 +52906,7 @@
         <v>45</v>
       </c>
       <c r="F369" t="s">
-        <v>11508</v>
+        <v>12206</v>
       </c>
       <c r="G369" t="s">
         <v>11508</v>
@@ -53498,7 +53504,7 @@
         <v>45</v>
       </c>
       <c r="F392" t="s">
-        <v>11660</v>
+        <v>12205</v>
       </c>
       <c r="G392" t="s">
         <v>11660</v>

--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5951240" uniqueCount="12207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5975279" uniqueCount="12209">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -41403,6 +41403,12 @@
   </si>
   <si>
     <t xml:space="preserve">888.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edição de Receita &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4018</t>
   </si>
 </sst>
 </file>
@@ -57924,16 +57930,16 @@
         <v>45</v>
       </c>
       <c r="F562" t="s">
-        <v>12033</v>
+        <v>12207</v>
       </c>
       <c r="G562" t="s">
-        <v>12033</v>
+        <v>12207</v>
       </c>
       <c r="H562" t="s">
-        <v>12033</v>
+        <v>12207</v>
       </c>
       <c r="I562" t="s">
-        <v>12033</v>
+        <v>12207</v>
       </c>
     </row>
     <row r="563">
@@ -59992,576 +59998,51 @@
     </row>
     <row r="642">
       <c r="B642" t="s">
-        <v>12179</v>
+        <v>12208</v>
       </c>
       <c r="C642" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="D642" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E642" t="s">
         <v>45</v>
       </c>
       <c r="F642" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G642" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H642" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I642" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="643">
-      <c r="B643" t="s">
-        <v>12180</v>
-      </c>
-      <c r="C643" t="s">
-        <v>77</v>
-      </c>
-      <c r="D643" t="s">
-        <v>44</v>
-      </c>
-      <c r="E643" t="s">
-        <v>45</v>
-      </c>
-      <c r="F643" t="s">
-        <v>52</v>
-      </c>
-      <c r="G643" t="s">
         <v>284</v>
       </c>
-      <c r="H643" t="s">
-        <v>284</v>
-      </c>
-      <c r="I643" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="644">
-      <c r="B644" t="s">
-        <v>12181</v>
-      </c>
-      <c r="C644" t="s">
-        <v>38</v>
-      </c>
-      <c r="D644" t="s">
-        <v>49</v>
-      </c>
-      <c r="E644" t="s">
-        <v>45</v>
-      </c>
-      <c r="F644" t="s">
-        <v>390</v>
-      </c>
-      <c r="G644" t="s">
-        <v>390</v>
-      </c>
-      <c r="H644" t="s">
-        <v>390</v>
-      </c>
-      <c r="I644" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="645">
-      <c r="B645" t="s">
-        <v>12182</v>
-      </c>
-      <c r="C645" t="s">
-        <v>38</v>
-      </c>
-      <c r="D645" t="s">
-        <v>49</v>
-      </c>
-      <c r="E645" t="s">
-        <v>45</v>
-      </c>
-      <c r="F645" t="s">
-        <v>319</v>
-      </c>
-      <c r="G645" t="s">
-        <v>319</v>
-      </c>
-      <c r="H645" t="s">
-        <v>319</v>
-      </c>
-      <c r="I645" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="646">
-      <c r="B646" t="s">
-        <v>12183</v>
-      </c>
-      <c r="C646" t="s">
-        <v>38</v>
-      </c>
-      <c r="D646" t="s">
-        <v>49</v>
-      </c>
-      <c r="E646" t="s">
-        <v>45</v>
-      </c>
-      <c r="F646" t="s">
-        <v>504</v>
-      </c>
-      <c r="G646" t="s">
-        <v>504</v>
-      </c>
-      <c r="H646" t="s">
-        <v>504</v>
-      </c>
-      <c r="I646" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="647">
-      <c r="B647" t="s">
-        <v>12184</v>
-      </c>
-      <c r="C647" t="s">
-        <v>38</v>
-      </c>
-      <c r="D647" t="s">
-        <v>49</v>
-      </c>
-      <c r="E647" t="s">
-        <v>45</v>
-      </c>
-      <c r="F647" t="s">
-        <v>506</v>
-      </c>
-      <c r="G647" t="s">
-        <v>506</v>
-      </c>
-      <c r="H647" t="s">
-        <v>506</v>
-      </c>
-      <c r="I647" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="648">
-      <c r="B648" t="s">
-        <v>12185</v>
-      </c>
-      <c r="C648" t="s">
-        <v>38</v>
-      </c>
-      <c r="D648" t="s">
-        <v>49</v>
-      </c>
-      <c r="E648" t="s">
-        <v>45</v>
-      </c>
-      <c r="F648" t="s">
-        <v>508</v>
-      </c>
-      <c r="G648" t="s">
-        <v>508</v>
-      </c>
-      <c r="H648" t="s">
-        <v>508</v>
-      </c>
-      <c r="I648" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="649">
-      <c r="B649" t="s">
-        <v>12186</v>
-      </c>
-      <c r="C649" t="s">
-        <v>38</v>
-      </c>
-      <c r="D649" t="s">
-        <v>49</v>
-      </c>
-      <c r="E649" t="s">
-        <v>45</v>
-      </c>
-      <c r="F649" t="s">
-        <v>510</v>
-      </c>
-      <c r="G649" t="s">
-        <v>510</v>
-      </c>
-      <c r="H649" t="s">
-        <v>510</v>
-      </c>
-      <c r="I649" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="650">
-      <c r="B650" t="s">
-        <v>12187</v>
-      </c>
-      <c r="C650" t="s">
-        <v>38</v>
-      </c>
-      <c r="D650" t="s">
-        <v>49</v>
-      </c>
-      <c r="E650" t="s">
-        <v>45</v>
-      </c>
-      <c r="F650" t="s">
-        <v>512</v>
-      </c>
-      <c r="G650" t="s">
-        <v>512</v>
-      </c>
-      <c r="H650" t="s">
-        <v>512</v>
-      </c>
-      <c r="I650" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="651">
-      <c r="B651" t="s">
-        <v>12188</v>
-      </c>
-      <c r="C651" t="s">
-        <v>38</v>
-      </c>
-      <c r="D651" t="s">
-        <v>49</v>
-      </c>
-      <c r="E651" t="s">
-        <v>45</v>
-      </c>
-      <c r="F651" t="s">
-        <v>514</v>
-      </c>
-      <c r="G651" t="s">
-        <v>514</v>
-      </c>
-      <c r="H651" t="s">
-        <v>514</v>
-      </c>
-      <c r="I651" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="652">
-      <c r="B652" t="s">
-        <v>12189</v>
-      </c>
-      <c r="C652" t="s">
-        <v>38</v>
-      </c>
-      <c r="D652" t="s">
-        <v>49</v>
-      </c>
-      <c r="E652" t="s">
-        <v>45</v>
-      </c>
-      <c r="F652" t="s">
-        <v>516</v>
-      </c>
-      <c r="G652" t="s">
-        <v>516</v>
-      </c>
-      <c r="H652" t="s">
-        <v>516</v>
-      </c>
-      <c r="I652" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="653">
-      <c r="B653" t="s">
-        <v>12190</v>
-      </c>
-      <c r="C653" t="s">
-        <v>38</v>
-      </c>
-      <c r="D653" t="s">
-        <v>49</v>
-      </c>
-      <c r="E653" t="s">
-        <v>45</v>
-      </c>
-      <c r="F653" t="s">
-        <v>522</v>
-      </c>
-      <c r="G653" t="s">
-        <v>522</v>
-      </c>
-      <c r="H653" t="s">
-        <v>522</v>
-      </c>
-      <c r="I653" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="654">
-      <c r="B654" t="s">
-        <v>12191</v>
-      </c>
-      <c r="C654" t="s">
-        <v>38</v>
-      </c>
-      <c r="D654" t="s">
-        <v>49</v>
-      </c>
-      <c r="E654" t="s">
-        <v>45</v>
-      </c>
-      <c r="F654" t="s">
-        <v>1278</v>
-      </c>
-      <c r="G654" t="s">
-        <v>1278</v>
-      </c>
-      <c r="H654" t="s">
-        <v>1278</v>
-      </c>
-      <c r="I654" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="655">
-      <c r="B655" t="s">
-        <v>12192</v>
-      </c>
-      <c r="C655" t="s">
-        <v>38</v>
-      </c>
-      <c r="D655" t="s">
-        <v>49</v>
-      </c>
-      <c r="E655" t="s">
-        <v>45</v>
-      </c>
-      <c r="F655" t="s">
-        <v>1279</v>
-      </c>
-      <c r="G655" t="s">
-        <v>1279</v>
-      </c>
-      <c r="H655" t="s">
-        <v>1279</v>
-      </c>
-      <c r="I655" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="656">
-      <c r="B656" t="s">
-        <v>12193</v>
-      </c>
-      <c r="C656" t="s">
-        <v>38</v>
-      </c>
-      <c r="D656" t="s">
-        <v>49</v>
-      </c>
-      <c r="E656" t="s">
-        <v>45</v>
-      </c>
-      <c r="F656" t="s">
-        <v>1280</v>
-      </c>
-      <c r="G656" t="s">
-        <v>1280</v>
-      </c>
-      <c r="H656" t="s">
-        <v>1280</v>
-      </c>
-      <c r="I656" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="657">
-      <c r="B657" t="s">
-        <v>12194</v>
-      </c>
-      <c r="C657" t="s">
-        <v>38</v>
-      </c>
-      <c r="D657" t="s">
-        <v>49</v>
-      </c>
-      <c r="E657" t="s">
-        <v>45</v>
-      </c>
-      <c r="F657" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G657" t="s">
-        <v>1281</v>
-      </c>
-      <c r="H657" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I657" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="658">
-      <c r="B658" t="s">
-        <v>12195</v>
-      </c>
-      <c r="C658" t="s">
-        <v>101</v>
-      </c>
-      <c r="D658" t="s">
-        <v>49</v>
-      </c>
-      <c r="E658" t="s">
-        <v>45</v>
-      </c>
-      <c r="F658" t="s">
-        <v>313</v>
-      </c>
-      <c r="G658" t="s">
-        <v>313</v>
-      </c>
-      <c r="H658" t="s">
-        <v>313</v>
-      </c>
-      <c r="I658" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="659">
-      <c r="B659" t="s">
-        <v>12196</v>
-      </c>
-      <c r="C659" t="s">
-        <v>101</v>
-      </c>
-      <c r="D659" t="s">
-        <v>49</v>
-      </c>
-      <c r="E659" t="s">
-        <v>45</v>
-      </c>
-      <c r="F659" t="s">
-        <v>1631</v>
-      </c>
-      <c r="G659" t="s">
-        <v>1631</v>
-      </c>
-      <c r="H659" t="s">
-        <v>1631</v>
-      </c>
-      <c r="I659" t="s">
-        <v>1631</v>
-      </c>
-    </row>
-    <row r="660">
-      <c r="B660" t="s">
-        <v>12197</v>
-      </c>
-      <c r="C660" t="s">
-        <v>38</v>
-      </c>
-      <c r="D660" t="s">
-        <v>49</v>
-      </c>
-      <c r="E660" t="s">
-        <v>45</v>
-      </c>
-      <c r="F660" t="s">
-        <v>50</v>
-      </c>
-      <c r="G660" t="s">
-        <v>50</v>
-      </c>
-      <c r="H660" t="s">
-        <v>50</v>
-      </c>
-      <c r="I660" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="661">
-      <c r="B661" t="s">
-        <v>12198</v>
-      </c>
-      <c r="C661" t="s">
-        <v>38</v>
-      </c>
-      <c r="D661" t="s">
-        <v>44</v>
-      </c>
-      <c r="E661" t="s">
-        <v>45</v>
-      </c>
-      <c r="F661" t="s">
-        <v>12203</v>
-      </c>
-      <c r="G661" t="s">
-        <v>52</v>
-      </c>
-      <c r="H661" t="s">
-        <v>52</v>
-      </c>
-      <c r="I661" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="662">
-      <c r="B662" t="s">
-        <v>12199</v>
-      </c>
-      <c r="C662" t="s">
-        <v>38</v>
-      </c>
-      <c r="D662" t="s">
-        <v>49</v>
-      </c>
-      <c r="E662" t="s">
-        <v>45</v>
-      </c>
-      <c r="F662" t="s">
-        <v>50</v>
-      </c>
-      <c r="G662" t="s">
-        <v>50</v>
-      </c>
-      <c r="H662" t="s">
-        <v>50</v>
-      </c>
-      <c r="I662" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="663">
-      <c r="B663" t="s">
-        <v>12200</v>
-      </c>
-      <c r="C663" t="s">
-        <v>38</v>
-      </c>
-      <c r="D663" t="s">
-        <v>44</v>
-      </c>
-      <c r="E663" t="s">
-        <v>45</v>
-      </c>
-      <c r="F663" t="s">
-        <v>12204</v>
-      </c>
-      <c r="G663" t="s">
-        <v>52</v>
-      </c>
-      <c r="H663" t="s">
-        <v>52</v>
-      </c>
-      <c r="I663" t="s">
-        <v>52</v>
-      </c>
-    </row>
+    </row>
+    <row r="643"/>
+    <row r="644"/>
+    <row r="645"/>
+    <row r="646"/>
+    <row r="647"/>
+    <row r="648"/>
+    <row r="649"/>
+    <row r="650"/>
+    <row r="651"/>
+    <row r="652"/>
+    <row r="653"/>
+    <row r="654"/>
+    <row r="655"/>
+    <row r="656"/>
+    <row r="657"/>
+    <row r="658"/>
+    <row r="659"/>
+    <row r="660"/>
+    <row r="661"/>
+    <row r="662"/>
+    <row r="663"/>
     <row r="664"/>
     <row r="665"/>
     <row r="666"/>

--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5975279" uniqueCount="12209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6101043" uniqueCount="12226">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -41409,6 +41409,72 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId4018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo
+Zero!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo
+Zero!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo
+Zero!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo
+Zero!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo
+Zero!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo
+Zero!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo
+Zero!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo
+Zero!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo
+Zero!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo
+Zero!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo
+Zero!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo
+Zero!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo
+Zero!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo
+Zero!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo
+Zero!</t>
   </si>
 </sst>
 </file>
@@ -55402,22 +55468,22 @@
         <v>11926</v>
       </c>
       <c r="D465" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E465" t="s">
         <v>45</v>
       </c>
       <c r="F465" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="G465" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H465" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I465" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="466">
@@ -60022,8 +60088,58 @@
         <v>284</v>
       </c>
     </row>
-    <row r="643"/>
-    <row r="644"/>
+    <row r="643">
+      <c r="B643" t="s">
+        <v>12209</v>
+      </c>
+      <c r="C643" t="s">
+        <v>11926</v>
+      </c>
+      <c r="D643" t="s">
+        <v>44</v>
+      </c>
+      <c r="E643" t="s">
+        <v>45</v>
+      </c>
+      <c r="F643" t="s">
+        <v>11930</v>
+      </c>
+      <c r="G643" t="s">
+        <v>11930</v>
+      </c>
+      <c r="H643" t="s">
+        <v>11930</v>
+      </c>
+      <c r="I643" t="s">
+        <v>11930</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="B644" t="s">
+        <v>12210</v>
+      </c>
+      <c r="C644" t="s">
+        <v>38</v>
+      </c>
+      <c r="D644" t="s">
+        <v>49</v>
+      </c>
+      <c r="E644" t="s">
+        <v>45</v>
+      </c>
+      <c r="F644" t="s">
+        <v>12225</v>
+      </c>
+      <c r="G644" t="s">
+        <v>47</v>
+      </c>
+      <c r="H644" t="s">
+        <v>47</v>
+      </c>
+      <c r="I644" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="645"/>
     <row r="646"/>
     <row r="647"/>

--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6101043" uniqueCount="12226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6156502" uniqueCount="12240">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -41475,6 +41475,48 @@
   <si>
     <t xml:space="preserve">Tempo
 Zero!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4053</t>
   </si>
 </sst>
 </file>
@@ -55488,10 +55530,10 @@
     </row>
     <row r="466">
       <c r="B466" t="s">
-        <v>11931</v>
+        <v>11932</v>
       </c>
       <c r="C466" t="s">
-        <v>11926</v>
+        <v>78</v>
       </c>
       <c r="D466" t="s">
         <v>44</v>
@@ -55500,24 +55542,24 @@
         <v>45</v>
       </c>
       <c r="F466" t="s">
-        <v>11930</v>
+        <v>1294</v>
       </c>
       <c r="G466" t="s">
-        <v>47</v>
+        <v>1294</v>
       </c>
       <c r="H466" t="s">
-        <v>47</v>
+        <v>1294</v>
       </c>
       <c r="I466" t="s">
-        <v>47</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="467">
       <c r="B467" t="s">
-        <v>11932</v>
+        <v>11933</v>
       </c>
       <c r="C467" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D467" t="s">
         <v>44</v>
@@ -55526,76 +55568,76 @@
         <v>45</v>
       </c>
       <c r="F467" t="s">
-        <v>1294</v>
+        <v>11534</v>
       </c>
       <c r="G467" t="s">
-        <v>1294</v>
+        <v>11534</v>
       </c>
       <c r="H467" t="s">
-        <v>1294</v>
+        <v>11534</v>
       </c>
       <c r="I467" t="s">
-        <v>1294</v>
+        <v>11534</v>
       </c>
     </row>
     <row r="468">
       <c r="B468" t="s">
-        <v>11933</v>
+        <v>11934</v>
       </c>
       <c r="C468" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D468" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E468" t="s">
         <v>45</v>
       </c>
       <c r="F468" t="s">
-        <v>11534</v>
+        <v>50</v>
       </c>
       <c r="G468" t="s">
-        <v>11534</v>
+        <v>50</v>
       </c>
       <c r="H468" t="s">
-        <v>11534</v>
+        <v>50</v>
       </c>
       <c r="I468" t="s">
-        <v>11534</v>
+        <v>50</v>
       </c>
     </row>
     <row r="469">
       <c r="B469" t="s">
-        <v>11934</v>
+        <v>11935</v>
       </c>
       <c r="C469" t="s">
         <v>77</v>
       </c>
       <c r="D469" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E469" t="s">
         <v>45</v>
       </c>
       <c r="F469" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
       <c r="G469" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
       <c r="H469" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
       <c r="I469" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
     </row>
     <row r="470">
       <c r="B470" t="s">
-        <v>11935</v>
+        <v>11936</v>
       </c>
       <c r="C470" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D470" t="s">
         <v>44</v>
@@ -55604,24 +55646,24 @@
         <v>45</v>
       </c>
       <c r="F470" t="s">
-        <v>11508</v>
+        <v>1294</v>
       </c>
       <c r="G470" t="s">
-        <v>11508</v>
+        <v>1294</v>
       </c>
       <c r="H470" t="s">
-        <v>11508</v>
+        <v>1294</v>
       </c>
       <c r="I470" t="s">
-        <v>11508</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="471">
       <c r="B471" t="s">
-        <v>11936</v>
+        <v>11937</v>
       </c>
       <c r="C471" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D471" t="s">
         <v>44</v>
@@ -55630,128 +55672,128 @@
         <v>45</v>
       </c>
       <c r="F471" t="s">
-        <v>1294</v>
+        <v>11461</v>
       </c>
       <c r="G471" t="s">
-        <v>1294</v>
+        <v>11461</v>
       </c>
       <c r="H471" t="s">
-        <v>1294</v>
+        <v>11461</v>
       </c>
       <c r="I471" t="s">
-        <v>1294</v>
+        <v>11461</v>
       </c>
     </row>
     <row r="472">
       <c r="B472" t="s">
-        <v>11937</v>
+        <v>11938</v>
       </c>
       <c r="C472" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D472" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E472" t="s">
         <v>45</v>
       </c>
       <c r="F472" t="s">
-        <v>11461</v>
+        <v>50</v>
       </c>
       <c r="G472" t="s">
-        <v>11461</v>
+        <v>50</v>
       </c>
       <c r="H472" t="s">
-        <v>11461</v>
+        <v>50</v>
       </c>
       <c r="I472" t="s">
-        <v>11461</v>
+        <v>50</v>
       </c>
     </row>
     <row r="473">
       <c r="B473" t="s">
-        <v>11938</v>
+        <v>11939</v>
       </c>
       <c r="C473" t="s">
         <v>77</v>
       </c>
       <c r="D473" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E473" t="s">
         <v>45</v>
       </c>
       <c r="F473" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
       <c r="G473" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
       <c r="H473" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
       <c r="I473" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
     </row>
     <row r="474">
       <c r="B474" t="s">
-        <v>11939</v>
+        <v>11940</v>
       </c>
       <c r="C474" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D474" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E474" t="s">
         <v>45</v>
       </c>
       <c r="F474" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
       <c r="G474" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
       <c r="H474" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
       <c r="I474" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
     </row>
     <row r="475">
       <c r="B475" t="s">
-        <v>11940</v>
+        <v>11941</v>
       </c>
       <c r="C475" t="s">
         <v>101</v>
       </c>
       <c r="D475" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E475" t="s">
         <v>45</v>
       </c>
       <c r="F475" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="G475" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="H475" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="I475" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="476">
       <c r="B476" t="s">
-        <v>11941</v>
+        <v>11944</v>
       </c>
       <c r="C476" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D476" t="s">
         <v>44</v>
@@ -55760,24 +55802,24 @@
         <v>45</v>
       </c>
       <c r="F476" t="s">
-        <v>11509</v>
+        <v>11874</v>
       </c>
       <c r="G476" t="s">
-        <v>11509</v>
+        <v>11874</v>
       </c>
       <c r="H476" t="s">
-        <v>11509</v>
+        <v>11874</v>
       </c>
       <c r="I476" t="s">
-        <v>11509</v>
+        <v>11874</v>
       </c>
     </row>
     <row r="477">
       <c r="B477" t="s">
-        <v>11942</v>
+        <v>11945</v>
       </c>
       <c r="C477" t="s">
-        <v>11926</v>
+        <v>78</v>
       </c>
       <c r="D477" t="s">
         <v>44</v>
@@ -55786,24 +55828,24 @@
         <v>45</v>
       </c>
       <c r="F477" t="s">
-        <v>11943</v>
+        <v>1294</v>
       </c>
       <c r="G477" t="s">
-        <v>11943</v>
+        <v>1294</v>
       </c>
       <c r="H477" t="s">
-        <v>11943</v>
+        <v>1294</v>
       </c>
       <c r="I477" t="s">
-        <v>11943</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="478">
       <c r="B478" t="s">
-        <v>11944</v>
+        <v>11946</v>
       </c>
       <c r="C478" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D478" t="s">
         <v>44</v>
@@ -55812,24 +55854,24 @@
         <v>45</v>
       </c>
       <c r="F478" t="s">
-        <v>11874</v>
+        <v>1294</v>
       </c>
       <c r="G478" t="s">
-        <v>11874</v>
+        <v>1294</v>
       </c>
       <c r="H478" t="s">
-        <v>11874</v>
+        <v>1294</v>
       </c>
       <c r="I478" t="s">
-        <v>11874</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="479">
       <c r="B479" t="s">
-        <v>11945</v>
+        <v>11947</v>
       </c>
       <c r="C479" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D479" t="s">
         <v>44</v>
@@ -55838,24 +55880,24 @@
         <v>45</v>
       </c>
       <c r="F479" t="s">
-        <v>1294</v>
+        <v>11534</v>
       </c>
       <c r="G479" t="s">
-        <v>1294</v>
+        <v>11534</v>
       </c>
       <c r="H479" t="s">
-        <v>1294</v>
+        <v>11534</v>
       </c>
       <c r="I479" t="s">
-        <v>1294</v>
+        <v>11534</v>
       </c>
     </row>
     <row r="480">
       <c r="B480" t="s">
-        <v>11946</v>
+        <v>11948</v>
       </c>
       <c r="C480" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D480" t="s">
         <v>44</v>
@@ -55864,50 +55906,50 @@
         <v>45</v>
       </c>
       <c r="F480" t="s">
-        <v>1294</v>
+        <v>11461</v>
       </c>
       <c r="G480" t="s">
-        <v>1294</v>
+        <v>11461</v>
       </c>
       <c r="H480" t="s">
-        <v>1294</v>
+        <v>11461</v>
       </c>
       <c r="I480" t="s">
-        <v>1294</v>
+        <v>11461</v>
       </c>
     </row>
     <row r="481">
       <c r="B481" t="s">
-        <v>11947</v>
+        <v>11950</v>
       </c>
       <c r="C481" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D481" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E481" t="s">
         <v>45</v>
       </c>
       <c r="F481" t="s">
-        <v>11534</v>
+        <v>50</v>
       </c>
       <c r="G481" t="s">
-        <v>11534</v>
+        <v>50</v>
       </c>
       <c r="H481" t="s">
-        <v>11534</v>
+        <v>50</v>
       </c>
       <c r="I481" t="s">
-        <v>11534</v>
+        <v>50</v>
       </c>
     </row>
     <row r="482">
       <c r="B482" t="s">
-        <v>11948</v>
+        <v>11951</v>
       </c>
       <c r="C482" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D482" t="s">
         <v>44</v>
@@ -55916,128 +55958,128 @@
         <v>45</v>
       </c>
       <c r="F482" t="s">
-        <v>11461</v>
+        <v>11508</v>
       </c>
       <c r="G482" t="s">
-        <v>11461</v>
+        <v>11508</v>
       </c>
       <c r="H482" t="s">
-        <v>11461</v>
+        <v>11508</v>
       </c>
       <c r="I482" t="s">
-        <v>11461</v>
+        <v>11508</v>
       </c>
     </row>
     <row r="483">
       <c r="B483" t="s">
-        <v>11949</v>
+        <v>11952</v>
       </c>
       <c r="C483" t="s">
-        <v>11926</v>
+        <v>77</v>
       </c>
       <c r="D483" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E483" t="s">
         <v>45</v>
       </c>
       <c r="F483" t="s">
-        <v>11943</v>
+        <v>50</v>
       </c>
       <c r="G483" t="s">
-        <v>11943</v>
+        <v>50</v>
       </c>
       <c r="H483" t="s">
-        <v>11943</v>
+        <v>50</v>
       </c>
       <c r="I483" t="s">
-        <v>11943</v>
+        <v>50</v>
       </c>
     </row>
     <row r="484">
       <c r="B484" t="s">
-        <v>11950</v>
+        <v>11953</v>
       </c>
       <c r="C484" t="s">
         <v>77</v>
       </c>
       <c r="D484" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E484" t="s">
         <v>45</v>
       </c>
       <c r="F484" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
       <c r="G484" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
       <c r="H484" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
       <c r="I484" t="s">
-        <v>50</v>
+        <v>11508</v>
       </c>
     </row>
     <row r="485">
       <c r="B485" t="s">
-        <v>11951</v>
+        <v>11954</v>
       </c>
       <c r="C485" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D485" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E485" t="s">
         <v>45</v>
       </c>
       <c r="F485" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
       <c r="G485" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
       <c r="H485" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
       <c r="I485" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
     </row>
     <row r="486">
       <c r="B486" t="s">
-        <v>11952</v>
+        <v>11955</v>
       </c>
       <c r="C486" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D486" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E486" t="s">
         <v>45</v>
       </c>
       <c r="F486" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="G486" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="H486" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="I486" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="487">
       <c r="B487" t="s">
-        <v>11953</v>
+        <v>11956</v>
       </c>
       <c r="C487" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D487" t="s">
         <v>44</v>
@@ -56046,50 +56088,50 @@
         <v>45</v>
       </c>
       <c r="F487" t="s">
-        <v>11508</v>
+        <v>1574</v>
       </c>
       <c r="G487" t="s">
-        <v>11508</v>
+        <v>1574</v>
       </c>
       <c r="H487" t="s">
-        <v>11508</v>
+        <v>1574</v>
       </c>
       <c r="I487" t="s">
-        <v>11508</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="488">
       <c r="B488" t="s">
-        <v>11954</v>
+        <v>11957</v>
       </c>
       <c r="C488" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D488" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E488" t="s">
         <v>45</v>
       </c>
       <c r="F488" t="s">
-        <v>50</v>
+        <v>1574</v>
       </c>
       <c r="G488" t="s">
-        <v>50</v>
+        <v>1574</v>
       </c>
       <c r="H488" t="s">
-        <v>50</v>
+        <v>1574</v>
       </c>
       <c r="I488" t="s">
-        <v>50</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="489">
       <c r="B489" t="s">
-        <v>11955</v>
+        <v>11958</v>
       </c>
       <c r="C489" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D489" t="s">
         <v>44</v>
@@ -56098,24 +56140,24 @@
         <v>45</v>
       </c>
       <c r="F489" t="s">
-        <v>11509</v>
+        <v>1294</v>
       </c>
       <c r="G489" t="s">
-        <v>11509</v>
+        <v>1294</v>
       </c>
       <c r="H489" t="s">
-        <v>11509</v>
+        <v>1294</v>
       </c>
       <c r="I489" t="s">
-        <v>11509</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="490">
       <c r="B490" t="s">
-        <v>11956</v>
+        <v>11959</v>
       </c>
       <c r="C490" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D490" t="s">
         <v>44</v>
@@ -56124,24 +56166,24 @@
         <v>45</v>
       </c>
       <c r="F490" t="s">
-        <v>1574</v>
+        <v>11894</v>
       </c>
       <c r="G490" t="s">
-        <v>1574</v>
+        <v>11894</v>
       </c>
       <c r="H490" t="s">
-        <v>1574</v>
+        <v>11894</v>
       </c>
       <c r="I490" t="s">
-        <v>1574</v>
+        <v>11894</v>
       </c>
     </row>
     <row r="491">
       <c r="B491" t="s">
-        <v>11957</v>
+        <v>11960</v>
       </c>
       <c r="C491" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D491" t="s">
         <v>44</v>
@@ -56150,24 +56192,24 @@
         <v>45</v>
       </c>
       <c r="F491" t="s">
-        <v>1574</v>
+        <v>11534</v>
       </c>
       <c r="G491" t="s">
-        <v>1574</v>
+        <v>11534</v>
       </c>
       <c r="H491" t="s">
-        <v>1574</v>
+        <v>11534</v>
       </c>
       <c r="I491" t="s">
-        <v>1574</v>
+        <v>11534</v>
       </c>
     </row>
     <row r="492">
       <c r="B492" t="s">
-        <v>11958</v>
+        <v>11961</v>
       </c>
       <c r="C492" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D492" t="s">
         <v>44</v>
@@ -56176,24 +56218,24 @@
         <v>45</v>
       </c>
       <c r="F492" t="s">
-        <v>1294</v>
+        <v>11462</v>
       </c>
       <c r="G492" t="s">
-        <v>1294</v>
+        <v>11462</v>
       </c>
       <c r="H492" t="s">
-        <v>1294</v>
+        <v>11462</v>
       </c>
       <c r="I492" t="s">
-        <v>1294</v>
+        <v>11462</v>
       </c>
     </row>
     <row r="493">
       <c r="B493" t="s">
-        <v>11959</v>
+        <v>11962</v>
       </c>
       <c r="C493" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D493" t="s">
         <v>44</v>
@@ -56202,50 +56244,50 @@
         <v>45</v>
       </c>
       <c r="F493" t="s">
-        <v>11894</v>
+        <v>11537</v>
       </c>
       <c r="G493" t="s">
-        <v>11894</v>
+        <v>11537</v>
       </c>
       <c r="H493" t="s">
-        <v>11894</v>
+        <v>11537</v>
       </c>
       <c r="I493" t="s">
-        <v>11894</v>
+        <v>11537</v>
       </c>
     </row>
     <row r="494">
       <c r="B494" t="s">
-        <v>11960</v>
+        <v>11963</v>
       </c>
       <c r="C494" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D494" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E494" t="s">
         <v>45</v>
       </c>
       <c r="F494" t="s">
-        <v>11534</v>
+        <v>50</v>
       </c>
       <c r="G494" t="s">
-        <v>11534</v>
+        <v>50</v>
       </c>
       <c r="H494" t="s">
-        <v>11534</v>
+        <v>50</v>
       </c>
       <c r="I494" t="s">
-        <v>11534</v>
+        <v>50</v>
       </c>
     </row>
     <row r="495">
       <c r="B495" t="s">
-        <v>11961</v>
+        <v>11964</v>
       </c>
       <c r="C495" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D495" t="s">
         <v>44</v>
@@ -56254,154 +56296,154 @@
         <v>45</v>
       </c>
       <c r="F495" t="s">
-        <v>11462</v>
+        <v>11508</v>
       </c>
       <c r="G495" t="s">
-        <v>11462</v>
+        <v>11508</v>
       </c>
       <c r="H495" t="s">
-        <v>11462</v>
+        <v>11508</v>
       </c>
       <c r="I495" t="s">
-        <v>11462</v>
+        <v>11508</v>
       </c>
     </row>
     <row r="496">
       <c r="B496" t="s">
-        <v>11962</v>
+        <v>11965</v>
       </c>
       <c r="C496" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D496" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E496" t="s">
         <v>45</v>
       </c>
       <c r="F496" t="s">
-        <v>11537</v>
+        <v>50</v>
       </c>
       <c r="G496" t="s">
-        <v>11537</v>
+        <v>50</v>
       </c>
       <c r="H496" t="s">
-        <v>11537</v>
+        <v>50</v>
       </c>
       <c r="I496" t="s">
-        <v>11537</v>
+        <v>50</v>
       </c>
     </row>
     <row r="497">
       <c r="B497" t="s">
-        <v>11963</v>
+        <v>11966</v>
       </c>
       <c r="C497" t="s">
         <v>77</v>
       </c>
       <c r="D497" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E497" t="s">
         <v>45</v>
       </c>
       <c r="F497" t="s">
-        <v>50</v>
+        <v>11512</v>
       </c>
       <c r="G497" t="s">
-        <v>50</v>
+        <v>11512</v>
       </c>
       <c r="H497" t="s">
-        <v>50</v>
+        <v>11512</v>
       </c>
       <c r="I497" t="s">
-        <v>50</v>
+        <v>11512</v>
       </c>
     </row>
     <row r="498">
       <c r="B498" t="s">
-        <v>11964</v>
+        <v>11968</v>
       </c>
       <c r="C498" t="s">
         <v>77</v>
       </c>
       <c r="D498" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E498" t="s">
         <v>45</v>
       </c>
       <c r="F498" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
       <c r="G498" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
       <c r="H498" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
       <c r="I498" t="s">
-        <v>11508</v>
+        <v>50</v>
       </c>
     </row>
     <row r="499">
       <c r="B499" t="s">
-        <v>11965</v>
+        <v>11969</v>
       </c>
       <c r="C499" t="s">
         <v>77</v>
       </c>
       <c r="D499" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E499" t="s">
         <v>45</v>
       </c>
       <c r="F499" t="s">
-        <v>50</v>
+        <v>11512</v>
       </c>
       <c r="G499" t="s">
-        <v>50</v>
+        <v>11512</v>
       </c>
       <c r="H499" t="s">
-        <v>50</v>
+        <v>11512</v>
       </c>
       <c r="I499" t="s">
-        <v>50</v>
+        <v>11512</v>
       </c>
     </row>
     <row r="500">
       <c r="B500" t="s">
-        <v>11966</v>
+        <v>11970</v>
       </c>
       <c r="C500" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D500" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E500" t="s">
         <v>45</v>
       </c>
       <c r="F500" t="s">
-        <v>11512</v>
+        <v>50</v>
       </c>
       <c r="G500" t="s">
-        <v>11512</v>
+        <v>50</v>
       </c>
       <c r="H500" t="s">
-        <v>11512</v>
+        <v>50</v>
       </c>
       <c r="I500" t="s">
-        <v>11512</v>
+        <v>50</v>
       </c>
     </row>
     <row r="501">
       <c r="B501" t="s">
-        <v>11967</v>
+        <v>11971</v>
       </c>
       <c r="C501" t="s">
-        <v>11926</v>
+        <v>101</v>
       </c>
       <c r="D501" t="s">
         <v>44</v>
@@ -56410,24 +56452,24 @@
         <v>45</v>
       </c>
       <c r="F501" t="s">
-        <v>11930</v>
+        <v>11550</v>
       </c>
       <c r="G501" t="s">
-        <v>47</v>
+        <v>11550</v>
       </c>
       <c r="H501" t="s">
-        <v>47</v>
+        <v>11550</v>
       </c>
       <c r="I501" t="s">
-        <v>47</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="502">
       <c r="B502" t="s">
-        <v>11968</v>
+        <v>11972</v>
       </c>
       <c r="C502" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D502" t="s">
         <v>49</v>
@@ -56450,10 +56492,10 @@
     </row>
     <row r="503">
       <c r="B503" t="s">
-        <v>11969</v>
+        <v>11973</v>
       </c>
       <c r="C503" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D503" t="s">
         <v>44</v>
@@ -56462,21 +56504,21 @@
         <v>45</v>
       </c>
       <c r="F503" t="s">
-        <v>11512</v>
+        <v>11510</v>
       </c>
       <c r="G503" t="s">
-        <v>11512</v>
+        <v>11510</v>
       </c>
       <c r="H503" t="s">
-        <v>11512</v>
+        <v>11510</v>
       </c>
       <c r="I503" t="s">
-        <v>11512</v>
+        <v>11510</v>
       </c>
     </row>
     <row r="504">
       <c r="B504" t="s">
-        <v>11970</v>
+        <v>11974</v>
       </c>
       <c r="C504" t="s">
         <v>101</v>
@@ -56502,7 +56544,7 @@
     </row>
     <row r="505">
       <c r="B505" t="s">
-        <v>11971</v>
+        <v>11975</v>
       </c>
       <c r="C505" t="s">
         <v>101</v>
@@ -56514,50 +56556,50 @@
         <v>45</v>
       </c>
       <c r="F505" t="s">
-        <v>11550</v>
+        <v>11509</v>
       </c>
       <c r="G505" t="s">
-        <v>11550</v>
+        <v>11509</v>
       </c>
       <c r="H505" t="s">
-        <v>11550</v>
+        <v>11509</v>
       </c>
       <c r="I505" t="s">
-        <v>11550</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="506">
       <c r="B506" t="s">
-        <v>11972</v>
+        <v>11976</v>
       </c>
       <c r="C506" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D506" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E506" t="s">
         <v>45</v>
       </c>
       <c r="F506" t="s">
-        <v>50</v>
+        <v>11894</v>
       </c>
       <c r="G506" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H506" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I506" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="507">
       <c r="B507" t="s">
-        <v>11973</v>
+        <v>11977</v>
       </c>
       <c r="C507" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D507" t="s">
         <v>44</v>
@@ -56566,24 +56608,24 @@
         <v>45</v>
       </c>
       <c r="F507" t="s">
-        <v>11510</v>
+        <v>1574</v>
       </c>
       <c r="G507" t="s">
-        <v>11510</v>
+        <v>47</v>
       </c>
       <c r="H507" t="s">
-        <v>11510</v>
+        <v>47</v>
       </c>
       <c r="I507" t="s">
-        <v>11510</v>
+        <v>47</v>
       </c>
     </row>
     <row r="508">
       <c r="B508" t="s">
-        <v>11974</v>
+        <v>11978</v>
       </c>
       <c r="C508" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="D508" t="s">
         <v>49</v>
@@ -56606,10 +56648,10 @@
     </row>
     <row r="509">
       <c r="B509" t="s">
-        <v>11975</v>
+        <v>11979</v>
       </c>
       <c r="C509" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="D509" t="s">
         <v>44</v>
@@ -56618,33 +56660,33 @@
         <v>45</v>
       </c>
       <c r="F509" t="s">
-        <v>11509</v>
+        <v>390</v>
       </c>
       <c r="G509" t="s">
-        <v>11509</v>
+        <v>390</v>
       </c>
       <c r="H509" t="s">
-        <v>11509</v>
+        <v>390</v>
       </c>
       <c r="I509" t="s">
-        <v>11509</v>
+        <v>390</v>
       </c>
     </row>
     <row r="510">
       <c r="B510" t="s">
-        <v>11976</v>
+        <v>11980</v>
       </c>
       <c r="C510" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="D510" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E510" t="s">
         <v>45</v>
       </c>
       <c r="F510" t="s">
-        <v>11894</v>
+        <v>1265</v>
       </c>
       <c r="G510" t="s">
         <v>47</v>
@@ -56658,19 +56700,19 @@
     </row>
     <row r="511">
       <c r="B511" t="s">
-        <v>11977</v>
+        <v>11981</v>
       </c>
       <c r="C511" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="D511" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E511" t="s">
         <v>45</v>
       </c>
       <c r="F511" t="s">
-        <v>1574</v>
+        <v>284</v>
       </c>
       <c r="G511" t="s">
         <v>47</v>
@@ -56684,36 +56726,36 @@
     </row>
     <row r="512">
       <c r="B512" t="s">
-        <v>11978</v>
+        <v>11982</v>
       </c>
       <c r="C512" t="s">
         <v>40</v>
       </c>
       <c r="D512" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E512" t="s">
         <v>45</v>
       </c>
       <c r="F512" t="s">
-        <v>50</v>
+        <v>11510</v>
       </c>
       <c r="G512" t="s">
-        <v>50</v>
+        <v>11510</v>
       </c>
       <c r="H512" t="s">
-        <v>50</v>
+        <v>11510</v>
       </c>
       <c r="I512" t="s">
-        <v>50</v>
+        <v>11510</v>
       </c>
     </row>
     <row r="513">
       <c r="B513" t="s">
-        <v>11979</v>
+        <v>11983</v>
       </c>
       <c r="C513" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D513" t="s">
         <v>44</v>
@@ -56722,76 +56764,76 @@
         <v>45</v>
       </c>
       <c r="F513" t="s">
-        <v>390</v>
+        <v>1574</v>
       </c>
       <c r="G513" t="s">
-        <v>390</v>
+        <v>1574</v>
       </c>
       <c r="H513" t="s">
-        <v>390</v>
+        <v>1574</v>
       </c>
       <c r="I513" t="s">
-        <v>390</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="514">
       <c r="B514" t="s">
-        <v>11980</v>
+        <v>11984</v>
       </c>
       <c r="C514" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D514" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E514" t="s">
         <v>45</v>
       </c>
       <c r="F514" t="s">
-        <v>1265</v>
+        <v>1574</v>
       </c>
       <c r="G514" t="s">
-        <v>47</v>
+        <v>1574</v>
       </c>
       <c r="H514" t="s">
-        <v>47</v>
+        <v>1574</v>
       </c>
       <c r="I514" t="s">
-        <v>47</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="515">
       <c r="B515" t="s">
-        <v>11981</v>
+        <v>11985</v>
       </c>
       <c r="C515" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D515" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E515" t="s">
         <v>45</v>
       </c>
       <c r="F515" t="s">
-        <v>284</v>
+        <v>1294</v>
       </c>
       <c r="G515" t="s">
-        <v>47</v>
+        <v>1294</v>
       </c>
       <c r="H515" t="s">
-        <v>47</v>
+        <v>1294</v>
       </c>
       <c r="I515" t="s">
-        <v>47</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="516">
       <c r="B516" t="s">
-        <v>11982</v>
+        <v>11986</v>
       </c>
       <c r="C516" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="D516" t="s">
         <v>44</v>
@@ -56800,24 +56842,24 @@
         <v>45</v>
       </c>
       <c r="F516" t="s">
-        <v>11510</v>
+        <v>11894</v>
       </c>
       <c r="G516" t="s">
-        <v>11510</v>
+        <v>11458</v>
       </c>
       <c r="H516" t="s">
-        <v>11510</v>
+        <v>11458</v>
       </c>
       <c r="I516" t="s">
-        <v>11510</v>
+        <v>11458</v>
       </c>
     </row>
     <row r="517">
       <c r="B517" t="s">
-        <v>11983</v>
+        <v>11987</v>
       </c>
       <c r="C517" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D517" t="s">
         <v>44</v>
@@ -56826,24 +56868,24 @@
         <v>45</v>
       </c>
       <c r="F517" t="s">
-        <v>1574</v>
+        <v>11461</v>
       </c>
       <c r="G517" t="s">
-        <v>1574</v>
+        <v>11461</v>
       </c>
       <c r="H517" t="s">
-        <v>1574</v>
+        <v>11461</v>
       </c>
       <c r="I517" t="s">
-        <v>1574</v>
+        <v>11461</v>
       </c>
     </row>
     <row r="518">
       <c r="B518" t="s">
-        <v>11984</v>
+        <v>11988</v>
       </c>
       <c r="C518" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D518" t="s">
         <v>44</v>
@@ -56852,24 +56894,24 @@
         <v>45</v>
       </c>
       <c r="F518" t="s">
-        <v>1574</v>
+        <v>11462</v>
       </c>
       <c r="G518" t="s">
-        <v>1574</v>
+        <v>11462</v>
       </c>
       <c r="H518" t="s">
-        <v>1574</v>
+        <v>11462</v>
       </c>
       <c r="I518" t="s">
-        <v>1574</v>
+        <v>11462</v>
       </c>
     </row>
     <row r="519">
       <c r="B519" t="s">
-        <v>11985</v>
+        <v>11989</v>
       </c>
       <c r="C519" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D519" t="s">
         <v>44</v>
@@ -56878,50 +56920,50 @@
         <v>45</v>
       </c>
       <c r="F519" t="s">
-        <v>1294</v>
+        <v>11463</v>
       </c>
       <c r="G519" t="s">
-        <v>1294</v>
+        <v>11463</v>
       </c>
       <c r="H519" t="s">
-        <v>1294</v>
+        <v>11463</v>
       </c>
       <c r="I519" t="s">
-        <v>1294</v>
+        <v>11463</v>
       </c>
     </row>
     <row r="520">
       <c r="B520" t="s">
-        <v>11986</v>
+        <v>11990</v>
       </c>
       <c r="C520" t="s">
         <v>77</v>
       </c>
       <c r="D520" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E520" t="s">
         <v>45</v>
       </c>
       <c r="F520" t="s">
-        <v>11894</v>
+        <v>50</v>
       </c>
       <c r="G520" t="s">
-        <v>11458</v>
+        <v>50</v>
       </c>
       <c r="H520" t="s">
-        <v>11458</v>
+        <v>50</v>
       </c>
       <c r="I520" t="s">
-        <v>11458</v>
+        <v>50</v>
       </c>
     </row>
     <row r="521">
       <c r="B521" t="s">
-        <v>11987</v>
+        <v>11991</v>
       </c>
       <c r="C521" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D521" t="s">
         <v>44</v>
@@ -56930,50 +56972,50 @@
         <v>45</v>
       </c>
       <c r="F521" t="s">
-        <v>11461</v>
+        <v>11512</v>
       </c>
       <c r="G521" t="s">
-        <v>11461</v>
+        <v>11512</v>
       </c>
       <c r="H521" t="s">
-        <v>11461</v>
+        <v>11512</v>
       </c>
       <c r="I521" t="s">
-        <v>11461</v>
+        <v>11512</v>
       </c>
     </row>
     <row r="522">
       <c r="B522" t="s">
-        <v>11988</v>
+        <v>11992</v>
       </c>
       <c r="C522" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D522" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E522" t="s">
         <v>45</v>
       </c>
       <c r="F522" t="s">
-        <v>11462</v>
+        <v>50</v>
       </c>
       <c r="G522" t="s">
-        <v>11462</v>
+        <v>50</v>
       </c>
       <c r="H522" t="s">
-        <v>11462</v>
+        <v>50</v>
       </c>
       <c r="I522" t="s">
-        <v>11462</v>
+        <v>50</v>
       </c>
     </row>
     <row r="523">
       <c r="B523" t="s">
-        <v>11989</v>
+        <v>11993</v>
       </c>
       <c r="C523" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D523" t="s">
         <v>44</v>
@@ -56982,24 +57024,24 @@
         <v>45</v>
       </c>
       <c r="F523" t="s">
-        <v>11463</v>
+        <v>11512</v>
       </c>
       <c r="G523" t="s">
-        <v>11463</v>
+        <v>11512</v>
       </c>
       <c r="H523" t="s">
-        <v>11463</v>
+        <v>11512</v>
       </c>
       <c r="I523" t="s">
-        <v>11463</v>
+        <v>11512</v>
       </c>
     </row>
     <row r="524">
       <c r="B524" t="s">
-        <v>11990</v>
+        <v>11995</v>
       </c>
       <c r="C524" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D524" t="s">
         <v>49</v>
@@ -57022,10 +57064,10 @@
     </row>
     <row r="525">
       <c r="B525" t="s">
-        <v>11991</v>
+        <v>11996</v>
       </c>
       <c r="C525" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D525" t="s">
         <v>44</v>
@@ -57034,21 +57076,21 @@
         <v>45</v>
       </c>
       <c r="F525" t="s">
-        <v>11512</v>
+        <v>11510</v>
       </c>
       <c r="G525" t="s">
-        <v>11512</v>
+        <v>11510</v>
       </c>
       <c r="H525" t="s">
-        <v>11512</v>
+        <v>11510</v>
       </c>
       <c r="I525" t="s">
-        <v>11512</v>
+        <v>11510</v>
       </c>
     </row>
     <row r="526">
       <c r="B526" t="s">
-        <v>11992</v>
+        <v>11997</v>
       </c>
       <c r="C526" t="s">
         <v>77</v>
@@ -57074,7 +57116,7 @@
     </row>
     <row r="527">
       <c r="B527" t="s">
-        <v>11993</v>
+        <v>11998</v>
       </c>
       <c r="C527" t="s">
         <v>77</v>
@@ -57086,76 +57128,76 @@
         <v>45</v>
       </c>
       <c r="F527" t="s">
-        <v>11512</v>
+        <v>11508</v>
       </c>
       <c r="G527" t="s">
-        <v>11512</v>
+        <v>11508</v>
       </c>
       <c r="H527" t="s">
-        <v>11512</v>
+        <v>11508</v>
       </c>
       <c r="I527" t="s">
-        <v>11512</v>
+        <v>11508</v>
       </c>
     </row>
     <row r="528">
       <c r="B528" t="s">
-        <v>11994</v>
+        <v>11999</v>
       </c>
       <c r="C528" t="s">
-        <v>11926</v>
+        <v>101</v>
       </c>
       <c r="D528" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E528" t="s">
         <v>45</v>
       </c>
       <c r="F528" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="G528" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H528" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I528" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="529">
       <c r="B529" t="s">
-        <v>11995</v>
+        <v>12000</v>
       </c>
       <c r="C529" t="s">
         <v>101</v>
       </c>
       <c r="D529" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E529" t="s">
         <v>45</v>
       </c>
       <c r="F529" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="G529" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="H529" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="I529" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="530">
       <c r="B530" t="s">
-        <v>11996</v>
+        <v>12001</v>
       </c>
       <c r="C530" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="D530" t="s">
         <v>44</v>
@@ -57164,24 +57206,24 @@
         <v>45</v>
       </c>
       <c r="F530" t="s">
-        <v>11510</v>
+        <v>12002</v>
       </c>
       <c r="G530" t="s">
-        <v>11510</v>
+        <v>12002</v>
       </c>
       <c r="H530" t="s">
-        <v>11510</v>
+        <v>12002</v>
       </c>
       <c r="I530" t="s">
-        <v>11510</v>
+        <v>12002</v>
       </c>
     </row>
     <row r="531">
       <c r="B531" t="s">
-        <v>11997</v>
+        <v>12003</v>
       </c>
       <c r="C531" t="s">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="D531" t="s">
         <v>49</v>
@@ -57204,10 +57246,10 @@
     </row>
     <row r="532">
       <c r="B532" t="s">
-        <v>11998</v>
+        <v>12004</v>
       </c>
       <c r="C532" t="s">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="D532" t="s">
         <v>44</v>
@@ -57216,24 +57258,24 @@
         <v>45</v>
       </c>
       <c r="F532" t="s">
-        <v>11508</v>
+        <v>12005</v>
       </c>
       <c r="G532" t="s">
-        <v>11508</v>
+        <v>12005</v>
       </c>
       <c r="H532" t="s">
-        <v>11508</v>
+        <v>12005</v>
       </c>
       <c r="I532" t="s">
-        <v>11508</v>
+        <v>12005</v>
       </c>
     </row>
     <row r="533">
       <c r="B533" t="s">
-        <v>11999</v>
+        <v>12006</v>
       </c>
       <c r="C533" t="s">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="D533" t="s">
         <v>49</v>
@@ -57256,10 +57298,10 @@
     </row>
     <row r="534">
       <c r="B534" t="s">
-        <v>12000</v>
+        <v>12007</v>
       </c>
       <c r="C534" t="s">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="D534" t="s">
         <v>44</v>
@@ -57268,128 +57310,128 @@
         <v>45</v>
       </c>
       <c r="F534" t="s">
-        <v>11509</v>
+        <v>12005</v>
       </c>
       <c r="G534" t="s">
-        <v>11509</v>
+        <v>12005</v>
       </c>
       <c r="H534" t="s">
-        <v>11509</v>
+        <v>12005</v>
       </c>
       <c r="I534" t="s">
-        <v>11509</v>
+        <v>12005</v>
       </c>
     </row>
     <row r="535">
       <c r="B535" t="s">
-        <v>12001</v>
+        <v>12008</v>
       </c>
       <c r="C535" t="s">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="D535" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E535" t="s">
         <v>45</v>
       </c>
       <c r="F535" t="s">
-        <v>12002</v>
+        <v>50</v>
       </c>
       <c r="G535" t="s">
-        <v>12002</v>
+        <v>50</v>
       </c>
       <c r="H535" t="s">
-        <v>12002</v>
+        <v>50</v>
       </c>
       <c r="I535" t="s">
-        <v>12002</v>
+        <v>50</v>
       </c>
     </row>
     <row r="536">
       <c r="B536" t="s">
-        <v>12003</v>
+        <v>12009</v>
       </c>
       <c r="C536" t="s">
         <v>251</v>
       </c>
       <c r="D536" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E536" t="s">
         <v>45</v>
       </c>
       <c r="F536" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
       <c r="G536" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
       <c r="H536" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
       <c r="I536" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
     </row>
     <row r="537">
       <c r="B537" t="s">
-        <v>12004</v>
+        <v>12010</v>
       </c>
       <c r="C537" t="s">
         <v>251</v>
       </c>
       <c r="D537" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E537" t="s">
         <v>45</v>
       </c>
       <c r="F537" t="s">
-        <v>12005</v>
+        <v>50</v>
       </c>
       <c r="G537" t="s">
-        <v>12005</v>
+        <v>50</v>
       </c>
       <c r="H537" t="s">
-        <v>12005</v>
+        <v>50</v>
       </c>
       <c r="I537" t="s">
-        <v>12005</v>
+        <v>50</v>
       </c>
     </row>
     <row r="538">
       <c r="B538" t="s">
-        <v>12006</v>
+        <v>12011</v>
       </c>
       <c r="C538" t="s">
         <v>251</v>
       </c>
       <c r="D538" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E538" t="s">
         <v>45</v>
       </c>
       <c r="F538" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
       <c r="G538" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
       <c r="H538" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
       <c r="I538" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
     </row>
     <row r="539">
       <c r="B539" t="s">
-        <v>12007</v>
+        <v>12012</v>
       </c>
       <c r="C539" t="s">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="D539" t="s">
         <v>44</v>
@@ -57398,21 +57440,21 @@
         <v>45</v>
       </c>
       <c r="F539" t="s">
-        <v>12005</v>
+        <v>12021</v>
       </c>
       <c r="G539" t="s">
-        <v>12005</v>
+        <v>12021</v>
       </c>
       <c r="H539" t="s">
-        <v>12005</v>
+        <v>12021</v>
       </c>
       <c r="I539" t="s">
-        <v>12005</v>
+        <v>12021</v>
       </c>
     </row>
     <row r="540">
       <c r="B540" t="s">
-        <v>12008</v>
+        <v>12013</v>
       </c>
       <c r="C540" t="s">
         <v>251</v>
@@ -57438,7 +57480,7 @@
     </row>
     <row r="541">
       <c r="B541" t="s">
-        <v>12009</v>
+        <v>12014</v>
       </c>
       <c r="C541" t="s">
         <v>251</v>
@@ -57464,7 +57506,7 @@
     </row>
     <row r="542">
       <c r="B542" t="s">
-        <v>12010</v>
+        <v>12015</v>
       </c>
       <c r="C542" t="s">
         <v>251</v>
@@ -57490,7 +57532,7 @@
     </row>
     <row r="543">
       <c r="B543" t="s">
-        <v>12011</v>
+        <v>12016</v>
       </c>
       <c r="C543" t="s">
         <v>251</v>
@@ -57516,114 +57558,114 @@
     </row>
     <row r="544">
       <c r="B544" t="s">
-        <v>12012</v>
+        <v>12017</v>
       </c>
       <c r="C544" t="s">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="D544" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E544" t="s">
         <v>45</v>
       </c>
       <c r="F544" t="s">
-        <v>12021</v>
+        <v>50</v>
       </c>
       <c r="G544" t="s">
-        <v>12021</v>
+        <v>50</v>
       </c>
       <c r="H544" t="s">
-        <v>12021</v>
+        <v>50</v>
       </c>
       <c r="I544" t="s">
-        <v>12021</v>
+        <v>50</v>
       </c>
     </row>
     <row r="545">
       <c r="B545" t="s">
-        <v>12013</v>
+        <v>12018</v>
       </c>
       <c r="C545" t="s">
         <v>251</v>
       </c>
       <c r="D545" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E545" t="s">
         <v>45</v>
       </c>
       <c r="F545" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
       <c r="G545" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
       <c r="H545" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
       <c r="I545" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
     </row>
     <row r="546">
       <c r="B546" t="s">
-        <v>12014</v>
+        <v>12019</v>
       </c>
       <c r="C546" t="s">
         <v>251</v>
       </c>
       <c r="D546" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E546" t="s">
         <v>45</v>
       </c>
       <c r="F546" t="s">
-        <v>12005</v>
+        <v>50</v>
       </c>
       <c r="G546" t="s">
-        <v>12005</v>
+        <v>50</v>
       </c>
       <c r="H546" t="s">
-        <v>12005</v>
+        <v>50</v>
       </c>
       <c r="I546" t="s">
-        <v>12005</v>
+        <v>50</v>
       </c>
     </row>
     <row r="547">
       <c r="B547" t="s">
-        <v>12015</v>
+        <v>12020</v>
       </c>
       <c r="C547" t="s">
         <v>251</v>
       </c>
       <c r="D547" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E547" t="s">
         <v>45</v>
       </c>
       <c r="F547" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
       <c r="G547" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
       <c r="H547" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
       <c r="I547" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
     </row>
     <row r="548">
       <c r="B548" t="s">
-        <v>12016</v>
+        <v>12022</v>
       </c>
       <c r="C548" t="s">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="D548" t="s">
         <v>44</v>
@@ -57632,21 +57674,21 @@
         <v>45</v>
       </c>
       <c r="F548" t="s">
-        <v>12005</v>
+        <v>12023</v>
       </c>
       <c r="G548" t="s">
-        <v>12005</v>
+        <v>12023</v>
       </c>
       <c r="H548" t="s">
-        <v>12005</v>
+        <v>12023</v>
       </c>
       <c r="I548" t="s">
-        <v>12005</v>
+        <v>12023</v>
       </c>
     </row>
     <row r="549">
       <c r="B549" t="s">
-        <v>12017</v>
+        <v>12024</v>
       </c>
       <c r="C549" t="s">
         <v>251</v>
@@ -57672,7 +57714,7 @@
     </row>
     <row r="550">
       <c r="B550" t="s">
-        <v>12018</v>
+        <v>12025</v>
       </c>
       <c r="C550" t="s">
         <v>251</v>
@@ -57698,7 +57740,7 @@
     </row>
     <row r="551">
       <c r="B551" t="s">
-        <v>12019</v>
+        <v>12026</v>
       </c>
       <c r="C551" t="s">
         <v>251</v>
@@ -57724,7 +57766,7 @@
     </row>
     <row r="552">
       <c r="B552" t="s">
-        <v>12020</v>
+        <v>12027</v>
       </c>
       <c r="C552" t="s">
         <v>251</v>
@@ -57750,114 +57792,114 @@
     </row>
     <row r="553">
       <c r="B553" t="s">
-        <v>12022</v>
+        <v>12028</v>
       </c>
       <c r="C553" t="s">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="D553" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E553" t="s">
         <v>45</v>
       </c>
       <c r="F553" t="s">
-        <v>12023</v>
+        <v>50</v>
       </c>
       <c r="G553" t="s">
-        <v>12023</v>
+        <v>50</v>
       </c>
       <c r="H553" t="s">
-        <v>12023</v>
+        <v>50</v>
       </c>
       <c r="I553" t="s">
-        <v>12023</v>
+        <v>50</v>
       </c>
     </row>
     <row r="554">
       <c r="B554" t="s">
-        <v>12024</v>
+        <v>12029</v>
       </c>
       <c r="C554" t="s">
         <v>251</v>
       </c>
       <c r="D554" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E554" t="s">
         <v>45</v>
       </c>
       <c r="F554" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
       <c r="G554" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
       <c r="H554" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
       <c r="I554" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
     </row>
     <row r="555">
       <c r="B555" t="s">
-        <v>12025</v>
+        <v>12030</v>
       </c>
       <c r="C555" t="s">
         <v>251</v>
       </c>
       <c r="D555" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E555" t="s">
         <v>45</v>
       </c>
       <c r="F555" t="s">
-        <v>12005</v>
+        <v>50</v>
       </c>
       <c r="G555" t="s">
-        <v>12005</v>
+        <v>50</v>
       </c>
       <c r="H555" t="s">
-        <v>12005</v>
+        <v>50</v>
       </c>
       <c r="I555" t="s">
-        <v>12005</v>
+        <v>50</v>
       </c>
     </row>
     <row r="556">
       <c r="B556" t="s">
-        <v>12026</v>
+        <v>12031</v>
       </c>
       <c r="C556" t="s">
         <v>251</v>
       </c>
       <c r="D556" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E556" t="s">
         <v>45</v>
       </c>
       <c r="F556" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
       <c r="G556" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
       <c r="H556" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
       <c r="I556" t="s">
-        <v>50</v>
+        <v>12005</v>
       </c>
     </row>
     <row r="557">
       <c r="B557" t="s">
-        <v>12027</v>
+        <v>12032</v>
       </c>
       <c r="C557" t="s">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="D557" t="s">
         <v>44</v>
@@ -57866,102 +57908,102 @@
         <v>45</v>
       </c>
       <c r="F557" t="s">
-        <v>12005</v>
+        <v>12207</v>
       </c>
       <c r="G557" t="s">
-        <v>12005</v>
+        <v>12207</v>
       </c>
       <c r="H557" t="s">
-        <v>12005</v>
+        <v>12207</v>
       </c>
       <c r="I557" t="s">
-        <v>12005</v>
+        <v>12207</v>
       </c>
     </row>
     <row r="558">
       <c r="B558" t="s">
-        <v>12028</v>
+        <v>12034</v>
       </c>
       <c r="C558" t="s">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="D558" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E558" t="s">
         <v>45</v>
       </c>
       <c r="F558" t="s">
-        <v>50</v>
+        <v>12035</v>
       </c>
       <c r="G558" t="s">
-        <v>50</v>
+        <v>12035</v>
       </c>
       <c r="H558" t="s">
-        <v>50</v>
+        <v>12035</v>
       </c>
       <c r="I558" t="s">
-        <v>50</v>
+        <v>12035</v>
       </c>
     </row>
     <row r="559">
       <c r="B559" t="s">
-        <v>12029</v>
+        <v>12036</v>
       </c>
       <c r="C559" t="s">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="D559" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E559" t="s">
         <v>45</v>
       </c>
       <c r="F559" t="s">
-        <v>12005</v>
+        <v>50</v>
       </c>
       <c r="G559" t="s">
-        <v>12005</v>
+        <v>50</v>
       </c>
       <c r="H559" t="s">
-        <v>12005</v>
+        <v>50</v>
       </c>
       <c r="I559" t="s">
-        <v>12005</v>
+        <v>50</v>
       </c>
     </row>
     <row r="560">
       <c r="B560" t="s">
-        <v>12030</v>
+        <v>12037</v>
       </c>
       <c r="C560" t="s">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="D560" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E560" t="s">
         <v>45</v>
       </c>
       <c r="F560" t="s">
-        <v>50</v>
+        <v>12038</v>
       </c>
       <c r="G560" t="s">
-        <v>50</v>
+        <v>12038</v>
       </c>
       <c r="H560" t="s">
-        <v>50</v>
+        <v>12038</v>
       </c>
       <c r="I560" t="s">
-        <v>50</v>
+        <v>12038</v>
       </c>
     </row>
     <row r="561">
       <c r="B561" t="s">
-        <v>12031</v>
+        <v>12039</v>
       </c>
       <c r="C561" t="s">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="D561" t="s">
         <v>44</v>
@@ -57970,24 +58012,24 @@
         <v>45</v>
       </c>
       <c r="F561" t="s">
-        <v>12005</v>
+        <v>12040</v>
       </c>
       <c r="G561" t="s">
-        <v>12005</v>
+        <v>12040</v>
       </c>
       <c r="H561" t="s">
-        <v>12005</v>
+        <v>12040</v>
       </c>
       <c r="I561" t="s">
-        <v>12005</v>
+        <v>12040</v>
       </c>
     </row>
     <row r="562">
       <c r="B562" t="s">
-        <v>12032</v>
+        <v>12041</v>
       </c>
       <c r="C562" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="D562" t="s">
         <v>44</v>
@@ -57996,21 +58038,21 @@
         <v>45</v>
       </c>
       <c r="F562" t="s">
-        <v>12207</v>
+        <v>12042</v>
       </c>
       <c r="G562" t="s">
-        <v>12207</v>
+        <v>12042</v>
       </c>
       <c r="H562" t="s">
-        <v>12207</v>
+        <v>12042</v>
       </c>
       <c r="I562" t="s">
-        <v>12207</v>
+        <v>12042</v>
       </c>
     </row>
     <row r="563">
       <c r="B563" t="s">
-        <v>12034</v>
+        <v>12043</v>
       </c>
       <c r="C563" t="s">
         <v>101</v>
@@ -58022,50 +58064,50 @@
         <v>45</v>
       </c>
       <c r="F563" t="s">
-        <v>12035</v>
+        <v>12044</v>
       </c>
       <c r="G563" t="s">
-        <v>12035</v>
+        <v>12044</v>
       </c>
       <c r="H563" t="s">
-        <v>12035</v>
+        <v>12044</v>
       </c>
       <c r="I563" t="s">
-        <v>12035</v>
+        <v>12044</v>
       </c>
     </row>
     <row r="564">
       <c r="B564" t="s">
-        <v>12036</v>
+        <v>12045</v>
       </c>
       <c r="C564" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="D564" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E564" t="s">
         <v>45</v>
       </c>
       <c r="F564" t="s">
-        <v>50</v>
+        <v>12046</v>
       </c>
       <c r="G564" t="s">
-        <v>50</v>
+        <v>12046</v>
       </c>
       <c r="H564" t="s">
-        <v>50</v>
+        <v>12046</v>
       </c>
       <c r="I564" t="s">
-        <v>50</v>
+        <v>12046</v>
       </c>
     </row>
     <row r="565">
       <c r="B565" t="s">
-        <v>12037</v>
+        <v>12047</v>
       </c>
       <c r="C565" t="s">
-        <v>38</v>
+        <v>1594</v>
       </c>
       <c r="D565" t="s">
         <v>44</v>
@@ -58074,24 +58116,24 @@
         <v>45</v>
       </c>
       <c r="F565" t="s">
-        <v>12038</v>
+        <v>12048</v>
       </c>
       <c r="G565" t="s">
-        <v>12038</v>
+        <v>12048</v>
       </c>
       <c r="H565" t="s">
-        <v>12038</v>
+        <v>12048</v>
       </c>
       <c r="I565" t="s">
-        <v>12038</v>
+        <v>12048</v>
       </c>
     </row>
     <row r="566">
       <c r="B566" t="s">
-        <v>12039</v>
+        <v>12049</v>
       </c>
       <c r="C566" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D566" t="s">
         <v>44</v>
@@ -58100,50 +58142,50 @@
         <v>45</v>
       </c>
       <c r="F566" t="s">
-        <v>12040</v>
+        <v>2700</v>
       </c>
       <c r="G566" t="s">
-        <v>12040</v>
+        <v>2700</v>
       </c>
       <c r="H566" t="s">
-        <v>12040</v>
+        <v>2700</v>
       </c>
       <c r="I566" t="s">
-        <v>12040</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="567">
       <c r="B567" t="s">
-        <v>12041</v>
+        <v>12050</v>
       </c>
       <c r="C567" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D567" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E567" t="s">
         <v>45</v>
       </c>
       <c r="F567" t="s">
-        <v>12042</v>
+        <v>50</v>
       </c>
       <c r="G567" t="s">
-        <v>12042</v>
+        <v>50</v>
       </c>
       <c r="H567" t="s">
-        <v>12042</v>
+        <v>50</v>
       </c>
       <c r="I567" t="s">
-        <v>12042</v>
+        <v>50</v>
       </c>
     </row>
     <row r="568">
       <c r="B568" t="s">
-        <v>12043</v>
+        <v>12051</v>
       </c>
       <c r="C568" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D568" t="s">
         <v>44</v>
@@ -58152,50 +58194,50 @@
         <v>45</v>
       </c>
       <c r="F568" t="s">
-        <v>12044</v>
+        <v>11512</v>
       </c>
       <c r="G568" t="s">
-        <v>12044</v>
+        <v>11512</v>
       </c>
       <c r="H568" t="s">
-        <v>12044</v>
+        <v>11512</v>
       </c>
       <c r="I568" t="s">
-        <v>12044</v>
+        <v>11512</v>
       </c>
     </row>
     <row r="569">
       <c r="B569" t="s">
-        <v>12045</v>
+        <v>12052</v>
       </c>
       <c r="C569" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D569" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E569" t="s">
         <v>45</v>
       </c>
       <c r="F569" t="s">
-        <v>12046</v>
+        <v>50</v>
       </c>
       <c r="G569" t="s">
-        <v>12046</v>
+        <v>50</v>
       </c>
       <c r="H569" t="s">
-        <v>12046</v>
+        <v>50</v>
       </c>
       <c r="I569" t="s">
-        <v>12046</v>
+        <v>50</v>
       </c>
     </row>
     <row r="570">
       <c r="B570" t="s">
-        <v>12047</v>
+        <v>12053</v>
       </c>
       <c r="C570" t="s">
-        <v>1594</v>
+        <v>78</v>
       </c>
       <c r="D570" t="s">
         <v>44</v>
@@ -58204,24 +58246,24 @@
         <v>45</v>
       </c>
       <c r="F570" t="s">
-        <v>12048</v>
+        <v>11550</v>
       </c>
       <c r="G570" t="s">
-        <v>12048</v>
+        <v>11550</v>
       </c>
       <c r="H570" t="s">
-        <v>12048</v>
+        <v>11550</v>
       </c>
       <c r="I570" t="s">
-        <v>12048</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="571">
       <c r="B571" t="s">
-        <v>12049</v>
+        <v>12057</v>
       </c>
       <c r="C571" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D571" t="s">
         <v>44</v>
@@ -58230,24 +58272,24 @@
         <v>45</v>
       </c>
       <c r="F571" t="s">
-        <v>2700</v>
+        <v>12058</v>
       </c>
       <c r="G571" t="s">
-        <v>2700</v>
+        <v>12058</v>
       </c>
       <c r="H571" t="s">
-        <v>2700</v>
+        <v>12058</v>
       </c>
       <c r="I571" t="s">
-        <v>2700</v>
+        <v>12058</v>
       </c>
     </row>
     <row r="572">
       <c r="B572" t="s">
-        <v>12050</v>
+        <v>12059</v>
       </c>
       <c r="C572" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D572" t="s">
         <v>49</v>
@@ -58256,24 +58298,24 @@
         <v>45</v>
       </c>
       <c r="F572" t="s">
-        <v>50</v>
+        <v>12060</v>
       </c>
       <c r="G572" t="s">
-        <v>50</v>
+        <v>12060</v>
       </c>
       <c r="H572" t="s">
-        <v>50</v>
+        <v>12060</v>
       </c>
       <c r="I572" t="s">
-        <v>50</v>
+        <v>12060</v>
       </c>
     </row>
     <row r="573">
       <c r="B573" t="s">
-        <v>12051</v>
+        <v>12061</v>
       </c>
       <c r="C573" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D573" t="s">
         <v>44</v>
@@ -58282,24 +58324,24 @@
         <v>45</v>
       </c>
       <c r="F573" t="s">
-        <v>11512</v>
+        <v>11780</v>
       </c>
       <c r="G573" t="s">
-        <v>11512</v>
+        <v>11780</v>
       </c>
       <c r="H573" t="s">
-        <v>11512</v>
+        <v>11780</v>
       </c>
       <c r="I573" t="s">
-        <v>11512</v>
+        <v>11780</v>
       </c>
     </row>
     <row r="574">
       <c r="B574" t="s">
-        <v>12052</v>
+        <v>12062</v>
       </c>
       <c r="C574" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D574" t="s">
         <v>49</v>
@@ -58308,76 +58350,76 @@
         <v>45</v>
       </c>
       <c r="F574" t="s">
-        <v>50</v>
+        <v>2570</v>
       </c>
       <c r="G574" t="s">
-        <v>50</v>
+        <v>2570</v>
       </c>
       <c r="H574" t="s">
-        <v>50</v>
+        <v>2570</v>
       </c>
       <c r="I574" t="s">
-        <v>50</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="575">
       <c r="B575" t="s">
-        <v>12053</v>
+        <v>12063</v>
       </c>
       <c r="C575" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D575" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E575" t="s">
         <v>45</v>
       </c>
       <c r="F575" t="s">
-        <v>11550</v>
+        <v>2574</v>
       </c>
       <c r="G575" t="s">
-        <v>11550</v>
+        <v>2574</v>
       </c>
       <c r="H575" t="s">
-        <v>11550</v>
+        <v>2574</v>
       </c>
       <c r="I575" t="s">
-        <v>11550</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="576">
       <c r="B576" t="s">
-        <v>12057</v>
+        <v>12064</v>
       </c>
       <c r="C576" t="s">
         <v>77</v>
       </c>
       <c r="D576" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E576" t="s">
         <v>45</v>
       </c>
       <c r="F576" t="s">
-        <v>12058</v>
+        <v>12065</v>
       </c>
       <c r="G576" t="s">
-        <v>12058</v>
+        <v>12065</v>
       </c>
       <c r="H576" t="s">
-        <v>12058</v>
+        <v>12065</v>
       </c>
       <c r="I576" t="s">
-        <v>12058</v>
+        <v>12065</v>
       </c>
     </row>
     <row r="577">
       <c r="B577" t="s">
-        <v>12059</v>
+        <v>12066</v>
       </c>
       <c r="C577" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D577" t="s">
         <v>49</v>
@@ -58386,76 +58428,76 @@
         <v>45</v>
       </c>
       <c r="F577" t="s">
-        <v>12060</v>
+        <v>11646</v>
       </c>
       <c r="G577" t="s">
-        <v>12060</v>
+        <v>11646</v>
       </c>
       <c r="H577" t="s">
-        <v>12060</v>
+        <v>11646</v>
       </c>
       <c r="I577" t="s">
-        <v>12060</v>
+        <v>11646</v>
       </c>
     </row>
     <row r="578">
       <c r="B578" t="s">
-        <v>12061</v>
+        <v>12067</v>
       </c>
       <c r="C578" t="s">
         <v>77</v>
       </c>
       <c r="D578" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E578" t="s">
         <v>45</v>
       </c>
       <c r="F578" t="s">
-        <v>11780</v>
+        <v>50</v>
       </c>
       <c r="G578" t="s">
-        <v>11780</v>
+        <v>50</v>
       </c>
       <c r="H578" t="s">
-        <v>11780</v>
+        <v>50</v>
       </c>
       <c r="I578" t="s">
-        <v>11780</v>
+        <v>50</v>
       </c>
     </row>
     <row r="579">
       <c r="B579" t="s">
-        <v>12062</v>
+        <v>12068</v>
       </c>
       <c r="C579" t="s">
         <v>77</v>
       </c>
       <c r="D579" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E579" t="s">
         <v>45</v>
       </c>
       <c r="F579" t="s">
-        <v>2570</v>
+        <v>11510</v>
       </c>
       <c r="G579" t="s">
-        <v>2570</v>
+        <v>11510</v>
       </c>
       <c r="H579" t="s">
-        <v>2570</v>
+        <v>11510</v>
       </c>
       <c r="I579" t="s">
-        <v>2570</v>
+        <v>11510</v>
       </c>
     </row>
     <row r="580">
       <c r="B580" t="s">
-        <v>12063</v>
+        <v>12069</v>
       </c>
       <c r="C580" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D580" t="s">
         <v>49</v>
@@ -58464,47 +58506,47 @@
         <v>45</v>
       </c>
       <c r="F580" t="s">
-        <v>2574</v>
+        <v>50</v>
       </c>
       <c r="G580" t="s">
-        <v>2574</v>
+        <v>50</v>
       </c>
       <c r="H580" t="s">
-        <v>2574</v>
+        <v>50</v>
       </c>
       <c r="I580" t="s">
-        <v>2574</v>
+        <v>50</v>
       </c>
     </row>
     <row r="581">
       <c r="B581" t="s">
-        <v>12064</v>
+        <v>12070</v>
       </c>
       <c r="C581" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D581" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E581" t="s">
         <v>45</v>
       </c>
       <c r="F581" t="s">
-        <v>12065</v>
+        <v>11688</v>
       </c>
       <c r="G581" t="s">
-        <v>12065</v>
+        <v>11688</v>
       </c>
       <c r="H581" t="s">
-        <v>12065</v>
+        <v>11688</v>
       </c>
       <c r="I581" t="s">
-        <v>12065</v>
+        <v>11688</v>
       </c>
     </row>
     <row r="582">
       <c r="B582" t="s">
-        <v>12066</v>
+        <v>12071</v>
       </c>
       <c r="C582" t="s">
         <v>78</v>
@@ -58516,50 +58558,50 @@
         <v>45</v>
       </c>
       <c r="F582" t="s">
-        <v>11646</v>
+        <v>50</v>
       </c>
       <c r="G582" t="s">
-        <v>11646</v>
+        <v>50</v>
       </c>
       <c r="H582" t="s">
-        <v>11646</v>
+        <v>50</v>
       </c>
       <c r="I582" t="s">
-        <v>11646</v>
+        <v>50</v>
       </c>
     </row>
     <row r="583">
       <c r="B583" t="s">
-        <v>12067</v>
+        <v>12072</v>
       </c>
       <c r="C583" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D583" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E583" t="s">
         <v>45</v>
       </c>
       <c r="F583" t="s">
-        <v>50</v>
+        <v>11688</v>
       </c>
       <c r="G583" t="s">
-        <v>50</v>
+        <v>11688</v>
       </c>
       <c r="H583" t="s">
-        <v>50</v>
+        <v>11688</v>
       </c>
       <c r="I583" t="s">
-        <v>50</v>
+        <v>11688</v>
       </c>
     </row>
     <row r="584">
       <c r="B584" t="s">
-        <v>12068</v>
+        <v>12073</v>
       </c>
       <c r="C584" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D584" t="s">
         <v>44</v>
@@ -58568,99 +58610,99 @@
         <v>45</v>
       </c>
       <c r="F584" t="s">
-        <v>11510</v>
+        <v>50</v>
       </c>
       <c r="G584" t="s">
-        <v>11510</v>
+        <v>50</v>
       </c>
       <c r="H584" t="s">
-        <v>11510</v>
+        <v>50</v>
       </c>
       <c r="I584" t="s">
-        <v>11510</v>
+        <v>50</v>
       </c>
     </row>
     <row r="585">
       <c r="B585" t="s">
-        <v>12069</v>
+        <v>12074</v>
       </c>
       <c r="C585" t="s">
         <v>78</v>
       </c>
       <c r="D585" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E585" t="s">
         <v>45</v>
       </c>
       <c r="F585" t="s">
-        <v>50</v>
+        <v>11510</v>
       </c>
       <c r="G585" t="s">
-        <v>50</v>
+        <v>11510</v>
       </c>
       <c r="H585" t="s">
-        <v>50</v>
+        <v>11510</v>
       </c>
       <c r="I585" t="s">
-        <v>50</v>
+        <v>11510</v>
       </c>
     </row>
     <row r="586">
       <c r="B586" t="s">
-        <v>12070</v>
+        <v>12075</v>
       </c>
       <c r="C586" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D586" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E586" t="s">
         <v>45</v>
       </c>
       <c r="F586" t="s">
-        <v>11688</v>
+        <v>12076</v>
       </c>
       <c r="G586" t="s">
-        <v>11688</v>
+        <v>12076</v>
       </c>
       <c r="H586" t="s">
-        <v>11688</v>
+        <v>12076</v>
       </c>
       <c r="I586" t="s">
-        <v>11688</v>
+        <v>12076</v>
       </c>
     </row>
     <row r="587">
       <c r="B587" t="s">
-        <v>12071</v>
+        <v>12077</v>
       </c>
       <c r="C587" t="s">
         <v>78</v>
       </c>
       <c r="D587" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E587" t="s">
         <v>45</v>
       </c>
       <c r="F587" t="s">
-        <v>50</v>
+        <v>1574</v>
       </c>
       <c r="G587" t="s">
-        <v>50</v>
+        <v>1574</v>
       </c>
       <c r="H587" t="s">
-        <v>50</v>
+        <v>1574</v>
       </c>
       <c r="I587" t="s">
-        <v>50</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="588">
       <c r="B588" t="s">
-        <v>12072</v>
+        <v>12078</v>
       </c>
       <c r="C588" t="s">
         <v>78</v>
@@ -58672,21 +58714,21 @@
         <v>45</v>
       </c>
       <c r="F588" t="s">
-        <v>11688</v>
+        <v>1574</v>
       </c>
       <c r="G588" t="s">
-        <v>11688</v>
+        <v>1574</v>
       </c>
       <c r="H588" t="s">
-        <v>11688</v>
+        <v>1574</v>
       </c>
       <c r="I588" t="s">
-        <v>11688</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="589">
       <c r="B589" t="s">
-        <v>12073</v>
+        <v>12079</v>
       </c>
       <c r="C589" t="s">
         <v>78</v>
@@ -58698,24 +58740,24 @@
         <v>45</v>
       </c>
       <c r="F589" t="s">
-        <v>50</v>
+        <v>1294</v>
       </c>
       <c r="G589" t="s">
-        <v>50</v>
+        <v>1294</v>
       </c>
       <c r="H589" t="s">
-        <v>50</v>
+        <v>1294</v>
       </c>
       <c r="I589" t="s">
-        <v>50</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="590">
       <c r="B590" t="s">
-        <v>12074</v>
+        <v>12080</v>
       </c>
       <c r="C590" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D590" t="s">
         <v>44</v>
@@ -58724,50 +58766,50 @@
         <v>45</v>
       </c>
       <c r="F590" t="s">
-        <v>11510</v>
+        <v>12098</v>
       </c>
       <c r="G590" t="s">
-        <v>11510</v>
+        <v>12098</v>
       </c>
       <c r="H590" t="s">
-        <v>11510</v>
+        <v>12098</v>
       </c>
       <c r="I590" t="s">
-        <v>11510</v>
+        <v>12098</v>
       </c>
     </row>
     <row r="591">
       <c r="B591" t="s">
-        <v>12075</v>
+        <v>12081</v>
       </c>
       <c r="C591" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="D591" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E591" t="s">
         <v>45</v>
       </c>
       <c r="F591" t="s">
-        <v>12076</v>
+        <v>11534</v>
       </c>
       <c r="G591" t="s">
-        <v>12076</v>
+        <v>11534</v>
       </c>
       <c r="H591" t="s">
-        <v>12076</v>
+        <v>11534</v>
       </c>
       <c r="I591" t="s">
-        <v>12076</v>
+        <v>11534</v>
       </c>
     </row>
     <row r="592">
       <c r="B592" t="s">
-        <v>12077</v>
+        <v>12082</v>
       </c>
       <c r="C592" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D592" t="s">
         <v>44</v>
@@ -58776,24 +58818,24 @@
         <v>45</v>
       </c>
       <c r="F592" t="s">
-        <v>1574</v>
+        <v>11462</v>
       </c>
       <c r="G592" t="s">
-        <v>1574</v>
+        <v>11462</v>
       </c>
       <c r="H592" t="s">
-        <v>1574</v>
+        <v>11462</v>
       </c>
       <c r="I592" t="s">
-        <v>1574</v>
+        <v>11462</v>
       </c>
     </row>
     <row r="593">
       <c r="B593" t="s">
-        <v>12078</v>
+        <v>12083</v>
       </c>
       <c r="C593" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D593" t="s">
         <v>44</v>
@@ -58802,47 +58844,47 @@
         <v>45</v>
       </c>
       <c r="F593" t="s">
-        <v>1574</v>
+        <v>11537</v>
       </c>
       <c r="G593" t="s">
-        <v>1574</v>
+        <v>11537</v>
       </c>
       <c r="H593" t="s">
-        <v>1574</v>
+        <v>11537</v>
       </c>
       <c r="I593" t="s">
-        <v>1574</v>
+        <v>11537</v>
       </c>
     </row>
     <row r="594">
       <c r="B594" t="s">
-        <v>12079</v>
+        <v>12084</v>
       </c>
       <c r="C594" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D594" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E594" t="s">
         <v>45</v>
       </c>
       <c r="F594" t="s">
-        <v>1294</v>
+        <v>50</v>
       </c>
       <c r="G594" t="s">
-        <v>1294</v>
+        <v>50</v>
       </c>
       <c r="H594" t="s">
-        <v>1294</v>
+        <v>50</v>
       </c>
       <c r="I594" t="s">
-        <v>1294</v>
+        <v>50</v>
       </c>
     </row>
     <row r="595">
       <c r="B595" t="s">
-        <v>12080</v>
+        <v>12085</v>
       </c>
       <c r="C595" t="s">
         <v>77</v>
@@ -58854,50 +58896,50 @@
         <v>45</v>
       </c>
       <c r="F595" t="s">
-        <v>12098</v>
+        <v>11512</v>
       </c>
       <c r="G595" t="s">
-        <v>12098</v>
+        <v>11512</v>
       </c>
       <c r="H595" t="s">
-        <v>12098</v>
+        <v>11512</v>
       </c>
       <c r="I595" t="s">
-        <v>12098</v>
+        <v>11512</v>
       </c>
     </row>
     <row r="596">
       <c r="B596" t="s">
-        <v>12081</v>
+        <v>12086</v>
       </c>
       <c r="C596" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D596" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E596" t="s">
         <v>45</v>
       </c>
       <c r="F596" t="s">
-        <v>11534</v>
+        <v>50</v>
       </c>
       <c r="G596" t="s">
-        <v>11534</v>
+        <v>50</v>
       </c>
       <c r="H596" t="s">
-        <v>11534</v>
+        <v>50</v>
       </c>
       <c r="I596" t="s">
-        <v>11534</v>
+        <v>50</v>
       </c>
     </row>
     <row r="597">
       <c r="B597" t="s">
-        <v>12082</v>
+        <v>12087</v>
       </c>
       <c r="C597" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D597" t="s">
         <v>44</v>
@@ -58906,24 +58948,24 @@
         <v>45</v>
       </c>
       <c r="F597" t="s">
-        <v>11462</v>
+        <v>11512</v>
       </c>
       <c r="G597" t="s">
-        <v>11462</v>
+        <v>11512</v>
       </c>
       <c r="H597" t="s">
-        <v>11462</v>
+        <v>11512</v>
       </c>
       <c r="I597" t="s">
-        <v>11462</v>
+        <v>11512</v>
       </c>
     </row>
     <row r="598">
       <c r="B598" t="s">
-        <v>12083</v>
+        <v>12088</v>
       </c>
       <c r="C598" t="s">
-        <v>101</v>
+        <v>11926</v>
       </c>
       <c r="D598" t="s">
         <v>44</v>
@@ -58932,24 +58974,24 @@
         <v>45</v>
       </c>
       <c r="F598" t="s">
-        <v>11537</v>
+        <v>11930</v>
       </c>
       <c r="G598" t="s">
-        <v>11537</v>
+        <v>11930</v>
       </c>
       <c r="H598" t="s">
-        <v>11537</v>
+        <v>11930</v>
       </c>
       <c r="I598" t="s">
-        <v>11537</v>
+        <v>11930</v>
       </c>
     </row>
     <row r="599">
       <c r="B599" t="s">
-        <v>12084</v>
+        <v>12089</v>
       </c>
       <c r="C599" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D599" t="s">
         <v>49</v>
@@ -58972,10 +59014,10 @@
     </row>
     <row r="600">
       <c r="B600" t="s">
-        <v>12085</v>
+        <v>12090</v>
       </c>
       <c r="C600" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D600" t="s">
         <v>44</v>
@@ -58984,21 +59026,21 @@
         <v>45</v>
       </c>
       <c r="F600" t="s">
-        <v>11512</v>
+        <v>11510</v>
       </c>
       <c r="G600" t="s">
-        <v>11512</v>
+        <v>11510</v>
       </c>
       <c r="H600" t="s">
-        <v>11512</v>
+        <v>11510</v>
       </c>
       <c r="I600" t="s">
-        <v>11512</v>
+        <v>11510</v>
       </c>
     </row>
     <row r="601">
       <c r="B601" t="s">
-        <v>12086</v>
+        <v>12091</v>
       </c>
       <c r="C601" t="s">
         <v>77</v>
@@ -59024,7 +59066,7 @@
     </row>
     <row r="602">
       <c r="B602" t="s">
-        <v>12087</v>
+        <v>12092</v>
       </c>
       <c r="C602" t="s">
         <v>77</v>
@@ -59036,125 +59078,125 @@
         <v>45</v>
       </c>
       <c r="F602" t="s">
-        <v>11512</v>
+        <v>11508</v>
       </c>
       <c r="G602" t="s">
-        <v>11512</v>
+        <v>11508</v>
       </c>
       <c r="H602" t="s">
-        <v>11512</v>
+        <v>11508</v>
       </c>
       <c r="I602" t="s">
-        <v>11512</v>
+        <v>11508</v>
       </c>
     </row>
     <row r="603">
       <c r="B603" t="s">
-        <v>12088</v>
+        <v>12093</v>
       </c>
       <c r="C603" t="s">
-        <v>11926</v>
+        <v>101</v>
       </c>
       <c r="D603" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E603" t="s">
         <v>45</v>
       </c>
       <c r="F603" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="G603" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="H603" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="I603" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
     </row>
     <row r="604">
       <c r="B604" t="s">
-        <v>12089</v>
+        <v>12094</v>
       </c>
       <c r="C604" t="s">
         <v>101</v>
       </c>
       <c r="D604" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E604" t="s">
         <v>45</v>
       </c>
       <c r="F604" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="G604" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="H604" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
       <c r="I604" t="s">
-        <v>50</v>
+        <v>11509</v>
       </c>
     </row>
     <row r="605">
       <c r="B605" t="s">
-        <v>12090</v>
+        <v>12096</v>
       </c>
       <c r="C605" t="s">
         <v>101</v>
       </c>
       <c r="D605" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E605" t="s">
         <v>45</v>
       </c>
       <c r="F605" t="s">
-        <v>11510</v>
+        <v>50</v>
       </c>
       <c r="G605" t="s">
-        <v>11510</v>
+        <v>50</v>
       </c>
       <c r="H605" t="s">
-        <v>11510</v>
+        <v>50</v>
       </c>
       <c r="I605" t="s">
-        <v>11510</v>
+        <v>50</v>
       </c>
     </row>
     <row r="606">
       <c r="B606" t="s">
-        <v>12091</v>
+        <v>12097</v>
       </c>
       <c r="C606" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D606" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E606" t="s">
         <v>45</v>
       </c>
       <c r="F606" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="G606" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="H606" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="I606" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="607">
       <c r="B607" t="s">
-        <v>12092</v>
+        <v>12099</v>
       </c>
       <c r="C607" t="s">
         <v>77</v>
@@ -59166,24 +59208,24 @@
         <v>45</v>
       </c>
       <c r="F607" t="s">
-        <v>11508</v>
+        <v>12100</v>
       </c>
       <c r="G607" t="s">
-        <v>11508</v>
+        <v>12100</v>
       </c>
       <c r="H607" t="s">
-        <v>11508</v>
+        <v>12100</v>
       </c>
       <c r="I607" t="s">
-        <v>11508</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="608">
       <c r="B608" t="s">
-        <v>12093</v>
+        <v>12101</v>
       </c>
       <c r="C608" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="D608" t="s">
         <v>49</v>
@@ -59192,24 +59234,24 @@
         <v>45</v>
       </c>
       <c r="F608" t="s">
-        <v>50</v>
+        <v>12102</v>
       </c>
       <c r="G608" t="s">
-        <v>50</v>
+        <v>12102</v>
       </c>
       <c r="H608" t="s">
-        <v>50</v>
+        <v>12102</v>
       </c>
       <c r="I608" t="s">
-        <v>50</v>
+        <v>12102</v>
       </c>
     </row>
     <row r="609">
       <c r="B609" t="s">
-        <v>12094</v>
+        <v>12104</v>
       </c>
       <c r="C609" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D609" t="s">
         <v>44</v>
@@ -59218,47 +59260,47 @@
         <v>45</v>
       </c>
       <c r="F609" t="s">
-        <v>11509</v>
+        <v>1574</v>
       </c>
       <c r="G609" t="s">
-        <v>11509</v>
+        <v>1574</v>
       </c>
       <c r="H609" t="s">
-        <v>11509</v>
+        <v>1574</v>
       </c>
       <c r="I609" t="s">
-        <v>11509</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="610">
       <c r="B610" t="s">
-        <v>12096</v>
+        <v>12105</v>
       </c>
       <c r="C610" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D610" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E610" t="s">
         <v>45</v>
       </c>
       <c r="F610" t="s">
-        <v>50</v>
+        <v>11458</v>
       </c>
       <c r="G610" t="s">
-        <v>50</v>
+        <v>11458</v>
       </c>
       <c r="H610" t="s">
-        <v>50</v>
+        <v>11458</v>
       </c>
       <c r="I610" t="s">
-        <v>50</v>
+        <v>11458</v>
       </c>
     </row>
     <row r="611">
       <c r="B611" t="s">
-        <v>12097</v>
+        <v>12106</v>
       </c>
       <c r="C611" t="s">
         <v>101</v>
@@ -59270,76 +59312,76 @@
         <v>45</v>
       </c>
       <c r="F611" t="s">
-        <v>11550</v>
+        <v>11462</v>
       </c>
       <c r="G611" t="s">
-        <v>11550</v>
+        <v>11462</v>
       </c>
       <c r="H611" t="s">
-        <v>11550</v>
+        <v>11462</v>
       </c>
       <c r="I611" t="s">
-        <v>11550</v>
+        <v>11462</v>
       </c>
     </row>
     <row r="612">
       <c r="B612" t="s">
-        <v>12099</v>
+        <v>12107</v>
       </c>
       <c r="C612" t="s">
         <v>77</v>
       </c>
       <c r="D612" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E612" t="s">
         <v>45</v>
       </c>
       <c r="F612" t="s">
-        <v>12100</v>
+        <v>50</v>
       </c>
       <c r="G612" t="s">
-        <v>12100</v>
+        <v>50</v>
       </c>
       <c r="H612" t="s">
-        <v>12100</v>
+        <v>50</v>
       </c>
       <c r="I612" t="s">
-        <v>12100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="613">
       <c r="B613" t="s">
-        <v>12101</v>
+        <v>12108</v>
       </c>
       <c r="C613" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="D613" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E613" t="s">
         <v>45</v>
       </c>
       <c r="F613" t="s">
-        <v>12102</v>
+        <v>11512</v>
       </c>
       <c r="G613" t="s">
-        <v>12102</v>
+        <v>11512</v>
       </c>
       <c r="H613" t="s">
-        <v>12102</v>
+        <v>11512</v>
       </c>
       <c r="I613" t="s">
-        <v>12102</v>
+        <v>11512</v>
       </c>
     </row>
     <row r="614">
       <c r="B614" t="s">
-        <v>12104</v>
+        <v>12109</v>
       </c>
       <c r="C614" t="s">
-        <v>78</v>
+        <v>11926</v>
       </c>
       <c r="D614" t="s">
         <v>44</v>
@@ -59348,47 +59390,47 @@
         <v>45</v>
       </c>
       <c r="F614" t="s">
-        <v>1574</v>
+        <v>11930</v>
       </c>
       <c r="G614" t="s">
-        <v>1574</v>
+        <v>47</v>
       </c>
       <c r="H614" t="s">
-        <v>1574</v>
+        <v>47</v>
       </c>
       <c r="I614" t="s">
-        <v>1574</v>
+        <v>47</v>
       </c>
     </row>
     <row r="615">
       <c r="B615" t="s">
-        <v>12105</v>
+        <v>12110</v>
       </c>
       <c r="C615" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D615" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E615" t="s">
         <v>45</v>
       </c>
       <c r="F615" t="s">
-        <v>11458</v>
+        <v>50</v>
       </c>
       <c r="G615" t="s">
-        <v>11458</v>
+        <v>50</v>
       </c>
       <c r="H615" t="s">
-        <v>11458</v>
+        <v>50</v>
       </c>
       <c r="I615" t="s">
-        <v>11458</v>
+        <v>50</v>
       </c>
     </row>
     <row r="616">
       <c r="B616" t="s">
-        <v>12106</v>
+        <v>12111</v>
       </c>
       <c r="C616" t="s">
         <v>101</v>
@@ -59400,21 +59442,21 @@
         <v>45</v>
       </c>
       <c r="F616" t="s">
-        <v>11462</v>
+        <v>11510</v>
       </c>
       <c r="G616" t="s">
-        <v>11462</v>
+        <v>11510</v>
       </c>
       <c r="H616" t="s">
-        <v>11462</v>
+        <v>11510</v>
       </c>
       <c r="I616" t="s">
-        <v>11462</v>
+        <v>11510</v>
       </c>
     </row>
     <row r="617">
       <c r="B617" t="s">
-        <v>12107</v>
+        <v>12114</v>
       </c>
       <c r="C617" t="s">
         <v>77</v>
@@ -59426,76 +59468,76 @@
         <v>45</v>
       </c>
       <c r="F617" t="s">
-        <v>50</v>
+        <v>2570</v>
       </c>
       <c r="G617" t="s">
-        <v>50</v>
+        <v>2570</v>
       </c>
       <c r="H617" t="s">
-        <v>50</v>
+        <v>2570</v>
       </c>
       <c r="I617" t="s">
-        <v>50</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="618">
       <c r="B618" t="s">
-        <v>12108</v>
+        <v>12115</v>
       </c>
       <c r="C618" t="s">
         <v>77</v>
       </c>
       <c r="D618" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E618" t="s">
         <v>45</v>
       </c>
       <c r="F618" t="s">
-        <v>11512</v>
+        <v>2574</v>
       </c>
       <c r="G618" t="s">
-        <v>11512</v>
+        <v>2574</v>
       </c>
       <c r="H618" t="s">
-        <v>11512</v>
+        <v>2574</v>
       </c>
       <c r="I618" t="s">
-        <v>11512</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="619">
       <c r="B619" t="s">
-        <v>12109</v>
+        <v>12116</v>
       </c>
       <c r="C619" t="s">
-        <v>11926</v>
+        <v>77</v>
       </c>
       <c r="D619" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E619" t="s">
         <v>45</v>
       </c>
       <c r="F619" t="s">
-        <v>11930</v>
+        <v>12117</v>
       </c>
       <c r="G619" t="s">
-        <v>47</v>
+        <v>12117</v>
       </c>
       <c r="H619" t="s">
-        <v>47</v>
+        <v>12117</v>
       </c>
       <c r="I619" t="s">
-        <v>47</v>
+        <v>12117</v>
       </c>
     </row>
     <row r="620">
       <c r="B620" t="s">
-        <v>12110</v>
+        <v>12120</v>
       </c>
       <c r="C620" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D620" t="s">
         <v>49</v>
@@ -59504,47 +59546,47 @@
         <v>45</v>
       </c>
       <c r="F620" t="s">
-        <v>50</v>
+        <v>2574</v>
       </c>
       <c r="G620" t="s">
-        <v>50</v>
+        <v>2574</v>
       </c>
       <c r="H620" t="s">
-        <v>50</v>
+        <v>2574</v>
       </c>
       <c r="I620" t="s">
-        <v>50</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="621">
       <c r="B621" t="s">
-        <v>12111</v>
+        <v>12121</v>
       </c>
       <c r="C621" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D621" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E621" t="s">
         <v>45</v>
       </c>
       <c r="F621" t="s">
-        <v>11510</v>
+        <v>2570</v>
       </c>
       <c r="G621" t="s">
-        <v>11510</v>
+        <v>2570</v>
       </c>
       <c r="H621" t="s">
-        <v>11510</v>
+        <v>2570</v>
       </c>
       <c r="I621" t="s">
-        <v>11510</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="622">
       <c r="B622" t="s">
-        <v>12114</v>
+        <v>12122</v>
       </c>
       <c r="C622" t="s">
         <v>77</v>
@@ -59556,24 +59598,24 @@
         <v>45</v>
       </c>
       <c r="F622" t="s">
-        <v>2570</v>
+        <v>12123</v>
       </c>
       <c r="G622" t="s">
-        <v>2570</v>
+        <v>12123</v>
       </c>
       <c r="H622" t="s">
-        <v>2570</v>
+        <v>12123</v>
       </c>
       <c r="I622" t="s">
-        <v>2570</v>
+        <v>12123</v>
       </c>
     </row>
     <row r="623">
       <c r="B623" t="s">
-        <v>12115</v>
+        <v>12124</v>
       </c>
       <c r="C623" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D623" t="s">
         <v>49</v>
@@ -59582,24 +59624,24 @@
         <v>45</v>
       </c>
       <c r="F623" t="s">
-        <v>2574</v>
+        <v>2450</v>
       </c>
       <c r="G623" t="s">
-        <v>2574</v>
+        <v>2450</v>
       </c>
       <c r="H623" t="s">
-        <v>2574</v>
+        <v>2450</v>
       </c>
       <c r="I623" t="s">
-        <v>2574</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="624">
       <c r="B624" t="s">
-        <v>12116</v>
+        <v>12125</v>
       </c>
       <c r="C624" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D624" t="s">
         <v>49</v>
@@ -59608,21 +59650,21 @@
         <v>45</v>
       </c>
       <c r="F624" t="s">
-        <v>12117</v>
+        <v>12126</v>
       </c>
       <c r="G624" t="s">
-        <v>12117</v>
+        <v>12126</v>
       </c>
       <c r="H624" t="s">
-        <v>12117</v>
+        <v>12126</v>
       </c>
       <c r="I624" t="s">
-        <v>12117</v>
+        <v>12126</v>
       </c>
     </row>
     <row r="625">
       <c r="B625" t="s">
-        <v>12120</v>
+        <v>12127</v>
       </c>
       <c r="C625" t="s">
         <v>77</v>
@@ -59634,24 +59676,24 @@
         <v>45</v>
       </c>
       <c r="F625" t="s">
-        <v>2574</v>
+        <v>12128</v>
       </c>
       <c r="G625" t="s">
-        <v>2574</v>
+        <v>12128</v>
       </c>
       <c r="H625" t="s">
-        <v>2574</v>
+        <v>12128</v>
       </c>
       <c r="I625" t="s">
-        <v>2574</v>
+        <v>12128</v>
       </c>
     </row>
     <row r="626">
       <c r="B626" t="s">
-        <v>12121</v>
+        <v>12129</v>
       </c>
       <c r="C626" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D626" t="s">
         <v>49</v>
@@ -59660,50 +59702,50 @@
         <v>45</v>
       </c>
       <c r="F626" t="s">
-        <v>2570</v>
+        <v>50</v>
       </c>
       <c r="G626" t="s">
-        <v>2570</v>
+        <v>50</v>
       </c>
       <c r="H626" t="s">
-        <v>2570</v>
+        <v>50</v>
       </c>
       <c r="I626" t="s">
-        <v>2570</v>
+        <v>50</v>
       </c>
     </row>
     <row r="627">
       <c r="B627" t="s">
-        <v>12122</v>
+        <v>12130</v>
       </c>
       <c r="C627" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D627" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E627" t="s">
         <v>45</v>
       </c>
       <c r="F627" t="s">
-        <v>12123</v>
+        <v>12131</v>
       </c>
       <c r="G627" t="s">
-        <v>12123</v>
+        <v>12131</v>
       </c>
       <c r="H627" t="s">
-        <v>12123</v>
+        <v>12131</v>
       </c>
       <c r="I627" t="s">
-        <v>12123</v>
+        <v>12131</v>
       </c>
     </row>
     <row r="628">
       <c r="B628" t="s">
-        <v>12124</v>
+        <v>12132</v>
       </c>
       <c r="C628" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D628" t="s">
         <v>49</v>
@@ -59712,24 +59754,24 @@
         <v>45</v>
       </c>
       <c r="F628" t="s">
-        <v>2450</v>
+        <v>2574</v>
       </c>
       <c r="G628" t="s">
-        <v>2450</v>
+        <v>2574</v>
       </c>
       <c r="H628" t="s">
-        <v>2450</v>
+        <v>2574</v>
       </c>
       <c r="I628" t="s">
-        <v>2450</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="629">
       <c r="B629" t="s">
-        <v>12125</v>
+        <v>12133</v>
       </c>
       <c r="C629" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D629" t="s">
         <v>49</v>
@@ -59738,21 +59780,21 @@
         <v>45</v>
       </c>
       <c r="F629" t="s">
-        <v>12126</v>
+        <v>2570</v>
       </c>
       <c r="G629" t="s">
-        <v>12126</v>
+        <v>2570</v>
       </c>
       <c r="H629" t="s">
-        <v>12126</v>
+        <v>2570</v>
       </c>
       <c r="I629" t="s">
-        <v>12126</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="630">
       <c r="B630" t="s">
-        <v>12127</v>
+        <v>12134</v>
       </c>
       <c r="C630" t="s">
         <v>77</v>
@@ -59764,24 +59806,24 @@
         <v>45</v>
       </c>
       <c r="F630" t="s">
-        <v>12128</v>
+        <v>12135</v>
       </c>
       <c r="G630" t="s">
-        <v>12128</v>
+        <v>12135</v>
       </c>
       <c r="H630" t="s">
-        <v>12128</v>
+        <v>12135</v>
       </c>
       <c r="I630" t="s">
-        <v>12128</v>
+        <v>12135</v>
       </c>
     </row>
     <row r="631">
       <c r="B631" t="s">
-        <v>12129</v>
+        <v>12148</v>
       </c>
       <c r="C631" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D631" t="s">
         <v>49</v>
@@ -59804,10 +59846,10 @@
     </row>
     <row r="632">
       <c r="B632" t="s">
-        <v>12130</v>
+        <v>12149</v>
       </c>
       <c r="C632" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D632" t="s">
         <v>44</v>
@@ -59816,76 +59858,76 @@
         <v>45</v>
       </c>
       <c r="F632" t="s">
-        <v>12131</v>
+        <v>11550</v>
       </c>
       <c r="G632" t="s">
-        <v>12131</v>
+        <v>11550</v>
       </c>
       <c r="H632" t="s">
-        <v>12131</v>
+        <v>11550</v>
       </c>
       <c r="I632" t="s">
-        <v>12131</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="633">
       <c r="B633" t="s">
-        <v>12132</v>
+        <v>12150</v>
       </c>
       <c r="C633" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D633" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E633" t="s">
         <v>45</v>
       </c>
       <c r="F633" t="s">
-        <v>2574</v>
+        <v>12048</v>
       </c>
       <c r="G633" t="s">
-        <v>2574</v>
+        <v>12048</v>
       </c>
       <c r="H633" t="s">
-        <v>2574</v>
+        <v>12048</v>
       </c>
       <c r="I633" t="s">
-        <v>2574</v>
+        <v>12048</v>
       </c>
     </row>
     <row r="634">
       <c r="B634" t="s">
-        <v>12133</v>
+        <v>12151</v>
       </c>
       <c r="C634" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D634" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E634" t="s">
         <v>45</v>
       </c>
       <c r="F634" t="s">
-        <v>2570</v>
+        <v>12152</v>
       </c>
       <c r="G634" t="s">
-        <v>2570</v>
+        <v>12152</v>
       </c>
       <c r="H634" t="s">
-        <v>2570</v>
+        <v>12152</v>
       </c>
       <c r="I634" t="s">
-        <v>2570</v>
+        <v>12152</v>
       </c>
     </row>
     <row r="635">
       <c r="B635" t="s">
-        <v>12134</v>
+        <v>12153</v>
       </c>
       <c r="C635" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D635" t="s">
         <v>49</v>
@@ -59894,50 +59936,50 @@
         <v>45</v>
       </c>
       <c r="F635" t="s">
-        <v>12135</v>
+        <v>50</v>
       </c>
       <c r="G635" t="s">
-        <v>12135</v>
+        <v>50</v>
       </c>
       <c r="H635" t="s">
-        <v>12135</v>
+        <v>50</v>
       </c>
       <c r="I635" t="s">
-        <v>12135</v>
+        <v>50</v>
       </c>
     </row>
     <row r="636">
       <c r="B636" t="s">
-        <v>12148</v>
+        <v>12154</v>
       </c>
       <c r="C636" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D636" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E636" t="s">
         <v>45</v>
       </c>
       <c r="F636" t="s">
-        <v>50</v>
+        <v>11780</v>
       </c>
       <c r="G636" t="s">
-        <v>50</v>
+        <v>11780</v>
       </c>
       <c r="H636" t="s">
-        <v>50</v>
+        <v>11780</v>
       </c>
       <c r="I636" t="s">
-        <v>50</v>
+        <v>11780</v>
       </c>
     </row>
     <row r="637">
       <c r="B637" t="s">
-        <v>12149</v>
+        <v>12208</v>
       </c>
       <c r="C637" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="D637" t="s">
         <v>44</v>
@@ -59946,24 +59988,24 @@
         <v>45</v>
       </c>
       <c r="F637" t="s">
-        <v>11550</v>
+        <v>390</v>
       </c>
       <c r="G637" t="s">
-        <v>11550</v>
+        <v>284</v>
       </c>
       <c r="H637" t="s">
-        <v>11550</v>
+        <v>284</v>
       </c>
       <c r="I637" t="s">
-        <v>11550</v>
+        <v>284</v>
       </c>
     </row>
     <row r="638">
       <c r="B638" t="s">
-        <v>12150</v>
+        <v>12209</v>
       </c>
       <c r="C638" t="s">
-        <v>78</v>
+        <v>11926</v>
       </c>
       <c r="D638" t="s">
         <v>44</v>
@@ -59972,50 +60014,50 @@
         <v>45</v>
       </c>
       <c r="F638" t="s">
-        <v>12048</v>
+        <v>11930</v>
       </c>
       <c r="G638" t="s">
-        <v>12048</v>
+        <v>11930</v>
       </c>
       <c r="H638" t="s">
-        <v>12048</v>
+        <v>11930</v>
       </c>
       <c r="I638" t="s">
-        <v>12048</v>
+        <v>11930</v>
       </c>
     </row>
     <row r="639">
       <c r="B639" t="s">
-        <v>12151</v>
+        <v>12210</v>
       </c>
       <c r="C639" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D639" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E639" t="s">
         <v>45</v>
       </c>
       <c r="F639" t="s">
-        <v>12152</v>
+        <v>11459</v>
       </c>
       <c r="G639" t="s">
-        <v>12152</v>
+        <v>47</v>
       </c>
       <c r="H639" t="s">
-        <v>12152</v>
+        <v>47</v>
       </c>
       <c r="I639" t="s">
-        <v>12152</v>
+        <v>47</v>
       </c>
     </row>
     <row r="640">
       <c r="B640" t="s">
-        <v>12153</v>
+        <v>12226</v>
       </c>
       <c r="C640" t="s">
-        <v>78</v>
+        <v>11926</v>
       </c>
       <c r="D640" t="s">
         <v>49</v>
@@ -60038,10 +60080,10 @@
     </row>
     <row r="641">
       <c r="B641" t="s">
-        <v>12154</v>
+        <v>12227</v>
       </c>
       <c r="C641" t="s">
-        <v>78</v>
+        <v>11926</v>
       </c>
       <c r="D641" t="s">
         <v>44</v>
@@ -60050,105 +60092,330 @@
         <v>45</v>
       </c>
       <c r="F641" t="s">
-        <v>11780</v>
+        <v>11930</v>
       </c>
       <c r="G641" t="s">
-        <v>11780</v>
+        <v>11930</v>
       </c>
       <c r="H641" t="s">
-        <v>11780</v>
+        <v>11930</v>
       </c>
       <c r="I641" t="s">
-        <v>11780</v>
+        <v>11930</v>
       </c>
     </row>
     <row r="642">
       <c r="B642" t="s">
-        <v>12208</v>
+        <v>12228</v>
       </c>
       <c r="C642" t="s">
         <v>38</v>
       </c>
       <c r="D642" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E642" t="s">
         <v>45</v>
       </c>
       <c r="F642" t="s">
-        <v>390</v>
+        <v>11459</v>
       </c>
       <c r="G642" t="s">
-        <v>284</v>
+        <v>47</v>
       </c>
       <c r="H642" t="s">
-        <v>284</v>
+        <v>47</v>
       </c>
       <c r="I642" t="s">
-        <v>284</v>
+        <v>47</v>
       </c>
     </row>
     <row r="643">
       <c r="B643" t="s">
-        <v>12209</v>
+        <v>12229</v>
       </c>
       <c r="C643" t="s">
         <v>11926</v>
       </c>
       <c r="D643" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E643" t="s">
         <v>45</v>
       </c>
       <c r="F643" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="G643" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="H643" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="I643" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
     </row>
     <row r="644">
       <c r="B644" t="s">
-        <v>12210</v>
+        <v>12230</v>
       </c>
       <c r="C644" t="s">
-        <v>38</v>
+        <v>11926</v>
       </c>
       <c r="D644" t="s">
+        <v>44</v>
+      </c>
+      <c r="E644" t="s">
+        <v>45</v>
+      </c>
+      <c r="F644" t="s">
+        <v>11930</v>
+      </c>
+      <c r="G644" t="s">
+        <v>11930</v>
+      </c>
+      <c r="H644" t="s">
+        <v>11930</v>
+      </c>
+      <c r="I644" t="s">
+        <v>11930</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="B645" t="s">
+        <v>12231</v>
+      </c>
+      <c r="C645" t="s">
+        <v>77</v>
+      </c>
+      <c r="D645" t="s">
         <v>49</v>
       </c>
-      <c r="E644" t="s">
-        <v>45</v>
-      </c>
-      <c r="F644" t="s">
-        <v>12225</v>
-      </c>
-      <c r="G644" t="s">
-        <v>47</v>
-      </c>
-      <c r="H644" t="s">
-        <v>47</v>
-      </c>
-      <c r="I644" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="645"/>
-    <row r="646"/>
-    <row r="647"/>
-    <row r="648"/>
-    <row r="649"/>
-    <row r="650"/>
-    <row r="651"/>
-    <row r="652"/>
-    <row r="653"/>
+      <c r="E645" t="s">
+        <v>45</v>
+      </c>
+      <c r="F645" t="s">
+        <v>2574</v>
+      </c>
+      <c r="G645" t="s">
+        <v>2574</v>
+      </c>
+      <c r="H645" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I645" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="B646" t="s">
+        <v>12232</v>
+      </c>
+      <c r="C646" t="s">
+        <v>77</v>
+      </c>
+      <c r="D646" t="s">
+        <v>49</v>
+      </c>
+      <c r="E646" t="s">
+        <v>45</v>
+      </c>
+      <c r="F646" t="s">
+        <v>2570</v>
+      </c>
+      <c r="G646" t="s">
+        <v>2570</v>
+      </c>
+      <c r="H646" t="s">
+        <v>2570</v>
+      </c>
+      <c r="I646" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="B647" t="s">
+        <v>12233</v>
+      </c>
+      <c r="C647" t="s">
+        <v>77</v>
+      </c>
+      <c r="D647" t="s">
+        <v>49</v>
+      </c>
+      <c r="E647" t="s">
+        <v>45</v>
+      </c>
+      <c r="F647" t="s">
+        <v>12117</v>
+      </c>
+      <c r="G647" t="s">
+        <v>12117</v>
+      </c>
+      <c r="H647" t="s">
+        <v>12117</v>
+      </c>
+      <c r="I647" t="s">
+        <v>12117</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="B648" t="s">
+        <v>12234</v>
+      </c>
+      <c r="C648" t="s">
+        <v>11926</v>
+      </c>
+      <c r="D648" t="s">
+        <v>49</v>
+      </c>
+      <c r="E648" t="s">
+        <v>45</v>
+      </c>
+      <c r="F648" t="s">
+        <v>50</v>
+      </c>
+      <c r="G648" t="s">
+        <v>50</v>
+      </c>
+      <c r="H648" t="s">
+        <v>50</v>
+      </c>
+      <c r="I648" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="B649" t="s">
+        <v>12235</v>
+      </c>
+      <c r="C649" t="s">
+        <v>11926</v>
+      </c>
+      <c r="D649" t="s">
+        <v>44</v>
+      </c>
+      <c r="E649" t="s">
+        <v>45</v>
+      </c>
+      <c r="F649" t="s">
+        <v>11930</v>
+      </c>
+      <c r="G649" t="s">
+        <v>11930</v>
+      </c>
+      <c r="H649" t="s">
+        <v>11930</v>
+      </c>
+      <c r="I649" t="s">
+        <v>11930</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="B650" t="s">
+        <v>12236</v>
+      </c>
+      <c r="C650" t="s">
+        <v>11926</v>
+      </c>
+      <c r="D650" t="s">
+        <v>49</v>
+      </c>
+      <c r="E650" t="s">
+        <v>45</v>
+      </c>
+      <c r="F650" t="s">
+        <v>50</v>
+      </c>
+      <c r="G650" t="s">
+        <v>50</v>
+      </c>
+      <c r="H650" t="s">
+        <v>50</v>
+      </c>
+      <c r="I650" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="B651" t="s">
+        <v>12237</v>
+      </c>
+      <c r="C651" t="s">
+        <v>11926</v>
+      </c>
+      <c r="D651" t="s">
+        <v>44</v>
+      </c>
+      <c r="E651" t="s">
+        <v>45</v>
+      </c>
+      <c r="F651" t="s">
+        <v>11930</v>
+      </c>
+      <c r="G651" t="s">
+        <v>11930</v>
+      </c>
+      <c r="H651" t="s">
+        <v>11930</v>
+      </c>
+      <c r="I651" t="s">
+        <v>11930</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="B652" t="s">
+        <v>12238</v>
+      </c>
+      <c r="C652" t="s">
+        <v>11926</v>
+      </c>
+      <c r="D652" t="s">
+        <v>49</v>
+      </c>
+      <c r="E652" t="s">
+        <v>45</v>
+      </c>
+      <c r="F652" t="s">
+        <v>50</v>
+      </c>
+      <c r="G652" t="s">
+        <v>50</v>
+      </c>
+      <c r="H652" t="s">
+        <v>50</v>
+      </c>
+      <c r="I652" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="B653" t="s">
+        <v>12239</v>
+      </c>
+      <c r="C653" t="s">
+        <v>11926</v>
+      </c>
+      <c r="D653" t="s">
+        <v>44</v>
+      </c>
+      <c r="E653" t="s">
+        <v>45</v>
+      </c>
+      <c r="F653" t="s">
+        <v>11930</v>
+      </c>
+      <c r="G653" t="s">
+        <v>11930</v>
+      </c>
+      <c r="H653" t="s">
+        <v>11930</v>
+      </c>
+      <c r="I653" t="s">
+        <v>11930</v>
+      </c>
+    </row>
     <row r="654"/>
     <row r="655"/>
     <row r="656"/>

--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6156502" uniqueCount="12240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6180553" uniqueCount="12250">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -41517,6 +41517,36 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId4053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4063</t>
   </si>
 </sst>
 </file>
@@ -42783,13 +42813,13 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="H6" t="s">
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>249</v>
       </c>
       <c r="J6" t="s">
         <v>46</v>
@@ -43027,13 +43057,13 @@
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="H12" t="s">
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>249</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
@@ -43378,13 +43408,13 @@
         <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="H24" t="s">
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>249</v>
       </c>
       <c r="J24" t="s">
         <v>46</v>
@@ -43407,13 +43437,13 @@
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="H25" t="s">
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>249</v>
       </c>
       <c r="J25" t="s">
         <v>46</v>
@@ -43436,13 +43466,13 @@
         <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="H26" t="s">
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>249</v>
       </c>
       <c r="J26" t="s">
         <v>46</v>
@@ -59991,13 +60021,13 @@
         <v>390</v>
       </c>
       <c r="G637" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="H637" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="I637" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
     </row>
     <row r="638">
@@ -60416,16 +60446,266 @@
         <v>11930</v>
       </c>
     </row>
-    <row r="654"/>
-    <row r="655"/>
-    <row r="656"/>
-    <row r="657"/>
-    <row r="658"/>
-    <row r="659"/>
-    <row r="660"/>
-    <row r="661"/>
-    <row r="662"/>
-    <row r="663"/>
+    <row r="654">
+      <c r="B654" t="s">
+        <v>12240</v>
+      </c>
+      <c r="C654" t="s">
+        <v>11926</v>
+      </c>
+      <c r="D654" t="s">
+        <v>49</v>
+      </c>
+      <c r="E654" t="s">
+        <v>45</v>
+      </c>
+      <c r="F654" t="s">
+        <v>50</v>
+      </c>
+      <c r="G654" t="s">
+        <v>50</v>
+      </c>
+      <c r="H654" t="s">
+        <v>50</v>
+      </c>
+      <c r="I654" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="B655" t="s">
+        <v>12241</v>
+      </c>
+      <c r="C655" t="s">
+        <v>11926</v>
+      </c>
+      <c r="D655" t="s">
+        <v>44</v>
+      </c>
+      <c r="E655" t="s">
+        <v>45</v>
+      </c>
+      <c r="F655" t="s">
+        <v>11930</v>
+      </c>
+      <c r="G655" t="s">
+        <v>11930</v>
+      </c>
+      <c r="H655" t="s">
+        <v>11930</v>
+      </c>
+      <c r="I655" t="s">
+        <v>11930</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="B656" t="s">
+        <v>12242</v>
+      </c>
+      <c r="C656" t="s">
+        <v>38</v>
+      </c>
+      <c r="D656" t="s">
+        <v>49</v>
+      </c>
+      <c r="E656" t="s">
+        <v>45</v>
+      </c>
+      <c r="F656" t="s">
+        <v>50</v>
+      </c>
+      <c r="G656" t="s">
+        <v>50</v>
+      </c>
+      <c r="H656" t="s">
+        <v>50</v>
+      </c>
+      <c r="I656" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="B657" t="s">
+        <v>12243</v>
+      </c>
+      <c r="C657" t="s">
+        <v>38</v>
+      </c>
+      <c r="D657" t="s">
+        <v>44</v>
+      </c>
+      <c r="E657" t="s">
+        <v>45</v>
+      </c>
+      <c r="F657" t="s">
+        <v>390</v>
+      </c>
+      <c r="G657" t="s">
+        <v>390</v>
+      </c>
+      <c r="H657" t="s">
+        <v>390</v>
+      </c>
+      <c r="I657" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="B658" t="s">
+        <v>12244</v>
+      </c>
+      <c r="C658" t="s">
+        <v>38</v>
+      </c>
+      <c r="D658" t="s">
+        <v>49</v>
+      </c>
+      <c r="E658" t="s">
+        <v>45</v>
+      </c>
+      <c r="F658" t="s">
+        <v>50</v>
+      </c>
+      <c r="G658" t="s">
+        <v>50</v>
+      </c>
+      <c r="H658" t="s">
+        <v>50</v>
+      </c>
+      <c r="I658" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="B659" t="s">
+        <v>12245</v>
+      </c>
+      <c r="C659" t="s">
+        <v>38</v>
+      </c>
+      <c r="D659" t="s">
+        <v>44</v>
+      </c>
+      <c r="E659" t="s">
+        <v>45</v>
+      </c>
+      <c r="F659" t="s">
+        <v>390</v>
+      </c>
+      <c r="G659" t="s">
+        <v>390</v>
+      </c>
+      <c r="H659" t="s">
+        <v>390</v>
+      </c>
+      <c r="I659" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="B660" t="s">
+        <v>12246</v>
+      </c>
+      <c r="C660" t="s">
+        <v>38</v>
+      </c>
+      <c r="D660" t="s">
+        <v>49</v>
+      </c>
+      <c r="E660" t="s">
+        <v>45</v>
+      </c>
+      <c r="F660" t="s">
+        <v>50</v>
+      </c>
+      <c r="G660" t="s">
+        <v>50</v>
+      </c>
+      <c r="H660" t="s">
+        <v>50</v>
+      </c>
+      <c r="I660" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="B661" t="s">
+        <v>12247</v>
+      </c>
+      <c r="C661" t="s">
+        <v>38</v>
+      </c>
+      <c r="D661" t="s">
+        <v>44</v>
+      </c>
+      <c r="E661" t="s">
+        <v>45</v>
+      </c>
+      <c r="F661" t="s">
+        <v>390</v>
+      </c>
+      <c r="G661" t="s">
+        <v>390</v>
+      </c>
+      <c r="H661" t="s">
+        <v>390</v>
+      </c>
+      <c r="I661" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="B662" t="s">
+        <v>12248</v>
+      </c>
+      <c r="C662" t="s">
+        <v>38</v>
+      </c>
+      <c r="D662" t="s">
+        <v>49</v>
+      </c>
+      <c r="E662" t="s">
+        <v>45</v>
+      </c>
+      <c r="F662" t="s">
+        <v>50</v>
+      </c>
+      <c r="G662" t="s">
+        <v>50</v>
+      </c>
+      <c r="H662" t="s">
+        <v>50</v>
+      </c>
+      <c r="I662" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="B663" t="s">
+        <v>12249</v>
+      </c>
+      <c r="C663" t="s">
+        <v>38</v>
+      </c>
+      <c r="D663" t="s">
+        <v>44</v>
+      </c>
+      <c r="E663" t="s">
+        <v>45</v>
+      </c>
+      <c r="F663" t="s">
+        <v>390</v>
+      </c>
+      <c r="G663" t="s">
+        <v>390</v>
+      </c>
+      <c r="H663" t="s">
+        <v>390</v>
+      </c>
+      <c r="I663" t="s">
+        <v>390</v>
+      </c>
+    </row>
     <row r="664"/>
     <row r="665"/>
     <row r="666"/>

--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6180553" uniqueCount="12250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6214397" uniqueCount="12285">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -41547,6 +41547,111 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId4063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?123</t>
   </si>
 </sst>
 </file>
@@ -60500,13 +60605,13 @@
     </row>
     <row r="656">
       <c r="B656" t="s">
-        <v>12242</v>
+        <v>12250</v>
       </c>
       <c r="C656" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D656" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E656" t="s">
         <v>45</v>
@@ -60526,33 +60631,33 @@
     </row>
     <row r="657">
       <c r="B657" t="s">
-        <v>12243</v>
+        <v>12251</v>
       </c>
       <c r="C657" t="s">
         <v>38</v>
       </c>
       <c r="D657" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E657" t="s">
         <v>45</v>
       </c>
       <c r="F657" t="s">
-        <v>390</v>
+        <v>235</v>
       </c>
       <c r="G657" t="s">
-        <v>390</v>
+        <v>235</v>
       </c>
       <c r="H657" t="s">
-        <v>390</v>
+        <v>235</v>
       </c>
       <c r="I657" t="s">
-        <v>390</v>
+        <v>235</v>
       </c>
     </row>
     <row r="658">
       <c r="B658" t="s">
-        <v>12244</v>
+        <v>12252</v>
       </c>
       <c r="C658" t="s">
         <v>38</v>
@@ -60564,47 +60669,47 @@
         <v>45</v>
       </c>
       <c r="F658" t="s">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="G658" t="s">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="H658" t="s">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="I658" t="s">
-        <v>50</v>
+        <v>235</v>
       </c>
     </row>
     <row r="659">
       <c r="B659" t="s">
-        <v>12245</v>
+        <v>12253</v>
       </c>
       <c r="C659" t="s">
         <v>38</v>
       </c>
       <c r="D659" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E659" t="s">
         <v>45</v>
       </c>
       <c r="F659" t="s">
-        <v>390</v>
+        <v>235</v>
       </c>
       <c r="G659" t="s">
-        <v>390</v>
+        <v>235</v>
       </c>
       <c r="H659" t="s">
-        <v>390</v>
+        <v>235</v>
       </c>
       <c r="I659" t="s">
-        <v>390</v>
+        <v>235</v>
       </c>
     </row>
     <row r="660">
       <c r="B660" t="s">
-        <v>12246</v>
+        <v>12254</v>
       </c>
       <c r="C660" t="s">
         <v>38</v>
@@ -60616,47 +60721,47 @@
         <v>45</v>
       </c>
       <c r="F660" t="s">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="G660" t="s">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="H660" t="s">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="I660" t="s">
-        <v>50</v>
+        <v>235</v>
       </c>
     </row>
     <row r="661">
       <c r="B661" t="s">
-        <v>12247</v>
+        <v>12255</v>
       </c>
       <c r="C661" t="s">
         <v>38</v>
       </c>
       <c r="D661" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E661" t="s">
         <v>45</v>
       </c>
       <c r="F661" t="s">
-        <v>390</v>
+        <v>235</v>
       </c>
       <c r="G661" t="s">
-        <v>390</v>
+        <v>235</v>
       </c>
       <c r="H661" t="s">
-        <v>390</v>
+        <v>235</v>
       </c>
       <c r="I661" t="s">
-        <v>390</v>
+        <v>235</v>
       </c>
     </row>
     <row r="662">
       <c r="B662" t="s">
-        <v>12248</v>
+        <v>12256</v>
       </c>
       <c r="C662" t="s">
         <v>38</v>
@@ -60668,69 +60773,694 @@
         <v>45</v>
       </c>
       <c r="F662" t="s">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="G662" t="s">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="H662" t="s">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="I662" t="s">
-        <v>50</v>
+        <v>235</v>
       </c>
     </row>
     <row r="663">
       <c r="B663" t="s">
-        <v>12249</v>
+        <v>12257</v>
       </c>
       <c r="C663" t="s">
         <v>38</v>
       </c>
       <c r="D663" t="s">
+        <v>49</v>
+      </c>
+      <c r="E663" t="s">
+        <v>45</v>
+      </c>
+      <c r="F663" t="s">
+        <v>235</v>
+      </c>
+      <c r="G663" t="s">
+        <v>235</v>
+      </c>
+      <c r="H663" t="s">
+        <v>235</v>
+      </c>
+      <c r="I663" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="B664" t="s">
+        <v>12258</v>
+      </c>
+      <c r="C664" t="s">
+        <v>38</v>
+      </c>
+      <c r="D664" t="s">
+        <v>49</v>
+      </c>
+      <c r="E664" t="s">
+        <v>45</v>
+      </c>
+      <c r="F664" t="s">
+        <v>235</v>
+      </c>
+      <c r="G664" t="s">
+        <v>235</v>
+      </c>
+      <c r="H664" t="s">
+        <v>235</v>
+      </c>
+      <c r="I664" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="B665" t="s">
+        <v>12259</v>
+      </c>
+      <c r="C665" t="s">
+        <v>38</v>
+      </c>
+      <c r="D665" t="s">
+        <v>49</v>
+      </c>
+      <c r="E665" t="s">
+        <v>45</v>
+      </c>
+      <c r="F665" t="s">
+        <v>235</v>
+      </c>
+      <c r="G665" t="s">
+        <v>235</v>
+      </c>
+      <c r="H665" t="s">
+        <v>235</v>
+      </c>
+      <c r="I665" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="B666" t="s">
+        <v>12260</v>
+      </c>
+      <c r="C666" t="s">
+        <v>38</v>
+      </c>
+      <c r="D666" t="s">
+        <v>49</v>
+      </c>
+      <c r="E666" t="s">
+        <v>45</v>
+      </c>
+      <c r="F666" t="s">
+        <v>235</v>
+      </c>
+      <c r="G666" t="s">
+        <v>235</v>
+      </c>
+      <c r="H666" t="s">
+        <v>235</v>
+      </c>
+      <c r="I666" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="B667" t="s">
+        <v>12261</v>
+      </c>
+      <c r="C667" t="s">
+        <v>38</v>
+      </c>
+      <c r="D667" t="s">
         <v>44</v>
       </c>
-      <c r="E663" t="s">
-        <v>45</v>
-      </c>
-      <c r="F663" t="s">
-        <v>390</v>
-      </c>
-      <c r="G663" t="s">
-        <v>390</v>
-      </c>
-      <c r="H663" t="s">
-        <v>390</v>
-      </c>
-      <c r="I663" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="664"/>
-    <row r="665"/>
-    <row r="666"/>
-    <row r="667"/>
-    <row r="668"/>
-    <row r="669"/>
-    <row r="670"/>
-    <row r="671"/>
-    <row r="672"/>
-    <row r="673"/>
-    <row r="674"/>
-    <row r="675"/>
-    <row r="676"/>
-    <row r="677"/>
-    <row r="678"/>
-    <row r="679"/>
-    <row r="680"/>
-    <row r="681"/>
-    <row r="682"/>
-    <row r="683"/>
-    <row r="684"/>
-    <row r="685"/>
-    <row r="686"/>
-    <row r="687"/>
-    <row r="688"/>
+      <c r="E667" t="s">
+        <v>45</v>
+      </c>
+      <c r="F667" t="s">
+        <v>235</v>
+      </c>
+      <c r="G667" t="s">
+        <v>235</v>
+      </c>
+      <c r="H667" t="s">
+        <v>235</v>
+      </c>
+      <c r="I667" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="B668" t="s">
+        <v>12262</v>
+      </c>
+      <c r="C668" t="s">
+        <v>38</v>
+      </c>
+      <c r="D668" t="s">
+        <v>44</v>
+      </c>
+      <c r="E668" t="s">
+        <v>45</v>
+      </c>
+      <c r="F668" t="s">
+        <v>235</v>
+      </c>
+      <c r="G668" t="s">
+        <v>235</v>
+      </c>
+      <c r="H668" t="s">
+        <v>235</v>
+      </c>
+      <c r="I668" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="B669" t="s">
+        <v>12263</v>
+      </c>
+      <c r="C669" t="s">
+        <v>38</v>
+      </c>
+      <c r="D669" t="s">
+        <v>44</v>
+      </c>
+      <c r="E669" t="s">
+        <v>45</v>
+      </c>
+      <c r="F669" t="s">
+        <v>235</v>
+      </c>
+      <c r="G669" t="s">
+        <v>235</v>
+      </c>
+      <c r="H669" t="s">
+        <v>235</v>
+      </c>
+      <c r="I669" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="B670" t="s">
+        <v>12264</v>
+      </c>
+      <c r="C670" t="s">
+        <v>38</v>
+      </c>
+      <c r="D670" t="s">
+        <v>44</v>
+      </c>
+      <c r="E670" t="s">
+        <v>45</v>
+      </c>
+      <c r="F670" t="s">
+        <v>235</v>
+      </c>
+      <c r="G670" t="s">
+        <v>235</v>
+      </c>
+      <c r="H670" t="s">
+        <v>235</v>
+      </c>
+      <c r="I670" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="B671" t="s">
+        <v>12265</v>
+      </c>
+      <c r="C671" t="s">
+        <v>38</v>
+      </c>
+      <c r="D671" t="s">
+        <v>44</v>
+      </c>
+      <c r="E671" t="s">
+        <v>45</v>
+      </c>
+      <c r="F671" t="s">
+        <v>235</v>
+      </c>
+      <c r="G671" t="s">
+        <v>235</v>
+      </c>
+      <c r="H671" t="s">
+        <v>235</v>
+      </c>
+      <c r="I671" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="B672" t="s">
+        <v>12266</v>
+      </c>
+      <c r="C672" t="s">
+        <v>38</v>
+      </c>
+      <c r="D672" t="s">
+        <v>44</v>
+      </c>
+      <c r="E672" t="s">
+        <v>45</v>
+      </c>
+      <c r="F672" t="s">
+        <v>235</v>
+      </c>
+      <c r="G672" t="s">
+        <v>235</v>
+      </c>
+      <c r="H672" t="s">
+        <v>235</v>
+      </c>
+      <c r="I672" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="B673" t="s">
+        <v>12267</v>
+      </c>
+      <c r="C673" t="s">
+        <v>38</v>
+      </c>
+      <c r="D673" t="s">
+        <v>44</v>
+      </c>
+      <c r="E673" t="s">
+        <v>45</v>
+      </c>
+      <c r="F673" t="s">
+        <v>235</v>
+      </c>
+      <c r="G673" t="s">
+        <v>235</v>
+      </c>
+      <c r="H673" t="s">
+        <v>235</v>
+      </c>
+      <c r="I673" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="B674" t="s">
+        <v>12268</v>
+      </c>
+      <c r="C674" t="s">
+        <v>38</v>
+      </c>
+      <c r="D674" t="s">
+        <v>44</v>
+      </c>
+      <c r="E674" t="s">
+        <v>45</v>
+      </c>
+      <c r="F674" t="s">
+        <v>235</v>
+      </c>
+      <c r="G674" t="s">
+        <v>235</v>
+      </c>
+      <c r="H674" t="s">
+        <v>235</v>
+      </c>
+      <c r="I674" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="B675" t="s">
+        <v>12269</v>
+      </c>
+      <c r="C675" t="s">
+        <v>38</v>
+      </c>
+      <c r="D675" t="s">
+        <v>44</v>
+      </c>
+      <c r="E675" t="s">
+        <v>45</v>
+      </c>
+      <c r="F675" t="s">
+        <v>235</v>
+      </c>
+      <c r="G675" t="s">
+        <v>235</v>
+      </c>
+      <c r="H675" t="s">
+        <v>235</v>
+      </c>
+      <c r="I675" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="B676" t="s">
+        <v>12270</v>
+      </c>
+      <c r="C676" t="s">
+        <v>38</v>
+      </c>
+      <c r="D676" t="s">
+        <v>44</v>
+      </c>
+      <c r="E676" t="s">
+        <v>45</v>
+      </c>
+      <c r="F676" t="s">
+        <v>235</v>
+      </c>
+      <c r="G676" t="s">
+        <v>235</v>
+      </c>
+      <c r="H676" t="s">
+        <v>235</v>
+      </c>
+      <c r="I676" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="B677" t="s">
+        <v>12271</v>
+      </c>
+      <c r="C677" t="s">
+        <v>38</v>
+      </c>
+      <c r="D677" t="s">
+        <v>44</v>
+      </c>
+      <c r="E677" t="s">
+        <v>45</v>
+      </c>
+      <c r="F677" t="s">
+        <v>235</v>
+      </c>
+      <c r="G677" t="s">
+        <v>235</v>
+      </c>
+      <c r="H677" t="s">
+        <v>235</v>
+      </c>
+      <c r="I677" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="B678" t="s">
+        <v>12272</v>
+      </c>
+      <c r="C678" t="s">
+        <v>38</v>
+      </c>
+      <c r="D678" t="s">
+        <v>44</v>
+      </c>
+      <c r="E678" t="s">
+        <v>45</v>
+      </c>
+      <c r="F678" t="s">
+        <v>235</v>
+      </c>
+      <c r="G678" t="s">
+        <v>235</v>
+      </c>
+      <c r="H678" t="s">
+        <v>235</v>
+      </c>
+      <c r="I678" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="B679" t="s">
+        <v>12273</v>
+      </c>
+      <c r="C679" t="s">
+        <v>38</v>
+      </c>
+      <c r="D679" t="s">
+        <v>44</v>
+      </c>
+      <c r="E679" t="s">
+        <v>45</v>
+      </c>
+      <c r="F679" t="s">
+        <v>235</v>
+      </c>
+      <c r="G679" t="s">
+        <v>235</v>
+      </c>
+      <c r="H679" t="s">
+        <v>235</v>
+      </c>
+      <c r="I679" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="B680" t="s">
+        <v>12274</v>
+      </c>
+      <c r="C680" t="s">
+        <v>38</v>
+      </c>
+      <c r="D680" t="s">
+        <v>44</v>
+      </c>
+      <c r="E680" t="s">
+        <v>45</v>
+      </c>
+      <c r="F680" t="s">
+        <v>235</v>
+      </c>
+      <c r="G680" t="s">
+        <v>235</v>
+      </c>
+      <c r="H680" t="s">
+        <v>235</v>
+      </c>
+      <c r="I680" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="B681" t="s">
+        <v>12275</v>
+      </c>
+      <c r="C681" t="s">
+        <v>38</v>
+      </c>
+      <c r="D681" t="s">
+        <v>44</v>
+      </c>
+      <c r="E681" t="s">
+        <v>45</v>
+      </c>
+      <c r="F681" t="s">
+        <v>235</v>
+      </c>
+      <c r="G681" t="s">
+        <v>235</v>
+      </c>
+      <c r="H681" t="s">
+        <v>235</v>
+      </c>
+      <c r="I681" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="B682" t="s">
+        <v>12276</v>
+      </c>
+      <c r="C682" t="s">
+        <v>38</v>
+      </c>
+      <c r="D682" t="s">
+        <v>44</v>
+      </c>
+      <c r="E682" t="s">
+        <v>45</v>
+      </c>
+      <c r="F682" t="s">
+        <v>235</v>
+      </c>
+      <c r="G682" t="s">
+        <v>235</v>
+      </c>
+      <c r="H682" t="s">
+        <v>235</v>
+      </c>
+      <c r="I682" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="B683" t="s">
+        <v>12277</v>
+      </c>
+      <c r="C683" t="s">
+        <v>38</v>
+      </c>
+      <c r="D683" t="s">
+        <v>44</v>
+      </c>
+      <c r="E683" t="s">
+        <v>45</v>
+      </c>
+      <c r="F683" t="s">
+        <v>235</v>
+      </c>
+      <c r="G683" t="s">
+        <v>235</v>
+      </c>
+      <c r="H683" t="s">
+        <v>235</v>
+      </c>
+      <c r="I683" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="B684" t="s">
+        <v>12278</v>
+      </c>
+      <c r="C684" t="s">
+        <v>38</v>
+      </c>
+      <c r="D684" t="s">
+        <v>44</v>
+      </c>
+      <c r="E684" t="s">
+        <v>45</v>
+      </c>
+      <c r="F684" t="s">
+        <v>235</v>
+      </c>
+      <c r="G684" t="s">
+        <v>235</v>
+      </c>
+      <c r="H684" t="s">
+        <v>235</v>
+      </c>
+      <c r="I684" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="B685" t="s">
+        <v>12279</v>
+      </c>
+      <c r="C685" t="s">
+        <v>38</v>
+      </c>
+      <c r="D685" t="s">
+        <v>44</v>
+      </c>
+      <c r="E685" t="s">
+        <v>45</v>
+      </c>
+      <c r="F685" t="s">
+        <v>235</v>
+      </c>
+      <c r="G685" t="s">
+        <v>235</v>
+      </c>
+      <c r="H685" t="s">
+        <v>235</v>
+      </c>
+      <c r="I685" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="B686" t="s">
+        <v>12280</v>
+      </c>
+      <c r="C686" t="s">
+        <v>41</v>
+      </c>
+      <c r="D686" t="s">
+        <v>49</v>
+      </c>
+      <c r="E686" t="s">
+        <v>45</v>
+      </c>
+      <c r="F686" t="s">
+        <v>241</v>
+      </c>
+      <c r="G686" t="s">
+        <v>241</v>
+      </c>
+      <c r="H686" t="s">
+        <v>241</v>
+      </c>
+      <c r="I686" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="B687" t="s">
+        <v>12281</v>
+      </c>
+      <c r="C687" t="s">
+        <v>41</v>
+      </c>
+      <c r="D687" t="s">
+        <v>49</v>
+      </c>
+      <c r="E687" t="s">
+        <v>45</v>
+      </c>
+      <c r="F687" t="s">
+        <v>238</v>
+      </c>
+      <c r="G687" t="s">
+        <v>238</v>
+      </c>
+      <c r="H687" t="s">
+        <v>238</v>
+      </c>
+      <c r="I687" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="B688" t="s">
+        <v>12283</v>
+      </c>
+      <c r="C688" t="s">
+        <v>41</v>
+      </c>
+      <c r="D688" t="s">
+        <v>49</v>
+      </c>
+      <c r="E688" t="s">
+        <v>45</v>
+      </c>
+      <c r="F688" t="s">
+        <v>12284</v>
+      </c>
+      <c r="G688" t="s">
+        <v>12284</v>
+      </c>
+      <c r="H688" t="s">
+        <v>12284</v>
+      </c>
+      <c r="I688" t="s">
+        <v>12284</v>
+      </c>
+    </row>
     <row r="689"/>
     <row r="690"/>
     <row r="691"/>

--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6214397" uniqueCount="12285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6239612" uniqueCount="12287">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -41652,6 +41652,12 @@
   </si>
   <si>
     <t xml:space="preserve">?123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4099</t>
   </si>
 </sst>
 </file>
@@ -61461,8 +61467,58 @@
         <v>12284</v>
       </c>
     </row>
-    <row r="689"/>
-    <row r="690"/>
+    <row r="689">
+      <c r="B689" t="s">
+        <v>12285</v>
+      </c>
+      <c r="C689" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D689" t="s">
+        <v>44</v>
+      </c>
+      <c r="E689" t="s">
+        <v>45</v>
+      </c>
+      <c r="F689" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G689" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H689" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I689" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="B690" t="s">
+        <v>12286</v>
+      </c>
+      <c r="C690" t="s">
+        <v>78</v>
+      </c>
+      <c r="D690" t="s">
+        <v>44</v>
+      </c>
+      <c r="E690" t="s">
+        <v>45</v>
+      </c>
+      <c r="F690" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G690" t="s">
+        <v>12048</v>
+      </c>
+      <c r="H690" t="s">
+        <v>12048</v>
+      </c>
+      <c r="I690" t="s">
+        <v>12048</v>
+      </c>
+    </row>
     <row r="691"/>
     <row r="692"/>
     <row r="693"/>

--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6214397" uniqueCount="12285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6222810" uniqueCount="12288">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -41652,6 +41652,16 @@
   </si>
   <si>
     <t xml:space="preserve">?123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTA ABERTA
+OK!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4100</t>
   </si>
 </sst>
 </file>
@@ -61461,8 +61471,58 @@
         <v>12284</v>
       </c>
     </row>
-    <row r="689"/>
-    <row r="690"/>
+    <row r="689">
+      <c r="B689" t="s">
+        <v>12285</v>
+      </c>
+      <c r="C689" t="s">
+        <v>40</v>
+      </c>
+      <c r="D689" t="s">
+        <v>49</v>
+      </c>
+      <c r="E689" t="s">
+        <v>45</v>
+      </c>
+      <c r="F689" t="s">
+        <v>12286</v>
+      </c>
+      <c r="G689" t="s">
+        <v>12102</v>
+      </c>
+      <c r="H689" t="s">
+        <v>12102</v>
+      </c>
+      <c r="I689" t="s">
+        <v>12102</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="B690" t="s">
+        <v>12287</v>
+      </c>
+      <c r="C690" t="s">
+        <v>38</v>
+      </c>
+      <c r="D690" t="s">
+        <v>49</v>
+      </c>
+      <c r="E690" t="s">
+        <v>45</v>
+      </c>
+      <c r="F690" t="s">
+        <v>50</v>
+      </c>
+      <c r="G690" t="s">
+        <v>50</v>
+      </c>
+      <c r="H690" t="s">
+        <v>50</v>
+      </c>
+      <c r="I690" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="691"/>
     <row r="692"/>
     <row r="693"/>

--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6239612" uniqueCount="12287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6264908" uniqueCount="12293">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -41658,6 +41658,24 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId4099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SegoeUI30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segoeui.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen1</t>
   </si>
 </sst>
 </file>
@@ -43586,6 +43604,35 @@
         <v>249</v>
       </c>
       <c r="J26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>12287</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12288</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>250</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>249</v>
+      </c>
+      <c r="J27" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6264908" uniqueCount="12293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6393212" uniqueCount="12363">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -41676,6 +41676,223 @@
   </si>
   <si>
     <t xml:space="preserve">Screen1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTA ABERTA
+OK!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTA ABERTA
+OK!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTA ABERTA
+OK!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTA ABERTA
+OK!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTA ABERTA
+OK!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTA ABERTA
+OK!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTA ABERTA
+OK!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4164</t>
   </si>
 </sst>
 </file>
@@ -61566,71 +61783,1696 @@
         <v>12048</v>
       </c>
     </row>
-    <row r="691"/>
-    <row r="692"/>
-    <row r="693"/>
-    <row r="694"/>
-    <row r="695"/>
-    <row r="696"/>
-    <row r="697"/>
-    <row r="698"/>
-    <row r="699"/>
-    <row r="700"/>
-    <row r="701"/>
-    <row r="702"/>
-    <row r="703"/>
-    <row r="704"/>
-    <row r="705"/>
-    <row r="706"/>
-    <row r="707"/>
-    <row r="708"/>
-    <row r="709"/>
-    <row r="710"/>
-    <row r="711"/>
-    <row r="712"/>
-    <row r="713"/>
-    <row r="714"/>
-    <row r="715"/>
-    <row r="716"/>
-    <row r="717"/>
-    <row r="718"/>
-    <row r="719"/>
-    <row r="720"/>
-    <row r="721"/>
-    <row r="722"/>
-    <row r="723"/>
-    <row r="724"/>
-    <row r="725"/>
-    <row r="726"/>
-    <row r="727"/>
-    <row r="728"/>
-    <row r="729"/>
-    <row r="730"/>
-    <row r="731"/>
-    <row r="732"/>
-    <row r="733"/>
-    <row r="734"/>
-    <row r="735"/>
-    <row r="736"/>
-    <row r="737"/>
-    <row r="738"/>
-    <row r="739"/>
-    <row r="740"/>
-    <row r="741"/>
-    <row r="742"/>
-    <row r="743"/>
-    <row r="744"/>
-    <row r="745"/>
-    <row r="746"/>
-    <row r="747"/>
-    <row r="748"/>
-    <row r="749"/>
-    <row r="750"/>
-    <row r="751"/>
-    <row r="752"/>
-    <row r="753"/>
-    <row r="754"/>
-    <row r="755"/>
+    <row r="691">
+      <c r="B691" t="s">
+        <v>12289</v>
+      </c>
+      <c r="C691" t="s">
+        <v>40</v>
+      </c>
+      <c r="D691" t="s">
+        <v>49</v>
+      </c>
+      <c r="E691" t="s">
+        <v>45</v>
+      </c>
+      <c r="F691" t="s">
+        <v>12294</v>
+      </c>
+      <c r="G691" t="s">
+        <v>12102</v>
+      </c>
+      <c r="H691" t="s">
+        <v>12102</v>
+      </c>
+      <c r="I691" t="s">
+        <v>12102</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="B692" t="s">
+        <v>12291</v>
+      </c>
+      <c r="C692" t="s">
+        <v>38</v>
+      </c>
+      <c r="D692" t="s">
+        <v>44</v>
+      </c>
+      <c r="E692" t="s">
+        <v>45</v>
+      </c>
+      <c r="F692" t="s">
+        <v>50</v>
+      </c>
+      <c r="G692" t="s">
+        <v>50</v>
+      </c>
+      <c r="H692" t="s">
+        <v>50</v>
+      </c>
+      <c r="I692" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="B693" t="s">
+        <v>12293</v>
+      </c>
+      <c r="C693" t="s">
+        <v>38</v>
+      </c>
+      <c r="D693" t="s">
+        <v>44</v>
+      </c>
+      <c r="E693" t="s">
+        <v>45</v>
+      </c>
+      <c r="F693" t="s">
+        <v>390</v>
+      </c>
+      <c r="G693" t="s">
+        <v>284</v>
+      </c>
+      <c r="H693" t="s">
+        <v>284</v>
+      </c>
+      <c r="I693" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="B694" t="s">
+        <v>12299</v>
+      </c>
+      <c r="C694" t="s">
+        <v>38</v>
+      </c>
+      <c r="D694" t="s">
+        <v>44</v>
+      </c>
+      <c r="E694" t="s">
+        <v>45</v>
+      </c>
+      <c r="F694" t="s">
+        <v>50</v>
+      </c>
+      <c r="G694" t="s">
+        <v>50</v>
+      </c>
+      <c r="H694" t="s">
+        <v>50</v>
+      </c>
+      <c r="I694" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="B695" t="s">
+        <v>12300</v>
+      </c>
+      <c r="C695" t="s">
+        <v>38</v>
+      </c>
+      <c r="D695" t="s">
+        <v>44</v>
+      </c>
+      <c r="E695" t="s">
+        <v>45</v>
+      </c>
+      <c r="F695" t="s">
+        <v>390</v>
+      </c>
+      <c r="G695" t="s">
+        <v>284</v>
+      </c>
+      <c r="H695" t="s">
+        <v>284</v>
+      </c>
+      <c r="I695" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="B696" t="s">
+        <v>12303</v>
+      </c>
+      <c r="C696" t="s">
+        <v>38</v>
+      </c>
+      <c r="D696" t="s">
+        <v>44</v>
+      </c>
+      <c r="E696" t="s">
+        <v>45</v>
+      </c>
+      <c r="F696" t="s">
+        <v>50</v>
+      </c>
+      <c r="G696" t="s">
+        <v>50</v>
+      </c>
+      <c r="H696" t="s">
+        <v>50</v>
+      </c>
+      <c r="I696" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="B697" t="s">
+        <v>12304</v>
+      </c>
+      <c r="C697" t="s">
+        <v>38</v>
+      </c>
+      <c r="D697" t="s">
+        <v>44</v>
+      </c>
+      <c r="E697" t="s">
+        <v>45</v>
+      </c>
+      <c r="F697" t="s">
+        <v>390</v>
+      </c>
+      <c r="G697" t="s">
+        <v>284</v>
+      </c>
+      <c r="H697" t="s">
+        <v>284</v>
+      </c>
+      <c r="I697" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="B698" t="s">
+        <v>12305</v>
+      </c>
+      <c r="C698" t="s">
+        <v>38</v>
+      </c>
+      <c r="D698" t="s">
+        <v>44</v>
+      </c>
+      <c r="E698" t="s">
+        <v>45</v>
+      </c>
+      <c r="F698" t="s">
+        <v>50</v>
+      </c>
+      <c r="G698" t="s">
+        <v>50</v>
+      </c>
+      <c r="H698" t="s">
+        <v>50</v>
+      </c>
+      <c r="I698" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="B699" t="s">
+        <v>12306</v>
+      </c>
+      <c r="C699" t="s">
+        <v>38</v>
+      </c>
+      <c r="D699" t="s">
+        <v>44</v>
+      </c>
+      <c r="E699" t="s">
+        <v>45</v>
+      </c>
+      <c r="F699" t="s">
+        <v>390</v>
+      </c>
+      <c r="G699" t="s">
+        <v>284</v>
+      </c>
+      <c r="H699" t="s">
+        <v>284</v>
+      </c>
+      <c r="I699" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="B700" t="s">
+        <v>12307</v>
+      </c>
+      <c r="C700" t="s">
+        <v>38</v>
+      </c>
+      <c r="D700" t="s">
+        <v>44</v>
+      </c>
+      <c r="E700" t="s">
+        <v>45</v>
+      </c>
+      <c r="F700" t="s">
+        <v>50</v>
+      </c>
+      <c r="G700" t="s">
+        <v>50</v>
+      </c>
+      <c r="H700" t="s">
+        <v>50</v>
+      </c>
+      <c r="I700" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="B701" t="s">
+        <v>12308</v>
+      </c>
+      <c r="C701" t="s">
+        <v>38</v>
+      </c>
+      <c r="D701" t="s">
+        <v>44</v>
+      </c>
+      <c r="E701" t="s">
+        <v>45</v>
+      </c>
+      <c r="F701" t="s">
+        <v>390</v>
+      </c>
+      <c r="G701" t="s">
+        <v>284</v>
+      </c>
+      <c r="H701" t="s">
+        <v>284</v>
+      </c>
+      <c r="I701" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="B702" t="s">
+        <v>12309</v>
+      </c>
+      <c r="C702" t="s">
+        <v>38</v>
+      </c>
+      <c r="D702" t="s">
+        <v>44</v>
+      </c>
+      <c r="E702" t="s">
+        <v>45</v>
+      </c>
+      <c r="F702" t="s">
+        <v>50</v>
+      </c>
+      <c r="G702" t="s">
+        <v>50</v>
+      </c>
+      <c r="H702" t="s">
+        <v>50</v>
+      </c>
+      <c r="I702" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="B703" t="s">
+        <v>12310</v>
+      </c>
+      <c r="C703" t="s">
+        <v>38</v>
+      </c>
+      <c r="D703" t="s">
+        <v>44</v>
+      </c>
+      <c r="E703" t="s">
+        <v>45</v>
+      </c>
+      <c r="F703" t="s">
+        <v>390</v>
+      </c>
+      <c r="G703" t="s">
+        <v>284</v>
+      </c>
+      <c r="H703" t="s">
+        <v>284</v>
+      </c>
+      <c r="I703" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="B704" t="s">
+        <v>12311</v>
+      </c>
+      <c r="C704" t="s">
+        <v>38</v>
+      </c>
+      <c r="D704" t="s">
+        <v>44</v>
+      </c>
+      <c r="E704" t="s">
+        <v>45</v>
+      </c>
+      <c r="F704" t="s">
+        <v>50</v>
+      </c>
+      <c r="G704" t="s">
+        <v>50</v>
+      </c>
+      <c r="H704" t="s">
+        <v>50</v>
+      </c>
+      <c r="I704" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="B705" t="s">
+        <v>12312</v>
+      </c>
+      <c r="C705" t="s">
+        <v>38</v>
+      </c>
+      <c r="D705" t="s">
+        <v>44</v>
+      </c>
+      <c r="E705" t="s">
+        <v>45</v>
+      </c>
+      <c r="F705" t="s">
+        <v>390</v>
+      </c>
+      <c r="G705" t="s">
+        <v>284</v>
+      </c>
+      <c r="H705" t="s">
+        <v>284</v>
+      </c>
+      <c r="I705" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="B706" t="s">
+        <v>12313</v>
+      </c>
+      <c r="C706" t="s">
+        <v>38</v>
+      </c>
+      <c r="D706" t="s">
+        <v>44</v>
+      </c>
+      <c r="E706" t="s">
+        <v>45</v>
+      </c>
+      <c r="F706" t="s">
+        <v>50</v>
+      </c>
+      <c r="G706" t="s">
+        <v>50</v>
+      </c>
+      <c r="H706" t="s">
+        <v>50</v>
+      </c>
+      <c r="I706" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="B707" t="s">
+        <v>12314</v>
+      </c>
+      <c r="C707" t="s">
+        <v>38</v>
+      </c>
+      <c r="D707" t="s">
+        <v>44</v>
+      </c>
+      <c r="E707" t="s">
+        <v>45</v>
+      </c>
+      <c r="F707" t="s">
+        <v>390</v>
+      </c>
+      <c r="G707" t="s">
+        <v>284</v>
+      </c>
+      <c r="H707" t="s">
+        <v>284</v>
+      </c>
+      <c r="I707" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="B708" t="s">
+        <v>12315</v>
+      </c>
+      <c r="C708" t="s">
+        <v>38</v>
+      </c>
+      <c r="D708" t="s">
+        <v>44</v>
+      </c>
+      <c r="E708" t="s">
+        <v>45</v>
+      </c>
+      <c r="F708" t="s">
+        <v>50</v>
+      </c>
+      <c r="G708" t="s">
+        <v>50</v>
+      </c>
+      <c r="H708" t="s">
+        <v>50</v>
+      </c>
+      <c r="I708" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="B709" t="s">
+        <v>12316</v>
+      </c>
+      <c r="C709" t="s">
+        <v>38</v>
+      </c>
+      <c r="D709" t="s">
+        <v>44</v>
+      </c>
+      <c r="E709" t="s">
+        <v>45</v>
+      </c>
+      <c r="F709" t="s">
+        <v>390</v>
+      </c>
+      <c r="G709" t="s">
+        <v>284</v>
+      </c>
+      <c r="H709" t="s">
+        <v>284</v>
+      </c>
+      <c r="I709" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="B710" t="s">
+        <v>12317</v>
+      </c>
+      <c r="C710" t="s">
+        <v>38</v>
+      </c>
+      <c r="D710" t="s">
+        <v>44</v>
+      </c>
+      <c r="E710" t="s">
+        <v>45</v>
+      </c>
+      <c r="F710" t="s">
+        <v>50</v>
+      </c>
+      <c r="G710" t="s">
+        <v>50</v>
+      </c>
+      <c r="H710" t="s">
+        <v>50</v>
+      </c>
+      <c r="I710" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="B711" t="s">
+        <v>12318</v>
+      </c>
+      <c r="C711" t="s">
+        <v>38</v>
+      </c>
+      <c r="D711" t="s">
+        <v>44</v>
+      </c>
+      <c r="E711" t="s">
+        <v>45</v>
+      </c>
+      <c r="F711" t="s">
+        <v>390</v>
+      </c>
+      <c r="G711" t="s">
+        <v>284</v>
+      </c>
+      <c r="H711" t="s">
+        <v>284</v>
+      </c>
+      <c r="I711" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="B712" t="s">
+        <v>12319</v>
+      </c>
+      <c r="C712" t="s">
+        <v>38</v>
+      </c>
+      <c r="D712" t="s">
+        <v>44</v>
+      </c>
+      <c r="E712" t="s">
+        <v>45</v>
+      </c>
+      <c r="F712" t="s">
+        <v>50</v>
+      </c>
+      <c r="G712" t="s">
+        <v>50</v>
+      </c>
+      <c r="H712" t="s">
+        <v>50</v>
+      </c>
+      <c r="I712" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="B713" t="s">
+        <v>12320</v>
+      </c>
+      <c r="C713" t="s">
+        <v>38</v>
+      </c>
+      <c r="D713" t="s">
+        <v>44</v>
+      </c>
+      <c r="E713" t="s">
+        <v>45</v>
+      </c>
+      <c r="F713" t="s">
+        <v>390</v>
+      </c>
+      <c r="G713" t="s">
+        <v>284</v>
+      </c>
+      <c r="H713" t="s">
+        <v>284</v>
+      </c>
+      <c r="I713" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="B714" t="s">
+        <v>12321</v>
+      </c>
+      <c r="C714" t="s">
+        <v>38</v>
+      </c>
+      <c r="D714" t="s">
+        <v>44</v>
+      </c>
+      <c r="E714" t="s">
+        <v>45</v>
+      </c>
+      <c r="F714" t="s">
+        <v>50</v>
+      </c>
+      <c r="G714" t="s">
+        <v>50</v>
+      </c>
+      <c r="H714" t="s">
+        <v>50</v>
+      </c>
+      <c r="I714" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="B715" t="s">
+        <v>12322</v>
+      </c>
+      <c r="C715" t="s">
+        <v>38</v>
+      </c>
+      <c r="D715" t="s">
+        <v>44</v>
+      </c>
+      <c r="E715" t="s">
+        <v>45</v>
+      </c>
+      <c r="F715" t="s">
+        <v>390</v>
+      </c>
+      <c r="G715" t="s">
+        <v>284</v>
+      </c>
+      <c r="H715" t="s">
+        <v>284</v>
+      </c>
+      <c r="I715" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="B716" t="s">
+        <v>12323</v>
+      </c>
+      <c r="C716" t="s">
+        <v>38</v>
+      </c>
+      <c r="D716" t="s">
+        <v>44</v>
+      </c>
+      <c r="E716" t="s">
+        <v>45</v>
+      </c>
+      <c r="F716" t="s">
+        <v>50</v>
+      </c>
+      <c r="G716" t="s">
+        <v>50</v>
+      </c>
+      <c r="H716" t="s">
+        <v>50</v>
+      </c>
+      <c r="I716" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="B717" t="s">
+        <v>12324</v>
+      </c>
+      <c r="C717" t="s">
+        <v>38</v>
+      </c>
+      <c r="D717" t="s">
+        <v>44</v>
+      </c>
+      <c r="E717" t="s">
+        <v>45</v>
+      </c>
+      <c r="F717" t="s">
+        <v>390</v>
+      </c>
+      <c r="G717" t="s">
+        <v>284</v>
+      </c>
+      <c r="H717" t="s">
+        <v>284</v>
+      </c>
+      <c r="I717" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="B718" t="s">
+        <v>12325</v>
+      </c>
+      <c r="C718" t="s">
+        <v>38</v>
+      </c>
+      <c r="D718" t="s">
+        <v>44</v>
+      </c>
+      <c r="E718" t="s">
+        <v>45</v>
+      </c>
+      <c r="F718" t="s">
+        <v>50</v>
+      </c>
+      <c r="G718" t="s">
+        <v>50</v>
+      </c>
+      <c r="H718" t="s">
+        <v>50</v>
+      </c>
+      <c r="I718" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="B719" t="s">
+        <v>12326</v>
+      </c>
+      <c r="C719" t="s">
+        <v>38</v>
+      </c>
+      <c r="D719" t="s">
+        <v>44</v>
+      </c>
+      <c r="E719" t="s">
+        <v>45</v>
+      </c>
+      <c r="F719" t="s">
+        <v>390</v>
+      </c>
+      <c r="G719" t="s">
+        <v>284</v>
+      </c>
+      <c r="H719" t="s">
+        <v>284</v>
+      </c>
+      <c r="I719" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="B720" t="s">
+        <v>12327</v>
+      </c>
+      <c r="C720" t="s">
+        <v>38</v>
+      </c>
+      <c r="D720" t="s">
+        <v>44</v>
+      </c>
+      <c r="E720" t="s">
+        <v>45</v>
+      </c>
+      <c r="F720" t="s">
+        <v>50</v>
+      </c>
+      <c r="G720" t="s">
+        <v>50</v>
+      </c>
+      <c r="H720" t="s">
+        <v>50</v>
+      </c>
+      <c r="I720" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="B721" t="s">
+        <v>12328</v>
+      </c>
+      <c r="C721" t="s">
+        <v>38</v>
+      </c>
+      <c r="D721" t="s">
+        <v>44</v>
+      </c>
+      <c r="E721" t="s">
+        <v>45</v>
+      </c>
+      <c r="F721" t="s">
+        <v>390</v>
+      </c>
+      <c r="G721" t="s">
+        <v>284</v>
+      </c>
+      <c r="H721" t="s">
+        <v>284</v>
+      </c>
+      <c r="I721" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="B722" t="s">
+        <v>12329</v>
+      </c>
+      <c r="C722" t="s">
+        <v>38</v>
+      </c>
+      <c r="D722" t="s">
+        <v>44</v>
+      </c>
+      <c r="E722" t="s">
+        <v>45</v>
+      </c>
+      <c r="F722" t="s">
+        <v>50</v>
+      </c>
+      <c r="G722" t="s">
+        <v>50</v>
+      </c>
+      <c r="H722" t="s">
+        <v>50</v>
+      </c>
+      <c r="I722" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="B723" t="s">
+        <v>12330</v>
+      </c>
+      <c r="C723" t="s">
+        <v>38</v>
+      </c>
+      <c r="D723" t="s">
+        <v>44</v>
+      </c>
+      <c r="E723" t="s">
+        <v>45</v>
+      </c>
+      <c r="F723" t="s">
+        <v>390</v>
+      </c>
+      <c r="G723" t="s">
+        <v>284</v>
+      </c>
+      <c r="H723" t="s">
+        <v>284</v>
+      </c>
+      <c r="I723" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="B724" t="s">
+        <v>12331</v>
+      </c>
+      <c r="C724" t="s">
+        <v>38</v>
+      </c>
+      <c r="D724" t="s">
+        <v>44</v>
+      </c>
+      <c r="E724" t="s">
+        <v>45</v>
+      </c>
+      <c r="F724" t="s">
+        <v>50</v>
+      </c>
+      <c r="G724" t="s">
+        <v>50</v>
+      </c>
+      <c r="H724" t="s">
+        <v>50</v>
+      </c>
+      <c r="I724" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="B725" t="s">
+        <v>12332</v>
+      </c>
+      <c r="C725" t="s">
+        <v>38</v>
+      </c>
+      <c r="D725" t="s">
+        <v>44</v>
+      </c>
+      <c r="E725" t="s">
+        <v>45</v>
+      </c>
+      <c r="F725" t="s">
+        <v>390</v>
+      </c>
+      <c r="G725" t="s">
+        <v>284</v>
+      </c>
+      <c r="H725" t="s">
+        <v>284</v>
+      </c>
+      <c r="I725" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="B726" t="s">
+        <v>12333</v>
+      </c>
+      <c r="C726" t="s">
+        <v>38</v>
+      </c>
+      <c r="D726" t="s">
+        <v>44</v>
+      </c>
+      <c r="E726" t="s">
+        <v>45</v>
+      </c>
+      <c r="F726" t="s">
+        <v>50</v>
+      </c>
+      <c r="G726" t="s">
+        <v>50</v>
+      </c>
+      <c r="H726" t="s">
+        <v>50</v>
+      </c>
+      <c r="I726" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="B727" t="s">
+        <v>12334</v>
+      </c>
+      <c r="C727" t="s">
+        <v>38</v>
+      </c>
+      <c r="D727" t="s">
+        <v>44</v>
+      </c>
+      <c r="E727" t="s">
+        <v>45</v>
+      </c>
+      <c r="F727" t="s">
+        <v>390</v>
+      </c>
+      <c r="G727" t="s">
+        <v>284</v>
+      </c>
+      <c r="H727" t="s">
+        <v>284</v>
+      </c>
+      <c r="I727" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="B728" t="s">
+        <v>12335</v>
+      </c>
+      <c r="C728" t="s">
+        <v>38</v>
+      </c>
+      <c r="D728" t="s">
+        <v>44</v>
+      </c>
+      <c r="E728" t="s">
+        <v>45</v>
+      </c>
+      <c r="F728" t="s">
+        <v>50</v>
+      </c>
+      <c r="G728" t="s">
+        <v>50</v>
+      </c>
+      <c r="H728" t="s">
+        <v>50</v>
+      </c>
+      <c r="I728" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="B729" t="s">
+        <v>12336</v>
+      </c>
+      <c r="C729" t="s">
+        <v>38</v>
+      </c>
+      <c r="D729" t="s">
+        <v>44</v>
+      </c>
+      <c r="E729" t="s">
+        <v>45</v>
+      </c>
+      <c r="F729" t="s">
+        <v>390</v>
+      </c>
+      <c r="G729" t="s">
+        <v>284</v>
+      </c>
+      <c r="H729" t="s">
+        <v>284</v>
+      </c>
+      <c r="I729" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="B730" t="s">
+        <v>12337</v>
+      </c>
+      <c r="C730" t="s">
+        <v>38</v>
+      </c>
+      <c r="D730" t="s">
+        <v>44</v>
+      </c>
+      <c r="E730" t="s">
+        <v>45</v>
+      </c>
+      <c r="F730" t="s">
+        <v>50</v>
+      </c>
+      <c r="G730" t="s">
+        <v>50</v>
+      </c>
+      <c r="H730" t="s">
+        <v>50</v>
+      </c>
+      <c r="I730" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="B731" t="s">
+        <v>12338</v>
+      </c>
+      <c r="C731" t="s">
+        <v>38</v>
+      </c>
+      <c r="D731" t="s">
+        <v>44</v>
+      </c>
+      <c r="E731" t="s">
+        <v>45</v>
+      </c>
+      <c r="F731" t="s">
+        <v>390</v>
+      </c>
+      <c r="G731" t="s">
+        <v>284</v>
+      </c>
+      <c r="H731" t="s">
+        <v>284</v>
+      </c>
+      <c r="I731" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="B732" t="s">
+        <v>12339</v>
+      </c>
+      <c r="C732" t="s">
+        <v>38</v>
+      </c>
+      <c r="D732" t="s">
+        <v>44</v>
+      </c>
+      <c r="E732" t="s">
+        <v>45</v>
+      </c>
+      <c r="F732" t="s">
+        <v>50</v>
+      </c>
+      <c r="G732" t="s">
+        <v>50</v>
+      </c>
+      <c r="H732" t="s">
+        <v>50</v>
+      </c>
+      <c r="I732" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="B733" t="s">
+        <v>12340</v>
+      </c>
+      <c r="C733" t="s">
+        <v>38</v>
+      </c>
+      <c r="D733" t="s">
+        <v>44</v>
+      </c>
+      <c r="E733" t="s">
+        <v>45</v>
+      </c>
+      <c r="F733" t="s">
+        <v>390</v>
+      </c>
+      <c r="G733" t="s">
+        <v>284</v>
+      </c>
+      <c r="H733" t="s">
+        <v>284</v>
+      </c>
+      <c r="I733" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="B734" t="s">
+        <v>12341</v>
+      </c>
+      <c r="C734" t="s">
+        <v>38</v>
+      </c>
+      <c r="D734" t="s">
+        <v>44</v>
+      </c>
+      <c r="E734" t="s">
+        <v>45</v>
+      </c>
+      <c r="F734" t="s">
+        <v>50</v>
+      </c>
+      <c r="G734" t="s">
+        <v>50</v>
+      </c>
+      <c r="H734" t="s">
+        <v>50</v>
+      </c>
+      <c r="I734" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="B735" t="s">
+        <v>12342</v>
+      </c>
+      <c r="C735" t="s">
+        <v>38</v>
+      </c>
+      <c r="D735" t="s">
+        <v>44</v>
+      </c>
+      <c r="E735" t="s">
+        <v>45</v>
+      </c>
+      <c r="F735" t="s">
+        <v>390</v>
+      </c>
+      <c r="G735" t="s">
+        <v>284</v>
+      </c>
+      <c r="H735" t="s">
+        <v>284</v>
+      </c>
+      <c r="I735" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="B736" t="s">
+        <v>12343</v>
+      </c>
+      <c r="C736" t="s">
+        <v>38</v>
+      </c>
+      <c r="D736" t="s">
+        <v>44</v>
+      </c>
+      <c r="E736" t="s">
+        <v>45</v>
+      </c>
+      <c r="F736" t="s">
+        <v>50</v>
+      </c>
+      <c r="G736" t="s">
+        <v>50</v>
+      </c>
+      <c r="H736" t="s">
+        <v>50</v>
+      </c>
+      <c r="I736" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="B737" t="s">
+        <v>12344</v>
+      </c>
+      <c r="C737" t="s">
+        <v>38</v>
+      </c>
+      <c r="D737" t="s">
+        <v>44</v>
+      </c>
+      <c r="E737" t="s">
+        <v>45</v>
+      </c>
+      <c r="F737" t="s">
+        <v>390</v>
+      </c>
+      <c r="G737" t="s">
+        <v>284</v>
+      </c>
+      <c r="H737" t="s">
+        <v>284</v>
+      </c>
+      <c r="I737" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="B738" t="s">
+        <v>12345</v>
+      </c>
+      <c r="C738" t="s">
+        <v>38</v>
+      </c>
+      <c r="D738" t="s">
+        <v>44</v>
+      </c>
+      <c r="E738" t="s">
+        <v>45</v>
+      </c>
+      <c r="F738" t="s">
+        <v>50</v>
+      </c>
+      <c r="G738" t="s">
+        <v>50</v>
+      </c>
+      <c r="H738" t="s">
+        <v>50</v>
+      </c>
+      <c r="I738" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="B739" t="s">
+        <v>12346</v>
+      </c>
+      <c r="C739" t="s">
+        <v>38</v>
+      </c>
+      <c r="D739" t="s">
+        <v>44</v>
+      </c>
+      <c r="E739" t="s">
+        <v>45</v>
+      </c>
+      <c r="F739" t="s">
+        <v>390</v>
+      </c>
+      <c r="G739" t="s">
+        <v>284</v>
+      </c>
+      <c r="H739" t="s">
+        <v>284</v>
+      </c>
+      <c r="I739" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="B740" t="s">
+        <v>12347</v>
+      </c>
+      <c r="C740" t="s">
+        <v>38</v>
+      </c>
+      <c r="D740" t="s">
+        <v>44</v>
+      </c>
+      <c r="E740" t="s">
+        <v>45</v>
+      </c>
+      <c r="F740" t="s">
+        <v>50</v>
+      </c>
+      <c r="G740" t="s">
+        <v>50</v>
+      </c>
+      <c r="H740" t="s">
+        <v>50</v>
+      </c>
+      <c r="I740" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="B741" t="s">
+        <v>12348</v>
+      </c>
+      <c r="C741" t="s">
+        <v>38</v>
+      </c>
+      <c r="D741" t="s">
+        <v>44</v>
+      </c>
+      <c r="E741" t="s">
+        <v>45</v>
+      </c>
+      <c r="F741" t="s">
+        <v>390</v>
+      </c>
+      <c r="G741" t="s">
+        <v>284</v>
+      </c>
+      <c r="H741" t="s">
+        <v>284</v>
+      </c>
+      <c r="I741" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="B742" t="s">
+        <v>12349</v>
+      </c>
+      <c r="C742" t="s">
+        <v>38</v>
+      </c>
+      <c r="D742" t="s">
+        <v>44</v>
+      </c>
+      <c r="E742" t="s">
+        <v>45</v>
+      </c>
+      <c r="F742" t="s">
+        <v>50</v>
+      </c>
+      <c r="G742" t="s">
+        <v>50</v>
+      </c>
+      <c r="H742" t="s">
+        <v>50</v>
+      </c>
+      <c r="I742" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="B743" t="s">
+        <v>12350</v>
+      </c>
+      <c r="C743" t="s">
+        <v>38</v>
+      </c>
+      <c r="D743" t="s">
+        <v>44</v>
+      </c>
+      <c r="E743" t="s">
+        <v>45</v>
+      </c>
+      <c r="F743" t="s">
+        <v>390</v>
+      </c>
+      <c r="G743" t="s">
+        <v>284</v>
+      </c>
+      <c r="H743" t="s">
+        <v>284</v>
+      </c>
+      <c r="I743" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="B744" t="s">
+        <v>12351</v>
+      </c>
+      <c r="C744" t="s">
+        <v>38</v>
+      </c>
+      <c r="D744" t="s">
+        <v>44</v>
+      </c>
+      <c r="E744" t="s">
+        <v>45</v>
+      </c>
+      <c r="F744" t="s">
+        <v>50</v>
+      </c>
+      <c r="G744" t="s">
+        <v>50</v>
+      </c>
+      <c r="H744" t="s">
+        <v>50</v>
+      </c>
+      <c r="I744" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="B745" t="s">
+        <v>12352</v>
+      </c>
+      <c r="C745" t="s">
+        <v>38</v>
+      </c>
+      <c r="D745" t="s">
+        <v>44</v>
+      </c>
+      <c r="E745" t="s">
+        <v>45</v>
+      </c>
+      <c r="F745" t="s">
+        <v>390</v>
+      </c>
+      <c r="G745" t="s">
+        <v>284</v>
+      </c>
+      <c r="H745" t="s">
+        <v>284</v>
+      </c>
+      <c r="I745" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="B746" t="s">
+        <v>12353</v>
+      </c>
+      <c r="C746" t="s">
+        <v>38</v>
+      </c>
+      <c r="D746" t="s">
+        <v>44</v>
+      </c>
+      <c r="E746" t="s">
+        <v>45</v>
+      </c>
+      <c r="F746" t="s">
+        <v>50</v>
+      </c>
+      <c r="G746" t="s">
+        <v>50</v>
+      </c>
+      <c r="H746" t="s">
+        <v>50</v>
+      </c>
+      <c r="I746" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="B747" t="s">
+        <v>12354</v>
+      </c>
+      <c r="C747" t="s">
+        <v>38</v>
+      </c>
+      <c r="D747" t="s">
+        <v>44</v>
+      </c>
+      <c r="E747" t="s">
+        <v>45</v>
+      </c>
+      <c r="F747" t="s">
+        <v>390</v>
+      </c>
+      <c r="G747" t="s">
+        <v>284</v>
+      </c>
+      <c r="H747" t="s">
+        <v>284</v>
+      </c>
+      <c r="I747" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="B748" t="s">
+        <v>12355</v>
+      </c>
+      <c r="C748" t="s">
+        <v>38</v>
+      </c>
+      <c r="D748" t="s">
+        <v>44</v>
+      </c>
+      <c r="E748" t="s">
+        <v>45</v>
+      </c>
+      <c r="F748" t="s">
+        <v>50</v>
+      </c>
+      <c r="G748" t="s">
+        <v>50</v>
+      </c>
+      <c r="H748" t="s">
+        <v>50</v>
+      </c>
+      <c r="I748" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="B749" t="s">
+        <v>12356</v>
+      </c>
+      <c r="C749" t="s">
+        <v>38</v>
+      </c>
+      <c r="D749" t="s">
+        <v>44</v>
+      </c>
+      <c r="E749" t="s">
+        <v>45</v>
+      </c>
+      <c r="F749" t="s">
+        <v>390</v>
+      </c>
+      <c r="G749" t="s">
+        <v>284</v>
+      </c>
+      <c r="H749" t="s">
+        <v>284</v>
+      </c>
+      <c r="I749" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="B750" t="s">
+        <v>12357</v>
+      </c>
+      <c r="C750" t="s">
+        <v>38</v>
+      </c>
+      <c r="D750" t="s">
+        <v>44</v>
+      </c>
+      <c r="E750" t="s">
+        <v>45</v>
+      </c>
+      <c r="F750" t="s">
+        <v>50</v>
+      </c>
+      <c r="G750" t="s">
+        <v>50</v>
+      </c>
+      <c r="H750" t="s">
+        <v>50</v>
+      </c>
+      <c r="I750" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="B751" t="s">
+        <v>12358</v>
+      </c>
+      <c r="C751" t="s">
+        <v>38</v>
+      </c>
+      <c r="D751" t="s">
+        <v>44</v>
+      </c>
+      <c r="E751" t="s">
+        <v>45</v>
+      </c>
+      <c r="F751" t="s">
+        <v>390</v>
+      </c>
+      <c r="G751" t="s">
+        <v>284</v>
+      </c>
+      <c r="H751" t="s">
+        <v>284</v>
+      </c>
+      <c r="I751" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="B752" t="s">
+        <v>12359</v>
+      </c>
+      <c r="C752" t="s">
+        <v>38</v>
+      </c>
+      <c r="D752" t="s">
+        <v>44</v>
+      </c>
+      <c r="E752" t="s">
+        <v>45</v>
+      </c>
+      <c r="F752" t="s">
+        <v>50</v>
+      </c>
+      <c r="G752" t="s">
+        <v>50</v>
+      </c>
+      <c r="H752" t="s">
+        <v>50</v>
+      </c>
+      <c r="I752" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="B753" t="s">
+        <v>12360</v>
+      </c>
+      <c r="C753" t="s">
+        <v>38</v>
+      </c>
+      <c r="D753" t="s">
+        <v>44</v>
+      </c>
+      <c r="E753" t="s">
+        <v>45</v>
+      </c>
+      <c r="F753" t="s">
+        <v>390</v>
+      </c>
+      <c r="G753" t="s">
+        <v>284</v>
+      </c>
+      <c r="H753" t="s">
+        <v>284</v>
+      </c>
+      <c r="I753" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="B754" t="s">
+        <v>12361</v>
+      </c>
+      <c r="C754" t="s">
+        <v>38</v>
+      </c>
+      <c r="D754" t="s">
+        <v>44</v>
+      </c>
+      <c r="E754" t="s">
+        <v>45</v>
+      </c>
+      <c r="F754" t="s">
+        <v>50</v>
+      </c>
+      <c r="G754" t="s">
+        <v>50</v>
+      </c>
+      <c r="H754" t="s">
+        <v>50</v>
+      </c>
+      <c r="I754" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="B755" t="s">
+        <v>12362</v>
+      </c>
+      <c r="C755" t="s">
+        <v>38</v>
+      </c>
+      <c r="D755" t="s">
+        <v>44</v>
+      </c>
+      <c r="E755" t="s">
+        <v>45</v>
+      </c>
+      <c r="F755" t="s">
+        <v>390</v>
+      </c>
+      <c r="G755" t="s">
+        <v>284</v>
+      </c>
+      <c r="H755" t="s">
+        <v>284</v>
+      </c>
+      <c r="I755" t="s">
+        <v>284</v>
+      </c>
+    </row>
     <row r="756"/>
     <row r="757"/>
     <row r="758"/>

--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6264908" uniqueCount="12293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6273352" uniqueCount="12293">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -61566,8 +61566,58 @@
         <v>12048</v>
       </c>
     </row>
-    <row r="691"/>
-    <row r="692"/>
+    <row r="691">
+      <c r="B691" t="s">
+        <v>12289</v>
+      </c>
+      <c r="C691" t="s">
+        <v>38</v>
+      </c>
+      <c r="D691" t="s">
+        <v>44</v>
+      </c>
+      <c r="E691" t="s">
+        <v>45</v>
+      </c>
+      <c r="F691" t="s">
+        <v>47</v>
+      </c>
+      <c r="G691" t="s">
+        <v>47</v>
+      </c>
+      <c r="H691" t="s">
+        <v>47</v>
+      </c>
+      <c r="I691" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="B692" t="s">
+        <v>12291</v>
+      </c>
+      <c r="C692" t="s">
+        <v>38</v>
+      </c>
+      <c r="D692" t="s">
+        <v>44</v>
+      </c>
+      <c r="E692" t="s">
+        <v>45</v>
+      </c>
+      <c r="F692" t="s">
+        <v>47</v>
+      </c>
+      <c r="G692" t="s">
+        <v>47</v>
+      </c>
+      <c r="H692" t="s">
+        <v>47</v>
+      </c>
+      <c r="I692" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="693"/>
     <row r="694"/>
     <row r="695"/>

--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6273352" uniqueCount="12293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6281796" uniqueCount="12293">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -61606,16 +61606,16 @@
         <v>45</v>
       </c>
       <c r="F692" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G692" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H692" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I692" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="693"/>

--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6393212" uniqueCount="12363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6439188" uniqueCount="12364">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -41893,6 +41893,9 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId4164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4165</t>
   </si>
 </sst>
 </file>
@@ -59627,36 +59630,36 @@
     </row>
     <row r="608">
       <c r="B608" t="s">
-        <v>12101</v>
+        <v>12104</v>
       </c>
       <c r="C608" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D608" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E608" t="s">
         <v>45</v>
       </c>
       <c r="F608" t="s">
-        <v>12102</v>
+        <v>1574</v>
       </c>
       <c r="G608" t="s">
-        <v>12102</v>
+        <v>1574</v>
       </c>
       <c r="H608" t="s">
-        <v>12102</v>
+        <v>1574</v>
       </c>
       <c r="I608" t="s">
-        <v>12102</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="609">
       <c r="B609" t="s">
-        <v>12104</v>
+        <v>12105</v>
       </c>
       <c r="C609" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D609" t="s">
         <v>44</v>
@@ -59665,24 +59668,24 @@
         <v>45</v>
       </c>
       <c r="F609" t="s">
-        <v>1574</v>
+        <v>11458</v>
       </c>
       <c r="G609" t="s">
-        <v>1574</v>
+        <v>11458</v>
       </c>
       <c r="H609" t="s">
-        <v>1574</v>
+        <v>11458</v>
       </c>
       <c r="I609" t="s">
-        <v>1574</v>
+        <v>11458</v>
       </c>
     </row>
     <row r="610">
       <c r="B610" t="s">
-        <v>12105</v>
+        <v>12106</v>
       </c>
       <c r="C610" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D610" t="s">
         <v>44</v>
@@ -59691,76 +59694,76 @@
         <v>45</v>
       </c>
       <c r="F610" t="s">
-        <v>11458</v>
+        <v>11462</v>
       </c>
       <c r="G610" t="s">
-        <v>11458</v>
+        <v>11462</v>
       </c>
       <c r="H610" t="s">
-        <v>11458</v>
+        <v>11462</v>
       </c>
       <c r="I610" t="s">
-        <v>11458</v>
+        <v>11462</v>
       </c>
     </row>
     <row r="611">
       <c r="B611" t="s">
-        <v>12106</v>
+        <v>12107</v>
       </c>
       <c r="C611" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D611" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E611" t="s">
         <v>45</v>
       </c>
       <c r="F611" t="s">
-        <v>11462</v>
+        <v>50</v>
       </c>
       <c r="G611" t="s">
-        <v>11462</v>
+        <v>50</v>
       </c>
       <c r="H611" t="s">
-        <v>11462</v>
+        <v>50</v>
       </c>
       <c r="I611" t="s">
-        <v>11462</v>
+        <v>50</v>
       </c>
     </row>
     <row r="612">
       <c r="B612" t="s">
-        <v>12107</v>
+        <v>12108</v>
       </c>
       <c r="C612" t="s">
         <v>77</v>
       </c>
       <c r="D612" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E612" t="s">
         <v>45</v>
       </c>
       <c r="F612" t="s">
-        <v>50</v>
+        <v>11512</v>
       </c>
       <c r="G612" t="s">
-        <v>50</v>
+        <v>11512</v>
       </c>
       <c r="H612" t="s">
-        <v>50</v>
+        <v>11512</v>
       </c>
       <c r="I612" t="s">
-        <v>50</v>
+        <v>11512</v>
       </c>
     </row>
     <row r="613">
       <c r="B613" t="s">
-        <v>12108</v>
+        <v>12109</v>
       </c>
       <c r="C613" t="s">
-        <v>77</v>
+        <v>11926</v>
       </c>
       <c r="D613" t="s">
         <v>44</v>
@@ -59769,99 +59772,99 @@
         <v>45</v>
       </c>
       <c r="F613" t="s">
-        <v>11512</v>
+        <v>11930</v>
       </c>
       <c r="G613" t="s">
-        <v>11512</v>
+        <v>47</v>
       </c>
       <c r="H613" t="s">
-        <v>11512</v>
+        <v>47</v>
       </c>
       <c r="I613" t="s">
-        <v>11512</v>
+        <v>47</v>
       </c>
     </row>
     <row r="614">
       <c r="B614" t="s">
-        <v>12109</v>
+        <v>12110</v>
       </c>
       <c r="C614" t="s">
-        <v>11926</v>
+        <v>101</v>
       </c>
       <c r="D614" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E614" t="s">
         <v>45</v>
       </c>
       <c r="F614" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="G614" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H614" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I614" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="615">
       <c r="B615" t="s">
-        <v>12110</v>
+        <v>12111</v>
       </c>
       <c r="C615" t="s">
         <v>101</v>
       </c>
       <c r="D615" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E615" t="s">
         <v>45</v>
       </c>
       <c r="F615" t="s">
-        <v>50</v>
+        <v>11510</v>
       </c>
       <c r="G615" t="s">
-        <v>50</v>
+        <v>11510</v>
       </c>
       <c r="H615" t="s">
-        <v>50</v>
+        <v>11510</v>
       </c>
       <c r="I615" t="s">
-        <v>50</v>
+        <v>11510</v>
       </c>
     </row>
     <row r="616">
       <c r="B616" t="s">
-        <v>12111</v>
+        <v>12114</v>
       </c>
       <c r="C616" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="D616" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E616" t="s">
         <v>45</v>
       </c>
       <c r="F616" t="s">
-        <v>11510</v>
+        <v>2570</v>
       </c>
       <c r="G616" t="s">
-        <v>11510</v>
+        <v>2570</v>
       </c>
       <c r="H616" t="s">
-        <v>11510</v>
+        <v>2570</v>
       </c>
       <c r="I616" t="s">
-        <v>11510</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="617">
       <c r="B617" t="s">
-        <v>12114</v>
+        <v>12115</v>
       </c>
       <c r="C617" t="s">
         <v>77</v>
@@ -59873,21 +59876,21 @@
         <v>45</v>
       </c>
       <c r="F617" t="s">
-        <v>2570</v>
+        <v>2574</v>
       </c>
       <c r="G617" t="s">
-        <v>2570</v>
+        <v>2574</v>
       </c>
       <c r="H617" t="s">
-        <v>2570</v>
+        <v>2574</v>
       </c>
       <c r="I617" t="s">
-        <v>2570</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="618">
       <c r="B618" t="s">
-        <v>12115</v>
+        <v>12116</v>
       </c>
       <c r="C618" t="s">
         <v>77</v>
@@ -59899,21 +59902,21 @@
         <v>45</v>
       </c>
       <c r="F618" t="s">
-        <v>2574</v>
+        <v>12117</v>
       </c>
       <c r="G618" t="s">
-        <v>2574</v>
+        <v>12117</v>
       </c>
       <c r="H618" t="s">
-        <v>2574</v>
+        <v>12117</v>
       </c>
       <c r="I618" t="s">
-        <v>2574</v>
+        <v>12117</v>
       </c>
     </row>
     <row r="619">
       <c r="B619" t="s">
-        <v>12116</v>
+        <v>12120</v>
       </c>
       <c r="C619" t="s">
         <v>77</v>
@@ -59925,21 +59928,21 @@
         <v>45</v>
       </c>
       <c r="F619" t="s">
-        <v>12117</v>
+        <v>2574</v>
       </c>
       <c r="G619" t="s">
-        <v>12117</v>
+        <v>2574</v>
       </c>
       <c r="H619" t="s">
-        <v>12117</v>
+        <v>2574</v>
       </c>
       <c r="I619" t="s">
-        <v>12117</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="620">
       <c r="B620" t="s">
-        <v>12120</v>
+        <v>12121</v>
       </c>
       <c r="C620" t="s">
         <v>77</v>
@@ -59951,21 +59954,21 @@
         <v>45</v>
       </c>
       <c r="F620" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
       <c r="G620" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
       <c r="H620" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
       <c r="I620" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="621">
       <c r="B621" t="s">
-        <v>12121</v>
+        <v>12122</v>
       </c>
       <c r="C621" t="s">
         <v>77</v>
@@ -59977,24 +59980,24 @@
         <v>45</v>
       </c>
       <c r="F621" t="s">
-        <v>2570</v>
+        <v>12123</v>
       </c>
       <c r="G621" t="s">
-        <v>2570</v>
+        <v>12123</v>
       </c>
       <c r="H621" t="s">
-        <v>2570</v>
+        <v>12123</v>
       </c>
       <c r="I621" t="s">
-        <v>2570</v>
+        <v>12123</v>
       </c>
     </row>
     <row r="622">
       <c r="B622" t="s">
-        <v>12122</v>
+        <v>12124</v>
       </c>
       <c r="C622" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D622" t="s">
         <v>49</v>
@@ -60003,21 +60006,21 @@
         <v>45</v>
       </c>
       <c r="F622" t="s">
-        <v>12123</v>
+        <v>2450</v>
       </c>
       <c r="G622" t="s">
-        <v>12123</v>
+        <v>2450</v>
       </c>
       <c r="H622" t="s">
-        <v>12123</v>
+        <v>2450</v>
       </c>
       <c r="I622" t="s">
-        <v>12123</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="623">
       <c r="B623" t="s">
-        <v>12124</v>
+        <v>12125</v>
       </c>
       <c r="C623" t="s">
         <v>78</v>
@@ -60029,24 +60032,24 @@
         <v>45</v>
       </c>
       <c r="F623" t="s">
-        <v>2450</v>
+        <v>12126</v>
       </c>
       <c r="G623" t="s">
-        <v>2450</v>
+        <v>12126</v>
       </c>
       <c r="H623" t="s">
-        <v>2450</v>
+        <v>12126</v>
       </c>
       <c r="I623" t="s">
-        <v>2450</v>
+        <v>12126</v>
       </c>
     </row>
     <row r="624">
       <c r="B624" t="s">
-        <v>12125</v>
+        <v>12127</v>
       </c>
       <c r="C624" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D624" t="s">
         <v>49</v>
@@ -60055,24 +60058,24 @@
         <v>45</v>
       </c>
       <c r="F624" t="s">
-        <v>12126</v>
+        <v>12128</v>
       </c>
       <c r="G624" t="s">
-        <v>12126</v>
+        <v>12128</v>
       </c>
       <c r="H624" t="s">
-        <v>12126</v>
+        <v>12128</v>
       </c>
       <c r="I624" t="s">
-        <v>12126</v>
+        <v>12128</v>
       </c>
     </row>
     <row r="625">
       <c r="B625" t="s">
-        <v>12127</v>
+        <v>12129</v>
       </c>
       <c r="C625" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D625" t="s">
         <v>49</v>
@@ -60081,73 +60084,73 @@
         <v>45</v>
       </c>
       <c r="F625" t="s">
-        <v>12128</v>
+        <v>50</v>
       </c>
       <c r="G625" t="s">
-        <v>12128</v>
+        <v>50</v>
       </c>
       <c r="H625" t="s">
-        <v>12128</v>
+        <v>50</v>
       </c>
       <c r="I625" t="s">
-        <v>12128</v>
+        <v>50</v>
       </c>
     </row>
     <row r="626">
       <c r="B626" t="s">
-        <v>12129</v>
+        <v>12130</v>
       </c>
       <c r="C626" t="s">
         <v>78</v>
       </c>
       <c r="D626" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E626" t="s">
         <v>45</v>
       </c>
       <c r="F626" t="s">
-        <v>50</v>
+        <v>12131</v>
       </c>
       <c r="G626" t="s">
-        <v>50</v>
+        <v>12131</v>
       </c>
       <c r="H626" t="s">
-        <v>50</v>
+        <v>12131</v>
       </c>
       <c r="I626" t="s">
-        <v>50</v>
+        <v>12131</v>
       </c>
     </row>
     <row r="627">
       <c r="B627" t="s">
-        <v>12130</v>
+        <v>12132</v>
       </c>
       <c r="C627" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D627" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E627" t="s">
         <v>45</v>
       </c>
       <c r="F627" t="s">
-        <v>12131</v>
+        <v>2574</v>
       </c>
       <c r="G627" t="s">
-        <v>12131</v>
+        <v>2574</v>
       </c>
       <c r="H627" t="s">
-        <v>12131</v>
+        <v>2574</v>
       </c>
       <c r="I627" t="s">
-        <v>12131</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="628">
       <c r="B628" t="s">
-        <v>12132</v>
+        <v>12133</v>
       </c>
       <c r="C628" t="s">
         <v>77</v>
@@ -60159,21 +60162,21 @@
         <v>45</v>
       </c>
       <c r="F628" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
       <c r="G628" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
       <c r="H628" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
       <c r="I628" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="629">
       <c r="B629" t="s">
-        <v>12133</v>
+        <v>12134</v>
       </c>
       <c r="C629" t="s">
         <v>77</v>
@@ -60185,21 +60188,21 @@
         <v>45</v>
       </c>
       <c r="F629" t="s">
-        <v>2570</v>
+        <v>12135</v>
       </c>
       <c r="G629" t="s">
-        <v>2570</v>
+        <v>12135</v>
       </c>
       <c r="H629" t="s">
-        <v>2570</v>
+        <v>12135</v>
       </c>
       <c r="I629" t="s">
-        <v>2570</v>
+        <v>12135</v>
       </c>
     </row>
     <row r="630">
       <c r="B630" t="s">
-        <v>12134</v>
+        <v>12148</v>
       </c>
       <c r="C630" t="s">
         <v>77</v>
@@ -60211,50 +60214,50 @@
         <v>45</v>
       </c>
       <c r="F630" t="s">
-        <v>12135</v>
+        <v>50</v>
       </c>
       <c r="G630" t="s">
-        <v>12135</v>
+        <v>50</v>
       </c>
       <c r="H630" t="s">
-        <v>12135</v>
+        <v>50</v>
       </c>
       <c r="I630" t="s">
-        <v>12135</v>
+        <v>50</v>
       </c>
     </row>
     <row r="631">
       <c r="B631" t="s">
-        <v>12148</v>
+        <v>12149</v>
       </c>
       <c r="C631" t="s">
         <v>77</v>
       </c>
       <c r="D631" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E631" t="s">
         <v>45</v>
       </c>
       <c r="F631" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="G631" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="H631" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
       <c r="I631" t="s">
-        <v>50</v>
+        <v>11550</v>
       </c>
     </row>
     <row r="632">
       <c r="B632" t="s">
-        <v>12149</v>
+        <v>12150</v>
       </c>
       <c r="C632" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D632" t="s">
         <v>44</v>
@@ -60263,21 +60266,21 @@
         <v>45</v>
       </c>
       <c r="F632" t="s">
-        <v>11550</v>
+        <v>12048</v>
       </c>
       <c r="G632" t="s">
-        <v>11550</v>
+        <v>12048</v>
       </c>
       <c r="H632" t="s">
-        <v>11550</v>
+        <v>12048</v>
       </c>
       <c r="I632" t="s">
-        <v>11550</v>
+        <v>12048</v>
       </c>
     </row>
     <row r="633">
       <c r="B633" t="s">
-        <v>12150</v>
+        <v>12151</v>
       </c>
       <c r="C633" t="s">
         <v>78</v>
@@ -60289,76 +60292,76 @@
         <v>45</v>
       </c>
       <c r="F633" t="s">
-        <v>12048</v>
+        <v>12152</v>
       </c>
       <c r="G633" t="s">
-        <v>12048</v>
+        <v>12152</v>
       </c>
       <c r="H633" t="s">
-        <v>12048</v>
+        <v>12152</v>
       </c>
       <c r="I633" t="s">
-        <v>12048</v>
+        <v>12152</v>
       </c>
     </row>
     <row r="634">
       <c r="B634" t="s">
-        <v>12151</v>
+        <v>12153</v>
       </c>
       <c r="C634" t="s">
         <v>78</v>
       </c>
       <c r="D634" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E634" t="s">
         <v>45</v>
       </c>
       <c r="F634" t="s">
-        <v>12152</v>
+        <v>50</v>
       </c>
       <c r="G634" t="s">
-        <v>12152</v>
+        <v>50</v>
       </c>
       <c r="H634" t="s">
-        <v>12152</v>
+        <v>50</v>
       </c>
       <c r="I634" t="s">
-        <v>12152</v>
+        <v>50</v>
       </c>
     </row>
     <row r="635">
       <c r="B635" t="s">
-        <v>12153</v>
+        <v>12154</v>
       </c>
       <c r="C635" t="s">
         <v>78</v>
       </c>
       <c r="D635" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E635" t="s">
         <v>45</v>
       </c>
       <c r="F635" t="s">
-        <v>50</v>
+        <v>11780</v>
       </c>
       <c r="G635" t="s">
-        <v>50</v>
+        <v>11780</v>
       </c>
       <c r="H635" t="s">
-        <v>50</v>
+        <v>11780</v>
       </c>
       <c r="I635" t="s">
-        <v>50</v>
+        <v>11780</v>
       </c>
     </row>
     <row r="636">
       <c r="B636" t="s">
-        <v>12154</v>
+        <v>12208</v>
       </c>
       <c r="C636" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D636" t="s">
         <v>44</v>
@@ -60367,24 +60370,24 @@
         <v>45</v>
       </c>
       <c r="F636" t="s">
-        <v>11780</v>
+        <v>390</v>
       </c>
       <c r="G636" t="s">
-        <v>11780</v>
+        <v>390</v>
       </c>
       <c r="H636" t="s">
-        <v>11780</v>
+        <v>390</v>
       </c>
       <c r="I636" t="s">
-        <v>11780</v>
+        <v>390</v>
       </c>
     </row>
     <row r="637">
       <c r="B637" t="s">
-        <v>12208</v>
+        <v>12209</v>
       </c>
       <c r="C637" t="s">
-        <v>38</v>
+        <v>11926</v>
       </c>
       <c r="D637" t="s">
         <v>44</v>
@@ -60393,50 +60396,50 @@
         <v>45</v>
       </c>
       <c r="F637" t="s">
-        <v>390</v>
+        <v>11930</v>
       </c>
       <c r="G637" t="s">
-        <v>390</v>
+        <v>11930</v>
       </c>
       <c r="H637" t="s">
-        <v>390</v>
+        <v>11930</v>
       </c>
       <c r="I637" t="s">
-        <v>390</v>
+        <v>11930</v>
       </c>
     </row>
     <row r="638">
       <c r="B638" t="s">
-        <v>12209</v>
+        <v>12210</v>
       </c>
       <c r="C638" t="s">
-        <v>11926</v>
+        <v>38</v>
       </c>
       <c r="D638" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E638" t="s">
         <v>45</v>
       </c>
       <c r="F638" t="s">
-        <v>11930</v>
+        <v>11459</v>
       </c>
       <c r="G638" t="s">
-        <v>11930</v>
+        <v>47</v>
       </c>
       <c r="H638" t="s">
-        <v>11930</v>
+        <v>47</v>
       </c>
       <c r="I638" t="s">
-        <v>11930</v>
+        <v>47</v>
       </c>
     </row>
     <row r="639">
       <c r="B639" t="s">
-        <v>12210</v>
+        <v>12226</v>
       </c>
       <c r="C639" t="s">
-        <v>38</v>
+        <v>11926</v>
       </c>
       <c r="D639" t="s">
         <v>49</v>
@@ -60445,76 +60448,76 @@
         <v>45</v>
       </c>
       <c r="F639" t="s">
-        <v>11459</v>
+        <v>50</v>
       </c>
       <c r="G639" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H639" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I639" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="640">
       <c r="B640" t="s">
-        <v>12226</v>
+        <v>12227</v>
       </c>
       <c r="C640" t="s">
         <v>11926</v>
       </c>
       <c r="D640" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E640" t="s">
         <v>45</v>
       </c>
       <c r="F640" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
       <c r="G640" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
       <c r="H640" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
       <c r="I640" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
     </row>
     <row r="641">
       <c r="B641" t="s">
-        <v>12227</v>
+        <v>12228</v>
       </c>
       <c r="C641" t="s">
-        <v>11926</v>
+        <v>38</v>
       </c>
       <c r="D641" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E641" t="s">
         <v>45</v>
       </c>
       <c r="F641" t="s">
-        <v>11930</v>
+        <v>11459</v>
       </c>
       <c r="G641" t="s">
-        <v>11930</v>
+        <v>47</v>
       </c>
       <c r="H641" t="s">
-        <v>11930</v>
+        <v>47</v>
       </c>
       <c r="I641" t="s">
-        <v>11930</v>
+        <v>47</v>
       </c>
     </row>
     <row r="642">
       <c r="B642" t="s">
-        <v>12228</v>
+        <v>12229</v>
       </c>
       <c r="C642" t="s">
-        <v>38</v>
+        <v>11926</v>
       </c>
       <c r="D642" t="s">
         <v>49</v>
@@ -60523,73 +60526,73 @@
         <v>45</v>
       </c>
       <c r="F642" t="s">
-        <v>11459</v>
+        <v>50</v>
       </c>
       <c r="G642" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H642" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I642" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="643">
       <c r="B643" t="s">
-        <v>12229</v>
+        <v>12230</v>
       </c>
       <c r="C643" t="s">
         <v>11926</v>
       </c>
       <c r="D643" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E643" t="s">
         <v>45</v>
       </c>
       <c r="F643" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
       <c r="G643" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
       <c r="H643" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
       <c r="I643" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
     </row>
     <row r="644">
       <c r="B644" t="s">
-        <v>12230</v>
+        <v>12231</v>
       </c>
       <c r="C644" t="s">
-        <v>11926</v>
+        <v>77</v>
       </c>
       <c r="D644" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E644" t="s">
         <v>45</v>
       </c>
       <c r="F644" t="s">
-        <v>11930</v>
+        <v>2574</v>
       </c>
       <c r="G644" t="s">
-        <v>11930</v>
+        <v>2574</v>
       </c>
       <c r="H644" t="s">
-        <v>11930</v>
+        <v>2574</v>
       </c>
       <c r="I644" t="s">
-        <v>11930</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="645">
       <c r="B645" t="s">
-        <v>12231</v>
+        <v>12232</v>
       </c>
       <c r="C645" t="s">
         <v>77</v>
@@ -60601,21 +60604,21 @@
         <v>45</v>
       </c>
       <c r="F645" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
       <c r="G645" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
       <c r="H645" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
       <c r="I645" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="646">
       <c r="B646" t="s">
-        <v>12232</v>
+        <v>12233</v>
       </c>
       <c r="C646" t="s">
         <v>77</v>
@@ -60627,24 +60630,24 @@
         <v>45</v>
       </c>
       <c r="F646" t="s">
-        <v>2570</v>
+        <v>12117</v>
       </c>
       <c r="G646" t="s">
-        <v>2570</v>
+        <v>12117</v>
       </c>
       <c r="H646" t="s">
-        <v>2570</v>
+        <v>12117</v>
       </c>
       <c r="I646" t="s">
-        <v>2570</v>
+        <v>12117</v>
       </c>
     </row>
     <row r="647">
       <c r="B647" t="s">
-        <v>12233</v>
+        <v>12234</v>
       </c>
       <c r="C647" t="s">
-        <v>77</v>
+        <v>11926</v>
       </c>
       <c r="D647" t="s">
         <v>49</v>
@@ -60653,206 +60656,206 @@
         <v>45</v>
       </c>
       <c r="F647" t="s">
-        <v>12117</v>
+        <v>50</v>
       </c>
       <c r="G647" t="s">
-        <v>12117</v>
+        <v>50</v>
       </c>
       <c r="H647" t="s">
-        <v>12117</v>
+        <v>50</v>
       </c>
       <c r="I647" t="s">
-        <v>12117</v>
+        <v>50</v>
       </c>
     </row>
     <row r="648">
       <c r="B648" t="s">
-        <v>12234</v>
+        <v>12235</v>
       </c>
       <c r="C648" t="s">
         <v>11926</v>
       </c>
       <c r="D648" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E648" t="s">
         <v>45</v>
       </c>
       <c r="F648" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
       <c r="G648" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
       <c r="H648" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
       <c r="I648" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
     </row>
     <row r="649">
       <c r="B649" t="s">
-        <v>12235</v>
+        <v>12236</v>
       </c>
       <c r="C649" t="s">
         <v>11926</v>
       </c>
       <c r="D649" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E649" t="s">
         <v>45</v>
       </c>
       <c r="F649" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="G649" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="H649" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="I649" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
     </row>
     <row r="650">
       <c r="B650" t="s">
-        <v>12236</v>
+        <v>12237</v>
       </c>
       <c r="C650" t="s">
         <v>11926</v>
       </c>
       <c r="D650" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E650" t="s">
         <v>45</v>
       </c>
       <c r="F650" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
       <c r="G650" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
       <c r="H650" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
       <c r="I650" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
     </row>
     <row r="651">
       <c r="B651" t="s">
-        <v>12237</v>
+        <v>12238</v>
       </c>
       <c r="C651" t="s">
         <v>11926</v>
       </c>
       <c r="D651" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E651" t="s">
         <v>45</v>
       </c>
       <c r="F651" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="G651" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="H651" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="I651" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
     </row>
     <row r="652">
       <c r="B652" t="s">
-        <v>12238</v>
+        <v>12239</v>
       </c>
       <c r="C652" t="s">
         <v>11926</v>
       </c>
       <c r="D652" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E652" t="s">
         <v>45</v>
       </c>
       <c r="F652" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
       <c r="G652" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
       <c r="H652" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
       <c r="I652" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
     </row>
     <row r="653">
       <c r="B653" t="s">
-        <v>12239</v>
+        <v>12240</v>
       </c>
       <c r="C653" t="s">
         <v>11926</v>
       </c>
       <c r="D653" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E653" t="s">
         <v>45</v>
       </c>
       <c r="F653" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="G653" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="H653" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="I653" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
     </row>
     <row r="654">
       <c r="B654" t="s">
-        <v>12240</v>
+        <v>12241</v>
       </c>
       <c r="C654" t="s">
         <v>11926</v>
       </c>
       <c r="D654" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E654" t="s">
         <v>45</v>
       </c>
       <c r="F654" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
       <c r="G654" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
       <c r="H654" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
       <c r="I654" t="s">
-        <v>50</v>
+        <v>11930</v>
       </c>
     </row>
     <row r="655">
       <c r="B655" t="s">
-        <v>12241</v>
+        <v>12250</v>
       </c>
       <c r="C655" t="s">
-        <v>11926</v>
+        <v>78</v>
       </c>
       <c r="D655" t="s">
         <v>44</v>
@@ -60861,47 +60864,47 @@
         <v>45</v>
       </c>
       <c r="F655" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="G655" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="H655" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="I655" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
     </row>
     <row r="656">
       <c r="B656" t="s">
-        <v>12250</v>
+        <v>12251</v>
       </c>
       <c r="C656" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D656" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E656" t="s">
         <v>45</v>
       </c>
       <c r="F656" t="s">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="G656" t="s">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="H656" t="s">
-        <v>50</v>
+        <v>235</v>
       </c>
       <c r="I656" t="s">
-        <v>50</v>
+        <v>235</v>
       </c>
     </row>
     <row r="657">
       <c r="B657" t="s">
-        <v>12251</v>
+        <v>12252</v>
       </c>
       <c r="C657" t="s">
         <v>38</v>
@@ -60927,7 +60930,7 @@
     </row>
     <row r="658">
       <c r="B658" t="s">
-        <v>12252</v>
+        <v>12253</v>
       </c>
       <c r="C658" t="s">
         <v>38</v>
@@ -60953,7 +60956,7 @@
     </row>
     <row r="659">
       <c r="B659" t="s">
-        <v>12253</v>
+        <v>12254</v>
       </c>
       <c r="C659" t="s">
         <v>38</v>
@@ -60979,7 +60982,7 @@
     </row>
     <row r="660">
       <c r="B660" t="s">
-        <v>12254</v>
+        <v>12255</v>
       </c>
       <c r="C660" t="s">
         <v>38</v>
@@ -61005,7 +61008,7 @@
     </row>
     <row r="661">
       <c r="B661" t="s">
-        <v>12255</v>
+        <v>12256</v>
       </c>
       <c r="C661" t="s">
         <v>38</v>
@@ -61031,7 +61034,7 @@
     </row>
     <row r="662">
       <c r="B662" t="s">
-        <v>12256</v>
+        <v>12257</v>
       </c>
       <c r="C662" t="s">
         <v>38</v>
@@ -61057,7 +61060,7 @@
     </row>
     <row r="663">
       <c r="B663" t="s">
-        <v>12257</v>
+        <v>12258</v>
       </c>
       <c r="C663" t="s">
         <v>38</v>
@@ -61083,7 +61086,7 @@
     </row>
     <row r="664">
       <c r="B664" t="s">
-        <v>12258</v>
+        <v>12259</v>
       </c>
       <c r="C664" t="s">
         <v>38</v>
@@ -61109,7 +61112,7 @@
     </row>
     <row r="665">
       <c r="B665" t="s">
-        <v>12259</v>
+        <v>12260</v>
       </c>
       <c r="C665" t="s">
         <v>38</v>
@@ -61135,13 +61138,13 @@
     </row>
     <row r="666">
       <c r="B666" t="s">
-        <v>12260</v>
+        <v>12261</v>
       </c>
       <c r="C666" t="s">
         <v>38</v>
       </c>
       <c r="D666" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E666" t="s">
         <v>45</v>
@@ -61161,7 +61164,7 @@
     </row>
     <row r="667">
       <c r="B667" t="s">
-        <v>12261</v>
+        <v>12262</v>
       </c>
       <c r="C667" t="s">
         <v>38</v>
@@ -61187,7 +61190,7 @@
     </row>
     <row r="668">
       <c r="B668" t="s">
-        <v>12262</v>
+        <v>12263</v>
       </c>
       <c r="C668" t="s">
         <v>38</v>
@@ -61213,7 +61216,7 @@
     </row>
     <row r="669">
       <c r="B669" t="s">
-        <v>12263</v>
+        <v>12264</v>
       </c>
       <c r="C669" t="s">
         <v>38</v>
@@ -61239,7 +61242,7 @@
     </row>
     <row r="670">
       <c r="B670" t="s">
-        <v>12264</v>
+        <v>12265</v>
       </c>
       <c r="C670" t="s">
         <v>38</v>
@@ -61265,7 +61268,7 @@
     </row>
     <row r="671">
       <c r="B671" t="s">
-        <v>12265</v>
+        <v>12266</v>
       </c>
       <c r="C671" t="s">
         <v>38</v>
@@ -61291,7 +61294,7 @@
     </row>
     <row r="672">
       <c r="B672" t="s">
-        <v>12266</v>
+        <v>12267</v>
       </c>
       <c r="C672" t="s">
         <v>38</v>
@@ -61317,7 +61320,7 @@
     </row>
     <row r="673">
       <c r="B673" t="s">
-        <v>12267</v>
+        <v>12268</v>
       </c>
       <c r="C673" t="s">
         <v>38</v>
@@ -61343,7 +61346,7 @@
     </row>
     <row r="674">
       <c r="B674" t="s">
-        <v>12268</v>
+        <v>12269</v>
       </c>
       <c r="C674" t="s">
         <v>38</v>
@@ -61369,7 +61372,7 @@
     </row>
     <row r="675">
       <c r="B675" t="s">
-        <v>12269</v>
+        <v>12270</v>
       </c>
       <c r="C675" t="s">
         <v>38</v>
@@ -61395,7 +61398,7 @@
     </row>
     <row r="676">
       <c r="B676" t="s">
-        <v>12270</v>
+        <v>12271</v>
       </c>
       <c r="C676" t="s">
         <v>38</v>
@@ -61421,7 +61424,7 @@
     </row>
     <row r="677">
       <c r="B677" t="s">
-        <v>12271</v>
+        <v>12272</v>
       </c>
       <c r="C677" t="s">
         <v>38</v>
@@ -61447,7 +61450,7 @@
     </row>
     <row r="678">
       <c r="B678" t="s">
-        <v>12272</v>
+        <v>12273</v>
       </c>
       <c r="C678" t="s">
         <v>38</v>
@@ -61473,7 +61476,7 @@
     </row>
     <row r="679">
       <c r="B679" t="s">
-        <v>12273</v>
+        <v>12274</v>
       </c>
       <c r="C679" t="s">
         <v>38</v>
@@ -61499,7 +61502,7 @@
     </row>
     <row r="680">
       <c r="B680" t="s">
-        <v>12274</v>
+        <v>12275</v>
       </c>
       <c r="C680" t="s">
         <v>38</v>
@@ -61525,7 +61528,7 @@
     </row>
     <row r="681">
       <c r="B681" t="s">
-        <v>12275</v>
+        <v>12276</v>
       </c>
       <c r="C681" t="s">
         <v>38</v>
@@ -61551,7 +61554,7 @@
     </row>
     <row r="682">
       <c r="B682" t="s">
-        <v>12276</v>
+        <v>12277</v>
       </c>
       <c r="C682" t="s">
         <v>38</v>
@@ -61577,7 +61580,7 @@
     </row>
     <row r="683">
       <c r="B683" t="s">
-        <v>12277</v>
+        <v>12278</v>
       </c>
       <c r="C683" t="s">
         <v>38</v>
@@ -61603,7 +61606,7 @@
     </row>
     <row r="684">
       <c r="B684" t="s">
-        <v>12278</v>
+        <v>12279</v>
       </c>
       <c r="C684" t="s">
         <v>38</v>
@@ -61629,33 +61632,33 @@
     </row>
     <row r="685">
       <c r="B685" t="s">
-        <v>12279</v>
+        <v>12280</v>
       </c>
       <c r="C685" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D685" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E685" t="s">
         <v>45</v>
       </c>
       <c r="F685" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G685" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H685" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="I685" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="686">
       <c r="B686" t="s">
-        <v>12280</v>
+        <v>12281</v>
       </c>
       <c r="C686" t="s">
         <v>41</v>
@@ -61667,21 +61670,21 @@
         <v>45</v>
       </c>
       <c r="F686" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G686" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H686" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I686" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="687">
       <c r="B687" t="s">
-        <v>12281</v>
+        <v>12283</v>
       </c>
       <c r="C687" t="s">
         <v>41</v>
@@ -61693,50 +61696,50 @@
         <v>45</v>
       </c>
       <c r="F687" t="s">
-        <v>238</v>
+        <v>12284</v>
       </c>
       <c r="G687" t="s">
-        <v>238</v>
+        <v>12284</v>
       </c>
       <c r="H687" t="s">
-        <v>238</v>
+        <v>12284</v>
       </c>
       <c r="I687" t="s">
-        <v>238</v>
+        <v>12284</v>
       </c>
     </row>
     <row r="688">
       <c r="B688" t="s">
-        <v>12283</v>
+        <v>12286</v>
       </c>
       <c r="C688" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D688" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E688" t="s">
         <v>45</v>
       </c>
       <c r="F688" t="s">
-        <v>12284</v>
+        <v>1294</v>
       </c>
       <c r="G688" t="s">
-        <v>12284</v>
+        <v>12048</v>
       </c>
       <c r="H688" t="s">
-        <v>12284</v>
+        <v>12048</v>
       </c>
       <c r="I688" t="s">
-        <v>12284</v>
+        <v>12048</v>
       </c>
     </row>
     <row r="689">
       <c r="B689" t="s">
-        <v>12285</v>
+        <v>12291</v>
       </c>
       <c r="C689" t="s">
-        <v>1594</v>
+        <v>38</v>
       </c>
       <c r="D689" t="s">
         <v>44</v>
@@ -61745,24 +61748,24 @@
         <v>45</v>
       </c>
       <c r="F689" t="s">
-        <v>1294</v>
+        <v>50</v>
       </c>
       <c r="G689" t="s">
-        <v>1294</v>
+        <v>50</v>
       </c>
       <c r="H689" t="s">
-        <v>1294</v>
+        <v>50</v>
       </c>
       <c r="I689" t="s">
-        <v>1294</v>
+        <v>50</v>
       </c>
     </row>
     <row r="690">
       <c r="B690" t="s">
-        <v>12286</v>
+        <v>12293</v>
       </c>
       <c r="C690" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D690" t="s">
         <v>44</v>
@@ -61771,47 +61774,47 @@
         <v>45</v>
       </c>
       <c r="F690" t="s">
-        <v>1294</v>
+        <v>390</v>
       </c>
       <c r="G690" t="s">
-        <v>12048</v>
+        <v>284</v>
       </c>
       <c r="H690" t="s">
-        <v>12048</v>
+        <v>284</v>
       </c>
       <c r="I690" t="s">
-        <v>12048</v>
+        <v>284</v>
       </c>
     </row>
     <row r="691">
       <c r="B691" t="s">
-        <v>12289</v>
+        <v>12299</v>
       </c>
       <c r="C691" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D691" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E691" t="s">
         <v>45</v>
       </c>
       <c r="F691" t="s">
-        <v>12294</v>
+        <v>50</v>
       </c>
       <c r="G691" t="s">
-        <v>12102</v>
+        <v>50</v>
       </c>
       <c r="H691" t="s">
-        <v>12102</v>
+        <v>50</v>
       </c>
       <c r="I691" t="s">
-        <v>12102</v>
+        <v>50</v>
       </c>
     </row>
     <row r="692">
       <c r="B692" t="s">
-        <v>12291</v>
+        <v>12300</v>
       </c>
       <c r="C692" t="s">
         <v>38</v>
@@ -61823,21 +61826,21 @@
         <v>45</v>
       </c>
       <c r="F692" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G692" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H692" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I692" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="693">
       <c r="B693" t="s">
-        <v>12293</v>
+        <v>12303</v>
       </c>
       <c r="C693" t="s">
         <v>38</v>
@@ -61849,21 +61852,21 @@
         <v>45</v>
       </c>
       <c r="F693" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G693" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H693" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I693" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="694">
       <c r="B694" t="s">
-        <v>12299</v>
+        <v>12304</v>
       </c>
       <c r="C694" t="s">
         <v>38</v>
@@ -61875,21 +61878,21 @@
         <v>45</v>
       </c>
       <c r="F694" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G694" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H694" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I694" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="695">
       <c r="B695" t="s">
-        <v>12300</v>
+        <v>12305</v>
       </c>
       <c r="C695" t="s">
         <v>38</v>
@@ -61901,21 +61904,21 @@
         <v>45</v>
       </c>
       <c r="F695" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G695" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H695" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I695" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="696">
       <c r="B696" t="s">
-        <v>12303</v>
+        <v>12306</v>
       </c>
       <c r="C696" t="s">
         <v>38</v>
@@ -61927,21 +61930,21 @@
         <v>45</v>
       </c>
       <c r="F696" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G696" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H696" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I696" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="697">
       <c r="B697" t="s">
-        <v>12304</v>
+        <v>12307</v>
       </c>
       <c r="C697" t="s">
         <v>38</v>
@@ -61953,21 +61956,21 @@
         <v>45</v>
       </c>
       <c r="F697" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G697" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H697" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I697" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="698">
       <c r="B698" t="s">
-        <v>12305</v>
+        <v>12308</v>
       </c>
       <c r="C698" t="s">
         <v>38</v>
@@ -61979,21 +61982,21 @@
         <v>45</v>
       </c>
       <c r="F698" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G698" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H698" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I698" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="699">
       <c r="B699" t="s">
-        <v>12306</v>
+        <v>12309</v>
       </c>
       <c r="C699" t="s">
         <v>38</v>
@@ -62005,21 +62008,21 @@
         <v>45</v>
       </c>
       <c r="F699" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G699" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H699" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I699" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="700">
       <c r="B700" t="s">
-        <v>12307</v>
+        <v>12310</v>
       </c>
       <c r="C700" t="s">
         <v>38</v>
@@ -62031,21 +62034,21 @@
         <v>45</v>
       </c>
       <c r="F700" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G700" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H700" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I700" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="701">
       <c r="B701" t="s">
-        <v>12308</v>
+        <v>12311</v>
       </c>
       <c r="C701" t="s">
         <v>38</v>
@@ -62057,21 +62060,21 @@
         <v>45</v>
       </c>
       <c r="F701" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G701" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H701" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I701" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="702">
       <c r="B702" t="s">
-        <v>12309</v>
+        <v>12312</v>
       </c>
       <c r="C702" t="s">
         <v>38</v>
@@ -62083,21 +62086,21 @@
         <v>45</v>
       </c>
       <c r="F702" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G702" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H702" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I702" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="703">
       <c r="B703" t="s">
-        <v>12310</v>
+        <v>12313</v>
       </c>
       <c r="C703" t="s">
         <v>38</v>
@@ -62109,21 +62112,21 @@
         <v>45</v>
       </c>
       <c r="F703" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G703" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H703" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I703" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="704">
       <c r="B704" t="s">
-        <v>12311</v>
+        <v>12314</v>
       </c>
       <c r="C704" t="s">
         <v>38</v>
@@ -62135,21 +62138,21 @@
         <v>45</v>
       </c>
       <c r="F704" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G704" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H704" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I704" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="705">
       <c r="B705" t="s">
-        <v>12312</v>
+        <v>12315</v>
       </c>
       <c r="C705" t="s">
         <v>38</v>
@@ -62161,21 +62164,21 @@
         <v>45</v>
       </c>
       <c r="F705" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G705" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H705" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I705" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="706">
       <c r="B706" t="s">
-        <v>12313</v>
+        <v>12316</v>
       </c>
       <c r="C706" t="s">
         <v>38</v>
@@ -62187,21 +62190,21 @@
         <v>45</v>
       </c>
       <c r="F706" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G706" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H706" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I706" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="707">
       <c r="B707" t="s">
-        <v>12314</v>
+        <v>12317</v>
       </c>
       <c r="C707" t="s">
         <v>38</v>
@@ -62213,21 +62216,21 @@
         <v>45</v>
       </c>
       <c r="F707" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G707" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H707" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I707" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="708">
       <c r="B708" t="s">
-        <v>12315</v>
+        <v>12318</v>
       </c>
       <c r="C708" t="s">
         <v>38</v>
@@ -62239,21 +62242,21 @@
         <v>45</v>
       </c>
       <c r="F708" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G708" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H708" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I708" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="709">
       <c r="B709" t="s">
-        <v>12316</v>
+        <v>12319</v>
       </c>
       <c r="C709" t="s">
         <v>38</v>
@@ -62265,21 +62268,21 @@
         <v>45</v>
       </c>
       <c r="F709" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G709" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H709" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I709" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="710">
       <c r="B710" t="s">
-        <v>12317</v>
+        <v>12320</v>
       </c>
       <c r="C710" t="s">
         <v>38</v>
@@ -62291,21 +62294,21 @@
         <v>45</v>
       </c>
       <c r="F710" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G710" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H710" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I710" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="711">
       <c r="B711" t="s">
-        <v>12318</v>
+        <v>12321</v>
       </c>
       <c r="C711" t="s">
         <v>38</v>
@@ -62317,21 +62320,21 @@
         <v>45</v>
       </c>
       <c r="F711" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G711" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H711" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I711" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="712">
       <c r="B712" t="s">
-        <v>12319</v>
+        <v>12322</v>
       </c>
       <c r="C712" t="s">
         <v>38</v>
@@ -62343,21 +62346,21 @@
         <v>45</v>
       </c>
       <c r="F712" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G712" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H712" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I712" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="713">
       <c r="B713" t="s">
-        <v>12320</v>
+        <v>12323</v>
       </c>
       <c r="C713" t="s">
         <v>38</v>
@@ -62369,21 +62372,21 @@
         <v>45</v>
       </c>
       <c r="F713" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G713" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H713" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I713" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="714">
       <c r="B714" t="s">
-        <v>12321</v>
+        <v>12324</v>
       </c>
       <c r="C714" t="s">
         <v>38</v>
@@ -62395,21 +62398,21 @@
         <v>45</v>
       </c>
       <c r="F714" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G714" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H714" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I714" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="715">
       <c r="B715" t="s">
-        <v>12322</v>
+        <v>12325</v>
       </c>
       <c r="C715" t="s">
         <v>38</v>
@@ -62421,21 +62424,21 @@
         <v>45</v>
       </c>
       <c r="F715" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G715" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H715" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I715" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="716">
       <c r="B716" t="s">
-        <v>12323</v>
+        <v>12326</v>
       </c>
       <c r="C716" t="s">
         <v>38</v>
@@ -62447,21 +62450,21 @@
         <v>45</v>
       </c>
       <c r="F716" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G716" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H716" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I716" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="717">
       <c r="B717" t="s">
-        <v>12324</v>
+        <v>12327</v>
       </c>
       <c r="C717" t="s">
         <v>38</v>
@@ -62473,21 +62476,21 @@
         <v>45</v>
       </c>
       <c r="F717" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G717" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H717" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I717" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="718">
       <c r="B718" t="s">
-        <v>12325</v>
+        <v>12328</v>
       </c>
       <c r="C718" t="s">
         <v>38</v>
@@ -62499,21 +62502,21 @@
         <v>45</v>
       </c>
       <c r="F718" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G718" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H718" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I718" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="719">
       <c r="B719" t="s">
-        <v>12326</v>
+        <v>12329</v>
       </c>
       <c r="C719" t="s">
         <v>38</v>
@@ -62525,21 +62528,21 @@
         <v>45</v>
       </c>
       <c r="F719" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G719" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H719" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I719" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="720">
       <c r="B720" t="s">
-        <v>12327</v>
+        <v>12330</v>
       </c>
       <c r="C720" t="s">
         <v>38</v>
@@ -62551,21 +62554,21 @@
         <v>45</v>
       </c>
       <c r="F720" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G720" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H720" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I720" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="721">
       <c r="B721" t="s">
-        <v>12328</v>
+        <v>12331</v>
       </c>
       <c r="C721" t="s">
         <v>38</v>
@@ -62577,21 +62580,21 @@
         <v>45</v>
       </c>
       <c r="F721" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G721" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H721" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I721" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="722">
       <c r="B722" t="s">
-        <v>12329</v>
+        <v>12332</v>
       </c>
       <c r="C722" t="s">
         <v>38</v>
@@ -62603,21 +62606,21 @@
         <v>45</v>
       </c>
       <c r="F722" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G722" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H722" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I722" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="723">
       <c r="B723" t="s">
-        <v>12330</v>
+        <v>12333</v>
       </c>
       <c r="C723" t="s">
         <v>38</v>
@@ -62629,21 +62632,21 @@
         <v>45</v>
       </c>
       <c r="F723" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G723" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H723" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I723" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="724">
       <c r="B724" t="s">
-        <v>12331</v>
+        <v>12334</v>
       </c>
       <c r="C724" t="s">
         <v>38</v>
@@ -62655,21 +62658,21 @@
         <v>45</v>
       </c>
       <c r="F724" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G724" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H724" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I724" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="725">
       <c r="B725" t="s">
-        <v>12332</v>
+        <v>12335</v>
       </c>
       <c r="C725" t="s">
         <v>38</v>
@@ -62681,21 +62684,21 @@
         <v>45</v>
       </c>
       <c r="F725" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G725" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H725" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I725" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="726">
       <c r="B726" t="s">
-        <v>12333</v>
+        <v>12336</v>
       </c>
       <c r="C726" t="s">
         <v>38</v>
@@ -62707,21 +62710,21 @@
         <v>45</v>
       </c>
       <c r="F726" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G726" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H726" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I726" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="727">
       <c r="B727" t="s">
-        <v>12334</v>
+        <v>12337</v>
       </c>
       <c r="C727" t="s">
         <v>38</v>
@@ -62733,21 +62736,21 @@
         <v>45</v>
       </c>
       <c r="F727" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G727" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H727" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I727" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="728">
       <c r="B728" t="s">
-        <v>12335</v>
+        <v>12338</v>
       </c>
       <c r="C728" t="s">
         <v>38</v>
@@ -62759,21 +62762,21 @@
         <v>45</v>
       </c>
       <c r="F728" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G728" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H728" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I728" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="729">
       <c r="B729" t="s">
-        <v>12336</v>
+        <v>12339</v>
       </c>
       <c r="C729" t="s">
         <v>38</v>
@@ -62785,21 +62788,21 @@
         <v>45</v>
       </c>
       <c r="F729" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G729" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H729" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I729" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="730">
       <c r="B730" t="s">
-        <v>12337</v>
+        <v>12340</v>
       </c>
       <c r="C730" t="s">
         <v>38</v>
@@ -62811,21 +62814,21 @@
         <v>45</v>
       </c>
       <c r="F730" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G730" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H730" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I730" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="731">
       <c r="B731" t="s">
-        <v>12338</v>
+        <v>12341</v>
       </c>
       <c r="C731" t="s">
         <v>38</v>
@@ -62837,21 +62840,21 @@
         <v>45</v>
       </c>
       <c r="F731" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G731" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H731" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I731" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="732">
       <c r="B732" t="s">
-        <v>12339</v>
+        <v>12342</v>
       </c>
       <c r="C732" t="s">
         <v>38</v>
@@ -62863,21 +62866,21 @@
         <v>45</v>
       </c>
       <c r="F732" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G732" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H732" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I732" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="733">
       <c r="B733" t="s">
-        <v>12340</v>
+        <v>12343</v>
       </c>
       <c r="C733" t="s">
         <v>38</v>
@@ -62889,21 +62892,21 @@
         <v>45</v>
       </c>
       <c r="F733" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G733" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H733" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I733" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="734">
       <c r="B734" t="s">
-        <v>12341</v>
+        <v>12344</v>
       </c>
       <c r="C734" t="s">
         <v>38</v>
@@ -62915,21 +62918,21 @@
         <v>45</v>
       </c>
       <c r="F734" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G734" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H734" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I734" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="735">
       <c r="B735" t="s">
-        <v>12342</v>
+        <v>12345</v>
       </c>
       <c r="C735" t="s">
         <v>38</v>
@@ -62941,21 +62944,21 @@
         <v>45</v>
       </c>
       <c r="F735" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G735" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H735" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I735" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="736">
       <c r="B736" t="s">
-        <v>12343</v>
+        <v>12346</v>
       </c>
       <c r="C736" t="s">
         <v>38</v>
@@ -62967,21 +62970,21 @@
         <v>45</v>
       </c>
       <c r="F736" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G736" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H736" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I736" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="737">
       <c r="B737" t="s">
-        <v>12344</v>
+        <v>12347</v>
       </c>
       <c r="C737" t="s">
         <v>38</v>
@@ -62993,21 +62996,21 @@
         <v>45</v>
       </c>
       <c r="F737" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G737" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H737" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I737" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="738">
       <c r="B738" t="s">
-        <v>12345</v>
+        <v>12348</v>
       </c>
       <c r="C738" t="s">
         <v>38</v>
@@ -63019,21 +63022,21 @@
         <v>45</v>
       </c>
       <c r="F738" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G738" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H738" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I738" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="739">
       <c r="B739" t="s">
-        <v>12346</v>
+        <v>12349</v>
       </c>
       <c r="C739" t="s">
         <v>38</v>
@@ -63045,21 +63048,21 @@
         <v>45</v>
       </c>
       <c r="F739" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G739" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H739" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I739" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="740">
       <c r="B740" t="s">
-        <v>12347</v>
+        <v>12350</v>
       </c>
       <c r="C740" t="s">
         <v>38</v>
@@ -63071,21 +63074,21 @@
         <v>45</v>
       </c>
       <c r="F740" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G740" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H740" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I740" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="741">
       <c r="B741" t="s">
-        <v>12348</v>
+        <v>12351</v>
       </c>
       <c r="C741" t="s">
         <v>38</v>
@@ -63097,21 +63100,21 @@
         <v>45</v>
       </c>
       <c r="F741" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G741" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H741" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I741" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="742">
       <c r="B742" t="s">
-        <v>12349</v>
+        <v>12352</v>
       </c>
       <c r="C742" t="s">
         <v>38</v>
@@ -63123,21 +63126,21 @@
         <v>45</v>
       </c>
       <c r="F742" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G742" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H742" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I742" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="743">
       <c r="B743" t="s">
-        <v>12350</v>
+        <v>12353</v>
       </c>
       <c r="C743" t="s">
         <v>38</v>
@@ -63149,21 +63152,21 @@
         <v>45</v>
       </c>
       <c r="F743" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G743" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H743" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I743" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="744">
       <c r="B744" t="s">
-        <v>12351</v>
+        <v>12354</v>
       </c>
       <c r="C744" t="s">
         <v>38</v>
@@ -63175,21 +63178,21 @@
         <v>45</v>
       </c>
       <c r="F744" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G744" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H744" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I744" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="745">
       <c r="B745" t="s">
-        <v>12352</v>
+        <v>12355</v>
       </c>
       <c r="C745" t="s">
         <v>38</v>
@@ -63201,21 +63204,21 @@
         <v>45</v>
       </c>
       <c r="F745" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G745" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H745" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I745" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="746">
       <c r="B746" t="s">
-        <v>12353</v>
+        <v>12356</v>
       </c>
       <c r="C746" t="s">
         <v>38</v>
@@ -63227,21 +63230,21 @@
         <v>45</v>
       </c>
       <c r="F746" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G746" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H746" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I746" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="747">
       <c r="B747" t="s">
-        <v>12354</v>
+        <v>12357</v>
       </c>
       <c r="C747" t="s">
         <v>38</v>
@@ -63253,21 +63256,21 @@
         <v>45</v>
       </c>
       <c r="F747" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G747" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H747" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I747" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="748">
       <c r="B748" t="s">
-        <v>12355</v>
+        <v>12358</v>
       </c>
       <c r="C748" t="s">
         <v>38</v>
@@ -63279,21 +63282,21 @@
         <v>45</v>
       </c>
       <c r="F748" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G748" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H748" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I748" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="749">
       <c r="B749" t="s">
-        <v>12356</v>
+        <v>12359</v>
       </c>
       <c r="C749" t="s">
         <v>38</v>
@@ -63305,21 +63308,21 @@
         <v>45</v>
       </c>
       <c r="F749" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G749" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H749" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I749" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="750">
       <c r="B750" t="s">
-        <v>12357</v>
+        <v>12360</v>
       </c>
       <c r="C750" t="s">
         <v>38</v>
@@ -63331,21 +63334,21 @@
         <v>45</v>
       </c>
       <c r="F750" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G750" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H750" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I750" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="751">
       <c r="B751" t="s">
-        <v>12358</v>
+        <v>12361</v>
       </c>
       <c r="C751" t="s">
         <v>38</v>
@@ -63357,21 +63360,21 @@
         <v>45</v>
       </c>
       <c r="F751" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G751" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H751" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I751" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="752">
       <c r="B752" t="s">
-        <v>12359</v>
+        <v>12362</v>
       </c>
       <c r="C752" t="s">
         <v>38</v>
@@ -63383,21 +63386,21 @@
         <v>45</v>
       </c>
       <c r="F752" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G752" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H752" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I752" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="753">
       <c r="B753" t="s">
-        <v>12360</v>
+        <v>12363</v>
       </c>
       <c r="C753" t="s">
         <v>38</v>
@@ -63409,24 +63412,24 @@
         <v>45</v>
       </c>
       <c r="F753" t="s">
-        <v>390</v>
+        <v>47</v>
       </c>
       <c r="G753" t="s">
-        <v>284</v>
+        <v>47</v>
       </c>
       <c r="H753" t="s">
-        <v>284</v>
+        <v>47</v>
       </c>
       <c r="I753" t="s">
-        <v>284</v>
+        <v>47</v>
       </c>
     </row>
     <row r="754">
       <c r="B754" t="s">
-        <v>12361</v>
+        <v>12285</v>
       </c>
       <c r="C754" t="s">
-        <v>38</v>
+        <v>1594</v>
       </c>
       <c r="D754" t="s">
         <v>44</v>
@@ -63435,45 +63438,70 @@
         <v>45</v>
       </c>
       <c r="F754" t="s">
-        <v>50</v>
+        <v>1294</v>
       </c>
       <c r="G754" t="s">
-        <v>50</v>
+        <v>1294</v>
       </c>
       <c r="H754" t="s">
-        <v>50</v>
+        <v>1294</v>
       </c>
       <c r="I754" t="s">
-        <v>50</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="755">
       <c r="B755" t="s">
-        <v>12362</v>
+        <v>12101</v>
       </c>
       <c r="C755" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D755" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E755" t="s">
         <v>45</v>
       </c>
       <c r="F755" t="s">
-        <v>390</v>
+        <v>12102</v>
       </c>
       <c r="G755" t="s">
-        <v>284</v>
+        <v>12102</v>
       </c>
       <c r="H755" t="s">
-        <v>284</v>
+        <v>12102</v>
       </c>
       <c r="I755" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="756"/>
+        <v>12102</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="B756" t="s">
+        <v>12289</v>
+      </c>
+      <c r="C756" t="s">
+        <v>40</v>
+      </c>
+      <c r="D756" t="s">
+        <v>49</v>
+      </c>
+      <c r="E756" t="s">
+        <v>45</v>
+      </c>
+      <c r="F756" t="s">
+        <v>12294</v>
+      </c>
+      <c r="G756" t="s">
+        <v>12102</v>
+      </c>
+      <c r="H756" t="s">
+        <v>12102</v>
+      </c>
+      <c r="I756" t="s">
+        <v>12102</v>
+      </c>
+    </row>
     <row r="757"/>
     <row r="758"/>
     <row r="759"/>

--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6439188" uniqueCount="12364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6457780" uniqueCount="12374">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -41896,6 +41896,36 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId4165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4175</t>
   </si>
 </sst>
 </file>
@@ -63502,16 +63532,266 @@
         <v>12102</v>
       </c>
     </row>
-    <row r="757"/>
-    <row r="758"/>
-    <row r="759"/>
-    <row r="760"/>
-    <row r="761"/>
-    <row r="762"/>
-    <row r="763"/>
-    <row r="764"/>
-    <row r="765"/>
-    <row r="766"/>
+    <row r="757">
+      <c r="B757" t="s">
+        <v>12364</v>
+      </c>
+      <c r="C757" t="s">
+        <v>38</v>
+      </c>
+      <c r="D757" t="s">
+        <v>49</v>
+      </c>
+      <c r="E757" t="s">
+        <v>45</v>
+      </c>
+      <c r="F757" t="s">
+        <v>50</v>
+      </c>
+      <c r="G757" t="s">
+        <v>50</v>
+      </c>
+      <c r="H757" t="s">
+        <v>50</v>
+      </c>
+      <c r="I757" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="B758" t="s">
+        <v>12365</v>
+      </c>
+      <c r="C758" t="s">
+        <v>38</v>
+      </c>
+      <c r="D758" t="s">
+        <v>44</v>
+      </c>
+      <c r="E758" t="s">
+        <v>45</v>
+      </c>
+      <c r="F758" t="s">
+        <v>390</v>
+      </c>
+      <c r="G758" t="s">
+        <v>390</v>
+      </c>
+      <c r="H758" t="s">
+        <v>390</v>
+      </c>
+      <c r="I758" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="B759" t="s">
+        <v>12366</v>
+      </c>
+      <c r="C759" t="s">
+        <v>38</v>
+      </c>
+      <c r="D759" t="s">
+        <v>49</v>
+      </c>
+      <c r="E759" t="s">
+        <v>45</v>
+      </c>
+      <c r="F759" t="s">
+        <v>50</v>
+      </c>
+      <c r="G759" t="s">
+        <v>50</v>
+      </c>
+      <c r="H759" t="s">
+        <v>50</v>
+      </c>
+      <c r="I759" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="B760" t="s">
+        <v>12367</v>
+      </c>
+      <c r="C760" t="s">
+        <v>38</v>
+      </c>
+      <c r="D760" t="s">
+        <v>44</v>
+      </c>
+      <c r="E760" t="s">
+        <v>45</v>
+      </c>
+      <c r="F760" t="s">
+        <v>390</v>
+      </c>
+      <c r="G760" t="s">
+        <v>390</v>
+      </c>
+      <c r="H760" t="s">
+        <v>390</v>
+      </c>
+      <c r="I760" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="B761" t="s">
+        <v>12368</v>
+      </c>
+      <c r="C761" t="s">
+        <v>38</v>
+      </c>
+      <c r="D761" t="s">
+        <v>49</v>
+      </c>
+      <c r="E761" t="s">
+        <v>45</v>
+      </c>
+      <c r="F761" t="s">
+        <v>50</v>
+      </c>
+      <c r="G761" t="s">
+        <v>50</v>
+      </c>
+      <c r="H761" t="s">
+        <v>50</v>
+      </c>
+      <c r="I761" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="B762" t="s">
+        <v>12369</v>
+      </c>
+      <c r="C762" t="s">
+        <v>38</v>
+      </c>
+      <c r="D762" t="s">
+        <v>44</v>
+      </c>
+      <c r="E762" t="s">
+        <v>45</v>
+      </c>
+      <c r="F762" t="s">
+        <v>390</v>
+      </c>
+      <c r="G762" t="s">
+        <v>390</v>
+      </c>
+      <c r="H762" t="s">
+        <v>390</v>
+      </c>
+      <c r="I762" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="B763" t="s">
+        <v>12370</v>
+      </c>
+      <c r="C763" t="s">
+        <v>38</v>
+      </c>
+      <c r="D763" t="s">
+        <v>49</v>
+      </c>
+      <c r="E763" t="s">
+        <v>45</v>
+      </c>
+      <c r="F763" t="s">
+        <v>50</v>
+      </c>
+      <c r="G763" t="s">
+        <v>50</v>
+      </c>
+      <c r="H763" t="s">
+        <v>50</v>
+      </c>
+      <c r="I763" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="B764" t="s">
+        <v>12371</v>
+      </c>
+      <c r="C764" t="s">
+        <v>38</v>
+      </c>
+      <c r="D764" t="s">
+        <v>44</v>
+      </c>
+      <c r="E764" t="s">
+        <v>45</v>
+      </c>
+      <c r="F764" t="s">
+        <v>390</v>
+      </c>
+      <c r="G764" t="s">
+        <v>390</v>
+      </c>
+      <c r="H764" t="s">
+        <v>390</v>
+      </c>
+      <c r="I764" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="B765" t="s">
+        <v>12372</v>
+      </c>
+      <c r="C765" t="s">
+        <v>38</v>
+      </c>
+      <c r="D765" t="s">
+        <v>49</v>
+      </c>
+      <c r="E765" t="s">
+        <v>45</v>
+      </c>
+      <c r="F765" t="s">
+        <v>50</v>
+      </c>
+      <c r="G765" t="s">
+        <v>50</v>
+      </c>
+      <c r="H765" t="s">
+        <v>50</v>
+      </c>
+      <c r="I765" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="B766" t="s">
+        <v>12373</v>
+      </c>
+      <c r="C766" t="s">
+        <v>38</v>
+      </c>
+      <c r="D766" t="s">
+        <v>44</v>
+      </c>
+      <c r="E766" t="s">
+        <v>45</v>
+      </c>
+      <c r="F766" t="s">
+        <v>390</v>
+      </c>
+      <c r="G766" t="s">
+        <v>390</v>
+      </c>
+      <c r="H766" t="s">
+        <v>390</v>
+      </c>
+      <c r="I766" t="s">
+        <v>390</v>
+      </c>
+    </row>
     <row r="767"/>
     <row r="768"/>
     <row r="769"/>

--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6457780" uniqueCount="12374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6541504" uniqueCount="12381">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -41926,6 +41926,27 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId4175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo de receita em ZERO!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4181</t>
   </si>
 </sst>
 </file>
@@ -58840,7 +58861,7 @@
         <v>45</v>
       </c>
       <c r="F576" t="s">
-        <v>12065</v>
+        <v>12376</v>
       </c>
       <c r="G576" t="s">
         <v>12065</v>
@@ -61818,7 +61839,7 @@
     </row>
     <row r="691">
       <c r="B691" t="s">
-        <v>12299</v>
+        <v>12303</v>
       </c>
       <c r="C691" t="s">
         <v>38</v>
@@ -61844,7 +61865,7 @@
     </row>
     <row r="692">
       <c r="B692" t="s">
-        <v>12300</v>
+        <v>12304</v>
       </c>
       <c r="C692" t="s">
         <v>38</v>
@@ -61870,7 +61891,7 @@
     </row>
     <row r="693">
       <c r="B693" t="s">
-        <v>12303</v>
+        <v>12305</v>
       </c>
       <c r="C693" t="s">
         <v>38</v>
@@ -61896,7 +61917,7 @@
     </row>
     <row r="694">
       <c r="B694" t="s">
-        <v>12304</v>
+        <v>12306</v>
       </c>
       <c r="C694" t="s">
         <v>38</v>
@@ -61922,7 +61943,7 @@
     </row>
     <row r="695">
       <c r="B695" t="s">
-        <v>12305</v>
+        <v>12307</v>
       </c>
       <c r="C695" t="s">
         <v>38</v>
@@ -61948,7 +61969,7 @@
     </row>
     <row r="696">
       <c r="B696" t="s">
-        <v>12306</v>
+        <v>12308</v>
       </c>
       <c r="C696" t="s">
         <v>38</v>
@@ -61974,7 +61995,7 @@
     </row>
     <row r="697">
       <c r="B697" t="s">
-        <v>12307</v>
+        <v>12309</v>
       </c>
       <c r="C697" t="s">
         <v>38</v>
@@ -62000,7 +62021,7 @@
     </row>
     <row r="698">
       <c r="B698" t="s">
-        <v>12308</v>
+        <v>12310</v>
       </c>
       <c r="C698" t="s">
         <v>38</v>
@@ -62026,7 +62047,7 @@
     </row>
     <row r="699">
       <c r="B699" t="s">
-        <v>12309</v>
+        <v>12311</v>
       </c>
       <c r="C699" t="s">
         <v>38</v>
@@ -62052,7 +62073,7 @@
     </row>
     <row r="700">
       <c r="B700" t="s">
-        <v>12310</v>
+        <v>12312</v>
       </c>
       <c r="C700" t="s">
         <v>38</v>
@@ -62078,7 +62099,7 @@
     </row>
     <row r="701">
       <c r="B701" t="s">
-        <v>12311</v>
+        <v>12313</v>
       </c>
       <c r="C701" t="s">
         <v>38</v>
@@ -62104,7 +62125,7 @@
     </row>
     <row r="702">
       <c r="B702" t="s">
-        <v>12312</v>
+        <v>12314</v>
       </c>
       <c r="C702" t="s">
         <v>38</v>
@@ -62130,7 +62151,7 @@
     </row>
     <row r="703">
       <c r="B703" t="s">
-        <v>12313</v>
+        <v>12315</v>
       </c>
       <c r="C703" t="s">
         <v>38</v>
@@ -62156,7 +62177,7 @@
     </row>
     <row r="704">
       <c r="B704" t="s">
-        <v>12314</v>
+        <v>12316</v>
       </c>
       <c r="C704" t="s">
         <v>38</v>
@@ -62182,7 +62203,7 @@
     </row>
     <row r="705">
       <c r="B705" t="s">
-        <v>12315</v>
+        <v>12317</v>
       </c>
       <c r="C705" t="s">
         <v>38</v>
@@ -62208,7 +62229,7 @@
     </row>
     <row r="706">
       <c r="B706" t="s">
-        <v>12316</v>
+        <v>12318</v>
       </c>
       <c r="C706" t="s">
         <v>38</v>
@@ -62234,7 +62255,7 @@
     </row>
     <row r="707">
       <c r="B707" t="s">
-        <v>12317</v>
+        <v>12319</v>
       </c>
       <c r="C707" t="s">
         <v>38</v>
@@ -62260,7 +62281,7 @@
     </row>
     <row r="708">
       <c r="B708" t="s">
-        <v>12318</v>
+        <v>12320</v>
       </c>
       <c r="C708" t="s">
         <v>38</v>
@@ -62286,7 +62307,7 @@
     </row>
     <row r="709">
       <c r="B709" t="s">
-        <v>12319</v>
+        <v>12321</v>
       </c>
       <c r="C709" t="s">
         <v>38</v>
@@ -62312,7 +62333,7 @@
     </row>
     <row r="710">
       <c r="B710" t="s">
-        <v>12320</v>
+        <v>12322</v>
       </c>
       <c r="C710" t="s">
         <v>38</v>
@@ -62338,7 +62359,7 @@
     </row>
     <row r="711">
       <c r="B711" t="s">
-        <v>12321</v>
+        <v>12323</v>
       </c>
       <c r="C711" t="s">
         <v>38</v>
@@ -62364,7 +62385,7 @@
     </row>
     <row r="712">
       <c r="B712" t="s">
-        <v>12322</v>
+        <v>12324</v>
       </c>
       <c r="C712" t="s">
         <v>38</v>
@@ -62390,7 +62411,7 @@
     </row>
     <row r="713">
       <c r="B713" t="s">
-        <v>12323</v>
+        <v>12325</v>
       </c>
       <c r="C713" t="s">
         <v>38</v>
@@ -62416,7 +62437,7 @@
     </row>
     <row r="714">
       <c r="B714" t="s">
-        <v>12324</v>
+        <v>12326</v>
       </c>
       <c r="C714" t="s">
         <v>38</v>
@@ -62442,7 +62463,7 @@
     </row>
     <row r="715">
       <c r="B715" t="s">
-        <v>12325</v>
+        <v>12327</v>
       </c>
       <c r="C715" t="s">
         <v>38</v>
@@ -62468,7 +62489,7 @@
     </row>
     <row r="716">
       <c r="B716" t="s">
-        <v>12326</v>
+        <v>12328</v>
       </c>
       <c r="C716" t="s">
         <v>38</v>
@@ -62494,7 +62515,7 @@
     </row>
     <row r="717">
       <c r="B717" t="s">
-        <v>12327</v>
+        <v>12329</v>
       </c>
       <c r="C717" t="s">
         <v>38</v>
@@ -62520,7 +62541,7 @@
     </row>
     <row r="718">
       <c r="B718" t="s">
-        <v>12328</v>
+        <v>12330</v>
       </c>
       <c r="C718" t="s">
         <v>38</v>
@@ -62546,7 +62567,7 @@
     </row>
     <row r="719">
       <c r="B719" t="s">
-        <v>12329</v>
+        <v>12331</v>
       </c>
       <c r="C719" t="s">
         <v>38</v>
@@ -62572,7 +62593,7 @@
     </row>
     <row r="720">
       <c r="B720" t="s">
-        <v>12330</v>
+        <v>12332</v>
       </c>
       <c r="C720" t="s">
         <v>38</v>
@@ -62598,7 +62619,7 @@
     </row>
     <row r="721">
       <c r="B721" t="s">
-        <v>12331</v>
+        <v>12333</v>
       </c>
       <c r="C721" t="s">
         <v>38</v>
@@ -62624,7 +62645,7 @@
     </row>
     <row r="722">
       <c r="B722" t="s">
-        <v>12332</v>
+        <v>12334</v>
       </c>
       <c r="C722" t="s">
         <v>38</v>
@@ -62650,7 +62671,7 @@
     </row>
     <row r="723">
       <c r="B723" t="s">
-        <v>12333</v>
+        <v>12335</v>
       </c>
       <c r="C723" t="s">
         <v>38</v>
@@ -62676,7 +62697,7 @@
     </row>
     <row r="724">
       <c r="B724" t="s">
-        <v>12334</v>
+        <v>12336</v>
       </c>
       <c r="C724" t="s">
         <v>38</v>
@@ -62702,7 +62723,7 @@
     </row>
     <row r="725">
       <c r="B725" t="s">
-        <v>12335</v>
+        <v>12337</v>
       </c>
       <c r="C725" t="s">
         <v>38</v>
@@ -62728,7 +62749,7 @@
     </row>
     <row r="726">
       <c r="B726" t="s">
-        <v>12336</v>
+        <v>12338</v>
       </c>
       <c r="C726" t="s">
         <v>38</v>
@@ -62754,7 +62775,7 @@
     </row>
     <row r="727">
       <c r="B727" t="s">
-        <v>12337</v>
+        <v>12339</v>
       </c>
       <c r="C727" t="s">
         <v>38</v>
@@ -62780,7 +62801,7 @@
     </row>
     <row r="728">
       <c r="B728" t="s">
-        <v>12338</v>
+        <v>12340</v>
       </c>
       <c r="C728" t="s">
         <v>38</v>
@@ -62806,7 +62827,7 @@
     </row>
     <row r="729">
       <c r="B729" t="s">
-        <v>12339</v>
+        <v>12341</v>
       </c>
       <c r="C729" t="s">
         <v>38</v>
@@ -62832,7 +62853,7 @@
     </row>
     <row r="730">
       <c r="B730" t="s">
-        <v>12340</v>
+        <v>12342</v>
       </c>
       <c r="C730" t="s">
         <v>38</v>
@@ -62858,7 +62879,7 @@
     </row>
     <row r="731">
       <c r="B731" t="s">
-        <v>12341</v>
+        <v>12343</v>
       </c>
       <c r="C731" t="s">
         <v>38</v>
@@ -62884,7 +62905,7 @@
     </row>
     <row r="732">
       <c r="B732" t="s">
-        <v>12342</v>
+        <v>12344</v>
       </c>
       <c r="C732" t="s">
         <v>38</v>
@@ -62910,7 +62931,7 @@
     </row>
     <row r="733">
       <c r="B733" t="s">
-        <v>12343</v>
+        <v>12345</v>
       </c>
       <c r="C733" t="s">
         <v>38</v>
@@ -62936,7 +62957,7 @@
     </row>
     <row r="734">
       <c r="B734" t="s">
-        <v>12344</v>
+        <v>12346</v>
       </c>
       <c r="C734" t="s">
         <v>38</v>
@@ -62962,7 +62983,7 @@
     </row>
     <row r="735">
       <c r="B735" t="s">
-        <v>12345</v>
+        <v>12347</v>
       </c>
       <c r="C735" t="s">
         <v>38</v>
@@ -62988,7 +63009,7 @@
     </row>
     <row r="736">
       <c r="B736" t="s">
-        <v>12346</v>
+        <v>12348</v>
       </c>
       <c r="C736" t="s">
         <v>38</v>
@@ -63014,7 +63035,7 @@
     </row>
     <row r="737">
       <c r="B737" t="s">
-        <v>12347</v>
+        <v>12349</v>
       </c>
       <c r="C737" t="s">
         <v>38</v>
@@ -63040,7 +63061,7 @@
     </row>
     <row r="738">
       <c r="B738" t="s">
-        <v>12348</v>
+        <v>12350</v>
       </c>
       <c r="C738" t="s">
         <v>38</v>
@@ -63066,7 +63087,7 @@
     </row>
     <row r="739">
       <c r="B739" t="s">
-        <v>12349</v>
+        <v>12351</v>
       </c>
       <c r="C739" t="s">
         <v>38</v>
@@ -63092,7 +63113,7 @@
     </row>
     <row r="740">
       <c r="B740" t="s">
-        <v>12350</v>
+        <v>12352</v>
       </c>
       <c r="C740" t="s">
         <v>38</v>
@@ -63118,7 +63139,7 @@
     </row>
     <row r="741">
       <c r="B741" t="s">
-        <v>12351</v>
+        <v>12353</v>
       </c>
       <c r="C741" t="s">
         <v>38</v>
@@ -63144,7 +63165,7 @@
     </row>
     <row r="742">
       <c r="B742" t="s">
-        <v>12352</v>
+        <v>12354</v>
       </c>
       <c r="C742" t="s">
         <v>38</v>
@@ -63170,7 +63191,7 @@
     </row>
     <row r="743">
       <c r="B743" t="s">
-        <v>12353</v>
+        <v>12355</v>
       </c>
       <c r="C743" t="s">
         <v>38</v>
@@ -63196,7 +63217,7 @@
     </row>
     <row r="744">
       <c r="B744" t="s">
-        <v>12354</v>
+        <v>12356</v>
       </c>
       <c r="C744" t="s">
         <v>38</v>
@@ -63222,7 +63243,7 @@
     </row>
     <row r="745">
       <c r="B745" t="s">
-        <v>12355</v>
+        <v>12357</v>
       </c>
       <c r="C745" t="s">
         <v>38</v>
@@ -63248,7 +63269,7 @@
     </row>
     <row r="746">
       <c r="B746" t="s">
-        <v>12356</v>
+        <v>12358</v>
       </c>
       <c r="C746" t="s">
         <v>38</v>
@@ -63274,7 +63295,7 @@
     </row>
     <row r="747">
       <c r="B747" t="s">
-        <v>12357</v>
+        <v>12359</v>
       </c>
       <c r="C747" t="s">
         <v>38</v>
@@ -63300,7 +63321,7 @@
     </row>
     <row r="748">
       <c r="B748" t="s">
-        <v>12358</v>
+        <v>12360</v>
       </c>
       <c r="C748" t="s">
         <v>38</v>
@@ -63326,7 +63347,7 @@
     </row>
     <row r="749">
       <c r="B749" t="s">
-        <v>12359</v>
+        <v>12361</v>
       </c>
       <c r="C749" t="s">
         <v>38</v>
@@ -63352,7 +63373,7 @@
     </row>
     <row r="750">
       <c r="B750" t="s">
-        <v>12360</v>
+        <v>12362</v>
       </c>
       <c r="C750" t="s">
         <v>38</v>
@@ -63378,7 +63399,7 @@
     </row>
     <row r="751">
       <c r="B751" t="s">
-        <v>12361</v>
+        <v>12363</v>
       </c>
       <c r="C751" t="s">
         <v>38</v>
@@ -63390,24 +63411,24 @@
         <v>45</v>
       </c>
       <c r="F751" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G751" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H751" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I751" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="752">
       <c r="B752" t="s">
-        <v>12362</v>
+        <v>12285</v>
       </c>
       <c r="C752" t="s">
-        <v>38</v>
+        <v>1594</v>
       </c>
       <c r="D752" t="s">
         <v>44</v>
@@ -63416,131 +63437,131 @@
         <v>45</v>
       </c>
       <c r="F752" t="s">
-        <v>390</v>
+        <v>1294</v>
       </c>
       <c r="G752" t="s">
-        <v>284</v>
+        <v>1294</v>
       </c>
       <c r="H752" t="s">
-        <v>284</v>
+        <v>1294</v>
       </c>
       <c r="I752" t="s">
-        <v>284</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="753">
       <c r="B753" t="s">
-        <v>12363</v>
+        <v>12101</v>
       </c>
       <c r="C753" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D753" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E753" t="s">
         <v>45</v>
       </c>
       <c r="F753" t="s">
-        <v>47</v>
+        <v>12102</v>
       </c>
       <c r="G753" t="s">
-        <v>47</v>
+        <v>12102</v>
       </c>
       <c r="H753" t="s">
-        <v>47</v>
+        <v>12102</v>
       </c>
       <c r="I753" t="s">
-        <v>47</v>
+        <v>12102</v>
       </c>
     </row>
     <row r="754">
       <c r="B754" t="s">
-        <v>12285</v>
+        <v>12289</v>
       </c>
       <c r="C754" t="s">
-        <v>1594</v>
+        <v>40</v>
       </c>
       <c r="D754" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E754" t="s">
         <v>45</v>
       </c>
       <c r="F754" t="s">
-        <v>1294</v>
+        <v>12294</v>
       </c>
       <c r="G754" t="s">
-        <v>1294</v>
+        <v>12102</v>
       </c>
       <c r="H754" t="s">
-        <v>1294</v>
+        <v>12102</v>
       </c>
       <c r="I754" t="s">
-        <v>1294</v>
+        <v>12102</v>
       </c>
     </row>
     <row r="755">
       <c r="B755" t="s">
-        <v>12101</v>
+        <v>12364</v>
       </c>
       <c r="C755" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D755" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E755" t="s">
         <v>45</v>
       </c>
       <c r="F755" t="s">
-        <v>12102</v>
+        <v>50</v>
       </c>
       <c r="G755" t="s">
-        <v>12102</v>
+        <v>50</v>
       </c>
       <c r="H755" t="s">
-        <v>12102</v>
+        <v>50</v>
       </c>
       <c r="I755" t="s">
-        <v>12102</v>
+        <v>50</v>
       </c>
     </row>
     <row r="756">
       <c r="B756" t="s">
-        <v>12289</v>
+        <v>12365</v>
       </c>
       <c r="C756" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D756" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E756" t="s">
         <v>45</v>
       </c>
       <c r="F756" t="s">
-        <v>12294</v>
+        <v>390</v>
       </c>
       <c r="G756" t="s">
-        <v>12102</v>
+        <v>284</v>
       </c>
       <c r="H756" t="s">
-        <v>12102</v>
+        <v>284</v>
       </c>
       <c r="I756" t="s">
-        <v>12102</v>
+        <v>284</v>
       </c>
     </row>
     <row r="757">
       <c r="B757" t="s">
-        <v>12364</v>
+        <v>12366</v>
       </c>
       <c r="C757" t="s">
         <v>38</v>
       </c>
       <c r="D757" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E757" t="s">
         <v>45</v>
@@ -63560,7 +63581,7 @@
     </row>
     <row r="758">
       <c r="B758" t="s">
-        <v>12365</v>
+        <v>12367</v>
       </c>
       <c r="C758" t="s">
         <v>38</v>
@@ -63575,24 +63596,24 @@
         <v>390</v>
       </c>
       <c r="G758" t="s">
-        <v>390</v>
+        <v>284</v>
       </c>
       <c r="H758" t="s">
-        <v>390</v>
+        <v>284</v>
       </c>
       <c r="I758" t="s">
-        <v>390</v>
+        <v>284</v>
       </c>
     </row>
     <row r="759">
       <c r="B759" t="s">
-        <v>12366</v>
+        <v>12368</v>
       </c>
       <c r="C759" t="s">
         <v>38</v>
       </c>
       <c r="D759" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E759" t="s">
         <v>45</v>
@@ -63612,7 +63633,7 @@
     </row>
     <row r="760">
       <c r="B760" t="s">
-        <v>12367</v>
+        <v>12369</v>
       </c>
       <c r="C760" t="s">
         <v>38</v>
@@ -63627,24 +63648,24 @@
         <v>390</v>
       </c>
       <c r="G760" t="s">
-        <v>390</v>
+        <v>284</v>
       </c>
       <c r="H760" t="s">
-        <v>390</v>
+        <v>284</v>
       </c>
       <c r="I760" t="s">
-        <v>390</v>
+        <v>284</v>
       </c>
     </row>
     <row r="761">
       <c r="B761" t="s">
-        <v>12368</v>
+        <v>12370</v>
       </c>
       <c r="C761" t="s">
         <v>38</v>
       </c>
       <c r="D761" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E761" t="s">
         <v>45</v>
@@ -63664,7 +63685,7 @@
     </row>
     <row r="762">
       <c r="B762" t="s">
-        <v>12369</v>
+        <v>12371</v>
       </c>
       <c r="C762" t="s">
         <v>38</v>
@@ -63679,24 +63700,24 @@
         <v>390</v>
       </c>
       <c r="G762" t="s">
-        <v>390</v>
+        <v>284</v>
       </c>
       <c r="H762" t="s">
-        <v>390</v>
+        <v>284</v>
       </c>
       <c r="I762" t="s">
-        <v>390</v>
+        <v>284</v>
       </c>
     </row>
     <row r="763">
       <c r="B763" t="s">
-        <v>12370</v>
+        <v>12372</v>
       </c>
       <c r="C763" t="s">
         <v>38</v>
       </c>
       <c r="D763" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E763" t="s">
         <v>45</v>
@@ -63716,7 +63737,7 @@
     </row>
     <row r="764">
       <c r="B764" t="s">
-        <v>12371</v>
+        <v>12373</v>
       </c>
       <c r="C764" t="s">
         <v>38</v>
@@ -63731,24 +63752,24 @@
         <v>390</v>
       </c>
       <c r="G764" t="s">
-        <v>390</v>
+        <v>284</v>
       </c>
       <c r="H764" t="s">
-        <v>390</v>
+        <v>284</v>
       </c>
       <c r="I764" t="s">
-        <v>390</v>
+        <v>284</v>
       </c>
     </row>
     <row r="765">
       <c r="B765" t="s">
-        <v>12372</v>
+        <v>12374</v>
       </c>
       <c r="C765" t="s">
         <v>38</v>
       </c>
       <c r="D765" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E765" t="s">
         <v>45</v>
@@ -63768,7 +63789,7 @@
     </row>
     <row r="766">
       <c r="B766" t="s">
-        <v>12373</v>
+        <v>12375</v>
       </c>
       <c r="C766" t="s">
         <v>38</v>
@@ -63783,19 +63804,119 @@
         <v>390</v>
       </c>
       <c r="G766" t="s">
+        <v>284</v>
+      </c>
+      <c r="H766" t="s">
+        <v>284</v>
+      </c>
+      <c r="I766" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="B767" t="s">
+        <v>12377</v>
+      </c>
+      <c r="C767" t="s">
+        <v>38</v>
+      </c>
+      <c r="D767" t="s">
+        <v>44</v>
+      </c>
+      <c r="E767" t="s">
+        <v>45</v>
+      </c>
+      <c r="F767" t="s">
+        <v>50</v>
+      </c>
+      <c r="G767" t="s">
+        <v>50</v>
+      </c>
+      <c r="H767" t="s">
+        <v>50</v>
+      </c>
+      <c r="I767" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="B768" t="s">
+        <v>12378</v>
+      </c>
+      <c r="C768" t="s">
+        <v>38</v>
+      </c>
+      <c r="D768" t="s">
+        <v>44</v>
+      </c>
+      <c r="E768" t="s">
+        <v>45</v>
+      </c>
+      <c r="F768" t="s">
         <v>390</v>
       </c>
-      <c r="H766" t="s">
+      <c r="G768" t="s">
+        <v>284</v>
+      </c>
+      <c r="H768" t="s">
+        <v>284</v>
+      </c>
+      <c r="I768" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="B769" t="s">
+        <v>12379</v>
+      </c>
+      <c r="C769" t="s">
+        <v>38</v>
+      </c>
+      <c r="D769" t="s">
+        <v>44</v>
+      </c>
+      <c r="E769" t="s">
+        <v>45</v>
+      </c>
+      <c r="F769" t="s">
+        <v>50</v>
+      </c>
+      <c r="G769" t="s">
+        <v>50</v>
+      </c>
+      <c r="H769" t="s">
+        <v>50</v>
+      </c>
+      <c r="I769" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="B770" t="s">
+        <v>12380</v>
+      </c>
+      <c r="C770" t="s">
+        <v>38</v>
+      </c>
+      <c r="D770" t="s">
+        <v>44</v>
+      </c>
+      <c r="E770" t="s">
+        <v>45</v>
+      </c>
+      <c r="F770" t="s">
         <v>390</v>
       </c>
-      <c r="I766" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="767"/>
-    <row r="768"/>
-    <row r="769"/>
-    <row r="770"/>
+      <c r="G770" t="s">
+        <v>284</v>
+      </c>
+      <c r="H770" t="s">
+        <v>284</v>
+      </c>
+      <c r="I770" t="s">
+        <v>284</v>
+      </c>
+    </row>
     <row r="771"/>
     <row r="772"/>
     <row r="773"/>

--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6541504" uniqueCount="12381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6560264" uniqueCount="12382">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -41947,6 +41947,9 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId4181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIGENIZAÇÃO</t>
   </si>
 </sst>
 </file>
@@ -59719,7 +59722,7 @@
         <v>45</v>
       </c>
       <c r="F609" t="s">
-        <v>11458</v>
+        <v>12381</v>
       </c>
       <c r="G609" t="s">
         <v>11458</v>
@@ -59823,16 +59826,16 @@
         <v>45</v>
       </c>
       <c r="F613" t="s">
-        <v>11930</v>
+        <v>50</v>
       </c>
       <c r="G613" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H613" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I613" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="614">

--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6457780" uniqueCount="12374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6485848" uniqueCount="12376">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -41926,6 +41926,12 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId4175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4177</t>
   </si>
 </sst>
 </file>
@@ -63792,8 +63798,58 @@
         <v>390</v>
       </c>
     </row>
-    <row r="767"/>
-    <row r="768"/>
+    <row r="767">
+      <c r="B767" t="s">
+        <v>12374</v>
+      </c>
+      <c r="C767" t="s">
+        <v>38</v>
+      </c>
+      <c r="D767" t="s">
+        <v>44</v>
+      </c>
+      <c r="E767" t="s">
+        <v>45</v>
+      </c>
+      <c r="F767" t="s">
+        <v>50</v>
+      </c>
+      <c r="G767" t="s">
+        <v>50</v>
+      </c>
+      <c r="H767" t="s">
+        <v>50</v>
+      </c>
+      <c r="I767" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="B768" t="s">
+        <v>12375</v>
+      </c>
+      <c r="C768" t="s">
+        <v>38</v>
+      </c>
+      <c r="D768" t="s">
+        <v>44</v>
+      </c>
+      <c r="E768" t="s">
+        <v>45</v>
+      </c>
+      <c r="F768" t="s">
+        <v>50</v>
+      </c>
+      <c r="G768" t="s">
+        <v>50</v>
+      </c>
+      <c r="H768" t="s">
+        <v>50</v>
+      </c>
+      <c r="I768" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="769"/>
     <row r="770"/>
     <row r="771"/>

--- a/Px4/TouchGFX/assets/texts/texts.xlsx
+++ b/Px4/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6541504" uniqueCount="12381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6560252" uniqueCount="12381">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -63477,33 +63477,33 @@
     </row>
     <row r="754">
       <c r="B754" t="s">
-        <v>12289</v>
+        <v>12364</v>
       </c>
       <c r="C754" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D754" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E754" t="s">
         <v>45</v>
       </c>
       <c r="F754" t="s">
-        <v>12294</v>
+        <v>50</v>
       </c>
       <c r="G754" t="s">
-        <v>12102</v>
+        <v>50</v>
       </c>
       <c r="H754" t="s">
-        <v>12102</v>
+        <v>50</v>
       </c>
       <c r="I754" t="s">
-        <v>12102</v>
+        <v>50</v>
       </c>
     </row>
     <row r="755">
       <c r="B755" t="s">
-        <v>12364</v>
+        <v>12365</v>
       </c>
       <c r="C755" t="s">
         <v>38</v>
@@ -63515,21 +63515,21 @@
         <v>45</v>
       </c>
       <c r="F755" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G755" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H755" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I755" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="756">
       <c r="B756" t="s">
-        <v>12365</v>
+        <v>12366</v>
       </c>
       <c r="C756" t="s">
         <v>38</v>
@@ -63541,21 +63541,21 @@
         <v>45</v>
       </c>
       <c r="F756" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G756" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H756" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I756" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="757">
       <c r="B757" t="s">
-        <v>12366</v>
+        <v>12367</v>
       </c>
       <c r="C757" t="s">
         <v>38</v>
@@ -63567,21 +63567,21 @@
         <v>45</v>
       </c>
       <c r="F757" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G757" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H757" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I757" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="758">
       <c r="B758" t="s">
-        <v>12367</v>
+        <v>12368</v>
       </c>
       <c r="C758" t="s">
         <v>38</v>
@@ -63593,21 +63593,21 @@
         <v>45</v>
       </c>
       <c r="F758" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G758" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H758" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I758" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="759">
       <c r="B759" t="s">
-        <v>12368</v>
+        <v>12369</v>
       </c>
       <c r="C759" t="s">
         <v>38</v>
@@ -63619,21 +63619,21 @@
         <v>45</v>
       </c>
       <c r="F759" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G759" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H759" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I759" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="760">
       <c r="B760" t="s">
-        <v>12369</v>
+        <v>12370</v>
       </c>
       <c r="C760" t="s">
         <v>38</v>
@@ -63645,21 +63645,21 @@
         <v>45</v>
       </c>
       <c r="F760" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G760" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H760" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I760" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="761">
       <c r="B761" t="s">
-        <v>12370</v>
+        <v>12371</v>
       </c>
       <c r="C761" t="s">
         <v>38</v>
@@ -63671,21 +63671,21 @@
         <v>45</v>
       </c>
       <c r="F761" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G761" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H761" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I761" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="762">
       <c r="B762" t="s">
-        <v>12371</v>
+        <v>12372</v>
       </c>
       <c r="C762" t="s">
         <v>38</v>
@@ -63697,21 +63697,21 @@
         <v>45</v>
       </c>
       <c r="F762" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G762" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H762" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I762" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="763">
       <c r="B763" t="s">
-        <v>12372</v>
+        <v>12373</v>
       </c>
       <c r="C763" t="s">
         <v>38</v>
@@ -63723,21 +63723,21 @@
         <v>45</v>
       </c>
       <c r="F763" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G763" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H763" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I763" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="764">
       <c r="B764" t="s">
-        <v>12373</v>
+        <v>12374</v>
       </c>
       <c r="C764" t="s">
         <v>38</v>
@@ -63749,21 +63749,21 @@
         <v>45</v>
       </c>
       <c r="F764" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G764" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H764" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I764" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="765">
       <c r="B765" t="s">
-        <v>12374</v>
+        <v>12375</v>
       </c>
       <c r="C765" t="s">
         <v>38</v>
@@ -63775,21 +63775,21 @@
         <v>45</v>
       </c>
       <c r="F765" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G765" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H765" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I765" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="766">
       <c r="B766" t="s">
-        <v>12375</v>
+        <v>12377</v>
       </c>
       <c r="C766" t="s">
         <v>38</v>
@@ -63801,21 +63801,21 @@
         <v>45</v>
       </c>
       <c r="F766" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G766" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H766" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I766" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="767">
       <c r="B767" t="s">
-        <v>12377</v>
+        <v>12378</v>
       </c>
       <c r="C767" t="s">
         <v>38</v>
@@ -63827,21 +63827,21 @@
         <v>45</v>
       </c>
       <c r="F767" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G767" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H767" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I767" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="768">
       <c r="B768" t="s">
-        <v>12378</v>
+        <v>12379</v>
       </c>
       <c r="C768" t="s">
         <v>38</v>
@@ -63853,21 +63853,21 @@
         <v>45</v>
       </c>
       <c r="F768" t="s">
-        <v>390</v>
+        <v>50</v>
       </c>
       <c r="G768" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="H768" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I768" t="s">
-        <v>284</v>
+        <v>50</v>
       </c>
     </row>
     <row r="769">
       <c r="B769" t="s">
-        <v>12379</v>
+        <v>12380</v>
       </c>
       <c r="C769" t="s">
         <v>38</v>
@@ -63879,42 +63879,42 @@
         <v>45</v>
       </c>
       <c r="F769" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="G769" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="H769" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I769" t="s">
-        <v>50</v>
+        <v>284</v>
       </c>
     </row>
     <row r="770">
       <c r="B770" t="s">
-        <v>12380</v>
+        <v>12289</v>
       </c>
       <c r="C770" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D770" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E770" t="s">
         <v>45</v>
       </c>
       <c r="F770" t="s">
-        <v>390</v>
+        <v>12294</v>
       </c>
       <c r="G770" t="s">
-        <v>284</v>
+        <v>12102</v>
       </c>
       <c r="H770" t="s">
-        <v>284</v>
+        <v>12102</v>
       </c>
       <c r="I770" t="s">
-        <v>284</v>
+        <v>12102</v>
       </c>
     </row>
     <row r="771"/>
